--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D115D-8FDD-4FF2-A86D-43BB4C6DC718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C225A-8119-4FDD-A3BB-43E9F2372846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="510" windowWidth="25305" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <t>画面名</t>
   </si>
@@ -878,26 +878,6 @@
     <t>メソッド名</t>
     <rPh sb="4" eb="5">
       <t>ﾒｲ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認手順</t>
-    <rPh sb="0" eb="2">
-      <t>ｶｸﾆﾝ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ﾃｼﾞｭﾝ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期待結果</t>
-    <rPh sb="0" eb="2">
-      <t>ｷﾀｲ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｹｯｶ</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -993,9 +973,6 @@
     <t>業務機能名</t>
   </si>
   <si>
-    <t>基本給_マスタ機能</t>
-  </si>
-  <si>
     <t>画面名称</t>
   </si>
   <si>
@@ -1142,9 +1119,6 @@
     <t>personNumber</t>
   </si>
   <si>
-    <t>E00001</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1168,26 +1142,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>①「テストデータ」のNo.1でログイン
-②社員情報変更画面へ遷移</t>
-    <rPh sb="21" eb="23">
-      <t>ｼｬｲﾝ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ｼﾞｮｳﾎｳ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ﾍﾝｺｳ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ｶﾞﾒﾝ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ｾﾝｲ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>社員タイプマスタテーブル：m_eptypeのテストデートをここに準備する</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1206,39 +1160,6 @@
       <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>①画面が正常に表示できる
-②画面社員タイプ候補リストはテストデータの社員タイプと同じ
-③画面部門の候補リストはテストデータの部門データと同じ</t>
-    <rPh sb="1" eb="3">
-      <t>ｶﾞﾒﾝ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ｾｲｼﾞｮｳ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ﾋｮｳｼﾞ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ｶﾞﾒﾝ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ｼｬｲﾝ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ｺｳﾎ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ｵﾅ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ﾌﾞﾓﾝ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ﾌﾞﾓﾝ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更新_ユーザ名</t>
@@ -1389,26 +1310,193 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>①「テストデータ」のNo.1でログイン
+②社員情報変更画面へ遷移</t>
+  </si>
+  <si>
+    <t>①画面が正常に表示できる
+②画面社員タイプ候補リストはテストデータの社員タイプと同じ
+③画面部門の候補リストはテストデータの部門データと同じ</t>
+  </si>
+  <si>
+    <t>期待結果</t>
+  </si>
+  <si>
+    <t>確認手順</t>
+  </si>
+  <si>
+    <t>更新_ユーザ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②ユーザ名に12文字以内入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”社員情報を更新しました"メッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>更新_ユーザ生年月日</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>異常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②生年月日に未選択
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”生年月日を入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②生年月日に選択
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”社員情報を更新しました”メッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>更新＿ユーザ郵便番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に未入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”郵便番号を入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に　(-)入り、半角７桁
+　数字に入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”郵便番号形式で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に(-)無し、半角7桁
+数字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>更新＿ユーザ住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所に未入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”住所を入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所に入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>epTypeID</t>
+  </si>
+  <si>
+    <t>epTypeName</t>
+  </si>
+  <si>
+    <t>契約社員</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>departmentID</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>管理部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「社員タイプ」項目のプルーダウンに社員タイプIDのリストが表示される。
+②社員タイプ選択
+</t>
+  </si>
+  <si>
+    <t>EmployeeEditService
+Implのpri
+vatemkEmployeeType</t>
+  </si>
+  <si>
+    <t>①画面が正常に表示できる
+②選択された所属部門が表示される</t>
+  </si>
+  <si>
+    <t>①画面が正常に表示できる
+②選択された社員タイプが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「所属部門」項目のプルーダウンに部門IDのリストが表示される。
+②所属部門選択
+</t>
+  </si>
+  <si>
+    <t>EmployeeEditService
+Implのpri
+vatemkDepartment</t>
+  </si>
+  <si>
+    <t>社員タイプリスト</t>
+  </si>
+  <si>
+    <t>所属部門選択リスト</t>
+  </si>
+  <si>
+    <t>社員情報更新</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
   <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1425,7 +1513,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1451,14 +1539,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1917,7 +2005,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1930,7 +2018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2078,6 +2166,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2132,6 +2246,144 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2180,158 +2432,20 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2360,16 +2474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>86962</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>105765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>106012</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>96240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2384,8 +2498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="6315075"/>
-          <a:ext cx="2124075" cy="704850"/>
+          <a:off x="4130510" y="10953874"/>
+          <a:ext cx="1948790" cy="542678"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2629,8 +2743,8 @@
       <sheetName val="CODE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -2665,10 +2779,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2684,10 +2798,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2980,7 +3094,7 @@
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
@@ -3063,7 +3177,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="3" customFormat="1">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3081,25 +3195,25 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="30">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="21.05">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3119,7 +3233,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="3" customFormat="1">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3137,65 +3251,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="3" customFormat="1">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="3" customFormat="1">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="61"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="3" customFormat="1">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="3" customFormat="1">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3213,65 +3327,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="13.1">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="3" customFormat="1">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="3" customFormat="1">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="3" customFormat="1">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3289,7 +3403,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3472,7 +3586,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3482,17 +3596,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
@@ -3613,35 +3727,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF22"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX15" sqref="AX15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9:BF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="2.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
-    <col min="45" max="51" width="2.125" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
-    <col min="57" max="59" width="2.125" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
+    <col min="2" max="3" width="2.08203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.08203125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.08203125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.08203125" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.08203125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.08203125" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.08203125" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.08203125" style="27" customWidth="1"/>
+    <col min="45" max="50" width="2.08203125" style="26" customWidth="1"/>
+    <col min="51" max="51" width="3.83203125" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.08203125" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.08203125" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.08203125" style="28" customWidth="1"/>
+    <col min="57" max="57" width="2.08203125" style="26" customWidth="1"/>
+    <col min="58" max="58" width="4.33203125" style="26" customWidth="1"/>
+    <col min="59" max="59" width="2.08203125" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.08203125" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.08203125" style="26" customWidth="1"/>
     <col min="98" max="16384" width="8.25" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -3712,39 +3830,39 @@
       <c r="BP1" s="44"/>
       <c r="BQ1" s="46"/>
     </row>
-    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
+    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
+      <c r="A2" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
       <c r="AU2" s="48"/>
       <c r="AV2" s="48"/>
       <c r="AW2" s="48"/>
@@ -3769,37 +3887,37 @@
       <c r="BP2" s="49"/>
       <c r="BQ2" s="46"/>
     </row>
-    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
+    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="48"/>
@@ -3824,246 +3942,246 @@
       <c r="BP3" s="48"/>
       <c r="BQ3" s="50"/>
     </row>
-    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
+      <c r="A4" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="73" t="s">
+      <c r="K4" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="76">
-        <v>44676</v>
-      </c>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="73" t="s">
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="132">
+        <v>45034</v>
+      </c>
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
+      <c r="BM4" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="52"/>
+    </row>
+    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A5" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="52"/>
-    </row>
-    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="78" t="s">
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="86" t="s">
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="140"/>
+      <c r="AT5" s="140"/>
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="144"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="143"/>
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK5" s="143"/>
+      <c r="BL5" s="144"/>
+      <c r="BM5" s="143"/>
+      <c r="BN5" s="140"/>
+      <c r="BO5" s="140"/>
+      <c r="BP5" s="140"/>
       <c r="BQ5" s="54"/>
     </row>
-    <row r="6" spans="1:84" ht="19.5" thickTop="1">
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
+    <row r="6" spans="1:84" ht="15" thickTop="1">
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
       <c r="AF6" s="26"/>
       <c r="AK6" s="29"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="127"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="127"/>
-      <c r="BQ6" s="127"/>
+      <c r="BL6" s="99"/>
+      <c r="BM6" s="100"/>
+      <c r="BN6" s="100"/>
+      <c r="BO6" s="99"/>
+      <c r="BP6" s="100"/>
+      <c r="BQ6" s="100"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="89" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="114"/>
-      <c r="AK7" s="115" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="117"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="94"/>
       <c r="AN7" s="106" t="s">
         <v>29</v>
       </c>
@@ -4071,149 +4189,149 @@
       <c r="AP7" s="107"/>
       <c r="AQ7" s="108"/>
       <c r="AR7" s="109"/>
-      <c r="AS7" s="115" t="s">
+      <c r="AS7" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT7" s="101"/>
+      <c r="AU7" s="101"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="101"/>
+      <c r="AX7" s="101"/>
+      <c r="AY7" s="101"/>
+      <c r="AZ7" s="101"/>
+      <c r="BA7" s="101"/>
+      <c r="BB7" s="101"/>
+      <c r="BC7" s="101"/>
+      <c r="BD7" s="101"/>
+      <c r="BE7" s="101"/>
+      <c r="BF7" s="102"/>
+      <c r="BG7" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH7" s="101"/>
+      <c r="BI7" s="101"/>
+      <c r="BJ7" s="101"/>
+      <c r="BK7" s="101"/>
+      <c r="BL7" s="101"/>
+      <c r="BM7" s="101"/>
+      <c r="BN7" s="101"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="101"/>
+      <c r="BQ7" s="101"/>
+      <c r="BR7" s="101"/>
+      <c r="BS7" s="101"/>
+      <c r="BT7" s="101"/>
+      <c r="BU7" s="102"/>
+      <c r="BV7" s="106" t="s">
         <v>30</v>
-      </c>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="121"/>
-      <c r="BD7" s="121"/>
-      <c r="BE7" s="121"/>
-      <c r="BF7" s="122"/>
-      <c r="BG7" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH7" s="121"/>
-      <c r="BI7" s="121"/>
-      <c r="BJ7" s="121"/>
-      <c r="BK7" s="121"/>
-      <c r="BL7" s="121"/>
-      <c r="BM7" s="121"/>
-      <c r="BN7" s="121"/>
-      <c r="BO7" s="121"/>
-      <c r="BP7" s="121"/>
-      <c r="BQ7" s="121"/>
-      <c r="BR7" s="121"/>
-      <c r="BS7" s="121"/>
-      <c r="BT7" s="121"/>
-      <c r="BU7" s="122"/>
-      <c r="BV7" s="106" t="s">
-        <v>32</v>
       </c>
       <c r="BW7" s="107"/>
       <c r="BX7" s="108"/>
       <c r="BY7" s="109"/>
       <c r="BZ7" s="106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CA7" s="108"/>
       <c r="CB7" s="109"/>
       <c r="CC7" s="106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CD7" s="107"/>
       <c r="CE7" s="108"/>
       <c r="CF7" s="109"/>
     </row>
-    <row r="8" spans="1:84">
-      <c r="A8" s="118"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="89" t="s">
+    <row r="8" spans="1:84" ht="15.9" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="89" t="s">
+      <c r="Q8" s="85"/>
+      <c r="R8" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="90"/>
-      <c r="T8" s="89" t="s">
+      <c r="S8" s="85"/>
+      <c r="T8" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="89" t="s">
+      <c r="U8" s="85"/>
+      <c r="V8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="90"/>
-      <c r="X8" s="89" t="s">
+      <c r="W8" s="85"/>
+      <c r="X8" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="89" t="s">
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="89" t="s">
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="89" t="s">
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="90"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="85"/>
       <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="31"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="120"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="96"/>
       <c r="AN8" s="110"/>
       <c r="AO8" s="111"/>
       <c r="AP8" s="111"/>
       <c r="AQ8" s="111"/>
       <c r="AR8" s="112"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
-      <c r="BC8" s="124"/>
-      <c r="BD8" s="124"/>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="125"/>
-      <c r="BG8" s="123"/>
-      <c r="BH8" s="124"/>
-      <c r="BI8" s="124"/>
-      <c r="BJ8" s="124"/>
-      <c r="BK8" s="124"/>
-      <c r="BL8" s="124"/>
-      <c r="BM8" s="124"/>
-      <c r="BN8" s="124"/>
-      <c r="BO8" s="124"/>
-      <c r="BP8" s="124"/>
-      <c r="BQ8" s="124"/>
-      <c r="BR8" s="124"/>
-      <c r="BS8" s="124"/>
-      <c r="BT8" s="124"/>
-      <c r="BU8" s="125"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="103"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="104"/>
+      <c r="BQ8" s="104"/>
+      <c r="BR8" s="104"/>
+      <c r="BS8" s="104"/>
+      <c r="BT8" s="104"/>
+      <c r="BU8" s="105"/>
       <c r="BV8" s="110"/>
       <c r="BW8" s="111"/>
       <c r="BX8" s="111"/>
@@ -4226,13 +4344,13 @@
       <c r="CE8" s="111"/>
       <c r="CF8" s="112"/>
     </row>
-    <row r="9" spans="1:84" ht="96" customHeight="1">
+    <row r="9" spans="1:84" ht="95.85" customHeight="1">
       <c r="A9" s="41">
         <v>1</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="31"/>
@@ -4246,78 +4364,78 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="90"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="90"/>
+      <c r="P9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="85"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="85"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="31"/>
       <c r="AJ9" s="32"/>
-      <c r="AK9" s="41" t="s">
-        <v>42</v>
+      <c r="AK9" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="32"/>
-      <c r="AN9" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO9" s="129"/>
-      <c r="AP9" s="129"/>
-      <c r="AQ9" s="129"/>
-      <c r="AR9" s="130"/>
-      <c r="AS9" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
-      <c r="AX9" s="138"/>
-      <c r="AY9" s="138"/>
-      <c r="AZ9" s="138"/>
-      <c r="BA9" s="138"/>
-      <c r="BB9" s="138"/>
-      <c r="BC9" s="138"/>
-      <c r="BD9" s="138"/>
-      <c r="BE9" s="138"/>
-      <c r="BF9" s="139"/>
-      <c r="BG9" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH9" s="136"/>
-      <c r="BI9" s="136"/>
-      <c r="BJ9" s="136"/>
-      <c r="BK9" s="136"/>
-      <c r="BL9" s="136"/>
-      <c r="BM9" s="136"/>
-      <c r="BN9" s="136"/>
-      <c r="BO9" s="136"/>
-      <c r="BP9" s="136"/>
-      <c r="BQ9" s="136"/>
-      <c r="BR9" s="136"/>
-      <c r="BS9" s="136"/>
-      <c r="BT9" s="136"/>
-      <c r="BU9" s="137"/>
+      <c r="AN9" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH9" s="113"/>
+      <c r="BI9" s="113"/>
+      <c r="BJ9" s="113"/>
+      <c r="BK9" s="113"/>
+      <c r="BL9" s="113"/>
+      <c r="BM9" s="113"/>
+      <c r="BN9" s="113"/>
+      <c r="BO9" s="113"/>
+      <c r="BP9" s="113"/>
+      <c r="BQ9" s="113"/>
+      <c r="BR9" s="113"/>
+      <c r="BS9" s="113"/>
+      <c r="BT9" s="113"/>
+      <c r="BU9" s="114"/>
       <c r="BV9" s="41"/>
       <c r="BW9" s="31"/>
       <c r="BX9" s="31"/>
@@ -4330,13 +4448,13 @@
       <c r="CE9" s="31"/>
       <c r="CF9" s="32"/>
     </row>
-    <row r="10" spans="1:84" ht="77.25" customHeight="1">
+    <row r="10" spans="1:84" ht="77.3" customHeight="1">
       <c r="A10" s="41">
         <v>2</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="31"/>
@@ -4350,78 +4468,72 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="U10" s="90"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="90"/>
+      <c r="P10" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="85"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="85"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="31"/>
       <c r="AJ10" s="32"/>
-      <c r="AK10" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
-      <c r="AQ10" s="129"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT10" s="138"/>
-      <c r="AU10" s="138"/>
-      <c r="AV10" s="138"/>
-      <c r="AW10" s="138"/>
-      <c r="AX10" s="138"/>
-      <c r="AY10" s="138"/>
-      <c r="AZ10" s="138"/>
-      <c r="BA10" s="138"/>
-      <c r="BB10" s="138"/>
-      <c r="BC10" s="138"/>
-      <c r="BD10" s="138"/>
-      <c r="BE10" s="138"/>
-      <c r="BF10" s="139"/>
-      <c r="BG10" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH10" s="138"/>
-      <c r="BI10" s="138"/>
-      <c r="BJ10" s="138"/>
-      <c r="BK10" s="138"/>
-      <c r="BL10" s="138"/>
-      <c r="BM10" s="138"/>
-      <c r="BN10" s="138"/>
-      <c r="BO10" s="138"/>
-      <c r="BP10" s="138"/>
-      <c r="BQ10" s="138"/>
-      <c r="BR10" s="138"/>
-      <c r="BS10" s="138"/>
-      <c r="BT10" s="138"/>
-      <c r="BU10" s="139"/>
+      <c r="AK10" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="91"/>
+      <c r="BT10" s="91"/>
+      <c r="BU10" s="92"/>
       <c r="BV10" s="41"/>
       <c r="BW10" s="31"/>
       <c r="BX10" s="31"/>
@@ -4434,13 +4546,13 @@
       <c r="CE10" s="31"/>
       <c r="CF10" s="32"/>
     </row>
-    <row r="11" spans="1:84" ht="86.25" customHeight="1">
+    <row r="11" spans="1:84" ht="86.3" customHeight="1">
       <c r="A11" s="41">
         <v>3</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="31"/>
@@ -4454,78 +4566,78 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" s="90"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="90"/>
+      <c r="P11" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="85"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="85"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="32"/>
-      <c r="AK11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="129"/>
-      <c r="AQ11" s="129"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT11" s="138"/>
-      <c r="AU11" s="138"/>
-      <c r="AV11" s="138"/>
-      <c r="AW11" s="138"/>
-      <c r="AX11" s="138"/>
-      <c r="AY11" s="138"/>
-      <c r="AZ11" s="138"/>
-      <c r="BA11" s="138"/>
-      <c r="BB11" s="138"/>
-      <c r="BC11" s="138"/>
-      <c r="BD11" s="138"/>
-      <c r="BE11" s="138"/>
-      <c r="BF11" s="139"/>
-      <c r="BG11" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH11" s="138"/>
-      <c r="BI11" s="138"/>
-      <c r="BJ11" s="138"/>
-      <c r="BK11" s="138"/>
-      <c r="BL11" s="138"/>
-      <c r="BM11" s="138"/>
-      <c r="BN11" s="138"/>
-      <c r="BO11" s="138"/>
-      <c r="BP11" s="138"/>
-      <c r="BQ11" s="138"/>
-      <c r="BR11" s="138"/>
-      <c r="BS11" s="138"/>
-      <c r="BT11" s="138"/>
-      <c r="BU11" s="139"/>
+      <c r="AK11" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91"/>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="91"/>
+      <c r="BP11" s="91"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="91"/>
+      <c r="BS11" s="91"/>
+      <c r="BT11" s="91"/>
+      <c r="BU11" s="92"/>
       <c r="BV11" s="41"/>
       <c r="BW11" s="31"/>
       <c r="BX11" s="31"/>
@@ -4544,7 +4656,7 @@
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="31"/>
@@ -4558,80 +4670,80 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" s="90"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="114"/>
-      <c r="AN12" s="128" t="s">
+      <c r="P12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="85"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="AO12" s="129"/>
-      <c r="AP12" s="129"/>
-      <c r="AQ12" s="129"/>
-      <c r="AR12" s="130"/>
-      <c r="AS12" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT12" s="138"/>
-      <c r="AU12" s="138"/>
-      <c r="AV12" s="138"/>
-      <c r="AW12" s="138"/>
-      <c r="AX12" s="138"/>
-      <c r="AY12" s="138"/>
-      <c r="AZ12" s="138"/>
-      <c r="BA12" s="138"/>
-      <c r="BB12" s="138"/>
-      <c r="BC12" s="138"/>
-      <c r="BD12" s="138"/>
-      <c r="BE12" s="138"/>
-      <c r="BF12" s="139"/>
-      <c r="BG12" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH12" s="138"/>
-      <c r="BI12" s="138"/>
-      <c r="BJ12" s="138"/>
-      <c r="BK12" s="138"/>
-      <c r="BL12" s="138"/>
-      <c r="BM12" s="138"/>
-      <c r="BN12" s="138"/>
-      <c r="BO12" s="138"/>
-      <c r="BP12" s="138"/>
-      <c r="BQ12" s="138"/>
-      <c r="BR12" s="138"/>
-      <c r="BS12" s="138"/>
-      <c r="BT12" s="138"/>
-      <c r="BU12" s="139"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="92"/>
+      <c r="BG12" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="91"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="91"/>
+      <c r="BN12" s="91"/>
+      <c r="BO12" s="91"/>
+      <c r="BP12" s="91"/>
+      <c r="BQ12" s="91"/>
+      <c r="BR12" s="91"/>
+      <c r="BS12" s="91"/>
+      <c r="BT12" s="91"/>
+      <c r="BU12" s="92"/>
       <c r="BV12" s="41"/>
       <c r="BW12" s="31"/>
       <c r="BX12" s="31"/>
@@ -4644,10 +4756,14 @@
       <c r="CE12" s="31"/>
       <c r="CF12" s="32"/>
     </row>
-    <row r="13" spans="1:84">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
+      <c r="A13" s="41">
+        <v>5</v>
+      </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="41"/>
+      <c r="C13" s="41" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="42"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -4660,64 +4776,76 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="90"/>
+      <c r="P13" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="85"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="85"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="32"/>
-      <c r="AK13" s="41"/>
+      <c r="AK13" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL13" s="31"/>
       <c r="AM13" s="32"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="42"/>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="31"/>
-      <c r="BN13" s="31"/>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="31"/>
-      <c r="BT13" s="31"/>
-      <c r="BU13" s="32"/>
+      <c r="AN13" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="91"/>
+      <c r="BU13" s="92"/>
       <c r="BV13" s="41"/>
       <c r="BW13" s="31"/>
       <c r="BX13" s="31"/>
@@ -4730,10 +4858,14 @@
       <c r="CE13" s="31"/>
       <c r="CF13" s="32"/>
     </row>
-    <row r="14" spans="1:84">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:84" ht="79.5" customHeight="1">
+      <c r="A14" s="41">
+        <v>6</v>
+      </c>
       <c r="B14" s="32"/>
-      <c r="C14" s="41"/>
+      <c r="C14" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="D14" s="42"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -4746,64 +4878,78 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="90"/>
+      <c r="P14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="85"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="85"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="32"/>
-      <c r="AK14" s="41"/>
+      <c r="AK14" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AL14" s="31"/>
       <c r="AM14" s="32"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="32"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="31"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="31"/>
-      <c r="BQ14" s="31"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="31"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="32"/>
+      <c r="AN14" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="91"/>
+      <c r="BN14" s="91"/>
+      <c r="BO14" s="91"/>
+      <c r="BP14" s="91"/>
+      <c r="BQ14" s="91"/>
+      <c r="BR14" s="91"/>
+      <c r="BS14" s="91"/>
+      <c r="BT14" s="91"/>
+      <c r="BU14" s="92"/>
       <c r="BV14" s="41"/>
       <c r="BW14" s="31"/>
       <c r="BX14" s="31"/>
@@ -4816,10 +4962,14 @@
       <c r="CE14" s="31"/>
       <c r="CF14" s="32"/>
     </row>
-    <row r="15" spans="1:84">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:84" ht="64.55" customHeight="1">
+      <c r="A15" s="41">
+        <v>7</v>
+      </c>
       <c r="B15" s="32"/>
-      <c r="C15" s="41"/>
+      <c r="C15" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="D15" s="42"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -4832,64 +4982,76 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="90"/>
+      <c r="P15" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="85"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="85"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="32"/>
-      <c r="AK15" s="41"/>
+      <c r="AK15" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL15" s="31"/>
       <c r="AM15" s="32"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="42"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="42"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="31"/>
-      <c r="BN15" s="31"/>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="31"/>
-      <c r="BQ15" s="31"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="32"/>
+      <c r="AN15" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="91"/>
+      <c r="BP15" s="91"/>
+      <c r="BQ15" s="91"/>
+      <c r="BR15" s="91"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="91"/>
+      <c r="BU15" s="92"/>
       <c r="BV15" s="41"/>
       <c r="BW15" s="31"/>
       <c r="BX15" s="31"/>
@@ -4902,10 +5064,14 @@
       <c r="CE15" s="31"/>
       <c r="CF15" s="32"/>
     </row>
-    <row r="16" spans="1:84">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:84" ht="63.6" customHeight="1">
+      <c r="A16" s="41">
+        <v>8</v>
+      </c>
       <c r="B16" s="32"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D16" s="42"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -4918,64 +5084,78 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="90"/>
+      <c r="P16" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="85"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="85"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="32"/>
-      <c r="AK16" s="41"/>
+      <c r="AK16" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AL16" s="31"/>
       <c r="AM16" s="32"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="32"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="42"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="31"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="31"/>
-      <c r="BQ16" s="31"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="31"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="32"/>
+      <c r="AN16" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
+      <c r="BJ16" s="91"/>
+      <c r="BK16" s="91"/>
+      <c r="BL16" s="91"/>
+      <c r="BM16" s="91"/>
+      <c r="BN16" s="91"/>
+      <c r="BO16" s="91"/>
+      <c r="BP16" s="91"/>
+      <c r="BQ16" s="91"/>
+      <c r="BR16" s="91"/>
+      <c r="BS16" s="91"/>
+      <c r="BT16" s="91"/>
+      <c r="BU16" s="92"/>
       <c r="BV16" s="41"/>
       <c r="BW16" s="31"/>
       <c r="BX16" s="31"/>
@@ -4988,10 +5168,14 @@
       <c r="CE16" s="31"/>
       <c r="CF16" s="32"/>
     </row>
-    <row r="17" spans="1:84">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:84" ht="97.25" customHeight="1">
+      <c r="A17" s="41">
+        <v>9</v>
+      </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D17" s="42"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -5004,64 +5188,78 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="90"/>
+      <c r="P17" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="85"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="85"/>
       <c r="AH17" s="30"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="32"/>
-      <c r="AK17" s="41"/>
+      <c r="AK17" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AL17" s="31"/>
       <c r="AM17" s="32"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="32"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="42"/>
-      <c r="BI17" s="42"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="31"/>
-      <c r="BM17" s="31"/>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="31"/>
-      <c r="BP17" s="31"/>
-      <c r="BQ17" s="31"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="31"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="32"/>
+      <c r="AN17" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="148"/>
+      <c r="AV17" s="148"/>
+      <c r="AW17" s="148"/>
+      <c r="AX17" s="148"/>
+      <c r="AY17" s="148"/>
+      <c r="AZ17" s="148"/>
+      <c r="BA17" s="148"/>
+      <c r="BB17" s="148"/>
+      <c r="BC17" s="148"/>
+      <c r="BD17" s="148"/>
+      <c r="BE17" s="148"/>
+      <c r="BF17" s="149"/>
+      <c r="BG17" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="91"/>
+      <c r="BN17" s="91"/>
+      <c r="BO17" s="91"/>
+      <c r="BP17" s="91"/>
+      <c r="BQ17" s="91"/>
+      <c r="BR17" s="91"/>
+      <c r="BS17" s="91"/>
+      <c r="BT17" s="91"/>
+      <c r="BU17" s="92"/>
       <c r="BV17" s="41"/>
       <c r="BW17" s="31"/>
       <c r="BX17" s="31"/>
@@ -5074,10 +5272,14 @@
       <c r="CE17" s="31"/>
       <c r="CF17" s="32"/>
     </row>
-    <row r="18" spans="1:84">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:84" ht="83.25" customHeight="1">
+      <c r="A18" s="41">
+        <v>10</v>
+      </c>
       <c r="B18" s="32"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -5090,64 +5292,76 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="90"/>
+      <c r="P18" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="85"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="85"/>
       <c r="AH18" s="30"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="32"/>
-      <c r="AK18" s="41"/>
+      <c r="AK18" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL18" s="31"/>
       <c r="AM18" s="32"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="42"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="32"/>
+      <c r="AN18" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
+      <c r="BN18" s="91"/>
+      <c r="BO18" s="91"/>
+      <c r="BP18" s="91"/>
+      <c r="BQ18" s="91"/>
+      <c r="BR18" s="91"/>
+      <c r="BS18" s="91"/>
+      <c r="BT18" s="91"/>
+      <c r="BU18" s="92"/>
       <c r="BV18" s="41"/>
       <c r="BW18" s="31"/>
       <c r="BX18" s="31"/>
@@ -5160,10 +5374,14 @@
       <c r="CE18" s="31"/>
       <c r="CF18" s="32"/>
     </row>
-    <row r="19" spans="1:84">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:84" ht="63.6" customHeight="1">
+      <c r="A19" s="41">
+        <v>11</v>
+      </c>
       <c r="B19" s="32"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -5176,64 +5394,78 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="90"/>
+      <c r="P19" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" s="85"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="85"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="32"/>
-      <c r="AK19" s="41"/>
+      <c r="AK19" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="AL19" s="31"/>
       <c r="AM19" s="32"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="32"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="32"/>
+      <c r="AN19" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="91"/>
+      <c r="BO19" s="91"/>
+      <c r="BP19" s="91"/>
+      <c r="BQ19" s="91"/>
+      <c r="BR19" s="91"/>
+      <c r="BS19" s="91"/>
+      <c r="BT19" s="91"/>
+      <c r="BU19" s="92"/>
       <c r="BV19" s="41"/>
       <c r="BW19" s="31"/>
       <c r="BX19" s="31"/>
@@ -5246,10 +5478,14 @@
       <c r="CE19" s="31"/>
       <c r="CF19" s="32"/>
     </row>
-    <row r="20" spans="1:84">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:84" ht="63.6" customHeight="1">
+      <c r="A20" s="41">
+        <v>12</v>
+      </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -5262,64 +5498,76 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="90"/>
+      <c r="P20" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="85"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="85"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="32"/>
-      <c r="AK20" s="41"/>
+      <c r="AK20" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL20" s="31"/>
       <c r="AM20" s="32"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="41"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="31"/>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="31"/>
-      <c r="BQ20" s="31"/>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="31"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="32"/>
+      <c r="AN20" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="91"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH20" s="91"/>
+      <c r="BI20" s="91"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="91"/>
+      <c r="BL20" s="91"/>
+      <c r="BM20" s="91"/>
+      <c r="BN20" s="91"/>
+      <c r="BO20" s="91"/>
+      <c r="BP20" s="91"/>
+      <c r="BQ20" s="91"/>
+      <c r="BR20" s="91"/>
+      <c r="BS20" s="91"/>
+      <c r="BT20" s="91"/>
+      <c r="BU20" s="92"/>
       <c r="BV20" s="41"/>
       <c r="BW20" s="31"/>
       <c r="BX20" s="31"/>
@@ -5332,10 +5580,14 @@
       <c r="CE20" s="31"/>
       <c r="CF20" s="32"/>
     </row>
-    <row r="21" spans="1:84">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:84" ht="76.25" customHeight="1">
+      <c r="A21" s="41">
+        <v>13</v>
+      </c>
       <c r="B21" s="32"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="D21" s="42"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -5348,64 +5600,78 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="90"/>
+      <c r="P21" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="85"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="85"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="32"/>
-      <c r="AK21" s="41"/>
+      <c r="AK21" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL21" s="31"/>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="41"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="42"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="42"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="31"/>
-      <c r="BQ21" s="31"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="31"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="32"/>
+      <c r="AN21" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO21" s="145"/>
+      <c r="AP21" s="145"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="146"/>
+      <c r="AS21" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="92"/>
+      <c r="BG21" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="114"/>
       <c r="BV21" s="41"/>
       <c r="BW21" s="31"/>
       <c r="BX21" s="31"/>
@@ -5418,10 +5684,14 @@
       <c r="CE21" s="31"/>
       <c r="CF21" s="32"/>
     </row>
-    <row r="22" spans="1:84">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:84" ht="80.45" customHeight="1">
+      <c r="A22" s="41">
+        <v>14</v>
+      </c>
       <c r="B22" s="32"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="D22" s="42"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -5434,64 +5704,78 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="90"/>
+      <c r="P22" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="85"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="85"/>
       <c r="AH22" s="30"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="32"/>
-      <c r="AK22" s="41"/>
+      <c r="AK22" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="AL22" s="31"/>
       <c r="AM22" s="32"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="32"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="32"/>
+      <c r="AN22" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO22" s="145"/>
+      <c r="AP22" s="145"/>
+      <c r="AQ22" s="145"/>
+      <c r="AR22" s="146"/>
+      <c r="AS22" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="92"/>
+      <c r="BG22" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="114"/>
       <c r="BV22" s="41"/>
       <c r="BW22" s="31"/>
       <c r="BX22" s="31"/>
@@ -5504,32 +5788,252 @@
       <c r="CE22" s="31"/>
       <c r="CF22" s="32"/>
     </row>
+    <row r="23" spans="1:84" ht="63.6" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="41"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="41"/>
+      <c r="CA23" s="31"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="41"/>
+      <c r="CD23" s="31"/>
+      <c r="CE23" s="31"/>
+      <c r="CF23" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
+  <mergeCells count="206">
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
     <mergeCell ref="BV7:BY8"/>
     <mergeCell ref="BZ7:CB8"/>
     <mergeCell ref="CC7:CF8"/>
@@ -5554,127 +6058,30 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5687,143 +6094,175 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="20" max="20" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="20" max="20" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="132" customFormat="1" ht="13.5">
-      <c r="A2" s="132" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="134" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="56" customFormat="1" ht="13.1">
+      <c r="A2" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="F2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="G2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="H2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="I2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="J2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="K2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="L2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="131" t="s">
+      <c r="M2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="N2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="131" t="s">
+      <c r="O2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="131" t="s">
+      <c r="P2" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="131" t="s">
+      <c r="Q2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="131" t="s">
+      <c r="R2" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="S2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="131" t="s">
+      <c r="T2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="131" t="s">
+    </row>
+    <row r="3" spans="1:20" s="56" customFormat="1" ht="13.1">
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="131" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="T2" s="131" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="132" customFormat="1" ht="13.5">
-      <c r="A3" s="132">
-        <v>1</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="64">
+        <v>3</v>
+      </c>
+      <c r="T3" s="57"/>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="132" t="s">
-        <v>93</v>
+      <c r="A10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="132">
+      <c r="A11" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B11" s="61">
+        <v>1</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="132" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="132">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="56">
         <v>1</v>
+      </c>
+      <c r="B19" s="61">
+        <v>3</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5836,30 +6275,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="17.8">
       <c r="A2" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.1">
       <c r="B6" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5882,37 +6321,37 @@
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5938,45 +6377,45 @@
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.8">
       <c r="A39" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="22.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="22.45">
       <c r="B44" s="37"/>
     </row>
     <row r="45" spans="1:2">
@@ -5999,27 +6438,27 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C225A-8119-4FDD-A3BB-43E9F2372846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69762865-84CD-42EC-B1AD-7BEE85FEE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="780" windowWidth="25305" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>画面名</t>
   </si>
@@ -1469,13 +1469,61 @@
 vatemkDepartment</t>
   </si>
   <si>
+    <t>社員情報更新</t>
+  </si>
+  <si>
     <t>社員タイプリスト</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所属部門選択リスト</t>
-  </si>
-  <si>
-    <t>社員情報更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト時、MD5式のパスワードを設定</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>正社員</t>
+    <rPh sb="0" eb="3">
+      <t>セイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>個人事業</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>DB定義書を基準に準備</t>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -1483,20 +1531,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1513,7 +1561,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1539,14 +1587,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1555,22 +1603,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1668,6 +1716,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2005,7 +2060,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2018,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2185,10 +2240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2247,22 +2298,160 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2270,28 +2459,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2300,153 +2498,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规 2" xfId="3" xr:uid="{14029D53-A3FE-4779-8312-6FCC10D87771}"/>
@@ -2459,6 +2511,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0033CC"/>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2474,23 +2532,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>86962</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>105765</xdr:rowOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1152524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>106012</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>96240</xdr:rowOff>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>695324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8641ACE-786B-8553-E4E3-05EE703BFA46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ECDB5B-69B3-4934-8640-DBD65EFF6AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,13 +2556,128 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4130510" y="10953874"/>
-          <a:ext cx="1948790" cy="542678"/>
+          <a:off x="12325349" y="5981699"/>
+          <a:ext cx="2886075" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -53120"/>
-            <a:gd name="adj2" fmla="val -68581"/>
+            <a:gd name="adj1" fmla="val -58870"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字以内の言い方は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字も含むなので、”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>まで”に直してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>638174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1352549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1EBC73-5EA5-39EF-6B43-29A00B1E31CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849099" y="11029949"/>
+          <a:ext cx="2886075" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58870"/>
+            <a:gd name="adj2" fmla="val -4167"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2531,8 +2704,430 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>その他のたくさんケースを追加する</a:t>
+            <a:t>郵便番号：他の文字、例日本語など入力された場合は？</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>866774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FB5BC6-CE26-9A25-1F45-6541E8B0E61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115799" y="14449424"/>
+          <a:ext cx="2886075" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58870"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所：最大文字は？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>923924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36E0B18-99D7-347B-8996-BC2977253864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030074" y="16944974"/>
+          <a:ext cx="2962276" cy="1419226"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58870"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員タイプリスト、所属部門選択リストは、初期表示とします。初期表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員タイプ候補、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初期表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所属部門</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>候補</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>など。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>期待結果は、テストデータの社員タイプマスタと同じなど</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>276223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE8FC04-6B60-C231-607F-E52152048EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906248" y="18583273"/>
+          <a:ext cx="3324227" cy="1600201"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58870"/>
+            <a:gd name="adj2" fmla="val -4167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①電話番号、個人番号項目のテストケース追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②画面全項目入力の組み合わせ：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　１）各項目最小値入力場合、</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　２）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>各項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値入力場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　３）１）、２）ではない場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のテストケースの追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2542,6 +3137,170 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1BD926-FA8E-0296-3B77-9C289CA4E10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3552825" y="581025"/>
+          <a:ext cx="9525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A4365E-9E7E-0945-2FB4-D4DF690562F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3562350" y="2314575"/>
+          <a:ext cx="314325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3BD198-6E34-44E9-9C6B-F0827265D1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3562350" y="2314575"/>
+          <a:ext cx="314325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3090,11 +3849,11 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
@@ -3177,7 +3936,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3195,25 +3954,25 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="21.05">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="23.25">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3233,7 +3992,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3251,65 +4010,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3327,65 +4086,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="13.1">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.25">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="79"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="77"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="80"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.75">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3403,7 +4162,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3586,7 +4345,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3600,13 +4359,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
@@ -3729,37 +4488,39 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS9" sqref="AS9:BF9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="BB26" sqref="BB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="26" customWidth="1"/>
-    <col min="2" max="3" width="2.08203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.08203125" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.08203125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.08203125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.08203125" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.08203125" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.08203125" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.08203125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.08203125" style="27" customWidth="1"/>
-    <col min="45" max="50" width="2.08203125" style="26" customWidth="1"/>
-    <col min="51" max="51" width="3.83203125" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.08203125" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.08203125" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.08203125" style="28" customWidth="1"/>
-    <col min="57" max="57" width="2.08203125" style="26" customWidth="1"/>
-    <col min="58" max="58" width="4.33203125" style="26" customWidth="1"/>
-    <col min="59" max="59" width="2.08203125" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.08203125" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.08203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="26" customWidth="1"/>
+    <col min="2" max="3" width="2.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
+    <col min="45" max="50" width="2.125" style="26" customWidth="1"/>
+    <col min="51" max="51" width="3.875" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
+    <col min="57" max="57" width="2.125" style="26" customWidth="1"/>
+    <col min="58" max="58" width="4.375" style="26" customWidth="1"/>
+    <col min="59" max="59" width="2.125" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
     <col min="98" max="16384" width="8.25" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
+    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -3830,39 +4591,39 @@
       <c r="BP1" s="44"/>
       <c r="BQ1" s="46"/>
     </row>
-    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
       <c r="AU2" s="48"/>
       <c r="AV2" s="48"/>
       <c r="AW2" s="48"/>
@@ -3887,37 +4648,37 @@
       <c r="BP2" s="49"/>
       <c r="BQ2" s="46"/>
     </row>
-    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
+    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="48"/>
@@ -3942,407 +4703,407 @@
       <c r="BP3" s="48"/>
       <c r="BQ3" s="50"/>
     </row>
-    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A4" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="123" t="s">
+      <c r="K4" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="127"/>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="127"/>
-      <c r="AZ4" s="128"/>
-      <c r="BA4" s="129" t="s">
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="132">
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="99">
         <v>45034</v>
       </c>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="129" t="s">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="100"/>
+      <c r="BJ4" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="132" t="s">
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="133"/>
-      <c r="BP4" s="133"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="100"/>
       <c r="BQ4" s="52"/>
     </row>
-    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="134" t="s">
+    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="136"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="134" t="s">
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="140"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="140"/>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="140"/>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="142" t="s">
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="143"/>
-      <c r="BC5" s="144"/>
-      <c r="BD5" s="143"/>
-      <c r="BE5" s="143"/>
-      <c r="BF5" s="143"/>
-      <c r="BG5" s="143"/>
-      <c r="BH5" s="143"/>
-      <c r="BI5" s="143"/>
-      <c r="BJ5" s="142" t="s">
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="BK5" s="143"/>
-      <c r="BL5" s="144"/>
-      <c r="BM5" s="143"/>
-      <c r="BN5" s="140"/>
-      <c r="BO5" s="140"/>
-      <c r="BP5" s="140"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="107"/>
+      <c r="BO5" s="107"/>
+      <c r="BP5" s="107"/>
       <c r="BQ5" s="54"/>
     </row>
-    <row r="6" spans="1:84" ht="15" thickTop="1">
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
+    <row r="6" spans="1:84" ht="19.5" thickTop="1">
+      <c r="E6" s="146"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
       <c r="AF6" s="26"/>
       <c r="AK6" s="29"/>
-      <c r="BL6" s="99"/>
-      <c r="BM6" s="100"/>
-      <c r="BN6" s="100"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="100"/>
-      <c r="BQ6" s="100"/>
+      <c r="BL6" s="146"/>
+      <c r="BM6" s="147"/>
+      <c r="BN6" s="147"/>
+      <c r="BO6" s="146"/>
+      <c r="BP6" s="147"/>
+      <c r="BQ6" s="147"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="93" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="83" t="s">
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="93" t="s">
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
+      <c r="AB7" s="133"/>
+      <c r="AC7" s="133"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="133"/>
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="133"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="106" t="s">
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="137"/>
+      <c r="AN7" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="93" t="s">
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="128"/>
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="101"/>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="101"/>
-      <c r="BE7" s="101"/>
-      <c r="BF7" s="102"/>
-      <c r="BG7" s="93" t="s">
+      <c r="AT7" s="141"/>
+      <c r="AU7" s="141"/>
+      <c r="AV7" s="141"/>
+      <c r="AW7" s="141"/>
+      <c r="AX7" s="141"/>
+      <c r="AY7" s="141"/>
+      <c r="AZ7" s="141"/>
+      <c r="BA7" s="141"/>
+      <c r="BB7" s="141"/>
+      <c r="BC7" s="141"/>
+      <c r="BD7" s="141"/>
+      <c r="BE7" s="141"/>
+      <c r="BF7" s="142"/>
+      <c r="BG7" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="BH7" s="101"/>
-      <c r="BI7" s="101"/>
-      <c r="BJ7" s="101"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="101"/>
-      <c r="BM7" s="101"/>
-      <c r="BN7" s="101"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="102"/>
-      <c r="BV7" s="106" t="s">
+      <c r="BH7" s="141"/>
+      <c r="BI7" s="141"/>
+      <c r="BJ7" s="141"/>
+      <c r="BK7" s="141"/>
+      <c r="BL7" s="141"/>
+      <c r="BM7" s="141"/>
+      <c r="BN7" s="141"/>
+      <c r="BO7" s="141"/>
+      <c r="BP7" s="141"/>
+      <c r="BQ7" s="141"/>
+      <c r="BR7" s="141"/>
+      <c r="BS7" s="141"/>
+      <c r="BT7" s="141"/>
+      <c r="BU7" s="142"/>
+      <c r="BV7" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="108"/>
-      <c r="BY7" s="109"/>
-      <c r="BZ7" s="106" t="s">
+      <c r="BW7" s="127"/>
+      <c r="BX7" s="128"/>
+      <c r="BY7" s="129"/>
+      <c r="BZ7" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="108"/>
-      <c r="CB7" s="109"/>
-      <c r="CC7" s="106" t="s">
+      <c r="CA7" s="128"/>
+      <c r="CB7" s="129"/>
+      <c r="CC7" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="107"/>
-      <c r="CE7" s="108"/>
-      <c r="CF7" s="109"/>
-    </row>
-    <row r="8" spans="1:84" ht="15.9" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="83" t="s">
+      <c r="CD7" s="127"/>
+      <c r="CE7" s="128"/>
+      <c r="CF7" s="129"/>
+    </row>
+    <row r="8" spans="1:84" ht="15.95" customHeight="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="83" t="s">
+      <c r="Q8" s="94"/>
+      <c r="R8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="85"/>
-      <c r="T8" s="83" t="s">
+      <c r="S8" s="94"/>
+      <c r="T8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="83" t="s">
+      <c r="U8" s="94"/>
+      <c r="V8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="85"/>
-      <c r="X8" s="83" t="s">
+      <c r="W8" s="94"/>
+      <c r="X8" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="83" t="s">
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="83" t="s">
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="83" t="s">
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="85"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="94"/>
       <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="31"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="96"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="104"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="104"/>
-      <c r="BI8" s="104"/>
-      <c r="BJ8" s="104"/>
-      <c r="BK8" s="104"/>
-      <c r="BL8" s="104"/>
-      <c r="BM8" s="104"/>
-      <c r="BN8" s="104"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="104"/>
-      <c r="BQ8" s="104"/>
-      <c r="BR8" s="104"/>
-      <c r="BS8" s="104"/>
-      <c r="BT8" s="104"/>
-      <c r="BU8" s="105"/>
-      <c r="BV8" s="110"/>
-      <c r="BW8" s="111"/>
-      <c r="BX8" s="111"/>
-      <c r="BY8" s="112"/>
-      <c r="BZ8" s="110"/>
-      <c r="CA8" s="111"/>
-      <c r="CB8" s="112"/>
-      <c r="CC8" s="110"/>
-      <c r="CD8" s="111"/>
-      <c r="CE8" s="111"/>
-      <c r="CF8" s="112"/>
+      <c r="AK8" s="138"/>
+      <c r="AL8" s="139"/>
+      <c r="AM8" s="140"/>
+      <c r="AN8" s="130"/>
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="132"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="144"/>
+      <c r="AV8" s="144"/>
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="144"/>
+      <c r="AY8" s="144"/>
+      <c r="AZ8" s="144"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="144"/>
+      <c r="BC8" s="144"/>
+      <c r="BD8" s="144"/>
+      <c r="BE8" s="144"/>
+      <c r="BF8" s="145"/>
+      <c r="BG8" s="143"/>
+      <c r="BH8" s="144"/>
+      <c r="BI8" s="144"/>
+      <c r="BJ8" s="144"/>
+      <c r="BK8" s="144"/>
+      <c r="BL8" s="144"/>
+      <c r="BM8" s="144"/>
+      <c r="BN8" s="144"/>
+      <c r="BO8" s="144"/>
+      <c r="BP8" s="144"/>
+      <c r="BQ8" s="144"/>
+      <c r="BR8" s="144"/>
+      <c r="BS8" s="144"/>
+      <c r="BT8" s="144"/>
+      <c r="BU8" s="145"/>
+      <c r="BV8" s="130"/>
+      <c r="BW8" s="131"/>
+      <c r="BX8" s="131"/>
+      <c r="BY8" s="132"/>
+      <c r="BZ8" s="130"/>
+      <c r="CA8" s="131"/>
+      <c r="CB8" s="132"/>
+      <c r="CC8" s="130"/>
+      <c r="CD8" s="131"/>
+      <c r="CE8" s="131"/>
+      <c r="CF8" s="132"/>
     </row>
     <row r="9" spans="1:84" ht="95.85" customHeight="1">
       <c r="A9" s="41">
@@ -4364,30 +5125,30 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="83" t="s">
+      <c r="Q9" s="94"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U9" s="85"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="83" t="s">
+      <c r="U9" s="94"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="85"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="94"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="31"/>
       <c r="AJ9" s="32"/>
@@ -4396,46 +5157,46 @@
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="32"/>
-      <c r="AN9" s="86" t="s">
+      <c r="AN9" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="86" t="s">
+      <c r="AO9" s="88"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="86" t="s">
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BD9" s="84"/>
+      <c r="BE9" s="84"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="BH9" s="113"/>
-      <c r="BI9" s="113"/>
-      <c r="BJ9" s="113"/>
-      <c r="BK9" s="113"/>
-      <c r="BL9" s="113"/>
-      <c r="BM9" s="113"/>
-      <c r="BN9" s="113"/>
-      <c r="BO9" s="113"/>
-      <c r="BP9" s="113"/>
-      <c r="BQ9" s="113"/>
-      <c r="BR9" s="113"/>
-      <c r="BS9" s="113"/>
-      <c r="BT9" s="113"/>
-      <c r="BU9" s="114"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="82"/>
+      <c r="BQ9" s="82"/>
+      <c r="BR9" s="82"/>
+      <c r="BS9" s="82"/>
+      <c r="BT9" s="82"/>
+      <c r="BU9" s="83"/>
       <c r="BV9" s="41"/>
       <c r="BW9" s="31"/>
       <c r="BX9" s="31"/>
@@ -4448,7 +5209,7 @@
       <c r="CE9" s="31"/>
       <c r="CF9" s="32"/>
     </row>
-    <row r="10" spans="1:84" ht="77.3" customHeight="1">
+    <row r="10" spans="1:84" ht="77.25" customHeight="1">
       <c r="A10" s="41">
         <v>2</v>
       </c>
@@ -4468,72 +5229,72 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="83" t="s">
+      <c r="P10" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="83" t="s">
+      <c r="Q10" s="94"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="85"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="85"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="94"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="31"/>
       <c r="AJ10" s="32"/>
-      <c r="AK10" s="83" t="s">
+      <c r="AK10" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="86" t="s">
+      <c r="AL10" s="133"/>
+      <c r="AM10" s="134"/>
+      <c r="AN10" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="86" t="s">
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="86" t="s">
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="91"/>
-      <c r="BT10" s="91"/>
-      <c r="BU10" s="92"/>
+      <c r="BH10" s="84"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="84"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="84"/>
+      <c r="BN10" s="84"/>
+      <c r="BO10" s="84"/>
+      <c r="BP10" s="84"/>
+      <c r="BQ10" s="84"/>
+      <c r="BR10" s="84"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="84"/>
+      <c r="BU10" s="85"/>
       <c r="BV10" s="41"/>
       <c r="BW10" s="31"/>
       <c r="BX10" s="31"/>
@@ -4546,7 +5307,7 @@
       <c r="CE10" s="31"/>
       <c r="CF10" s="32"/>
     </row>
-    <row r="11" spans="1:84" ht="86.3" customHeight="1">
+    <row r="11" spans="1:84" ht="86.25" customHeight="1">
       <c r="A11" s="41">
         <v>3</v>
       </c>
@@ -4566,78 +5327,78 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="83" t="s">
+      <c r="Q11" s="94"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="85"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="83" t="s">
+      <c r="U11" s="94"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="85"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="94"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="32"/>
-      <c r="AK11" s="83" t="s">
+      <c r="AK11" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="86" t="s">
+      <c r="AL11" s="133"/>
+      <c r="AM11" s="134"/>
+      <c r="AN11" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="86" t="s">
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="88"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="86" t="s">
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="91"/>
-      <c r="BK11" s="91"/>
-      <c r="BL11" s="91"/>
-      <c r="BM11" s="91"/>
-      <c r="BN11" s="91"/>
-      <c r="BO11" s="91"/>
-      <c r="BP11" s="91"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="91"/>
-      <c r="BS11" s="91"/>
-      <c r="BT11" s="91"/>
-      <c r="BU11" s="92"/>
+      <c r="BH11" s="84"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BM11" s="84"/>
+      <c r="BN11" s="84"/>
+      <c r="BO11" s="84"/>
+      <c r="BP11" s="84"/>
+      <c r="BQ11" s="84"/>
+      <c r="BR11" s="84"/>
+      <c r="BS11" s="84"/>
+      <c r="BT11" s="84"/>
+      <c r="BU11" s="85"/>
       <c r="BV11" s="41"/>
       <c r="BW11" s="31"/>
       <c r="BX11" s="31"/>
@@ -4670,80 +5431,80 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="83" t="s">
+      <c r="Q12" s="94"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="85"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="83" t="s">
+      <c r="U12" s="94"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="83" t="s">
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="83" t="s">
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="86" t="s">
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="134"/>
+      <c r="AN12" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="86" t="s">
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="88"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="91"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="91"/>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="92"/>
-      <c r="BG12" s="86" t="s">
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="84"/>
+      <c r="BF12" s="85"/>
+      <c r="BG12" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="BH12" s="91"/>
-      <c r="BI12" s="91"/>
-      <c r="BJ12" s="91"/>
-      <c r="BK12" s="91"/>
-      <c r="BL12" s="91"/>
-      <c r="BM12" s="91"/>
-      <c r="BN12" s="91"/>
-      <c r="BO12" s="91"/>
-      <c r="BP12" s="91"/>
-      <c r="BQ12" s="91"/>
-      <c r="BR12" s="91"/>
-      <c r="BS12" s="91"/>
-      <c r="BT12" s="91"/>
-      <c r="BU12" s="92"/>
+      <c r="BH12" s="84"/>
+      <c r="BI12" s="84"/>
+      <c r="BJ12" s="84"/>
+      <c r="BK12" s="84"/>
+      <c r="BL12" s="84"/>
+      <c r="BM12" s="84"/>
+      <c r="BN12" s="84"/>
+      <c r="BO12" s="84"/>
+      <c r="BP12" s="84"/>
+      <c r="BQ12" s="84"/>
+      <c r="BR12" s="84"/>
+      <c r="BS12" s="84"/>
+      <c r="BT12" s="84"/>
+      <c r="BU12" s="85"/>
       <c r="BV12" s="41"/>
       <c r="BW12" s="31"/>
       <c r="BX12" s="31"/>
@@ -4776,28 +5537,28 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="83" t="s">
+      <c r="P13" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="83" t="s">
+      <c r="Q13" s="94"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U13" s="85"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="85"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="94"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="32"/>
@@ -4806,46 +5567,46 @@
       </c>
       <c r="AL13" s="31"/>
       <c r="AM13" s="32"/>
-      <c r="AN13" s="86" t="s">
+      <c r="AN13" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="86" t="s">
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="86" t="s">
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BA13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="84"/>
+      <c r="BD13" s="84"/>
+      <c r="BE13" s="84"/>
+      <c r="BF13" s="85"/>
+      <c r="BG13" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="91"/>
-      <c r="BL13" s="91"/>
-      <c r="BM13" s="91"/>
-      <c r="BN13" s="91"/>
-      <c r="BO13" s="91"/>
-      <c r="BP13" s="91"/>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="91"/>
-      <c r="BS13" s="91"/>
-      <c r="BT13" s="91"/>
-      <c r="BU13" s="92"/>
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="84"/>
+      <c r="BJ13" s="84"/>
+      <c r="BK13" s="84"/>
+      <c r="BL13" s="84"/>
+      <c r="BM13" s="84"/>
+      <c r="BN13" s="84"/>
+      <c r="BO13" s="84"/>
+      <c r="BP13" s="84"/>
+      <c r="BQ13" s="84"/>
+      <c r="BR13" s="84"/>
+      <c r="BS13" s="84"/>
+      <c r="BT13" s="84"/>
+      <c r="BU13" s="85"/>
       <c r="BV13" s="41"/>
       <c r="BW13" s="31"/>
       <c r="BX13" s="31"/>
@@ -4878,30 +5639,30 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="83" t="s">
+      <c r="P14" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="83" t="s">
+      <c r="Q14" s="94"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="85"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="83" t="s">
+      <c r="U14" s="94"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="85"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="94"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="32"/>
@@ -4910,46 +5671,46 @@
       </c>
       <c r="AL14" s="31"/>
       <c r="AM14" s="32"/>
-      <c r="AN14" s="86" t="s">
+      <c r="AN14" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="86" t="s">
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="92"/>
-      <c r="BG14" s="86" t="s">
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="91"/>
-      <c r="BL14" s="91"/>
-      <c r="BM14" s="91"/>
-      <c r="BN14" s="91"/>
-      <c r="BO14" s="91"/>
-      <c r="BP14" s="91"/>
-      <c r="BQ14" s="91"/>
-      <c r="BR14" s="91"/>
-      <c r="BS14" s="91"/>
-      <c r="BT14" s="91"/>
-      <c r="BU14" s="92"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="84"/>
+      <c r="BJ14" s="84"/>
+      <c r="BK14" s="84"/>
+      <c r="BL14" s="84"/>
+      <c r="BM14" s="84"/>
+      <c r="BN14" s="84"/>
+      <c r="BO14" s="84"/>
+      <c r="BP14" s="84"/>
+      <c r="BQ14" s="84"/>
+      <c r="BR14" s="84"/>
+      <c r="BS14" s="84"/>
+      <c r="BT14" s="84"/>
+      <c r="BU14" s="85"/>
       <c r="BV14" s="41"/>
       <c r="BW14" s="31"/>
       <c r="BX14" s="31"/>
@@ -4962,7 +5723,7 @@
       <c r="CE14" s="31"/>
       <c r="CF14" s="32"/>
     </row>
-    <row r="15" spans="1:84" ht="64.55" customHeight="1">
+    <row r="15" spans="1:84" ht="87" customHeight="1">
       <c r="A15" s="41">
         <v>7</v>
       </c>
@@ -4982,28 +5743,28 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="83" t="s">
+      <c r="P15" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="83" t="s">
+      <c r="Q15" s="94"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U15" s="85"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="85"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="94"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="32"/>
@@ -5012,46 +5773,46 @@
       </c>
       <c r="AL15" s="31"/>
       <c r="AM15" s="32"/>
-      <c r="AN15" s="86" t="s">
+      <c r="AN15" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="86" t="s">
+      <c r="AO15" s="88"/>
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="88"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
-      <c r="BG15" s="86" t="s">
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="84"/>
+      <c r="AZ15" s="84"/>
+      <c r="BA15" s="84"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BD15" s="84"/>
+      <c r="BE15" s="84"/>
+      <c r="BF15" s="85"/>
+      <c r="BG15" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="91"/>
-      <c r="BQ15" s="91"/>
-      <c r="BR15" s="91"/>
-      <c r="BS15" s="91"/>
-      <c r="BT15" s="91"/>
-      <c r="BU15" s="92"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="84"/>
+      <c r="BJ15" s="84"/>
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="84"/>
+      <c r="BM15" s="84"/>
+      <c r="BN15" s="84"/>
+      <c r="BO15" s="84"/>
+      <c r="BP15" s="84"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="84"/>
+      <c r="BS15" s="84"/>
+      <c r="BT15" s="84"/>
+      <c r="BU15" s="85"/>
       <c r="BV15" s="41"/>
       <c r="BW15" s="31"/>
       <c r="BX15" s="31"/>
@@ -5064,7 +5825,7 @@
       <c r="CE15" s="31"/>
       <c r="CF15" s="32"/>
     </row>
-    <row r="16" spans="1:84" ht="63.6" customHeight="1">
+    <row r="16" spans="1:84" ht="105.75" customHeight="1">
       <c r="A16" s="41">
         <v>8</v>
       </c>
@@ -5084,30 +5845,30 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="83" t="s">
+      <c r="Q16" s="94"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U16" s="85"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="83" t="s">
+      <c r="U16" s="94"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="85"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="94"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="32"/>
@@ -5116,46 +5877,46 @@
       </c>
       <c r="AL16" s="31"/>
       <c r="AM16" s="32"/>
-      <c r="AN16" s="86" t="s">
+      <c r="AN16" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="86" t="s">
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
+      <c r="AQ16" s="88"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="92"/>
-      <c r="BG16" s="86" t="s">
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="84"/>
+      <c r="BA16" s="84"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
+      <c r="BE16" s="84"/>
+      <c r="BF16" s="85"/>
+      <c r="BG16" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="BH16" s="91"/>
-      <c r="BI16" s="91"/>
-      <c r="BJ16" s="91"/>
-      <c r="BK16" s="91"/>
-      <c r="BL16" s="91"/>
-      <c r="BM16" s="91"/>
-      <c r="BN16" s="91"/>
-      <c r="BO16" s="91"/>
-      <c r="BP16" s="91"/>
-      <c r="BQ16" s="91"/>
-      <c r="BR16" s="91"/>
-      <c r="BS16" s="91"/>
-      <c r="BT16" s="91"/>
-      <c r="BU16" s="92"/>
+      <c r="BH16" s="84"/>
+      <c r="BI16" s="84"/>
+      <c r="BJ16" s="84"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="84"/>
+      <c r="BM16" s="84"/>
+      <c r="BN16" s="84"/>
+      <c r="BO16" s="84"/>
+      <c r="BP16" s="84"/>
+      <c r="BQ16" s="84"/>
+      <c r="BR16" s="84"/>
+      <c r="BS16" s="84"/>
+      <c r="BT16" s="84"/>
+      <c r="BU16" s="85"/>
       <c r="BV16" s="41"/>
       <c r="BW16" s="31"/>
       <c r="BX16" s="31"/>
@@ -5168,7 +5929,7 @@
       <c r="CE16" s="31"/>
       <c r="CF16" s="32"/>
     </row>
-    <row r="17" spans="1:84" ht="97.25" customHeight="1">
+    <row r="17" spans="1:84" ht="128.25" customHeight="1">
       <c r="A17" s="41">
         <v>9</v>
       </c>
@@ -5188,30 +5949,30 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="83" t="s">
+      <c r="Q17" s="94"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="85"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="83" t="s">
+      <c r="U17" s="94"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="85"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="94"/>
       <c r="AH17" s="30"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="32"/>
@@ -5220,46 +5981,46 @@
       </c>
       <c r="AL17" s="31"/>
       <c r="AM17" s="32"/>
-      <c r="AN17" s="86" t="s">
+      <c r="AN17" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="147" t="s">
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="88"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="148"/>
-      <c r="AX17" s="148"/>
-      <c r="AY17" s="148"/>
-      <c r="AZ17" s="148"/>
-      <c r="BA17" s="148"/>
-      <c r="BB17" s="148"/>
-      <c r="BC17" s="148"/>
-      <c r="BD17" s="148"/>
-      <c r="BE17" s="148"/>
-      <c r="BF17" s="149"/>
-      <c r="BG17" s="86" t="s">
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="91"/>
-      <c r="BJ17" s="91"/>
-      <c r="BK17" s="91"/>
-      <c r="BL17" s="91"/>
-      <c r="BM17" s="91"/>
-      <c r="BN17" s="91"/>
-      <c r="BO17" s="91"/>
-      <c r="BP17" s="91"/>
-      <c r="BQ17" s="91"/>
-      <c r="BR17" s="91"/>
-      <c r="BS17" s="91"/>
-      <c r="BT17" s="91"/>
-      <c r="BU17" s="92"/>
+      <c r="BH17" s="84"/>
+      <c r="BI17" s="84"/>
+      <c r="BJ17" s="84"/>
+      <c r="BK17" s="84"/>
+      <c r="BL17" s="84"/>
+      <c r="BM17" s="84"/>
+      <c r="BN17" s="84"/>
+      <c r="BO17" s="84"/>
+      <c r="BP17" s="84"/>
+      <c r="BQ17" s="84"/>
+      <c r="BR17" s="84"/>
+      <c r="BS17" s="84"/>
+      <c r="BT17" s="84"/>
+      <c r="BU17" s="85"/>
       <c r="BV17" s="41"/>
       <c r="BW17" s="31"/>
       <c r="BX17" s="31"/>
@@ -5272,7 +6033,7 @@
       <c r="CE17" s="31"/>
       <c r="CF17" s="32"/>
     </row>
-    <row r="18" spans="1:84" ht="83.25" customHeight="1">
+    <row r="18" spans="1:84" ht="123" customHeight="1">
       <c r="A18" s="41">
         <v>10</v>
       </c>
@@ -5292,28 +6053,28 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="83" t="s">
+      <c r="P18" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="83" t="s">
+      <c r="Q18" s="94"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="85"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="85"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="94"/>
       <c r="AH18" s="30"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="32"/>
@@ -5322,46 +6083,46 @@
       </c>
       <c r="AL18" s="31"/>
       <c r="AM18" s="32"/>
-      <c r="AN18" s="86" t="s">
+      <c r="AN18" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="86" t="s">
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="86" t="s">
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="84"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
+      <c r="BE18" s="84"/>
+      <c r="BF18" s="85"/>
+      <c r="BG18" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
-      <c r="BJ18" s="91"/>
-      <c r="BK18" s="91"/>
-      <c r="BL18" s="91"/>
-      <c r="BM18" s="91"/>
-      <c r="BN18" s="91"/>
-      <c r="BO18" s="91"/>
-      <c r="BP18" s="91"/>
-      <c r="BQ18" s="91"/>
-      <c r="BR18" s="91"/>
-      <c r="BS18" s="91"/>
-      <c r="BT18" s="91"/>
-      <c r="BU18" s="92"/>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="84"/>
+      <c r="BJ18" s="84"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="84"/>
+      <c r="BN18" s="84"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="84"/>
+      <c r="BQ18" s="84"/>
+      <c r="BR18" s="84"/>
+      <c r="BS18" s="84"/>
+      <c r="BT18" s="84"/>
+      <c r="BU18" s="85"/>
       <c r="BV18" s="41"/>
       <c r="BW18" s="31"/>
       <c r="BX18" s="31"/>
@@ -5374,7 +6135,7 @@
       <c r="CE18" s="31"/>
       <c r="CF18" s="32"/>
     </row>
-    <row r="19" spans="1:84" ht="63.6" customHeight="1">
+    <row r="19" spans="1:84" ht="102" customHeight="1">
       <c r="A19" s="41">
         <v>11</v>
       </c>
@@ -5394,30 +6155,30 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="83" t="s">
+      <c r="P19" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="83" t="s">
+      <c r="Q19" s="94"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U19" s="85"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="83" t="s">
+      <c r="U19" s="94"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="85"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="94"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="32"/>
@@ -5426,46 +6187,46 @@
       </c>
       <c r="AL19" s="31"/>
       <c r="AM19" s="32"/>
-      <c r="AN19" s="86" t="s">
+      <c r="AN19" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="86" t="s">
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
+      <c r="AQ19" s="88"/>
+      <c r="AR19" s="89"/>
+      <c r="AS19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="92"/>
-      <c r="BG19" s="86" t="s">
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="84"/>
+      <c r="AZ19" s="84"/>
+      <c r="BA19" s="84"/>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="84"/>
+      <c r="BD19" s="84"/>
+      <c r="BE19" s="84"/>
+      <c r="BF19" s="85"/>
+      <c r="BG19" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
-      <c r="BJ19" s="91"/>
-      <c r="BK19" s="91"/>
-      <c r="BL19" s="91"/>
-      <c r="BM19" s="91"/>
-      <c r="BN19" s="91"/>
-      <c r="BO19" s="91"/>
-      <c r="BP19" s="91"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="91"/>
-      <c r="BS19" s="91"/>
-      <c r="BT19" s="91"/>
-      <c r="BU19" s="92"/>
+      <c r="BH19" s="84"/>
+      <c r="BI19" s="84"/>
+      <c r="BJ19" s="84"/>
+      <c r="BK19" s="84"/>
+      <c r="BL19" s="84"/>
+      <c r="BM19" s="84"/>
+      <c r="BN19" s="84"/>
+      <c r="BO19" s="84"/>
+      <c r="BP19" s="84"/>
+      <c r="BQ19" s="84"/>
+      <c r="BR19" s="84"/>
+      <c r="BS19" s="84"/>
+      <c r="BT19" s="84"/>
+      <c r="BU19" s="85"/>
       <c r="BV19" s="41"/>
       <c r="BW19" s="31"/>
       <c r="BX19" s="31"/>
@@ -5478,7 +6239,7 @@
       <c r="CE19" s="31"/>
       <c r="CF19" s="32"/>
     </row>
-    <row r="20" spans="1:84" ht="63.6" customHeight="1">
+    <row r="20" spans="1:84" ht="90" customHeight="1">
       <c r="A20" s="41">
         <v>12</v>
       </c>
@@ -5498,28 +6259,28 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="83" t="s">
+      <c r="P20" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="83" t="s">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="U20" s="85"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="85"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="94"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="32"/>
@@ -5528,46 +6289,46 @@
       </c>
       <c r="AL20" s="31"/>
       <c r="AM20" s="32"/>
-      <c r="AN20" s="86" t="s">
+      <c r="AN20" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="86" t="s">
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
+      <c r="AQ20" s="88"/>
+      <c r="AR20" s="89"/>
+      <c r="AS20" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="91"/>
-      <c r="BC20" s="91"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="91"/>
-      <c r="BF20" s="92"/>
-      <c r="BG20" s="86" t="s">
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="84"/>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="84"/>
+      <c r="BD20" s="84"/>
+      <c r="BE20" s="84"/>
+      <c r="BF20" s="85"/>
+      <c r="BG20" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="BH20" s="91"/>
-      <c r="BI20" s="91"/>
-      <c r="BJ20" s="91"/>
-      <c r="BK20" s="91"/>
-      <c r="BL20" s="91"/>
-      <c r="BM20" s="91"/>
-      <c r="BN20" s="91"/>
-      <c r="BO20" s="91"/>
-      <c r="BP20" s="91"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="91"/>
-      <c r="BS20" s="91"/>
-      <c r="BT20" s="91"/>
-      <c r="BU20" s="92"/>
+      <c r="BH20" s="84"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="84"/>
+      <c r="BK20" s="84"/>
+      <c r="BL20" s="84"/>
+      <c r="BM20" s="84"/>
+      <c r="BN20" s="84"/>
+      <c r="BO20" s="84"/>
+      <c r="BP20" s="84"/>
+      <c r="BQ20" s="84"/>
+      <c r="BR20" s="84"/>
+      <c r="BS20" s="84"/>
+      <c r="BT20" s="84"/>
+      <c r="BU20" s="85"/>
       <c r="BV20" s="41"/>
       <c r="BW20" s="31"/>
       <c r="BX20" s="31"/>
@@ -5580,13 +6341,13 @@
       <c r="CE20" s="31"/>
       <c r="CF20" s="32"/>
     </row>
-    <row r="21" spans="1:84" ht="76.25" customHeight="1">
+    <row r="21" spans="1:84" ht="99.75" customHeight="1">
       <c r="A21" s="41">
         <v>13</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="31"/>
@@ -5600,30 +6361,30 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="83" t="s">
+      <c r="P21" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="83" t="s">
+      <c r="Q21" s="94"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="U21" s="85"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="83" t="s">
+      <c r="U21" s="94"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="85"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="94"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="32"/>
@@ -5632,46 +6393,46 @@
       </c>
       <c r="AL21" s="31"/>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="86" t="s">
+      <c r="AN21" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="AO21" s="145"/>
-      <c r="AP21" s="145"/>
-      <c r="AQ21" s="145"/>
-      <c r="AR21" s="146"/>
-      <c r="AS21" s="86" t="s">
+      <c r="AO21" s="86"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="86"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="91"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="91"/>
-      <c r="BF21" s="92"/>
-      <c r="BG21" s="86" t="s">
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BA21" s="84"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="84"/>
+      <c r="BE21" s="84"/>
+      <c r="BF21" s="85"/>
+      <c r="BG21" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="113"/>
-      <c r="BU21" s="114"/>
+      <c r="BH21" s="82"/>
+      <c r="BI21" s="82"/>
+      <c r="BJ21" s="82"/>
+      <c r="BK21" s="82"/>
+      <c r="BL21" s="82"/>
+      <c r="BM21" s="82"/>
+      <c r="BN21" s="82"/>
+      <c r="BO21" s="82"/>
+      <c r="BP21" s="82"/>
+      <c r="BQ21" s="82"/>
+      <c r="BR21" s="82"/>
+      <c r="BS21" s="82"/>
+      <c r="BT21" s="82"/>
+      <c r="BU21" s="83"/>
       <c r="BV21" s="41"/>
       <c r="BW21" s="31"/>
       <c r="BX21" s="31"/>
@@ -5690,7 +6451,7 @@
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="31"/>
@@ -5704,30 +6465,30 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="83" t="s">
+      <c r="P22" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="83" t="s">
+      <c r="Q22" s="94"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="85"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="83" t="s">
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="85"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="94"/>
       <c r="AH22" s="30"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="32"/>
@@ -5736,46 +6497,46 @@
       </c>
       <c r="AL22" s="31"/>
       <c r="AM22" s="32"/>
-      <c r="AN22" s="86" t="s">
+      <c r="AN22" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AO22" s="145"/>
-      <c r="AP22" s="145"/>
-      <c r="AQ22" s="145"/>
-      <c r="AR22" s="146"/>
-      <c r="AS22" s="86" t="s">
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="91"/>
-      <c r="BC22" s="91"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="91"/>
-      <c r="BF22" s="92"/>
-      <c r="BG22" s="86" t="s">
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="84"/>
+      <c r="AZ22" s="84"/>
+      <c r="BA22" s="84"/>
+      <c r="BB22" s="84"/>
+      <c r="BC22" s="84"/>
+      <c r="BD22" s="84"/>
+      <c r="BE22" s="84"/>
+      <c r="BF22" s="85"/>
+      <c r="BG22" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="113"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="113"/>
-      <c r="BS22" s="113"/>
-      <c r="BT22" s="113"/>
-      <c r="BU22" s="114"/>
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="82"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
+      <c r="BL22" s="82"/>
+      <c r="BM22" s="82"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
+      <c r="BQ22" s="82"/>
+      <c r="BR22" s="82"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="83"/>
       <c r="BV22" s="41"/>
       <c r="BW22" s="31"/>
       <c r="BX22" s="31"/>
@@ -5804,24 +6565,24 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="85"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="94"/>
       <c r="AH23" s="30"/>
       <c r="AI23" s="31"/>
       <c r="AJ23" s="32"/>
@@ -5876,56 +6637,138 @@
     </row>
   </sheetData>
   <mergeCells count="206">
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:BF9"/>
+    <mergeCell ref="BG9:BU9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AG23"/>
@@ -5950,138 +6793,56 @@
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="P7:AJ7"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AN7:AR8"/>
-    <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:BF9"/>
-    <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6093,17 +6854,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" customWidth="1"/>
-    <col min="20" max="20" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="20" max="20" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -6111,7 +6872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="56" customFormat="1" ht="13.1">
+    <row r="2" spans="1:20" s="56" customFormat="1" ht="13.5">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -6173,7 +6934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="56" customFormat="1" ht="13.1">
+    <row r="3" spans="1:20" s="56" customFormat="1" ht="13.5">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -6202,10 +6963,15 @@
       </c>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
-      <c r="S3" s="64">
+      <c r="S3" s="62">
         <v>3</v>
       </c>
       <c r="T3" s="57"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="D4" s="148" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" t="s">
@@ -6233,17 +6999,28 @@
       <c r="C11" s="60" t="s">
         <v>126</v>
       </c>
+      <c r="E11" s="148" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="61"/>
+      <c r="C12" s="60" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B13" s="61"/>
+      <c r="C13" s="60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="56" t="s">
         <v>89</v>
       </c>
@@ -6254,7 +7031,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" s="56">
         <v>1</v>
       </c>
@@ -6263,11 +7040,15 @@
       </c>
       <c r="C19" s="60" t="s">
         <v>130</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6279,9 +7060,9 @@
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.8">
+    <row r="2" spans="1:2">
       <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
@@ -6296,7 +7077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42.1">
+    <row r="6" spans="1:2" ht="45">
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
@@ -6395,7 +7176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.8">
+    <row r="39" spans="1:2">
       <c r="A39" s="38" t="s">
         <v>39</v>
       </c>
@@ -6415,7 +7196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.45">
+    <row r="44" spans="1:2" ht="22.5">
       <c r="B44" s="37"/>
     </row>
     <row r="45" spans="1:2">

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69762865-84CD-42EC-B1AD-7BEE85FEE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8FF43-52C7-46DF-A0EB-DE7BF594703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="780" windowWidth="25305" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="186">
   <si>
     <t>画面名</t>
   </si>
@@ -910,49 +910,6 @@
   </si>
   <si>
     <t>ブランチカバレッジは、分岐に着目したカバレッジです。</t>
-  </si>
-  <si>
-    <r>
-      <t>全ての分岐の真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF353535"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF353535"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>偽の経路を実行すれば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF353535"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF353535"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>％になります。</t>
-    </r>
   </si>
   <si>
     <t>C0：ステートメントカバレッジ </t>
@@ -1123,9 +1080,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>ghg@it-softtech.com</t>
   </si>
   <si>
     <t>社員情報テーブル：employee</t>
@@ -1329,13 +1283,6 @@
     <t>更新_ユーザ名</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②ユーザ名に12文字以内入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>”社員情報を更新しました"メッセージが画面に表示される</t>
   </si>
   <si>
@@ -1413,13 +1360,6 @@
     <t>”住所を入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②住所に入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>epTypeID</t>
   </si>
   <si>
@@ -1439,11 +1379,6 @@
   </si>
   <si>
     <t>管理部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①「社員タイプ」項目のプルーダウンに社員タイプIDのリストが表示される。
-②社員タイプ選択
-</t>
   </si>
   <si>
     <t>EmployeeEditService
@@ -1451,46 +1386,12 @@
 vatemkEmployeeType</t>
   </si>
   <si>
-    <t>①画面が正常に表示できる
-②選択された所属部門が表示される</t>
-  </si>
-  <si>
-    <t>①画面が正常に表示できる
-②選択された社員タイプが表示される</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①「所属部門」項目のプルーダウンに部門IDのリストが表示される。
-②所属部門選択
-</t>
-  </si>
-  <si>
     <t>EmployeeEditService
 Implのpri
 vatemkDepartment</t>
   </si>
   <si>
     <t>社員情報更新</t>
-  </si>
-  <si>
-    <t>社員タイプリスト</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部門選択リスト</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>テスト時、MD5式のパスワードを設定</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>正社員</t>
@@ -1525,26 +1426,240 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②ユーザ名に12文字まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に文字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>更新＿ユーザ個人番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に文字入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”個人番号を半角数字で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>更新＿ユーザ入社年月日</t>
+  </si>
+  <si>
+    <t>更新＿ユーザ電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②入社年月日に未選択
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”入社年月日を入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②入社年月日に選択
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に未入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に12数学まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”電話番号を半角数字で入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に(-)入り半角数字で
+　入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に(-)無し半角数字(15)
+　まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所に200文字まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>初期表示＿社員タイプ候補</t>
+  </si>
+  <si>
+    <t>初期表示＿所属部門候補</t>
+  </si>
+  <si>
+    <t>社員１</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>e001@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20230112</t>
+  </si>
+  <si>
+    <t>20230419</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20181209</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>07089678653</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>０</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
+    <t>自動更新＿年齢</t>
+  </si>
+  <si>
+    <t>全ての分岐の真/偽の経路を実行すれば100％になります。</t>
+  </si>
+  <si>
+    <t>自動更新＿社齢</t>
+  </si>
+  <si>
+    <t>EmployeeEditBeanのage</t>
+  </si>
+  <si>
+    <t>EmployeeEditBeanのjoinedTime</t>
+  </si>
+  <si>
+    <t>前回更新日</t>
+  </si>
+  <si>
+    <t>EmployeeEditBeanのupdateDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移。
+②「社員タイプ」項目のプルーダウンに社員タイプマスタと同じリストが表示される
+③テストデータの社員タイプ選択
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移。
+②「所属部門」項目のプルーダウンに部門マスタと同じリストが表示される
+③テストデータの所属部門選択
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+テストデータの社員タイプ候補が社員タイプマスタと同じ表示さる</t>
+  </si>
+  <si>
+    <t>テストデータの所属部門候補が部門マスタと同じ表示される</t>
+  </si>
+  <si>
+    <t>生年月日に選択</t>
+  </si>
+  <si>
+    <t>テストデータの生年月日に基づいて現在の年齢が自動で表示される</t>
+  </si>
+  <si>
+    <t>入社年月日に選択</t>
+  </si>
+  <si>
+    <t>テストデータの入社年月日に基づいて現在の社齢が自動で表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①前回の更新日表示されてる
+②「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>①前回の更新日が表示する
+②テストデータが更新された日に変わる</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新ボタンが見える
+②更新ボタンをクリック、更新画面を表示する。　　　　　　　　
+</t>
+  </si>
+  <si>
+    <t>①「検索」ボタンをクリックする後、社員情報更新画面表示する
+②テストデータの値がデータベースに保損する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1561,7 +1676,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1587,14 +1702,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1634,95 +1749,77 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF343434"/>
-      <name val="メイリオ"/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF555555"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF343434"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF353535"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF353535"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF343434"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF353535"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF343434"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1745,7 +1842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2057,10 +2154,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2069,11 +2181,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2150,99 +2262,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2297,208 +2316,260 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规 2" xfId="3" xr:uid="{14029D53-A3FE-4779-8312-6FCC10D87771}"/>
@@ -2647,16 +2718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>638174</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>126752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>519421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1352549</xdr:rowOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>98177</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1233796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2671,8 +2742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11849099" y="11029949"/>
-          <a:ext cx="2886075" cy="714375"/>
+          <a:off x="11850336" y="16023317"/>
+          <a:ext cx="2702750" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2713,82 +2784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>866774</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>106878</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>501689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FB5BC6-CE26-9A25-1F45-6541E8B0E61F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12115799" y="14449424"/>
-          <a:ext cx="2886075" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -58870"/>
-            <a:gd name="adj2" fmla="val -4167"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>住所：最大文字は？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>923924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>238330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2803,8 +2808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12030074" y="16944974"/>
-          <a:ext cx="2962276" cy="1419226"/>
+          <a:off x="13347865" y="26620806"/>
+          <a:ext cx="2774703" cy="2652693"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2949,16 +2954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>276223</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>89512</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1127808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>26796</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>218365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2973,8 +2978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906248" y="18583273"/>
-          <a:ext cx="3324227" cy="1600201"/>
+          <a:off x="11832020" y="31558328"/>
+          <a:ext cx="3054558" cy="4950092"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3141,67 +3146,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1BD926-FA8E-0296-3B77-9C289CA4E10E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3552825" y="581025"/>
-          <a:ext cx="9525" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3248,13 +3200,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3312,8 +3264,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>29934</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3373,8 +3325,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>71209</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3434,8 +3386,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147409</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>224598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3538,10 +3490,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3849,11 +3801,11 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
@@ -3936,7 +3888,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3954,25 +3906,25 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="23.25">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.45">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3992,7 +3944,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -4010,65 +3962,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="66"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="69"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4086,65 +4038,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.25">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.7">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="74"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="77"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="80"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -4162,7 +4114,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4345,7 +4297,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4356,20 +4308,20 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="18.7">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>15</v>
@@ -4377,7 +4329,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="18.7">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="18.7">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4405,7 +4357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="18.7">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4486,2181 +4438,3574 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF23"/>
+  <dimension ref="A1:CF34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="BB26" sqref="BB26"/>
+      <selection pane="bottomLeft" activeCell="BG34" sqref="BG34:BU34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.7"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="26" customWidth="1"/>
-    <col min="2" max="3" width="2.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
-    <col min="45" max="50" width="2.125" style="26" customWidth="1"/>
-    <col min="51" max="51" width="3.875" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
-    <col min="57" max="57" width="2.125" style="26" customWidth="1"/>
-    <col min="58" max="58" width="4.375" style="26" customWidth="1"/>
-    <col min="59" max="59" width="2.125" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
-    <col min="98" max="16384" width="8.25" style="26"/>
+    <col min="1" max="1" width="3.9140625" style="86" customWidth="1"/>
+    <col min="2" max="3" width="2.08203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="87" customWidth="1"/>
+    <col min="5" max="10" width="2.08203125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="86" customWidth="1"/>
+    <col min="12" max="27" width="2.08203125" style="86" customWidth="1"/>
+    <col min="28" max="28" width="2.08203125" style="89" customWidth="1"/>
+    <col min="29" max="31" width="2.08203125" style="86" customWidth="1"/>
+    <col min="32" max="32" width="2.08203125" style="87" customWidth="1"/>
+    <col min="33" max="43" width="2.08203125" style="86" customWidth="1"/>
+    <col min="44" max="44" width="2.08203125" style="89" customWidth="1"/>
+    <col min="45" max="50" width="2.08203125" style="86" customWidth="1"/>
+    <col min="51" max="51" width="3.83203125" style="86" customWidth="1"/>
+    <col min="52" max="52" width="2.08203125" style="89" customWidth="1"/>
+    <col min="53" max="55" width="2.08203125" style="86" customWidth="1"/>
+    <col min="56" max="56" width="2.08203125" style="87" customWidth="1"/>
+    <col min="57" max="57" width="2.08203125" style="86" customWidth="1"/>
+    <col min="58" max="58" width="4.33203125" style="86" customWidth="1"/>
+    <col min="59" max="59" width="2.08203125" style="86" customWidth="1"/>
+    <col min="60" max="63" width="2.08203125" style="87" customWidth="1"/>
+    <col min="64" max="97" width="2.08203125" style="86" customWidth="1"/>
+    <col min="98" max="16384" width="8.25" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="46"/>
-    </row>
-    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="112" t="s">
+    <row r="1" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="45"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="47"/>
+    </row>
+    <row r="2" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="47"/>
+    </row>
+    <row r="3" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="53"/>
+    </row>
+    <row r="4" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="70">
+        <v>45034</v>
+      </c>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="72"/>
+    </row>
+    <row r="5" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="46"/>
-    </row>
-    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="48"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="48"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="50"/>
-    </row>
-    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="99">
-        <v>45034</v>
-      </c>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="100"/>
-      <c r="BJ4" s="96" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="83"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="83"/>
+      <c r="BI5" s="83"/>
+      <c r="BJ5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="100"/>
-      <c r="BP4" s="100"/>
-      <c r="BQ4" s="52"/>
-    </row>
-    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="107"/>
-      <c r="BO5" s="107"/>
-      <c r="BP5" s="107"/>
-      <c r="BQ5" s="54"/>
-    </row>
-    <row r="6" spans="1:84" ht="19.5" thickTop="1">
-      <c r="E6" s="146"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="AF6" s="26"/>
-      <c r="AK6" s="29"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="147"/>
-      <c r="BN6" s="147"/>
-      <c r="BO6" s="146"/>
-      <c r="BP6" s="147"/>
-      <c r="BQ6" s="147"/>
+      <c r="BK5" s="83"/>
+      <c r="BL5" s="84"/>
+      <c r="BM5" s="83"/>
+      <c r="BN5" s="80"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="85"/>
+    </row>
+    <row r="6" spans="1:84" ht="19.2" thickTop="1">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="AF6" s="86"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="88"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
+      <c r="BQ6" s="88"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="135" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="137"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="91"/>
       <c r="P7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="134"/>
-      <c r="AK7" s="135" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="136"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="126" t="s">
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="135" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT7" s="141"/>
-      <c r="AU7" s="141"/>
-      <c r="AV7" s="141"/>
-      <c r="AW7" s="141"/>
-      <c r="AX7" s="141"/>
-      <c r="AY7" s="141"/>
-      <c r="AZ7" s="141"/>
-      <c r="BA7" s="141"/>
-      <c r="BB7" s="141"/>
-      <c r="BC7" s="141"/>
-      <c r="BD7" s="141"/>
-      <c r="BE7" s="141"/>
-      <c r="BF7" s="142"/>
-      <c r="BG7" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH7" s="141"/>
-      <c r="BI7" s="141"/>
-      <c r="BJ7" s="141"/>
-      <c r="BK7" s="141"/>
-      <c r="BL7" s="141"/>
-      <c r="BM7" s="141"/>
-      <c r="BN7" s="141"/>
-      <c r="BO7" s="141"/>
-      <c r="BP7" s="141"/>
-      <c r="BQ7" s="141"/>
-      <c r="BR7" s="141"/>
-      <c r="BS7" s="141"/>
-      <c r="BT7" s="141"/>
-      <c r="BU7" s="142"/>
-      <c r="BV7" s="126" t="s">
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="92"/>
+      <c r="BL7" s="92"/>
+      <c r="BM7" s="92"/>
+      <c r="BN7" s="92"/>
+      <c r="BO7" s="92"/>
+      <c r="BP7" s="92"/>
+      <c r="BQ7" s="92"/>
+      <c r="BR7" s="92"/>
+      <c r="BS7" s="92"/>
+      <c r="BT7" s="92"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="127"/>
-      <c r="BX7" s="128"/>
-      <c r="BY7" s="129"/>
-      <c r="BZ7" s="126" t="s">
+      <c r="BW7" s="97"/>
+      <c r="BX7" s="97"/>
+      <c r="BY7" s="98"/>
+      <c r="BZ7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="128"/>
-      <c r="CB7" s="129"/>
-      <c r="CC7" s="126" t="s">
+      <c r="CA7" s="97"/>
+      <c r="CB7" s="98"/>
+      <c r="CC7" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="127"/>
-      <c r="CE7" s="128"/>
-      <c r="CF7" s="129"/>
-    </row>
-    <row r="8" spans="1:84" ht="15.95" customHeight="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="140"/>
+      <c r="CD7" s="97"/>
+      <c r="CE7" s="97"/>
+      <c r="CF7" s="98"/>
+    </row>
+    <row r="8" spans="1:84" ht="15.9" customHeight="1">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="94"/>
+      <c r="Q8" s="95"/>
       <c r="R8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="94"/>
+      <c r="S8" s="95"/>
       <c r="T8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="94"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="94"/>
+      <c r="W8" s="95"/>
       <c r="X8" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="94"/>
+      <c r="Y8" s="95"/>
       <c r="Z8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="94"/>
+      <c r="AA8" s="95"/>
       <c r="AB8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="94"/>
+      <c r="AC8" s="95"/>
       <c r="AD8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="30" t="s">
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="138"/>
-      <c r="AL8" s="139"/>
-      <c r="AM8" s="140"/>
-      <c r="AN8" s="130"/>
-      <c r="AO8" s="131"/>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="131"/>
-      <c r="AR8" s="132"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="144"/>
-      <c r="BC8" s="144"/>
-      <c r="BD8" s="144"/>
-      <c r="BE8" s="144"/>
-      <c r="BF8" s="145"/>
-      <c r="BG8" s="143"/>
-      <c r="BH8" s="144"/>
-      <c r="BI8" s="144"/>
-      <c r="BJ8" s="144"/>
-      <c r="BK8" s="144"/>
-      <c r="BL8" s="144"/>
-      <c r="BM8" s="144"/>
-      <c r="BN8" s="144"/>
-      <c r="BO8" s="144"/>
-      <c r="BP8" s="144"/>
-      <c r="BQ8" s="144"/>
-      <c r="BR8" s="144"/>
-      <c r="BS8" s="144"/>
-      <c r="BT8" s="144"/>
-      <c r="BU8" s="145"/>
-      <c r="BV8" s="130"/>
-      <c r="BW8" s="131"/>
-      <c r="BX8" s="131"/>
-      <c r="BY8" s="132"/>
-      <c r="BZ8" s="130"/>
-      <c r="CA8" s="131"/>
-      <c r="CB8" s="132"/>
-      <c r="CC8" s="130"/>
-      <c r="CD8" s="131"/>
-      <c r="CE8" s="131"/>
-      <c r="CF8" s="132"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="101"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="101"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="100"/>
+      <c r="BG8" s="99"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="101"/>
+      <c r="BM8" s="101"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="101"/>
+      <c r="BQ8" s="101"/>
+      <c r="BR8" s="101"/>
+      <c r="BS8" s="101"/>
+      <c r="BT8" s="101"/>
+      <c r="BU8" s="100"/>
+      <c r="BV8" s="105"/>
+      <c r="BW8" s="106"/>
+      <c r="BX8" s="106"/>
+      <c r="BY8" s="107"/>
+      <c r="BZ8" s="105"/>
+      <c r="CA8" s="106"/>
+      <c r="CB8" s="107"/>
+      <c r="CC8" s="105"/>
+      <c r="CD8" s="106"/>
+      <c r="CE8" s="106"/>
+      <c r="CF8" s="107"/>
     </row>
     <row r="9" spans="1:84" ht="95.85" customHeight="1">
-      <c r="A9" s="41">
+      <c r="A9" s="102">
         <v>1</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="93" t="s">
+      <c r="Q9" s="95"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="88"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="85"/>
-      <c r="BG9" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH9" s="82"/>
-      <c r="BI9" s="82"/>
-      <c r="BJ9" s="82"/>
-      <c r="BK9" s="82"/>
-      <c r="BL9" s="82"/>
-      <c r="BM9" s="82"/>
-      <c r="BN9" s="82"/>
-      <c r="BO9" s="82"/>
-      <c r="BP9" s="82"/>
-      <c r="BQ9" s="82"/>
-      <c r="BR9" s="82"/>
-      <c r="BS9" s="82"/>
-      <c r="BT9" s="82"/>
-      <c r="BU9" s="83"/>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="41"/>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="41"/>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="32"/>
-    </row>
-    <row r="10" spans="1:84" ht="77.25" customHeight="1">
-      <c r="A10" s="41">
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH9" s="112"/>
+      <c r="BI9" s="112"/>
+      <c r="BJ9" s="112"/>
+      <c r="BK9" s="112"/>
+      <c r="BL9" s="112"/>
+      <c r="BM9" s="112"/>
+      <c r="BN9" s="112"/>
+      <c r="BO9" s="112"/>
+      <c r="BP9" s="112"/>
+      <c r="BQ9" s="112"/>
+      <c r="BR9" s="112"/>
+      <c r="BS9" s="112"/>
+      <c r="BT9" s="112"/>
+      <c r="BU9" s="113"/>
+      <c r="BV9" s="102"/>
+      <c r="BW9" s="103"/>
+      <c r="BX9" s="103"/>
+      <c r="BY9" s="104"/>
+      <c r="BZ9" s="102"/>
+      <c r="CA9" s="103"/>
+      <c r="CB9" s="104"/>
+      <c r="CC9" s="102"/>
+      <c r="CD9" s="103"/>
+      <c r="CE9" s="103"/>
+      <c r="CF9" s="104"/>
+    </row>
+    <row r="10" spans="1:84" ht="77.3" customHeight="1">
+      <c r="A10" s="102">
         <v>2</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="95"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="95"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="94"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="94"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="93" t="s">
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
+      <c r="BJ10" s="110"/>
+      <c r="BK10" s="110"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="110"/>
+      <c r="BS10" s="110"/>
+      <c r="BT10" s="110"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="103"/>
+      <c r="BX10" s="103"/>
+      <c r="BY10" s="104"/>
+      <c r="BZ10" s="102"/>
+      <c r="CA10" s="103"/>
+      <c r="CB10" s="104"/>
+      <c r="CC10" s="102"/>
+      <c r="CD10" s="103"/>
+      <c r="CE10" s="103"/>
+      <c r="CF10" s="104"/>
+    </row>
+    <row r="11" spans="1:84" ht="86.3" customHeight="1">
+      <c r="A11" s="102">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="95"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="111"/>
+      <c r="BG11" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AL10" s="133"/>
-      <c r="AM10" s="134"/>
-      <c r="AN10" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="81" t="s">
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="111"/>
+      <c r="BV11" s="102"/>
+      <c r="BW11" s="103"/>
+      <c r="BX11" s="103"/>
+      <c r="BY11" s="104"/>
+      <c r="BZ11" s="102"/>
+      <c r="CA11" s="103"/>
+      <c r="CB11" s="104"/>
+      <c r="CC11" s="102"/>
+      <c r="CD11" s="103"/>
+      <c r="CE11" s="103"/>
+      <c r="CF11" s="104"/>
+    </row>
+    <row r="12" spans="1:84" ht="92.25" customHeight="1">
+      <c r="A12" s="102">
+        <v>4</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="95"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" s="110"/>
+      <c r="AP12" s="110"/>
+      <c r="AQ12" s="110"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="85"/>
-      <c r="BG10" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="85"/>
-      <c r="BV10" s="41"/>
-      <c r="BW10" s="31"/>
-      <c r="BX10" s="31"/>
-      <c r="BY10" s="32"/>
-      <c r="BZ10" s="41"/>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="32"/>
-      <c r="CC10" s="41"/>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="31"/>
-      <c r="CF10" s="32"/>
-    </row>
-    <row r="11" spans="1:84" ht="86.25" customHeight="1">
-      <c r="A11" s="41">
-        <v>3</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="94"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="93" t="s">
+      <c r="AT12" s="110"/>
+      <c r="AU12" s="110"/>
+      <c r="AV12" s="110"/>
+      <c r="AW12" s="110"/>
+      <c r="AX12" s="110"/>
+      <c r="AY12" s="110"/>
+      <c r="AZ12" s="110"/>
+      <c r="BA12" s="110"/>
+      <c r="BB12" s="110"/>
+      <c r="BC12" s="110"/>
+      <c r="BD12" s="110"/>
+      <c r="BE12" s="110"/>
+      <c r="BF12" s="111"/>
+      <c r="BG12" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AL11" s="133"/>
-      <c r="AM11" s="134"/>
-      <c r="AN11" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="84"/>
-      <c r="BN11" s="84"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="84"/>
-      <c r="BQ11" s="84"/>
-      <c r="BR11" s="84"/>
-      <c r="BS11" s="84"/>
-      <c r="BT11" s="84"/>
-      <c r="BU11" s="85"/>
-      <c r="BV11" s="41"/>
-      <c r="BW11" s="31"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="32"/>
-      <c r="BZ11" s="41"/>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="41"/>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="31"/>
-      <c r="CF11" s="32"/>
-    </row>
-    <row r="12" spans="1:84" ht="92.25" customHeight="1">
-      <c r="A12" s="41">
-        <v>4</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30" t="s">
+      <c r="BH12" s="110"/>
+      <c r="BI12" s="110"/>
+      <c r="BJ12" s="110"/>
+      <c r="BK12" s="110"/>
+      <c r="BL12" s="110"/>
+      <c r="BM12" s="110"/>
+      <c r="BN12" s="110"/>
+      <c r="BO12" s="110"/>
+      <c r="BP12" s="110"/>
+      <c r="BQ12" s="110"/>
+      <c r="BR12" s="110"/>
+      <c r="BS12" s="110"/>
+      <c r="BT12" s="110"/>
+      <c r="BU12" s="111"/>
+      <c r="BV12" s="102"/>
+      <c r="BW12" s="103"/>
+      <c r="BX12" s="103"/>
+      <c r="BY12" s="104"/>
+      <c r="BZ12" s="102"/>
+      <c r="CA12" s="103"/>
+      <c r="CB12" s="104"/>
+      <c r="CC12" s="102"/>
+      <c r="CD12" s="103"/>
+      <c r="CE12" s="103"/>
+      <c r="CF12" s="104"/>
+    </row>
+    <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
+      <c r="A13" s="102">
+        <v>5</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="95"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" s="110"/>
+      <c r="AP13" s="110"/>
+      <c r="AQ13" s="110"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT13" s="110"/>
+      <c r="AU13" s="110"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="110"/>
+      <c r="AX13" s="110"/>
+      <c r="AY13" s="110"/>
+      <c r="AZ13" s="110"/>
+      <c r="BA13" s="110"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="110"/>
+      <c r="BD13" s="110"/>
+      <c r="BE13" s="110"/>
+      <c r="BF13" s="111"/>
+      <c r="BG13" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH13" s="110"/>
+      <c r="BI13" s="110"/>
+      <c r="BJ13" s="110"/>
+      <c r="BK13" s="110"/>
+      <c r="BL13" s="110"/>
+      <c r="BM13" s="110"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="110"/>
+      <c r="BP13" s="110"/>
+      <c r="BQ13" s="110"/>
+      <c r="BR13" s="110"/>
+      <c r="BS13" s="110"/>
+      <c r="BT13" s="110"/>
+      <c r="BU13" s="111"/>
+      <c r="BV13" s="102"/>
+      <c r="BW13" s="103"/>
+      <c r="BX13" s="103"/>
+      <c r="BY13" s="104"/>
+      <c r="BZ13" s="102"/>
+      <c r="CA13" s="103"/>
+      <c r="CB13" s="104"/>
+      <c r="CC13" s="102"/>
+      <c r="CD13" s="103"/>
+      <c r="CE13" s="103"/>
+      <c r="CF13" s="104"/>
+    </row>
+    <row r="14" spans="1:84" ht="79.5" customHeight="1">
+      <c r="A14" s="102">
+        <v>6</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL12" s="133"/>
-      <c r="AM12" s="134"/>
-      <c r="AN12" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="88"/>
-      <c r="AQ12" s="88"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="84"/>
-      <c r="BN12" s="84"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="84"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="85"/>
-      <c r="BV12" s="41"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="BY12" s="32"/>
-      <c r="BZ12" s="41"/>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="32"/>
-      <c r="CC12" s="41"/>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="31"/>
-      <c r="CF12" s="32"/>
-    </row>
-    <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
-      <c r="A13" s="41">
-        <v>5</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="41" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="95"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO14" s="110"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="110"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT14" s="110"/>
+      <c r="AU14" s="110"/>
+      <c r="AV14" s="110"/>
+      <c r="AW14" s="110"/>
+      <c r="AX14" s="110"/>
+      <c r="AY14" s="110"/>
+      <c r="AZ14" s="110"/>
+      <c r="BA14" s="110"/>
+      <c r="BB14" s="110"/>
+      <c r="BC14" s="110"/>
+      <c r="BD14" s="110"/>
+      <c r="BE14" s="110"/>
+      <c r="BF14" s="111"/>
+      <c r="BG14" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH14" s="110"/>
+      <c r="BI14" s="110"/>
+      <c r="BJ14" s="110"/>
+      <c r="BK14" s="110"/>
+      <c r="BL14" s="110"/>
+      <c r="BM14" s="110"/>
+      <c r="BN14" s="110"/>
+      <c r="BO14" s="110"/>
+      <c r="BP14" s="110"/>
+      <c r="BQ14" s="110"/>
+      <c r="BR14" s="110"/>
+      <c r="BS14" s="110"/>
+      <c r="BT14" s="110"/>
+      <c r="BU14" s="111"/>
+      <c r="BV14" s="102"/>
+      <c r="BW14" s="103"/>
+      <c r="BX14" s="103"/>
+      <c r="BY14" s="104"/>
+      <c r="BZ14" s="102"/>
+      <c r="CA14" s="103"/>
+      <c r="CB14" s="104"/>
+      <c r="CC14" s="102"/>
+      <c r="CD14" s="103"/>
+      <c r="CE14" s="103"/>
+      <c r="CF14" s="104"/>
+    </row>
+    <row r="15" spans="1:84" ht="87" customHeight="1">
+      <c r="A15" s="102">
+        <v>7</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="81" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="85"/>
-      <c r="BG13" s="81" t="s">
+      <c r="Q15" s="95"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="95"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="110"/>
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="110"/>
+      <c r="BA15" s="110"/>
+      <c r="BB15" s="110"/>
+      <c r="BC15" s="110"/>
+      <c r="BD15" s="110"/>
+      <c r="BE15" s="110"/>
+      <c r="BF15" s="111"/>
+      <c r="BG15" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
+      <c r="BJ15" s="110"/>
+      <c r="BK15" s="110"/>
+      <c r="BL15" s="110"/>
+      <c r="BM15" s="110"/>
+      <c r="BN15" s="110"/>
+      <c r="BO15" s="110"/>
+      <c r="BP15" s="110"/>
+      <c r="BQ15" s="110"/>
+      <c r="BR15" s="110"/>
+      <c r="BS15" s="110"/>
+      <c r="BT15" s="110"/>
+      <c r="BU15" s="111"/>
+      <c r="BV15" s="102"/>
+      <c r="BW15" s="103"/>
+      <c r="BX15" s="103"/>
+      <c r="BY15" s="104"/>
+      <c r="BZ15" s="102"/>
+      <c r="CA15" s="103"/>
+      <c r="CB15" s="104"/>
+      <c r="CC15" s="102"/>
+      <c r="CD15" s="103"/>
+      <c r="CE15" s="103"/>
+      <c r="CF15" s="104"/>
+    </row>
+    <row r="16" spans="1:84" ht="87" customHeight="1">
+      <c r="A16" s="102">
+        <v>8</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="108"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="95"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="84"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="84"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="84"/>
-      <c r="BS13" s="84"/>
-      <c r="BT13" s="84"/>
-      <c r="BU13" s="85"/>
-      <c r="BV13" s="41"/>
-      <c r="BW13" s="31"/>
-      <c r="BX13" s="31"/>
-      <c r="BY13" s="32"/>
-      <c r="BZ13" s="41"/>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="41"/>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="31"/>
-      <c r="CF13" s="32"/>
-    </row>
-    <row r="14" spans="1:84" ht="79.5" customHeight="1">
-      <c r="A14" s="41">
-        <v>6</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="94"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="81" t="s">
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO16" s="110"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT16" s="110"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="110"/>
+      <c r="AW16" s="110"/>
+      <c r="AX16" s="110"/>
+      <c r="AY16" s="110"/>
+      <c r="AZ16" s="110"/>
+      <c r="BA16" s="110"/>
+      <c r="BB16" s="110"/>
+      <c r="BC16" s="110"/>
+      <c r="BD16" s="110"/>
+      <c r="BE16" s="110"/>
+      <c r="BF16" s="111"/>
+      <c r="BG16" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH16" s="110"/>
+      <c r="BI16" s="110"/>
+      <c r="BJ16" s="110"/>
+      <c r="BK16" s="110"/>
+      <c r="BL16" s="110"/>
+      <c r="BM16" s="110"/>
+      <c r="BN16" s="110"/>
+      <c r="BO16" s="110"/>
+      <c r="BP16" s="110"/>
+      <c r="BQ16" s="110"/>
+      <c r="BR16" s="110"/>
+      <c r="BS16" s="110"/>
+      <c r="BT16" s="110"/>
+      <c r="BU16" s="111"/>
+      <c r="BV16" s="102"/>
+      <c r="BW16" s="103"/>
+      <c r="BX16" s="103"/>
+      <c r="BY16" s="104"/>
+      <c r="BZ16" s="102"/>
+      <c r="CA16" s="103"/>
+      <c r="CB16" s="104"/>
+      <c r="CC16" s="102"/>
+      <c r="CD16" s="103"/>
+      <c r="CE16" s="103"/>
+      <c r="CF16" s="104"/>
+    </row>
+    <row r="17" spans="1:84" ht="87" customHeight="1">
+      <c r="A17" s="102">
+        <v>9</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="95"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO17" s="110"/>
+      <c r="AP17" s="110"/>
+      <c r="AQ17" s="110"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT17" s="110"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="110"/>
+      <c r="AW17" s="110"/>
+      <c r="AX17" s="110"/>
+      <c r="AY17" s="110"/>
+      <c r="AZ17" s="110"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="111"/>
+      <c r="BG17" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="81" t="s">
+      <c r="BH17" s="110"/>
+      <c r="BI17" s="110"/>
+      <c r="BJ17" s="110"/>
+      <c r="BK17" s="110"/>
+      <c r="BL17" s="110"/>
+      <c r="BM17" s="110"/>
+      <c r="BN17" s="110"/>
+      <c r="BO17" s="110"/>
+      <c r="BP17" s="110"/>
+      <c r="BQ17" s="110"/>
+      <c r="BR17" s="110"/>
+      <c r="BS17" s="110"/>
+      <c r="BT17" s="110"/>
+      <c r="BU17" s="111"/>
+      <c r="BV17" s="102"/>
+      <c r="BW17" s="103"/>
+      <c r="BX17" s="103"/>
+      <c r="BY17" s="104"/>
+      <c r="BZ17" s="102"/>
+      <c r="CA17" s="103"/>
+      <c r="CB17" s="104"/>
+      <c r="CC17" s="102"/>
+      <c r="CD17" s="103"/>
+      <c r="CE17" s="103"/>
+      <c r="CF17" s="104"/>
+    </row>
+    <row r="18" spans="1:84" ht="123" customHeight="1">
+      <c r="A18" s="102">
+        <v>10</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="95"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO18" s="110"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="110"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT18" s="110"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="110"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="110"/>
+      <c r="BA18" s="110"/>
+      <c r="BB18" s="110"/>
+      <c r="BC18" s="110"/>
+      <c r="BD18" s="110"/>
+      <c r="BE18" s="110"/>
+      <c r="BF18" s="111"/>
+      <c r="BG18" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH18" s="110"/>
+      <c r="BI18" s="110"/>
+      <c r="BJ18" s="110"/>
+      <c r="BK18" s="110"/>
+      <c r="BL18" s="110"/>
+      <c r="BM18" s="110"/>
+      <c r="BN18" s="110"/>
+      <c r="BO18" s="110"/>
+      <c r="BP18" s="110"/>
+      <c r="BQ18" s="110"/>
+      <c r="BR18" s="110"/>
+      <c r="BS18" s="110"/>
+      <c r="BT18" s="110"/>
+      <c r="BU18" s="111"/>
+      <c r="BV18" s="102"/>
+      <c r="BW18" s="103"/>
+      <c r="BX18" s="103"/>
+      <c r="BY18" s="104"/>
+      <c r="BZ18" s="102"/>
+      <c r="CA18" s="103"/>
+      <c r="CB18" s="104"/>
+      <c r="CC18" s="102"/>
+      <c r="CD18" s="103"/>
+      <c r="CE18" s="103"/>
+      <c r="CF18" s="104"/>
+    </row>
+    <row r="19" spans="1:84" ht="105.8" customHeight="1">
+      <c r="A19" s="102">
+        <v>11</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="95"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO19" s="110"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="110"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT19" s="110"/>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="110"/>
+      <c r="AW19" s="110"/>
+      <c r="AX19" s="110"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="110"/>
+      <c r="BA19" s="110"/>
+      <c r="BB19" s="110"/>
+      <c r="BC19" s="110"/>
+      <c r="BD19" s="110"/>
+      <c r="BE19" s="110"/>
+      <c r="BF19" s="111"/>
+      <c r="BG19" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH19" s="110"/>
+      <c r="BI19" s="110"/>
+      <c r="BJ19" s="110"/>
+      <c r="BK19" s="110"/>
+      <c r="BL19" s="110"/>
+      <c r="BM19" s="110"/>
+      <c r="BN19" s="110"/>
+      <c r="BO19" s="110"/>
+      <c r="BP19" s="110"/>
+      <c r="BQ19" s="110"/>
+      <c r="BR19" s="110"/>
+      <c r="BS19" s="110"/>
+      <c r="BT19" s="110"/>
+      <c r="BU19" s="111"/>
+      <c r="BV19" s="102"/>
+      <c r="BW19" s="103"/>
+      <c r="BX19" s="103"/>
+      <c r="BY19" s="104"/>
+      <c r="BZ19" s="102"/>
+      <c r="CA19" s="103"/>
+      <c r="CB19" s="104"/>
+      <c r="CC19" s="102"/>
+      <c r="CD19" s="103"/>
+      <c r="CE19" s="103"/>
+      <c r="CF19" s="104"/>
+    </row>
+    <row r="20" spans="1:84" ht="105.8" customHeight="1">
+      <c r="A20" s="102">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="84"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="84"/>
-      <c r="BL14" s="84"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="84"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="84"/>
-      <c r="BS14" s="84"/>
-      <c r="BT14" s="84"/>
-      <c r="BU14" s="85"/>
-      <c r="BV14" s="41"/>
-      <c r="BW14" s="31"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="32"/>
-      <c r="BZ14" s="41"/>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="41"/>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="31"/>
-      <c r="CF14" s="32"/>
-    </row>
-    <row r="15" spans="1:84" ht="87" customHeight="1">
-      <c r="A15" s="41">
-        <v>7</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U15" s="94"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="81" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="95"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO20" s="110"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="110"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="85"/>
-      <c r="BG15" s="81" t="s">
+      <c r="AT20" s="110"/>
+      <c r="AU20" s="110"/>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="110"/>
+      <c r="BA20" s="110"/>
+      <c r="BB20" s="110"/>
+      <c r="BC20" s="110"/>
+      <c r="BD20" s="110"/>
+      <c r="BE20" s="110"/>
+      <c r="BF20" s="111"/>
+      <c r="BG20" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="84"/>
-      <c r="BK15" s="84"/>
-      <c r="BL15" s="84"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="84"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="84"/>
-      <c r="BS15" s="84"/>
-      <c r="BT15" s="84"/>
-      <c r="BU15" s="85"/>
-      <c r="BV15" s="41"/>
-      <c r="BW15" s="31"/>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="32"/>
-      <c r="BZ15" s="41"/>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="41"/>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="32"/>
-    </row>
-    <row r="16" spans="1:84" ht="105.75" customHeight="1">
-      <c r="A16" s="41">
-        <v>8</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="30" t="s">
+      <c r="BH20" s="110"/>
+      <c r="BI20" s="110"/>
+      <c r="BJ20" s="110"/>
+      <c r="BK20" s="110"/>
+      <c r="BL20" s="110"/>
+      <c r="BM20" s="110"/>
+      <c r="BN20" s="110"/>
+      <c r="BO20" s="110"/>
+      <c r="BP20" s="110"/>
+      <c r="BQ20" s="110"/>
+      <c r="BR20" s="110"/>
+      <c r="BS20" s="110"/>
+      <c r="BT20" s="110"/>
+      <c r="BU20" s="111"/>
+      <c r="BV20" s="102"/>
+      <c r="BW20" s="103"/>
+      <c r="BX20" s="103"/>
+      <c r="BY20" s="104"/>
+      <c r="BZ20" s="102"/>
+      <c r="CA20" s="103"/>
+      <c r="CB20" s="104"/>
+      <c r="CC20" s="102"/>
+      <c r="CD20" s="103"/>
+      <c r="CE20" s="103"/>
+      <c r="CF20" s="104"/>
+    </row>
+    <row r="21" spans="1:84" ht="128.25" customHeight="1">
+      <c r="A21" s="102">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="95"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO21" s="110"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="110"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U16" s="94"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="89"/>
-      <c r="AS16" s="81" t="s">
+      <c r="AT21" s="117"/>
+      <c r="AU21" s="117"/>
+      <c r="AV21" s="117"/>
+      <c r="AW21" s="117"/>
+      <c r="AX21" s="117"/>
+      <c r="AY21" s="117"/>
+      <c r="AZ21" s="117"/>
+      <c r="BA21" s="117"/>
+      <c r="BB21" s="117"/>
+      <c r="BC21" s="117"/>
+      <c r="BD21" s="117"/>
+      <c r="BE21" s="117"/>
+      <c r="BF21" s="118"/>
+      <c r="BG21" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="85"/>
-      <c r="BG16" s="81" t="s">
+      <c r="BH21" s="110"/>
+      <c r="BI21" s="110"/>
+      <c r="BJ21" s="110"/>
+      <c r="BK21" s="110"/>
+      <c r="BL21" s="110"/>
+      <c r="BM21" s="110"/>
+      <c r="BN21" s="110"/>
+      <c r="BO21" s="110"/>
+      <c r="BP21" s="110"/>
+      <c r="BQ21" s="110"/>
+      <c r="BR21" s="110"/>
+      <c r="BS21" s="110"/>
+      <c r="BT21" s="110"/>
+      <c r="BU21" s="111"/>
+      <c r="BV21" s="102"/>
+      <c r="BW21" s="103"/>
+      <c r="BX21" s="103"/>
+      <c r="BY21" s="104"/>
+      <c r="BZ21" s="102"/>
+      <c r="CA21" s="103"/>
+      <c r="CB21" s="104"/>
+      <c r="CC21" s="102"/>
+      <c r="CD21" s="103"/>
+      <c r="CE21" s="103"/>
+      <c r="CF21" s="104"/>
+    </row>
+    <row r="22" spans="1:84" ht="123" customHeight="1">
+      <c r="A22" s="102">
+        <v>14</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="95"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL22" s="103"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO22" s="110"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="110"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT22" s="110"/>
+      <c r="AU22" s="110"/>
+      <c r="AV22" s="110"/>
+      <c r="AW22" s="110"/>
+      <c r="AX22" s="110"/>
+      <c r="AY22" s="110"/>
+      <c r="AZ22" s="110"/>
+      <c r="BA22" s="110"/>
+      <c r="BB22" s="110"/>
+      <c r="BC22" s="110"/>
+      <c r="BD22" s="110"/>
+      <c r="BE22" s="110"/>
+      <c r="BF22" s="111"/>
+      <c r="BG22" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH22" s="110"/>
+      <c r="BI22" s="110"/>
+      <c r="BJ22" s="110"/>
+      <c r="BK22" s="110"/>
+      <c r="BL22" s="110"/>
+      <c r="BM22" s="110"/>
+      <c r="BN22" s="110"/>
+      <c r="BO22" s="110"/>
+      <c r="BP22" s="110"/>
+      <c r="BQ22" s="110"/>
+      <c r="BR22" s="110"/>
+      <c r="BS22" s="110"/>
+      <c r="BT22" s="110"/>
+      <c r="BU22" s="111"/>
+      <c r="BV22" s="102"/>
+      <c r="BW22" s="103"/>
+      <c r="BX22" s="103"/>
+      <c r="BY22" s="104"/>
+      <c r="BZ22" s="102"/>
+      <c r="CA22" s="103"/>
+      <c r="CB22" s="104"/>
+      <c r="CC22" s="102"/>
+      <c r="CD22" s="103"/>
+      <c r="CE22" s="103"/>
+      <c r="CF22" s="104"/>
+    </row>
+    <row r="23" spans="1:84" ht="123" customHeight="1">
+      <c r="A23" s="102">
+        <v>15</v>
+      </c>
+      <c r="B23" s="104"/>
+      <c r="C23" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="95"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="102"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL23" s="103"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO23" s="110"/>
+      <c r="AP23" s="110"/>
+      <c r="AQ23" s="110"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="BH16" s="84"/>
-      <c r="BI16" s="84"/>
-      <c r="BJ16" s="84"/>
-      <c r="BK16" s="84"/>
-      <c r="BL16" s="84"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="84"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="84"/>
-      <c r="BS16" s="84"/>
-      <c r="BT16" s="84"/>
-      <c r="BU16" s="85"/>
-      <c r="BV16" s="41"/>
-      <c r="BW16" s="31"/>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="32"/>
-      <c r="BZ16" s="41"/>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="32"/>
-      <c r="CC16" s="41"/>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="31"/>
-      <c r="CF16" s="32"/>
-    </row>
-    <row r="17" spans="1:84" ht="128.25" customHeight="1">
-      <c r="A17" s="41">
-        <v>9</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U17" s="94"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="88"/>
-      <c r="AQ17" s="88"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="90" t="s">
+      <c r="AT23" s="110"/>
+      <c r="AU23" s="110"/>
+      <c r="AV23" s="110"/>
+      <c r="AW23" s="110"/>
+      <c r="AX23" s="110"/>
+      <c r="AY23" s="110"/>
+      <c r="AZ23" s="110"/>
+      <c r="BA23" s="110"/>
+      <c r="BB23" s="110"/>
+      <c r="BC23" s="110"/>
+      <c r="BD23" s="110"/>
+      <c r="BE23" s="110"/>
+      <c r="BF23" s="111"/>
+      <c r="BG23" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH23" s="110"/>
+      <c r="BI23" s="110"/>
+      <c r="BJ23" s="110"/>
+      <c r="BK23" s="110"/>
+      <c r="BL23" s="110"/>
+      <c r="BM23" s="110"/>
+      <c r="BN23" s="110"/>
+      <c r="BO23" s="110"/>
+      <c r="BP23" s="110"/>
+      <c r="BQ23" s="110"/>
+      <c r="BR23" s="110"/>
+      <c r="BS23" s="110"/>
+      <c r="BT23" s="110"/>
+      <c r="BU23" s="111"/>
+      <c r="BV23" s="102"/>
+      <c r="BW23" s="103"/>
+      <c r="BX23" s="103"/>
+      <c r="BY23" s="104"/>
+      <c r="BZ23" s="102"/>
+      <c r="CA23" s="103"/>
+      <c r="CB23" s="104"/>
+      <c r="CC23" s="102"/>
+      <c r="CD23" s="103"/>
+      <c r="CE23" s="103"/>
+      <c r="CF23" s="104"/>
+    </row>
+    <row r="24" spans="1:84" ht="102.05" customHeight="1">
+      <c r="A24" s="102">
+        <v>16</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="92"/>
-      <c r="BG17" s="81" t="s">
+      <c r="D24" s="108"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24" s="95"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" s="103"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO24" s="110"/>
+      <c r="AP24" s="110"/>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="84"/>
-      <c r="BJ17" s="84"/>
-      <c r="BK17" s="84"/>
-      <c r="BL17" s="84"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="84"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="84"/>
-      <c r="BS17" s="84"/>
-      <c r="BT17" s="84"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="41"/>
-      <c r="BW17" s="31"/>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="32"/>
-      <c r="BZ17" s="41"/>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="32"/>
-      <c r="CC17" s="41"/>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="31"/>
-      <c r="CF17" s="32"/>
-    </row>
-    <row r="18" spans="1:84" ht="123" customHeight="1">
-      <c r="A18" s="41">
-        <v>10</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U18" s="94"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="81" t="s">
+      <c r="AT24" s="110"/>
+      <c r="AU24" s="110"/>
+      <c r="AV24" s="110"/>
+      <c r="AW24" s="110"/>
+      <c r="AX24" s="110"/>
+      <c r="AY24" s="110"/>
+      <c r="AZ24" s="110"/>
+      <c r="BA24" s="110"/>
+      <c r="BB24" s="110"/>
+      <c r="BC24" s="110"/>
+      <c r="BD24" s="110"/>
+      <c r="BE24" s="110"/>
+      <c r="BF24" s="111"/>
+      <c r="BG24" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="84"/>
-      <c r="BE18" s="84"/>
-      <c r="BF18" s="85"/>
-      <c r="BG18" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="84"/>
-      <c r="BJ18" s="84"/>
-      <c r="BK18" s="84"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="84"/>
-      <c r="BQ18" s="84"/>
-      <c r="BR18" s="84"/>
-      <c r="BS18" s="84"/>
-      <c r="BT18" s="84"/>
-      <c r="BU18" s="85"/>
-      <c r="BV18" s="41"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="41"/>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="41"/>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="31"/>
-      <c r="CF18" s="32"/>
-    </row>
-    <row r="19" spans="1:84" ht="102" customHeight="1">
-      <c r="A19" s="41">
-        <v>11</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U19" s="94"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="88"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="84"/>
-      <c r="BA19" s="84"/>
-      <c r="BB19" s="84"/>
-      <c r="BC19" s="84"/>
-      <c r="BD19" s="84"/>
-      <c r="BE19" s="84"/>
-      <c r="BF19" s="85"/>
-      <c r="BG19" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="BH19" s="84"/>
-      <c r="BI19" s="84"/>
-      <c r="BJ19" s="84"/>
-      <c r="BK19" s="84"/>
-      <c r="BL19" s="84"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="84"/>
-      <c r="BO19" s="84"/>
-      <c r="BP19" s="84"/>
-      <c r="BQ19" s="84"/>
-      <c r="BR19" s="84"/>
-      <c r="BS19" s="84"/>
-      <c r="BT19" s="84"/>
-      <c r="BU19" s="85"/>
-      <c r="BV19" s="41"/>
-      <c r="BW19" s="31"/>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="41"/>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="32"/>
-      <c r="CC19" s="41"/>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="31"/>
-      <c r="CF19" s="32"/>
-    </row>
-    <row r="20" spans="1:84" ht="90" customHeight="1">
-      <c r="A20" s="41">
-        <v>12</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="U20" s="94"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="89"/>
-      <c r="AS20" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="85"/>
-      <c r="BG20" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH20" s="84"/>
-      <c r="BI20" s="84"/>
-      <c r="BJ20" s="84"/>
-      <c r="BK20" s="84"/>
-      <c r="BL20" s="84"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="84"/>
-      <c r="BP20" s="84"/>
-      <c r="BQ20" s="84"/>
-      <c r="BR20" s="84"/>
-      <c r="BS20" s="84"/>
-      <c r="BT20" s="84"/>
-      <c r="BU20" s="85"/>
-      <c r="BV20" s="41"/>
-      <c r="BW20" s="31"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="32"/>
-      <c r="BZ20" s="41"/>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="32"/>
-      <c r="CC20" s="41"/>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="31"/>
-      <c r="CF20" s="32"/>
-    </row>
-    <row r="21" spans="1:84" ht="99.75" customHeight="1">
-      <c r="A21" s="41">
-        <v>13</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="U21" s="94"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="84"/>
-      <c r="BE21" s="84"/>
-      <c r="BF21" s="85"/>
-      <c r="BG21" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH21" s="82"/>
-      <c r="BI21" s="82"/>
-      <c r="BJ21" s="82"/>
-      <c r="BK21" s="82"/>
-      <c r="BL21" s="82"/>
-      <c r="BM21" s="82"/>
-      <c r="BN21" s="82"/>
-      <c r="BO21" s="82"/>
-      <c r="BP21" s="82"/>
-      <c r="BQ21" s="82"/>
-      <c r="BR21" s="82"/>
-      <c r="BS21" s="82"/>
-      <c r="BT21" s="82"/>
-      <c r="BU21" s="83"/>
-      <c r="BV21" s="41"/>
-      <c r="BW21" s="31"/>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="32"/>
-      <c r="BZ21" s="41"/>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="41"/>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="31"/>
-      <c r="CF21" s="32"/>
-    </row>
-    <row r="22" spans="1:84" ht="80.45" customHeight="1">
-      <c r="A22" s="41">
-        <v>14</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="30" t="s">
+      <c r="BH24" s="110"/>
+      <c r="BI24" s="110"/>
+      <c r="BJ24" s="110"/>
+      <c r="BK24" s="110"/>
+      <c r="BL24" s="110"/>
+      <c r="BM24" s="110"/>
+      <c r="BN24" s="110"/>
+      <c r="BO24" s="110"/>
+      <c r="BP24" s="110"/>
+      <c r="BQ24" s="110"/>
+      <c r="BR24" s="110"/>
+      <c r="BS24" s="110"/>
+      <c r="BT24" s="110"/>
+      <c r="BU24" s="111"/>
+      <c r="BV24" s="102"/>
+      <c r="BW24" s="103"/>
+      <c r="BX24" s="103"/>
+      <c r="BY24" s="104"/>
+      <c r="BZ24" s="102"/>
+      <c r="CA24" s="103"/>
+      <c r="CB24" s="104"/>
+      <c r="CC24" s="102"/>
+      <c r="CD24" s="103"/>
+      <c r="CE24" s="103"/>
+      <c r="CF24" s="104"/>
+    </row>
+    <row r="25" spans="1:84" ht="90" customHeight="1">
+      <c r="A25" s="102">
+        <v>17</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="108"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" s="95"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL25" s="103"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO25" s="110"/>
+      <c r="AP25" s="110"/>
+      <c r="AQ25" s="110"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT25" s="110"/>
+      <c r="AU25" s="110"/>
+      <c r="AV25" s="110"/>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="110"/>
+      <c r="AY25" s="110"/>
+      <c r="AZ25" s="110"/>
+      <c r="BA25" s="110"/>
+      <c r="BB25" s="110"/>
+      <c r="BC25" s="110"/>
+      <c r="BD25" s="110"/>
+      <c r="BE25" s="110"/>
+      <c r="BF25" s="111"/>
+      <c r="BG25" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH25" s="110"/>
+      <c r="BI25" s="110"/>
+      <c r="BJ25" s="110"/>
+      <c r="BK25" s="110"/>
+      <c r="BL25" s="110"/>
+      <c r="BM25" s="110"/>
+      <c r="BN25" s="110"/>
+      <c r="BO25" s="110"/>
+      <c r="BP25" s="110"/>
+      <c r="BQ25" s="110"/>
+      <c r="BR25" s="110"/>
+      <c r="BS25" s="110"/>
+      <c r="BT25" s="110"/>
+      <c r="BU25" s="111"/>
+      <c r="BV25" s="102"/>
+      <c r="BW25" s="103"/>
+      <c r="BX25" s="103"/>
+      <c r="BY25" s="104"/>
+      <c r="BZ25" s="102"/>
+      <c r="CA25" s="103"/>
+      <c r="CB25" s="104"/>
+      <c r="CC25" s="102"/>
+      <c r="CD25" s="103"/>
+      <c r="CE25" s="103"/>
+      <c r="CF25" s="104"/>
+    </row>
+    <row r="26" spans="1:84" ht="90" customHeight="1">
+      <c r="A26" s="102">
+        <v>18</v>
+      </c>
+      <c r="B26" s="104"/>
+      <c r="C26" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="U22" s="94"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO22" s="86"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH22" s="82"/>
-      <c r="BI22" s="82"/>
-      <c r="BJ22" s="82"/>
-      <c r="BK22" s="82"/>
-      <c r="BL22" s="82"/>
-      <c r="BM22" s="82"/>
-      <c r="BN22" s="82"/>
-      <c r="BO22" s="82"/>
-      <c r="BP22" s="82"/>
-      <c r="BQ22" s="82"/>
-      <c r="BR22" s="82"/>
-      <c r="BS22" s="82"/>
-      <c r="BT22" s="82"/>
-      <c r="BU22" s="83"/>
-      <c r="BV22" s="41"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="32"/>
-      <c r="BZ22" s="41"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="32"/>
-      <c r="CC22" s="41"/>
-      <c r="CD22" s="31"/>
-      <c r="CE22" s="31"/>
-      <c r="CF22" s="32"/>
-    </row>
-    <row r="23" spans="1:84" ht="63.6" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="31"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="31"/>
-      <c r="BM23" s="31"/>
-      <c r="BN23" s="31"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="31"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="32"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="31"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="32"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="31"/>
-      <c r="CB23" s="32"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="31"/>
-      <c r="CE23" s="31"/>
-      <c r="CF23" s="32"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" s="95"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO26" s="110"/>
+      <c r="AP26" s="110"/>
+      <c r="AQ26" s="110"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT26" s="110"/>
+      <c r="AU26" s="110"/>
+      <c r="AV26" s="110"/>
+      <c r="AW26" s="110"/>
+      <c r="AX26" s="110"/>
+      <c r="AY26" s="110"/>
+      <c r="AZ26" s="110"/>
+      <c r="BA26" s="110"/>
+      <c r="BB26" s="110"/>
+      <c r="BC26" s="110"/>
+      <c r="BD26" s="110"/>
+      <c r="BE26" s="110"/>
+      <c r="BF26" s="111"/>
+      <c r="BG26" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH26" s="110"/>
+      <c r="BI26" s="110"/>
+      <c r="BJ26" s="110"/>
+      <c r="BK26" s="110"/>
+      <c r="BL26" s="110"/>
+      <c r="BM26" s="110"/>
+      <c r="BN26" s="110"/>
+      <c r="BO26" s="110"/>
+      <c r="BP26" s="110"/>
+      <c r="BQ26" s="110"/>
+      <c r="BR26" s="110"/>
+      <c r="BS26" s="110"/>
+      <c r="BT26" s="110"/>
+      <c r="BU26" s="111"/>
+      <c r="BV26" s="102"/>
+      <c r="BW26" s="103"/>
+      <c r="BX26" s="103"/>
+      <c r="BY26" s="104"/>
+      <c r="BZ26" s="102"/>
+      <c r="CA26" s="103"/>
+      <c r="CB26" s="104"/>
+      <c r="CC26" s="102"/>
+      <c r="CD26" s="103"/>
+      <c r="CE26" s="103"/>
+      <c r="CF26" s="104"/>
+    </row>
+    <row r="27" spans="1:84" ht="90" customHeight="1">
+      <c r="A27" s="102">
+        <v>19</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U27" s="95"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO27" s="110"/>
+      <c r="AP27" s="110"/>
+      <c r="AQ27" s="110"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT27" s="110"/>
+      <c r="AU27" s="110"/>
+      <c r="AV27" s="110"/>
+      <c r="AW27" s="110"/>
+      <c r="AX27" s="110"/>
+      <c r="AY27" s="110"/>
+      <c r="AZ27" s="110"/>
+      <c r="BA27" s="110"/>
+      <c r="BB27" s="110"/>
+      <c r="BC27" s="110"/>
+      <c r="BD27" s="110"/>
+      <c r="BE27" s="110"/>
+      <c r="BF27" s="111"/>
+      <c r="BG27" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH27" s="110"/>
+      <c r="BI27" s="110"/>
+      <c r="BJ27" s="110"/>
+      <c r="BK27" s="110"/>
+      <c r="BL27" s="110"/>
+      <c r="BM27" s="110"/>
+      <c r="BN27" s="110"/>
+      <c r="BO27" s="110"/>
+      <c r="BP27" s="110"/>
+      <c r="BQ27" s="110"/>
+      <c r="BR27" s="110"/>
+      <c r="BS27" s="110"/>
+      <c r="BT27" s="110"/>
+      <c r="BU27" s="111"/>
+      <c r="BV27" s="102"/>
+      <c r="BW27" s="103"/>
+      <c r="BX27" s="103"/>
+      <c r="BY27" s="104"/>
+      <c r="BZ27" s="102"/>
+      <c r="CA27" s="103"/>
+      <c r="CB27" s="104"/>
+      <c r="CC27" s="102"/>
+      <c r="CD27" s="103"/>
+      <c r="CE27" s="103"/>
+      <c r="CF27" s="104"/>
+    </row>
+    <row r="28" spans="1:84" ht="90" customHeight="1">
+      <c r="A28" s="102">
+        <v>20</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="95"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28" s="103"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO28" s="110"/>
+      <c r="AP28" s="110"/>
+      <c r="AQ28" s="110"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="111"/>
+      <c r="BG28" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="111"/>
+      <c r="BV28" s="102"/>
+      <c r="BW28" s="103"/>
+      <c r="BX28" s="103"/>
+      <c r="BY28" s="104"/>
+      <c r="BZ28" s="102"/>
+      <c r="CA28" s="103"/>
+      <c r="CB28" s="104"/>
+      <c r="CC28" s="102"/>
+      <c r="CD28" s="103"/>
+      <c r="CE28" s="103"/>
+      <c r="CF28" s="104"/>
+    </row>
+    <row r="29" spans="1:84" ht="109.4" customHeight="1">
+      <c r="A29" s="102">
+        <v>21</v>
+      </c>
+      <c r="B29" s="104"/>
+      <c r="C29" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="108"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="U29" s="95"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO29" s="112"/>
+      <c r="AP29" s="112"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT29" s="110"/>
+      <c r="AU29" s="110"/>
+      <c r="AV29" s="110"/>
+      <c r="AW29" s="110"/>
+      <c r="AX29" s="110"/>
+      <c r="AY29" s="110"/>
+      <c r="AZ29" s="110"/>
+      <c r="BA29" s="110"/>
+      <c r="BB29" s="110"/>
+      <c r="BC29" s="110"/>
+      <c r="BD29" s="110"/>
+      <c r="BE29" s="110"/>
+      <c r="BF29" s="111"/>
+      <c r="BG29" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH29" s="112"/>
+      <c r="BI29" s="112"/>
+      <c r="BJ29" s="112"/>
+      <c r="BK29" s="112"/>
+      <c r="BL29" s="112"/>
+      <c r="BM29" s="112"/>
+      <c r="BN29" s="112"/>
+      <c r="BO29" s="112"/>
+      <c r="BP29" s="112"/>
+      <c r="BQ29" s="112"/>
+      <c r="BR29" s="112"/>
+      <c r="BS29" s="112"/>
+      <c r="BT29" s="112"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="102"/>
+      <c r="BW29" s="103"/>
+      <c r="BX29" s="103"/>
+      <c r="BY29" s="104"/>
+      <c r="BZ29" s="102"/>
+      <c r="CA29" s="103"/>
+      <c r="CB29" s="104"/>
+      <c r="CC29" s="102"/>
+      <c r="CD29" s="103"/>
+      <c r="CE29" s="103"/>
+      <c r="CF29" s="104"/>
+    </row>
+    <row r="30" spans="1:84" ht="120.15" customHeight="1">
+      <c r="A30" s="102">
+        <v>22</v>
+      </c>
+      <c r="B30" s="104"/>
+      <c r="C30" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="108"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="95"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="104"/>
+      <c r="AK30" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL30" s="103"/>
+      <c r="AM30" s="104"/>
+      <c r="AN30" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO30" s="112"/>
+      <c r="AP30" s="112"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT30" s="110"/>
+      <c r="AU30" s="110"/>
+      <c r="AV30" s="110"/>
+      <c r="AW30" s="110"/>
+      <c r="AX30" s="110"/>
+      <c r="AY30" s="110"/>
+      <c r="AZ30" s="110"/>
+      <c r="BA30" s="110"/>
+      <c r="BB30" s="110"/>
+      <c r="BC30" s="110"/>
+      <c r="BD30" s="110"/>
+      <c r="BE30" s="110"/>
+      <c r="BF30" s="111"/>
+      <c r="BG30" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH30" s="112"/>
+      <c r="BI30" s="112"/>
+      <c r="BJ30" s="112"/>
+      <c r="BK30" s="112"/>
+      <c r="BL30" s="112"/>
+      <c r="BM30" s="112"/>
+      <c r="BN30" s="112"/>
+      <c r="BO30" s="112"/>
+      <c r="BP30" s="112"/>
+      <c r="BQ30" s="112"/>
+      <c r="BR30" s="112"/>
+      <c r="BS30" s="112"/>
+      <c r="BT30" s="112"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="102"/>
+      <c r="BW30" s="103"/>
+      <c r="BX30" s="103"/>
+      <c r="BY30" s="104"/>
+      <c r="BZ30" s="102"/>
+      <c r="CA30" s="103"/>
+      <c r="CB30" s="104"/>
+      <c r="CC30" s="102"/>
+      <c r="CD30" s="103"/>
+      <c r="CE30" s="103"/>
+      <c r="CF30" s="104"/>
+    </row>
+    <row r="31" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A31" s="102">
+        <v>23</v>
+      </c>
+      <c r="B31" s="104"/>
+      <c r="C31" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="108"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="95"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="103"/>
+      <c r="AJ31" s="104"/>
+      <c r="AK31" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL31" s="103"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="135"/>
+      <c r="AS31" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT31" s="110"/>
+      <c r="AU31" s="110"/>
+      <c r="AV31" s="110"/>
+      <c r="AW31" s="110"/>
+      <c r="AX31" s="110"/>
+      <c r="AY31" s="110"/>
+      <c r="AZ31" s="110"/>
+      <c r="BA31" s="110"/>
+      <c r="BB31" s="110"/>
+      <c r="BC31" s="110"/>
+      <c r="BD31" s="110"/>
+      <c r="BE31" s="110"/>
+      <c r="BF31" s="111"/>
+      <c r="BG31" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH31" s="112"/>
+      <c r="BI31" s="112"/>
+      <c r="BJ31" s="112"/>
+      <c r="BK31" s="112"/>
+      <c r="BL31" s="112"/>
+      <c r="BM31" s="112"/>
+      <c r="BN31" s="112"/>
+      <c r="BO31" s="112"/>
+      <c r="BP31" s="112"/>
+      <c r="BQ31" s="112"/>
+      <c r="BR31" s="112"/>
+      <c r="BS31" s="112"/>
+      <c r="BT31" s="112"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="102"/>
+      <c r="BW31" s="103"/>
+      <c r="BX31" s="103"/>
+      <c r="BY31" s="104"/>
+      <c r="BZ31" s="102"/>
+      <c r="CA31" s="103"/>
+      <c r="CB31" s="104"/>
+      <c r="CC31" s="102"/>
+      <c r="CD31" s="103"/>
+      <c r="CE31" s="103"/>
+      <c r="CF31" s="104"/>
+    </row>
+    <row r="32" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A32" s="102">
+        <v>24</v>
+      </c>
+      <c r="B32" s="104"/>
+      <c r="C32" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="108"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U32" s="95"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="103"/>
+      <c r="AJ32" s="104"/>
+      <c r="AK32" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL32" s="103"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="135"/>
+      <c r="AS32" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT32" s="110"/>
+      <c r="AU32" s="110"/>
+      <c r="AV32" s="110"/>
+      <c r="AW32" s="110"/>
+      <c r="AX32" s="110"/>
+      <c r="AY32" s="110"/>
+      <c r="AZ32" s="110"/>
+      <c r="BA32" s="110"/>
+      <c r="BB32" s="110"/>
+      <c r="BC32" s="110"/>
+      <c r="BD32" s="110"/>
+      <c r="BE32" s="110"/>
+      <c r="BF32" s="111"/>
+      <c r="BG32" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="112"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="112"/>
+      <c r="BM32" s="112"/>
+      <c r="BN32" s="112"/>
+      <c r="BO32" s="112"/>
+      <c r="BP32" s="112"/>
+      <c r="BQ32" s="112"/>
+      <c r="BR32" s="112"/>
+      <c r="BS32" s="112"/>
+      <c r="BT32" s="112"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="102"/>
+      <c r="BW32" s="103"/>
+      <c r="BX32" s="103"/>
+      <c r="BY32" s="104"/>
+      <c r="BZ32" s="102"/>
+      <c r="CA32" s="103"/>
+      <c r="CB32" s="104"/>
+      <c r="CC32" s="102"/>
+      <c r="CD32" s="103"/>
+      <c r="CE32" s="103"/>
+      <c r="CF32" s="104"/>
+    </row>
+    <row r="33" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A33" s="102">
+        <v>25</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="108"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="95"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL33" s="103"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="135"/>
+      <c r="AS33" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT33" s="110"/>
+      <c r="AU33" s="110"/>
+      <c r="AV33" s="110"/>
+      <c r="AW33" s="110"/>
+      <c r="AX33" s="110"/>
+      <c r="AY33" s="110"/>
+      <c r="AZ33" s="110"/>
+      <c r="BA33" s="110"/>
+      <c r="BB33" s="110"/>
+      <c r="BC33" s="110"/>
+      <c r="BD33" s="110"/>
+      <c r="BE33" s="110"/>
+      <c r="BF33" s="111"/>
+      <c r="BG33" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH33" s="112"/>
+      <c r="BI33" s="112"/>
+      <c r="BJ33" s="112"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="112"/>
+      <c r="BM33" s="112"/>
+      <c r="BN33" s="112"/>
+      <c r="BO33" s="112"/>
+      <c r="BP33" s="112"/>
+      <c r="BQ33" s="112"/>
+      <c r="BR33" s="112"/>
+      <c r="BS33" s="112"/>
+      <c r="BT33" s="112"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="102"/>
+      <c r="BW33" s="103"/>
+      <c r="BX33" s="103"/>
+      <c r="BY33" s="104"/>
+      <c r="BZ33" s="102"/>
+      <c r="CA33" s="103"/>
+      <c r="CB33" s="104"/>
+      <c r="CC33" s="102"/>
+      <c r="CD33" s="103"/>
+      <c r="CE33" s="103"/>
+      <c r="CF33" s="104"/>
+    </row>
+    <row r="34" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A34" s="102">
+        <v>26</v>
+      </c>
+      <c r="B34" s="104"/>
+      <c r="C34" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="108"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="95"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="103"/>
+      <c r="AJ34" s="104"/>
+      <c r="AK34" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL34" s="103"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="71"/>
+      <c r="AQ34" s="71"/>
+      <c r="AR34" s="135"/>
+      <c r="AS34" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT34" s="110"/>
+      <c r="AU34" s="110"/>
+      <c r="AV34" s="110"/>
+      <c r="AW34" s="110"/>
+      <c r="AX34" s="110"/>
+      <c r="AY34" s="110"/>
+      <c r="AZ34" s="110"/>
+      <c r="BA34" s="110"/>
+      <c r="BB34" s="110"/>
+      <c r="BC34" s="110"/>
+      <c r="BD34" s="110"/>
+      <c r="BE34" s="110"/>
+      <c r="BF34" s="111"/>
+      <c r="BG34" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH34" s="112"/>
+      <c r="BI34" s="112"/>
+      <c r="BJ34" s="112"/>
+      <c r="BK34" s="112"/>
+      <c r="BL34" s="112"/>
+      <c r="BM34" s="112"/>
+      <c r="BN34" s="112"/>
+      <c r="BO34" s="112"/>
+      <c r="BP34" s="112"/>
+      <c r="BQ34" s="112"/>
+      <c r="BR34" s="112"/>
+      <c r="BS34" s="112"/>
+      <c r="BT34" s="112"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="102"/>
+      <c r="BW34" s="103"/>
+      <c r="BX34" s="103"/>
+      <c r="BY34" s="104"/>
+      <c r="BZ34" s="102"/>
+      <c r="CA34" s="103"/>
+      <c r="CB34" s="104"/>
+      <c r="CC34" s="102"/>
+      <c r="CD34" s="103"/>
+      <c r="CE34" s="103"/>
+      <c r="CF34" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
+  <mergeCells count="320">
+    <mergeCell ref="AS33:BF33"/>
+    <mergeCell ref="BG33:BU33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="BG34:BU34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="BG32:BU32"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
     <mergeCell ref="BV7:BY8"/>
     <mergeCell ref="BZ7:CB8"/>
     <mergeCell ref="CC7:CF8"/>
@@ -6685,364 +8030,272 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.7"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="119" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="119" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="119" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="119" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="119"/>
+    <col min="8" max="8" width="18.4140625" style="119" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="119"/>
+    <col min="10" max="10" width="10.58203125" style="119" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="119" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="119" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" style="119" customWidth="1"/>
+    <col min="14" max="14" width="15" style="119" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="119"/>
+    <col min="16" max="16" width="21.1640625" style="119" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="119" customWidth="1"/>
+    <col min="18" max="18" width="14" style="119" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="119" customWidth="1"/>
+    <col min="20" max="20" width="18.08203125" style="119" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="B1" t="s">
+    <row r="1" spans="1:20" s="119" customFormat="1">
+      <c r="B1" s="119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="120" customFormat="1" ht="37.4">
+      <c r="A2" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="119" customFormat="1">
+      <c r="A3" s="119">
+        <v>1</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="123">
+        <v>36136</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="119" customFormat="1">
+      <c r="B8" s="119" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="56" customFormat="1" ht="13.5">
-      <c r="A2" s="56" t="s">
+    <row r="9" spans="1:20" s="119" customFormat="1">
+      <c r="A9" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="119" customFormat="1">
+      <c r="A10" s="120">
+        <v>1</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="119" customFormat="1">
+      <c r="B11" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="119" customFormat="1">
+      <c r="B12" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="119" customFormat="1">
+      <c r="B16" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="56" customFormat="1" ht="13.5">
-      <c r="A3" s="56">
+    </row>
+    <row r="17" spans="1:5" s="119" customFormat="1">
+      <c r="A17" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="119" customFormat="1">
+      <c r="A18" s="120">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="62">
+      <c r="B18" s="125">
         <v>3</v>
       </c>
-      <c r="T3" s="57"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="D4" s="148" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="56">
-        <v>1</v>
-      </c>
-      <c r="B11" s="61">
-        <v>1</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="C18" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="61"/>
-      <c r="C12" s="60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" s="61"/>
-      <c r="C13" s="60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="56">
-        <v>1</v>
-      </c>
-      <c r="B19" s="61">
-        <v>3</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="148" t="s">
-        <v>143</v>
+      <c r="E18" s="127" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7056,190 +8309,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.7"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="119"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5">
+      <c r="B6" s="129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="130"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="130"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="130"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="130"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="130"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="130"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="119" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" s="119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="132"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="130"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="130"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="130"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="130"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="130"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="130"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="119" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="B6" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="35"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="35"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="35"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="35"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="35"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="34" spans="1:2">
+      <c r="B34" s="119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="128" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="39"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="35"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="35"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="35"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="35"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="35"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="35"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="40" spans="1:2">
+      <c r="B40" s="119" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="41" spans="1:2">
+      <c r="B41" s="119" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
+    <row r="42" spans="1:2">
+      <c r="B42" s="119" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" ht="23.4">
+      <c r="B44" s="133"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="130"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="130"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="130"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="130"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="130"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="130"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.5">
-      <c r="B44" s="37"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="35"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="35"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="35"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="35"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="35"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="35"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="119" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="119" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="119" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8FF43-52C7-46DF-A0EB-DE7BF594703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11236A3-BF63-45B3-8A2B-28A1E67D7199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
   <si>
     <t>画面名</t>
   </si>
@@ -1640,6 +1640,12 @@
     <t>①「検索」ボタンをクリックする後、社員情報更新画面表示する
 ②テストデータの値がデータベースに保損する</t>
   </si>
+  <si>
+    <t>開発一部</t>
+  </si>
+  <si>
+    <t>開発二部</t>
+  </si>
 </sst>
 </file>
 
@@ -1648,7 +1654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,6 +1826,14 @@
       <color rgb="FF343434"/>
       <name val="Klee One SemiBold"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2185,7 +2199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2261,72 +2275,12 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2334,96 +2288,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
@@ -2435,28 +2311,164 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2466,16 +2478,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2483,38 +2534,53 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2524,45 +2590,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3888,7 +3915,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3911,20 +3938,20 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.45">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="22.95">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3944,7 +3971,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3962,65 +3989,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4038,65 +4065,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.7">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.5">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -4297,7 +4324,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4321,7 +4348,7 @@
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.7">
+    <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>15</v>
@@ -4329,7 +4356,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5" ht="18.7">
+    <row r="3" spans="2:5">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4343,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.7">
+    <row r="4" spans="2:5">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4357,7 +4384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.7">
+    <row r="5" spans="2:5">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4440,460 +4467,460 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="BG34" sqref="BG34:BU34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="86" customWidth="1"/>
-    <col min="2" max="3" width="2.08203125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="2.08203125" style="87" customWidth="1"/>
-    <col min="5" max="10" width="2.08203125" style="86" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="86" customWidth="1"/>
-    <col min="12" max="27" width="2.08203125" style="86" customWidth="1"/>
-    <col min="28" max="28" width="2.08203125" style="89" customWidth="1"/>
-    <col min="29" max="31" width="2.08203125" style="86" customWidth="1"/>
-    <col min="32" max="32" width="2.08203125" style="87" customWidth="1"/>
-    <col min="33" max="43" width="2.08203125" style="86" customWidth="1"/>
-    <col min="44" max="44" width="2.08203125" style="89" customWidth="1"/>
-    <col min="45" max="50" width="2.08203125" style="86" customWidth="1"/>
-    <col min="51" max="51" width="3.83203125" style="86" customWidth="1"/>
-    <col min="52" max="52" width="2.08203125" style="89" customWidth="1"/>
-    <col min="53" max="55" width="2.08203125" style="86" customWidth="1"/>
-    <col min="56" max="56" width="2.08203125" style="87" customWidth="1"/>
-    <col min="57" max="57" width="2.08203125" style="86" customWidth="1"/>
-    <col min="58" max="58" width="4.33203125" style="86" customWidth="1"/>
-    <col min="59" max="59" width="2.08203125" style="86" customWidth="1"/>
-    <col min="60" max="63" width="2.08203125" style="87" customWidth="1"/>
-    <col min="64" max="97" width="2.08203125" style="86" customWidth="1"/>
-    <col min="98" max="16384" width="8.25" style="86"/>
+    <col min="1" max="1" width="3.9140625" style="40" customWidth="1"/>
+    <col min="2" max="3" width="2.08203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="41" customWidth="1"/>
+    <col min="5" max="10" width="2.08203125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="40" customWidth="1"/>
+    <col min="12" max="27" width="2.08203125" style="40" customWidth="1"/>
+    <col min="28" max="28" width="2.08203125" style="42" customWidth="1"/>
+    <col min="29" max="31" width="2.08203125" style="40" customWidth="1"/>
+    <col min="32" max="32" width="2.08203125" style="41" customWidth="1"/>
+    <col min="33" max="43" width="2.08203125" style="40" customWidth="1"/>
+    <col min="44" max="44" width="2.08203125" style="42" customWidth="1"/>
+    <col min="45" max="50" width="2.08203125" style="40" customWidth="1"/>
+    <col min="51" max="51" width="3.83203125" style="40" customWidth="1"/>
+    <col min="52" max="52" width="2.08203125" style="42" customWidth="1"/>
+    <col min="53" max="55" width="2.08203125" style="40" customWidth="1"/>
+    <col min="56" max="56" width="2.08203125" style="41" customWidth="1"/>
+    <col min="57" max="57" width="2.08203125" style="40" customWidth="1"/>
+    <col min="58" max="58" width="4.33203125" style="40" customWidth="1"/>
+    <col min="59" max="59" width="2.08203125" style="40" customWidth="1"/>
+    <col min="60" max="63" width="2.08203125" style="41" customWidth="1"/>
+    <col min="64" max="97" width="2.08203125" style="40" customWidth="1"/>
+    <col min="98" max="16384" width="8.25" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="47"/>
-    </row>
-    <row r="2" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="29"/>
+    </row>
+    <row r="2" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="47"/>
-    </row>
-    <row r="3" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="51"/>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="51"/>
-      <c r="BH3" s="51"/>
-      <c r="BI3" s="51"/>
-      <c r="BJ3" s="51"/>
-      <c r="BK3" s="51"/>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="51"/>
-      <c r="BN3" s="51"/>
-      <c r="BO3" s="51"/>
-      <c r="BP3" s="51"/>
-      <c r="BQ3" s="53"/>
-    </row>
-    <row r="4" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="29"/>
+    </row>
+    <row r="3" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="33"/>
+    </row>
+    <row r="4" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="64" t="s">
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="67" t="s">
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="70">
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="121">
         <v>45034</v>
       </c>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="67" t="s">
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="70" t="s">
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="120"/>
+      <c r="BM4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="72"/>
-    </row>
-    <row r="5" spans="1:84" s="48" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="73" t="s">
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="37"/>
+    </row>
+    <row r="5" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="73" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="82" t="s">
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="130"/>
+      <c r="BA5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="83"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="83"/>
-      <c r="BI5" s="83"/>
-      <c r="BJ5" s="82" t="s">
+      <c r="BB5" s="132"/>
+      <c r="BC5" s="133"/>
+      <c r="BD5" s="132"/>
+      <c r="BE5" s="132"/>
+      <c r="BF5" s="132"/>
+      <c r="BG5" s="132"/>
+      <c r="BH5" s="132"/>
+      <c r="BI5" s="132"/>
+      <c r="BJ5" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="83"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="83"/>
-      <c r="BN5" s="80"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="85"/>
-    </row>
-    <row r="6" spans="1:84" ht="19.2" thickTop="1">
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="AF6" s="86"/>
-      <c r="BL6" s="88"/>
-      <c r="BM6" s="88"/>
-      <c r="BN6" s="88"/>
-      <c r="BO6" s="88"/>
-      <c r="BP6" s="88"/>
-      <c r="BQ6" s="88"/>
+      <c r="BK5" s="132"/>
+      <c r="BL5" s="133"/>
+      <c r="BM5" s="132"/>
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="129"/>
+      <c r="BP5" s="129"/>
+      <c r="BQ5" s="39"/>
+    </row>
+    <row r="6" spans="1:84" ht="13.6" thickTop="1">
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="AF6" s="40"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="95"/>
+      <c r="BQ6" s="95"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="93" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="90" t="s">
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="91"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="90"/>
       <c r="AN7" s="96" t="s">
         <v>29</v>
       </c>
@@ -4901,39 +4928,39 @@
       <c r="AP7" s="97"/>
       <c r="AQ7" s="97"/>
       <c r="AR7" s="98"/>
-      <c r="AS7" s="90" t="s">
+      <c r="AS7" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="90" t="s">
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="93"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="93"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="92"/>
-      <c r="BL7" s="92"/>
-      <c r="BM7" s="92"/>
-      <c r="BN7" s="92"/>
-      <c r="BO7" s="92"/>
-      <c r="BP7" s="92"/>
-      <c r="BQ7" s="92"/>
-      <c r="BR7" s="92"/>
-      <c r="BS7" s="92"/>
-      <c r="BT7" s="92"/>
-      <c r="BU7" s="91"/>
+      <c r="BH7" s="93"/>
+      <c r="BI7" s="93"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="93"/>
+      <c r="BN7" s="93"/>
+      <c r="BO7" s="93"/>
+      <c r="BP7" s="93"/>
+      <c r="BQ7" s="93"/>
+      <c r="BR7" s="93"/>
+      <c r="BS7" s="93"/>
+      <c r="BT7" s="93"/>
+      <c r="BU7" s="90"/>
       <c r="BV7" s="96" t="s">
         <v>30</v>
       </c>
@@ -4953,2784 +4980,2784 @@
       <c r="CF7" s="98"/>
     </row>
     <row r="8" spans="1:84" ht="15.9" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="93" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="93" t="s">
+      <c r="Q8" s="85"/>
+      <c r="R8" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="95"/>
-      <c r="T8" s="93" t="s">
+      <c r="S8" s="85"/>
+      <c r="T8" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="95"/>
-      <c r="V8" s="93" t="s">
+      <c r="U8" s="85"/>
+      <c r="V8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="93" t="s">
+      <c r="W8" s="85"/>
+      <c r="X8" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="93" t="s">
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="93" t="s">
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="93" t="s">
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="102" t="s">
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="101"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="100"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="100"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="106"/>
-      <c r="BX8" s="106"/>
-      <c r="BY8" s="107"/>
-      <c r="BZ8" s="105"/>
-      <c r="CA8" s="106"/>
-      <c r="CB8" s="107"/>
-      <c r="CC8" s="105"/>
-      <c r="CD8" s="106"/>
-      <c r="CE8" s="106"/>
-      <c r="CF8" s="107"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="94"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="94"/>
+      <c r="BO8" s="94"/>
+      <c r="BP8" s="94"/>
+      <c r="BQ8" s="94"/>
+      <c r="BR8" s="94"/>
+      <c r="BS8" s="94"/>
+      <c r="BT8" s="94"/>
+      <c r="BU8" s="92"/>
+      <c r="BV8" s="99"/>
+      <c r="BW8" s="100"/>
+      <c r="BX8" s="100"/>
+      <c r="BY8" s="101"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="100"/>
+      <c r="CB8" s="101"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="100"/>
+      <c r="CE8" s="100"/>
+      <c r="CF8" s="101"/>
     </row>
     <row r="9" spans="1:84" ht="95.85" customHeight="1">
-      <c r="A9" s="102">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="93" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="93" t="s">
+      <c r="Q9" s="85"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="93" t="s">
+      <c r="U9" s="85"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="102" t="s">
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="109" t="s">
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="109" t="s">
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="110"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="109" t="s">
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
-      <c r="BL9" s="112"/>
-      <c r="BM9" s="112"/>
-      <c r="BN9" s="112"/>
-      <c r="BO9" s="112"/>
-      <c r="BP9" s="112"/>
-      <c r="BQ9" s="112"/>
-      <c r="BR9" s="112"/>
-      <c r="BS9" s="112"/>
-      <c r="BT9" s="112"/>
-      <c r="BU9" s="113"/>
-      <c r="BV9" s="102"/>
-      <c r="BW9" s="103"/>
-      <c r="BX9" s="103"/>
-      <c r="BY9" s="104"/>
-      <c r="BZ9" s="102"/>
-      <c r="CA9" s="103"/>
-      <c r="CB9" s="104"/>
-      <c r="CC9" s="102"/>
-      <c r="CD9" s="103"/>
-      <c r="CE9" s="103"/>
-      <c r="CF9" s="104"/>
+      <c r="BH9" s="102"/>
+      <c r="BI9" s="102"/>
+      <c r="BJ9" s="102"/>
+      <c r="BK9" s="102"/>
+      <c r="BL9" s="102"/>
+      <c r="BM9" s="102"/>
+      <c r="BN9" s="102"/>
+      <c r="BO9" s="102"/>
+      <c r="BP9" s="102"/>
+      <c r="BQ9" s="102"/>
+      <c r="BR9" s="102"/>
+      <c r="BS9" s="102"/>
+      <c r="BT9" s="102"/>
+      <c r="BU9" s="103"/>
+      <c r="BV9" s="45"/>
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="45"/>
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="35"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="36"/>
     </row>
     <row r="10" spans="1:84" ht="77.3" customHeight="1">
-      <c r="A10" s="102">
+      <c r="A10" s="45">
         <v>2</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="93" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="93" t="s">
+      <c r="Q10" s="85"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="95"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="95"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="93" t="s">
+      <c r="U10" s="85"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="85"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="109" t="s">
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="109" t="s">
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="110"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="111"/>
-      <c r="BG10" s="109" t="s">
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="88"/>
+      <c r="BG10" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="110"/>
-      <c r="BJ10" s="110"/>
-      <c r="BK10" s="110"/>
-      <c r="BL10" s="110"/>
-      <c r="BM10" s="110"/>
-      <c r="BN10" s="110"/>
-      <c r="BO10" s="110"/>
-      <c r="BP10" s="110"/>
-      <c r="BQ10" s="110"/>
-      <c r="BR10" s="110"/>
-      <c r="BS10" s="110"/>
-      <c r="BT10" s="110"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="102"/>
-      <c r="BW10" s="103"/>
-      <c r="BX10" s="103"/>
-      <c r="BY10" s="104"/>
-      <c r="BZ10" s="102"/>
-      <c r="CA10" s="103"/>
-      <c r="CB10" s="104"/>
-      <c r="CC10" s="102"/>
-      <c r="CD10" s="103"/>
-      <c r="CE10" s="103"/>
-      <c r="CF10" s="104"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="87"/>
+      <c r="BN10" s="87"/>
+      <c r="BO10" s="87"/>
+      <c r="BP10" s="87"/>
+      <c r="BQ10" s="87"/>
+      <c r="BR10" s="87"/>
+      <c r="BS10" s="87"/>
+      <c r="BT10" s="87"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="45"/>
+      <c r="BW10" s="35"/>
+      <c r="BX10" s="35"/>
+      <c r="BY10" s="36"/>
+      <c r="BZ10" s="45"/>
+      <c r="CA10" s="35"/>
+      <c r="CB10" s="36"/>
+      <c r="CC10" s="45"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="35"/>
+      <c r="CF10" s="36"/>
     </row>
     <row r="11" spans="1:84" ht="86.3" customHeight="1">
-      <c r="A11" s="102">
+      <c r="A11" s="45">
         <v>3</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="93" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="93" t="s">
+      <c r="Q11" s="85"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="95"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="93" t="s">
+      <c r="U11" s="85"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="93" t="s">
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="109" t="s">
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="109" t="s">
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="111"/>
-      <c r="BG11" s="109" t="s">
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="87"/>
+      <c r="BA11" s="87"/>
+      <c r="BB11" s="87"/>
+      <c r="BC11" s="87"/>
+      <c r="BD11" s="87"/>
+      <c r="BE11" s="87"/>
+      <c r="BF11" s="88"/>
+      <c r="BG11" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="110"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="111"/>
-      <c r="BV11" s="102"/>
-      <c r="BW11" s="103"/>
-      <c r="BX11" s="103"/>
-      <c r="BY11" s="104"/>
-      <c r="BZ11" s="102"/>
-      <c r="CA11" s="103"/>
-      <c r="CB11" s="104"/>
-      <c r="CC11" s="102"/>
-      <c r="CD11" s="103"/>
-      <c r="CE11" s="103"/>
-      <c r="CF11" s="104"/>
+      <c r="BH11" s="87"/>
+      <c r="BI11" s="87"/>
+      <c r="BJ11" s="87"/>
+      <c r="BK11" s="87"/>
+      <c r="BL11" s="87"/>
+      <c r="BM11" s="87"/>
+      <c r="BN11" s="87"/>
+      <c r="BO11" s="87"/>
+      <c r="BP11" s="87"/>
+      <c r="BQ11" s="87"/>
+      <c r="BR11" s="87"/>
+      <c r="BS11" s="87"/>
+      <c r="BT11" s="87"/>
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="45"/>
+      <c r="BW11" s="35"/>
+      <c r="BX11" s="35"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="45"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="45"/>
+      <c r="CD11" s="35"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="36"/>
     </row>
     <row r="12" spans="1:84" ht="92.25" customHeight="1">
-      <c r="A12" s="102">
+      <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="102" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="93" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="93" t="s">
+      <c r="Q12" s="85"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="95"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="93" t="s">
+      <c r="U12" s="85"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="93" t="s">
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="93" t="s">
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="109" t="s">
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="85"/>
+      <c r="AN12" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="109" t="s">
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="110"/>
-      <c r="BC12" s="110"/>
-      <c r="BD12" s="110"/>
-      <c r="BE12" s="110"/>
-      <c r="BF12" s="111"/>
-      <c r="BG12" s="109" t="s">
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="87"/>
+      <c r="AZ12" s="87"/>
+      <c r="BA12" s="87"/>
+      <c r="BB12" s="87"/>
+      <c r="BC12" s="87"/>
+      <c r="BD12" s="87"/>
+      <c r="BE12" s="87"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="BH12" s="110"/>
-      <c r="BI12" s="110"/>
-      <c r="BJ12" s="110"/>
-      <c r="BK12" s="110"/>
-      <c r="BL12" s="110"/>
-      <c r="BM12" s="110"/>
-      <c r="BN12" s="110"/>
-      <c r="BO12" s="110"/>
-      <c r="BP12" s="110"/>
-      <c r="BQ12" s="110"/>
-      <c r="BR12" s="110"/>
-      <c r="BS12" s="110"/>
-      <c r="BT12" s="110"/>
-      <c r="BU12" s="111"/>
-      <c r="BV12" s="102"/>
-      <c r="BW12" s="103"/>
-      <c r="BX12" s="103"/>
-      <c r="BY12" s="104"/>
-      <c r="BZ12" s="102"/>
-      <c r="CA12" s="103"/>
-      <c r="CB12" s="104"/>
-      <c r="CC12" s="102"/>
-      <c r="CD12" s="103"/>
-      <c r="CE12" s="103"/>
-      <c r="CF12" s="104"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="87"/>
+      <c r="BJ12" s="87"/>
+      <c r="BK12" s="87"/>
+      <c r="BL12" s="87"/>
+      <c r="BM12" s="87"/>
+      <c r="BN12" s="87"/>
+      <c r="BO12" s="87"/>
+      <c r="BP12" s="87"/>
+      <c r="BQ12" s="87"/>
+      <c r="BR12" s="87"/>
+      <c r="BS12" s="87"/>
+      <c r="BT12" s="87"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="45"/>
+      <c r="BW12" s="35"/>
+      <c r="BX12" s="35"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="45"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="45"/>
+      <c r="CD12" s="35"/>
+      <c r="CE12" s="35"/>
+      <c r="CF12" s="36"/>
     </row>
     <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
-      <c r="A13" s="102">
+      <c r="A13" s="45">
         <v>5</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="93" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="93" t="s">
+      <c r="Q13" s="85"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="95"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="102" t="s">
+      <c r="U13" s="85"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="109" t="s">
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO13" s="110"/>
-      <c r="AP13" s="110"/>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="109" t="s">
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="AT13" s="110"/>
-      <c r="AU13" s="110"/>
-      <c r="AV13" s="110"/>
-      <c r="AW13" s="110"/>
-      <c r="AX13" s="110"/>
-      <c r="AY13" s="110"/>
-      <c r="AZ13" s="110"/>
-      <c r="BA13" s="110"/>
-      <c r="BB13" s="110"/>
-      <c r="BC13" s="110"/>
-      <c r="BD13" s="110"/>
-      <c r="BE13" s="110"/>
-      <c r="BF13" s="111"/>
-      <c r="BG13" s="109" t="s">
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="87"/>
+      <c r="BA13" s="87"/>
+      <c r="BB13" s="87"/>
+      <c r="BC13" s="87"/>
+      <c r="BD13" s="87"/>
+      <c r="BE13" s="87"/>
+      <c r="BF13" s="88"/>
+      <c r="BG13" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="BH13" s="110"/>
-      <c r="BI13" s="110"/>
-      <c r="BJ13" s="110"/>
-      <c r="BK13" s="110"/>
-      <c r="BL13" s="110"/>
-      <c r="BM13" s="110"/>
-      <c r="BN13" s="110"/>
-      <c r="BO13" s="110"/>
-      <c r="BP13" s="110"/>
-      <c r="BQ13" s="110"/>
-      <c r="BR13" s="110"/>
-      <c r="BS13" s="110"/>
-      <c r="BT13" s="110"/>
-      <c r="BU13" s="111"/>
-      <c r="BV13" s="102"/>
-      <c r="BW13" s="103"/>
-      <c r="BX13" s="103"/>
-      <c r="BY13" s="104"/>
-      <c r="BZ13" s="102"/>
-      <c r="CA13" s="103"/>
-      <c r="CB13" s="104"/>
-      <c r="CC13" s="102"/>
-      <c r="CD13" s="103"/>
-      <c r="CE13" s="103"/>
-      <c r="CF13" s="104"/>
+      <c r="BH13" s="87"/>
+      <c r="BI13" s="87"/>
+      <c r="BJ13" s="87"/>
+      <c r="BK13" s="87"/>
+      <c r="BL13" s="87"/>
+      <c r="BM13" s="87"/>
+      <c r="BN13" s="87"/>
+      <c r="BO13" s="87"/>
+      <c r="BP13" s="87"/>
+      <c r="BQ13" s="87"/>
+      <c r="BR13" s="87"/>
+      <c r="BS13" s="87"/>
+      <c r="BT13" s="87"/>
+      <c r="BU13" s="88"/>
+      <c r="BV13" s="45"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="45"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="45"/>
+      <c r="CD13" s="35"/>
+      <c r="CE13" s="35"/>
+      <c r="CF13" s="36"/>
     </row>
     <row r="14" spans="1:84" ht="79.5" customHeight="1">
-      <c r="A14" s="102">
+      <c r="A14" s="45">
         <v>6</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="93" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="93" t="s">
+      <c r="Q14" s="85"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="93" t="s">
+      <c r="U14" s="85"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="102" t="s">
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="109" t="s">
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="109" t="s">
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="110"/>
-      <c r="AV14" s="110"/>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="110"/>
-      <c r="AY14" s="110"/>
-      <c r="AZ14" s="110"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="110"/>
-      <c r="BC14" s="110"/>
-      <c r="BD14" s="110"/>
-      <c r="BE14" s="110"/>
-      <c r="BF14" s="111"/>
-      <c r="BG14" s="109" t="s">
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="87"/>
+      <c r="BA14" s="87"/>
+      <c r="BB14" s="87"/>
+      <c r="BC14" s="87"/>
+      <c r="BD14" s="87"/>
+      <c r="BE14" s="87"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="BH14" s="110"/>
-      <c r="BI14" s="110"/>
-      <c r="BJ14" s="110"/>
-      <c r="BK14" s="110"/>
-      <c r="BL14" s="110"/>
-      <c r="BM14" s="110"/>
-      <c r="BN14" s="110"/>
-      <c r="BO14" s="110"/>
-      <c r="BP14" s="110"/>
-      <c r="BQ14" s="110"/>
-      <c r="BR14" s="110"/>
-      <c r="BS14" s="110"/>
-      <c r="BT14" s="110"/>
-      <c r="BU14" s="111"/>
-      <c r="BV14" s="102"/>
-      <c r="BW14" s="103"/>
-      <c r="BX14" s="103"/>
-      <c r="BY14" s="104"/>
-      <c r="BZ14" s="102"/>
-      <c r="CA14" s="103"/>
-      <c r="CB14" s="104"/>
-      <c r="CC14" s="102"/>
-      <c r="CD14" s="103"/>
-      <c r="CE14" s="103"/>
-      <c r="CF14" s="104"/>
+      <c r="BH14" s="87"/>
+      <c r="BI14" s="87"/>
+      <c r="BJ14" s="87"/>
+      <c r="BK14" s="87"/>
+      <c r="BL14" s="87"/>
+      <c r="BM14" s="87"/>
+      <c r="BN14" s="87"/>
+      <c r="BO14" s="87"/>
+      <c r="BP14" s="87"/>
+      <c r="BQ14" s="87"/>
+      <c r="BR14" s="87"/>
+      <c r="BS14" s="87"/>
+      <c r="BT14" s="87"/>
+      <c r="BU14" s="88"/>
+      <c r="BV14" s="45"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="35"/>
+      <c r="BY14" s="36"/>
+      <c r="BZ14" s="45"/>
+      <c r="CA14" s="35"/>
+      <c r="CB14" s="36"/>
+      <c r="CC14" s="45"/>
+      <c r="CD14" s="35"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="36"/>
     </row>
     <row r="15" spans="1:84" ht="87" customHeight="1">
-      <c r="A15" s="102">
+      <c r="A15" s="45">
         <v>7</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="93" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="93" t="s">
+      <c r="Q15" s="85"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="95"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="102" t="s">
+      <c r="U15" s="85"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="109" t="s">
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="109" t="s">
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="110"/>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="110"/>
-      <c r="AZ15" s="110"/>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="110"/>
-      <c r="BC15" s="110"/>
-      <c r="BD15" s="110"/>
-      <c r="BE15" s="110"/>
-      <c r="BF15" s="111"/>
-      <c r="BG15" s="109" t="s">
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="87"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="87"/>
+      <c r="BD15" s="87"/>
+      <c r="BE15" s="87"/>
+      <c r="BF15" s="88"/>
+      <c r="BG15" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
-      <c r="BJ15" s="110"/>
-      <c r="BK15" s="110"/>
-      <c r="BL15" s="110"/>
-      <c r="BM15" s="110"/>
-      <c r="BN15" s="110"/>
-      <c r="BO15" s="110"/>
-      <c r="BP15" s="110"/>
-      <c r="BQ15" s="110"/>
-      <c r="BR15" s="110"/>
-      <c r="BS15" s="110"/>
-      <c r="BT15" s="110"/>
-      <c r="BU15" s="111"/>
-      <c r="BV15" s="102"/>
-      <c r="BW15" s="103"/>
-      <c r="BX15" s="103"/>
-      <c r="BY15" s="104"/>
-      <c r="BZ15" s="102"/>
-      <c r="CA15" s="103"/>
-      <c r="CB15" s="104"/>
-      <c r="CC15" s="102"/>
-      <c r="CD15" s="103"/>
-      <c r="CE15" s="103"/>
-      <c r="CF15" s="104"/>
+      <c r="BH15" s="87"/>
+      <c r="BI15" s="87"/>
+      <c r="BJ15" s="87"/>
+      <c r="BK15" s="87"/>
+      <c r="BL15" s="87"/>
+      <c r="BM15" s="87"/>
+      <c r="BN15" s="87"/>
+      <c r="BO15" s="87"/>
+      <c r="BP15" s="87"/>
+      <c r="BQ15" s="87"/>
+      <c r="BR15" s="87"/>
+      <c r="BS15" s="87"/>
+      <c r="BT15" s="87"/>
+      <c r="BU15" s="88"/>
+      <c r="BV15" s="45"/>
+      <c r="BW15" s="35"/>
+      <c r="BX15" s="35"/>
+      <c r="BY15" s="36"/>
+      <c r="BZ15" s="45"/>
+      <c r="CA15" s="35"/>
+      <c r="CB15" s="36"/>
+      <c r="CC15" s="45"/>
+      <c r="CD15" s="35"/>
+      <c r="CE15" s="35"/>
+      <c r="CF15" s="36"/>
     </row>
     <row r="16" spans="1:84" ht="87" customHeight="1">
-      <c r="A16" s="102">
+      <c r="A16" s="45">
         <v>8</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="93" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="93" t="s">
+      <c r="Q16" s="85"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="115"/>
-      <c r="AD16" s="93" t="s">
+      <c r="U16" s="85"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="102" t="s">
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="109" t="s">
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO16" s="110"/>
-      <c r="AP16" s="110"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="109" t="s">
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="110"/>
-      <c r="AV16" s="110"/>
-      <c r="AW16" s="110"/>
-      <c r="AX16" s="110"/>
-      <c r="AY16" s="110"/>
-      <c r="AZ16" s="110"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="110"/>
-      <c r="BC16" s="110"/>
-      <c r="BD16" s="110"/>
-      <c r="BE16" s="110"/>
-      <c r="BF16" s="111"/>
-      <c r="BG16" s="109" t="s">
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="87"/>
+      <c r="BA16" s="87"/>
+      <c r="BB16" s="87"/>
+      <c r="BC16" s="87"/>
+      <c r="BD16" s="87"/>
+      <c r="BE16" s="87"/>
+      <c r="BF16" s="88"/>
+      <c r="BG16" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="BH16" s="110"/>
-      <c r="BI16" s="110"/>
-      <c r="BJ16" s="110"/>
-      <c r="BK16" s="110"/>
-      <c r="BL16" s="110"/>
-      <c r="BM16" s="110"/>
-      <c r="BN16" s="110"/>
-      <c r="BO16" s="110"/>
-      <c r="BP16" s="110"/>
-      <c r="BQ16" s="110"/>
-      <c r="BR16" s="110"/>
-      <c r="BS16" s="110"/>
-      <c r="BT16" s="110"/>
-      <c r="BU16" s="111"/>
-      <c r="BV16" s="102"/>
-      <c r="BW16" s="103"/>
-      <c r="BX16" s="103"/>
-      <c r="BY16" s="104"/>
-      <c r="BZ16" s="102"/>
-      <c r="CA16" s="103"/>
-      <c r="CB16" s="104"/>
-      <c r="CC16" s="102"/>
-      <c r="CD16" s="103"/>
-      <c r="CE16" s="103"/>
-      <c r="CF16" s="104"/>
+      <c r="BH16" s="87"/>
+      <c r="BI16" s="87"/>
+      <c r="BJ16" s="87"/>
+      <c r="BK16" s="87"/>
+      <c r="BL16" s="87"/>
+      <c r="BM16" s="87"/>
+      <c r="BN16" s="87"/>
+      <c r="BO16" s="87"/>
+      <c r="BP16" s="87"/>
+      <c r="BQ16" s="87"/>
+      <c r="BR16" s="87"/>
+      <c r="BS16" s="87"/>
+      <c r="BT16" s="87"/>
+      <c r="BU16" s="88"/>
+      <c r="BV16" s="45"/>
+      <c r="BW16" s="35"/>
+      <c r="BX16" s="35"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="45"/>
+      <c r="CA16" s="35"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="45"/>
+      <c r="CD16" s="35"/>
+      <c r="CE16" s="35"/>
+      <c r="CF16" s="36"/>
     </row>
     <row r="17" spans="1:84" ht="87" customHeight="1">
-      <c r="A17" s="102">
+      <c r="A17" s="45">
         <v>9</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="93" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="93" t="s">
+      <c r="Q17" s="85"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="95"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="115"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="102" t="s">
+      <c r="U17" s="85"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="109" t="s">
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO17" s="110"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="109" t="s">
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="110"/>
-      <c r="AZ17" s="110"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
-      <c r="BC17" s="110"/>
-      <c r="BD17" s="110"/>
-      <c r="BE17" s="110"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="109" t="s">
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="87"/>
+      <c r="BA17" s="87"/>
+      <c r="BB17" s="87"/>
+      <c r="BC17" s="87"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="87"/>
+      <c r="BF17" s="88"/>
+      <c r="BG17" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH17" s="110"/>
-      <c r="BI17" s="110"/>
-      <c r="BJ17" s="110"/>
-      <c r="BK17" s="110"/>
-      <c r="BL17" s="110"/>
-      <c r="BM17" s="110"/>
-      <c r="BN17" s="110"/>
-      <c r="BO17" s="110"/>
-      <c r="BP17" s="110"/>
-      <c r="BQ17" s="110"/>
-      <c r="BR17" s="110"/>
-      <c r="BS17" s="110"/>
-      <c r="BT17" s="110"/>
-      <c r="BU17" s="111"/>
-      <c r="BV17" s="102"/>
-      <c r="BW17" s="103"/>
-      <c r="BX17" s="103"/>
-      <c r="BY17" s="104"/>
-      <c r="BZ17" s="102"/>
-      <c r="CA17" s="103"/>
-      <c r="CB17" s="104"/>
-      <c r="CC17" s="102"/>
-      <c r="CD17" s="103"/>
-      <c r="CE17" s="103"/>
-      <c r="CF17" s="104"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="87"/>
+      <c r="BJ17" s="87"/>
+      <c r="BK17" s="87"/>
+      <c r="BL17" s="87"/>
+      <c r="BM17" s="87"/>
+      <c r="BN17" s="87"/>
+      <c r="BO17" s="87"/>
+      <c r="BP17" s="87"/>
+      <c r="BQ17" s="87"/>
+      <c r="BR17" s="87"/>
+      <c r="BS17" s="87"/>
+      <c r="BT17" s="87"/>
+      <c r="BU17" s="88"/>
+      <c r="BV17" s="45"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="35"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="45"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="45"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="36"/>
     </row>
     <row r="18" spans="1:84" ht="123" customHeight="1">
-      <c r="A18" s="102">
+      <c r="A18" s="45">
         <v>10</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="93" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="93" t="s">
+      <c r="Q18" s="85"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="95"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="93" t="s">
+      <c r="U18" s="85"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="102" t="s">
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="109" t="s">
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="109" t="s">
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="110"/>
-      <c r="AZ18" s="110"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="110"/>
-      <c r="BC18" s="110"/>
-      <c r="BD18" s="110"/>
-      <c r="BE18" s="110"/>
-      <c r="BF18" s="111"/>
-      <c r="BG18" s="109" t="s">
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
+      <c r="BA18" s="87"/>
+      <c r="BB18" s="87"/>
+      <c r="BC18" s="87"/>
+      <c r="BD18" s="87"/>
+      <c r="BE18" s="87"/>
+      <c r="BF18" s="88"/>
+      <c r="BG18" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="BH18" s="110"/>
-      <c r="BI18" s="110"/>
-      <c r="BJ18" s="110"/>
-      <c r="BK18" s="110"/>
-      <c r="BL18" s="110"/>
-      <c r="BM18" s="110"/>
-      <c r="BN18" s="110"/>
-      <c r="BO18" s="110"/>
-      <c r="BP18" s="110"/>
-      <c r="BQ18" s="110"/>
-      <c r="BR18" s="110"/>
-      <c r="BS18" s="110"/>
-      <c r="BT18" s="110"/>
-      <c r="BU18" s="111"/>
-      <c r="BV18" s="102"/>
-      <c r="BW18" s="103"/>
-      <c r="BX18" s="103"/>
-      <c r="BY18" s="104"/>
-      <c r="BZ18" s="102"/>
-      <c r="CA18" s="103"/>
-      <c r="CB18" s="104"/>
-      <c r="CC18" s="102"/>
-      <c r="CD18" s="103"/>
-      <c r="CE18" s="103"/>
-      <c r="CF18" s="104"/>
+      <c r="BH18" s="87"/>
+      <c r="BI18" s="87"/>
+      <c r="BJ18" s="87"/>
+      <c r="BK18" s="87"/>
+      <c r="BL18" s="87"/>
+      <c r="BM18" s="87"/>
+      <c r="BN18" s="87"/>
+      <c r="BO18" s="87"/>
+      <c r="BP18" s="87"/>
+      <c r="BQ18" s="87"/>
+      <c r="BR18" s="87"/>
+      <c r="BS18" s="87"/>
+      <c r="BT18" s="87"/>
+      <c r="BU18" s="88"/>
+      <c r="BV18" s="45"/>
+      <c r="BW18" s="35"/>
+      <c r="BX18" s="35"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="45"/>
+      <c r="CA18" s="35"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="45"/>
+      <c r="CD18" s="35"/>
+      <c r="CE18" s="35"/>
+      <c r="CF18" s="36"/>
     </row>
     <row r="19" spans="1:84" ht="105.8" customHeight="1">
-      <c r="A19" s="102">
+      <c r="A19" s="45">
         <v>11</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="93" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="93" t="s">
+      <c r="Q19" s="85"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="102" t="s">
+      <c r="U19" s="85"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="109" t="s">
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="109" t="s">
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
-      <c r="AW19" s="110"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="110"/>
-      <c r="AZ19" s="110"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="110"/>
-      <c r="BC19" s="110"/>
-      <c r="BD19" s="110"/>
-      <c r="BE19" s="110"/>
-      <c r="BF19" s="111"/>
-      <c r="BG19" s="109" t="s">
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="87"/>
+      <c r="BA19" s="87"/>
+      <c r="BB19" s="87"/>
+      <c r="BC19" s="87"/>
+      <c r="BD19" s="87"/>
+      <c r="BE19" s="87"/>
+      <c r="BF19" s="88"/>
+      <c r="BG19" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH19" s="110"/>
-      <c r="BI19" s="110"/>
-      <c r="BJ19" s="110"/>
-      <c r="BK19" s="110"/>
-      <c r="BL19" s="110"/>
-      <c r="BM19" s="110"/>
-      <c r="BN19" s="110"/>
-      <c r="BO19" s="110"/>
-      <c r="BP19" s="110"/>
-      <c r="BQ19" s="110"/>
-      <c r="BR19" s="110"/>
-      <c r="BS19" s="110"/>
-      <c r="BT19" s="110"/>
-      <c r="BU19" s="111"/>
-      <c r="BV19" s="102"/>
-      <c r="BW19" s="103"/>
-      <c r="BX19" s="103"/>
-      <c r="BY19" s="104"/>
-      <c r="BZ19" s="102"/>
-      <c r="CA19" s="103"/>
-      <c r="CB19" s="104"/>
-      <c r="CC19" s="102"/>
-      <c r="CD19" s="103"/>
-      <c r="CE19" s="103"/>
-      <c r="CF19" s="104"/>
+      <c r="BH19" s="87"/>
+      <c r="BI19" s="87"/>
+      <c r="BJ19" s="87"/>
+      <c r="BK19" s="87"/>
+      <c r="BL19" s="87"/>
+      <c r="BM19" s="87"/>
+      <c r="BN19" s="87"/>
+      <c r="BO19" s="87"/>
+      <c r="BP19" s="87"/>
+      <c r="BQ19" s="87"/>
+      <c r="BR19" s="87"/>
+      <c r="BS19" s="87"/>
+      <c r="BT19" s="87"/>
+      <c r="BU19" s="88"/>
+      <c r="BV19" s="45"/>
+      <c r="BW19" s="35"/>
+      <c r="BX19" s="35"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="45"/>
+      <c r="CA19" s="35"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="45"/>
+      <c r="CD19" s="35"/>
+      <c r="CE19" s="35"/>
+      <c r="CF19" s="36"/>
     </row>
     <row r="20" spans="1:84" ht="105.8" customHeight="1">
-      <c r="A20" s="102">
+      <c r="A20" s="45">
         <v>12</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="93" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="93" t="s">
+      <c r="Q20" s="85"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="93" t="s">
+      <c r="U20" s="85"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="102" t="s">
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="109" t="s">
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO20" s="110"/>
-      <c r="AP20" s="110"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="109" t="s">
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="110"/>
-      <c r="AV20" s="110"/>
-      <c r="AW20" s="110"/>
-      <c r="AX20" s="110"/>
-      <c r="AY20" s="110"/>
-      <c r="AZ20" s="110"/>
-      <c r="BA20" s="110"/>
-      <c r="BB20" s="110"/>
-      <c r="BC20" s="110"/>
-      <c r="BD20" s="110"/>
-      <c r="BE20" s="110"/>
-      <c r="BF20" s="111"/>
-      <c r="BG20" s="109" t="s">
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="87"/>
+      <c r="BA20" s="87"/>
+      <c r="BB20" s="87"/>
+      <c r="BC20" s="87"/>
+      <c r="BD20" s="87"/>
+      <c r="BE20" s="87"/>
+      <c r="BF20" s="88"/>
+      <c r="BG20" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="BH20" s="110"/>
-      <c r="BI20" s="110"/>
-      <c r="BJ20" s="110"/>
-      <c r="BK20" s="110"/>
-      <c r="BL20" s="110"/>
-      <c r="BM20" s="110"/>
-      <c r="BN20" s="110"/>
-      <c r="BO20" s="110"/>
-      <c r="BP20" s="110"/>
-      <c r="BQ20" s="110"/>
-      <c r="BR20" s="110"/>
-      <c r="BS20" s="110"/>
-      <c r="BT20" s="110"/>
-      <c r="BU20" s="111"/>
-      <c r="BV20" s="102"/>
-      <c r="BW20" s="103"/>
-      <c r="BX20" s="103"/>
-      <c r="BY20" s="104"/>
-      <c r="BZ20" s="102"/>
-      <c r="CA20" s="103"/>
-      <c r="CB20" s="104"/>
-      <c r="CC20" s="102"/>
-      <c r="CD20" s="103"/>
-      <c r="CE20" s="103"/>
-      <c r="CF20" s="104"/>
+      <c r="BH20" s="87"/>
+      <c r="BI20" s="87"/>
+      <c r="BJ20" s="87"/>
+      <c r="BK20" s="87"/>
+      <c r="BL20" s="87"/>
+      <c r="BM20" s="87"/>
+      <c r="BN20" s="87"/>
+      <c r="BO20" s="87"/>
+      <c r="BP20" s="87"/>
+      <c r="BQ20" s="87"/>
+      <c r="BR20" s="87"/>
+      <c r="BS20" s="87"/>
+      <c r="BT20" s="87"/>
+      <c r="BU20" s="88"/>
+      <c r="BV20" s="45"/>
+      <c r="BW20" s="35"/>
+      <c r="BX20" s="35"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="45"/>
+      <c r="CA20" s="35"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="45"/>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="36"/>
     </row>
     <row r="21" spans="1:84" ht="128.25" customHeight="1">
-      <c r="A21" s="102">
+      <c r="A21" s="45">
         <v>13</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="93" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="93" t="s">
+      <c r="Q21" s="85"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="95"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="93" t="s">
+      <c r="U21" s="85"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="102" t="s">
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="109" t="s">
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO21" s="110"/>
-      <c r="AP21" s="110"/>
-      <c r="AQ21" s="110"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="116" t="s">
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="AT21" s="117"/>
-      <c r="AU21" s="117"/>
-      <c r="AV21" s="117"/>
-      <c r="AW21" s="117"/>
-      <c r="AX21" s="117"/>
-      <c r="AY21" s="117"/>
-      <c r="AZ21" s="117"/>
-      <c r="BA21" s="117"/>
-      <c r="BB21" s="117"/>
-      <c r="BC21" s="117"/>
-      <c r="BD21" s="117"/>
-      <c r="BE21" s="117"/>
-      <c r="BF21" s="118"/>
-      <c r="BG21" s="109" t="s">
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="135"/>
+      <c r="AX21" s="135"/>
+      <c r="AY21" s="135"/>
+      <c r="AZ21" s="135"/>
+      <c r="BA21" s="135"/>
+      <c r="BB21" s="135"/>
+      <c r="BC21" s="135"/>
+      <c r="BD21" s="135"/>
+      <c r="BE21" s="135"/>
+      <c r="BF21" s="136"/>
+      <c r="BG21" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="BH21" s="110"/>
-      <c r="BI21" s="110"/>
-      <c r="BJ21" s="110"/>
-      <c r="BK21" s="110"/>
-      <c r="BL21" s="110"/>
-      <c r="BM21" s="110"/>
-      <c r="BN21" s="110"/>
-      <c r="BO21" s="110"/>
-      <c r="BP21" s="110"/>
-      <c r="BQ21" s="110"/>
-      <c r="BR21" s="110"/>
-      <c r="BS21" s="110"/>
-      <c r="BT21" s="110"/>
-      <c r="BU21" s="111"/>
-      <c r="BV21" s="102"/>
-      <c r="BW21" s="103"/>
-      <c r="BX21" s="103"/>
-      <c r="BY21" s="104"/>
-      <c r="BZ21" s="102"/>
-      <c r="CA21" s="103"/>
-      <c r="CB21" s="104"/>
-      <c r="CC21" s="102"/>
-      <c r="CD21" s="103"/>
-      <c r="CE21" s="103"/>
-      <c r="CF21" s="104"/>
+      <c r="BH21" s="87"/>
+      <c r="BI21" s="87"/>
+      <c r="BJ21" s="87"/>
+      <c r="BK21" s="87"/>
+      <c r="BL21" s="87"/>
+      <c r="BM21" s="87"/>
+      <c r="BN21" s="87"/>
+      <c r="BO21" s="87"/>
+      <c r="BP21" s="87"/>
+      <c r="BQ21" s="87"/>
+      <c r="BR21" s="87"/>
+      <c r="BS21" s="87"/>
+      <c r="BT21" s="87"/>
+      <c r="BU21" s="88"/>
+      <c r="BV21" s="45"/>
+      <c r="BW21" s="35"/>
+      <c r="BX21" s="35"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="45"/>
+      <c r="CA21" s="35"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="45"/>
+      <c r="CD21" s="35"/>
+      <c r="CE21" s="35"/>
+      <c r="CF21" s="36"/>
     </row>
     <row r="22" spans="1:84" ht="123" customHeight="1">
-      <c r="A22" s="102">
+      <c r="A22" s="45">
         <v>14</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="93" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="93" t="s">
+      <c r="Q22" s="85"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="95"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="93" t="s">
+      <c r="U22" s="85"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="102" t="s">
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="104"/>
-      <c r="AN22" s="109" t="s">
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="109" t="s">
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="110"/>
-      <c r="AV22" s="110"/>
-      <c r="AW22" s="110"/>
-      <c r="AX22" s="110"/>
-      <c r="AY22" s="110"/>
-      <c r="AZ22" s="110"/>
-      <c r="BA22" s="110"/>
-      <c r="BB22" s="110"/>
-      <c r="BC22" s="110"/>
-      <c r="BD22" s="110"/>
-      <c r="BE22" s="110"/>
-      <c r="BF22" s="111"/>
-      <c r="BG22" s="109" t="s">
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="87"/>
+      <c r="AZ22" s="87"/>
+      <c r="BA22" s="87"/>
+      <c r="BB22" s="87"/>
+      <c r="BC22" s="87"/>
+      <c r="BD22" s="87"/>
+      <c r="BE22" s="87"/>
+      <c r="BF22" s="88"/>
+      <c r="BG22" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="BH22" s="110"/>
-      <c r="BI22" s="110"/>
-      <c r="BJ22" s="110"/>
-      <c r="BK22" s="110"/>
-      <c r="BL22" s="110"/>
-      <c r="BM22" s="110"/>
-      <c r="BN22" s="110"/>
-      <c r="BO22" s="110"/>
-      <c r="BP22" s="110"/>
-      <c r="BQ22" s="110"/>
-      <c r="BR22" s="110"/>
-      <c r="BS22" s="110"/>
-      <c r="BT22" s="110"/>
-      <c r="BU22" s="111"/>
-      <c r="BV22" s="102"/>
-      <c r="BW22" s="103"/>
-      <c r="BX22" s="103"/>
-      <c r="BY22" s="104"/>
-      <c r="BZ22" s="102"/>
-      <c r="CA22" s="103"/>
-      <c r="CB22" s="104"/>
-      <c r="CC22" s="102"/>
-      <c r="CD22" s="103"/>
-      <c r="CE22" s="103"/>
-      <c r="CF22" s="104"/>
+      <c r="BH22" s="87"/>
+      <c r="BI22" s="87"/>
+      <c r="BJ22" s="87"/>
+      <c r="BK22" s="87"/>
+      <c r="BL22" s="87"/>
+      <c r="BM22" s="87"/>
+      <c r="BN22" s="87"/>
+      <c r="BO22" s="87"/>
+      <c r="BP22" s="87"/>
+      <c r="BQ22" s="87"/>
+      <c r="BR22" s="87"/>
+      <c r="BS22" s="87"/>
+      <c r="BT22" s="87"/>
+      <c r="BU22" s="88"/>
+      <c r="BV22" s="45"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="36"/>
+      <c r="BZ22" s="45"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="36"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="36"/>
     </row>
     <row r="23" spans="1:84" ht="123" customHeight="1">
-      <c r="A23" s="102">
+      <c r="A23" s="45">
         <v>15</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="93" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="93" t="s">
+      <c r="Q23" s="85"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="102"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="102" t="s">
+      <c r="U23" s="85"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="109" t="s">
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO23" s="110"/>
-      <c r="AP23" s="110"/>
-      <c r="AQ23" s="110"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="109" t="s">
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="AT23" s="110"/>
-      <c r="AU23" s="110"/>
-      <c r="AV23" s="110"/>
-      <c r="AW23" s="110"/>
-      <c r="AX23" s="110"/>
-      <c r="AY23" s="110"/>
-      <c r="AZ23" s="110"/>
-      <c r="BA23" s="110"/>
-      <c r="BB23" s="110"/>
-      <c r="BC23" s="110"/>
-      <c r="BD23" s="110"/>
-      <c r="BE23" s="110"/>
-      <c r="BF23" s="111"/>
-      <c r="BG23" s="109" t="s">
+      <c r="AT23" s="87"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
+      <c r="AX23" s="87"/>
+      <c r="AY23" s="87"/>
+      <c r="AZ23" s="87"/>
+      <c r="BA23" s="87"/>
+      <c r="BB23" s="87"/>
+      <c r="BC23" s="87"/>
+      <c r="BD23" s="87"/>
+      <c r="BE23" s="87"/>
+      <c r="BF23" s="88"/>
+      <c r="BG23" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH23" s="110"/>
-      <c r="BI23" s="110"/>
-      <c r="BJ23" s="110"/>
-      <c r="BK23" s="110"/>
-      <c r="BL23" s="110"/>
-      <c r="BM23" s="110"/>
-      <c r="BN23" s="110"/>
-      <c r="BO23" s="110"/>
-      <c r="BP23" s="110"/>
-      <c r="BQ23" s="110"/>
-      <c r="BR23" s="110"/>
-      <c r="BS23" s="110"/>
-      <c r="BT23" s="110"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="102"/>
-      <c r="BW23" s="103"/>
-      <c r="BX23" s="103"/>
-      <c r="BY23" s="104"/>
-      <c r="BZ23" s="102"/>
-      <c r="CA23" s="103"/>
-      <c r="CB23" s="104"/>
-      <c r="CC23" s="102"/>
-      <c r="CD23" s="103"/>
-      <c r="CE23" s="103"/>
-      <c r="CF23" s="104"/>
+      <c r="BH23" s="87"/>
+      <c r="BI23" s="87"/>
+      <c r="BJ23" s="87"/>
+      <c r="BK23" s="87"/>
+      <c r="BL23" s="87"/>
+      <c r="BM23" s="87"/>
+      <c r="BN23" s="87"/>
+      <c r="BO23" s="87"/>
+      <c r="BP23" s="87"/>
+      <c r="BQ23" s="87"/>
+      <c r="BR23" s="87"/>
+      <c r="BS23" s="87"/>
+      <c r="BT23" s="87"/>
+      <c r="BU23" s="88"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="35"/>
+      <c r="BX23" s="35"/>
+      <c r="BY23" s="36"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="35"/>
+      <c r="CB23" s="36"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="35"/>
+      <c r="CE23" s="35"/>
+      <c r="CF23" s="36"/>
     </row>
     <row r="24" spans="1:84" ht="102.05" customHeight="1">
-      <c r="A24" s="102">
+      <c r="A24" s="45">
         <v>16</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="102" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="93" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="93" t="s">
+      <c r="Q24" s="85"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="95"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="93" t="s">
+      <c r="U24" s="85"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="104"/>
-      <c r="AK24" s="102" t="s">
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="109" t="s">
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="109" t="s">
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="AT24" s="110"/>
-      <c r="AU24" s="110"/>
-      <c r="AV24" s="110"/>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="110"/>
-      <c r="AY24" s="110"/>
-      <c r="AZ24" s="110"/>
-      <c r="BA24" s="110"/>
-      <c r="BB24" s="110"/>
-      <c r="BC24" s="110"/>
-      <c r="BD24" s="110"/>
-      <c r="BE24" s="110"/>
-      <c r="BF24" s="111"/>
-      <c r="BG24" s="109" t="s">
+      <c r="AT24" s="87"/>
+      <c r="AU24" s="87"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
+      <c r="AX24" s="87"/>
+      <c r="AY24" s="87"/>
+      <c r="AZ24" s="87"/>
+      <c r="BA24" s="87"/>
+      <c r="BB24" s="87"/>
+      <c r="BC24" s="87"/>
+      <c r="BD24" s="87"/>
+      <c r="BE24" s="87"/>
+      <c r="BF24" s="88"/>
+      <c r="BG24" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="BH24" s="110"/>
-      <c r="BI24" s="110"/>
-      <c r="BJ24" s="110"/>
-      <c r="BK24" s="110"/>
-      <c r="BL24" s="110"/>
-      <c r="BM24" s="110"/>
-      <c r="BN24" s="110"/>
-      <c r="BO24" s="110"/>
-      <c r="BP24" s="110"/>
-      <c r="BQ24" s="110"/>
-      <c r="BR24" s="110"/>
-      <c r="BS24" s="110"/>
-      <c r="BT24" s="110"/>
-      <c r="BU24" s="111"/>
-      <c r="BV24" s="102"/>
-      <c r="BW24" s="103"/>
-      <c r="BX24" s="103"/>
-      <c r="BY24" s="104"/>
-      <c r="BZ24" s="102"/>
-      <c r="CA24" s="103"/>
-      <c r="CB24" s="104"/>
-      <c r="CC24" s="102"/>
-      <c r="CD24" s="103"/>
-      <c r="CE24" s="103"/>
-      <c r="CF24" s="104"/>
+      <c r="BH24" s="87"/>
+      <c r="BI24" s="87"/>
+      <c r="BJ24" s="87"/>
+      <c r="BK24" s="87"/>
+      <c r="BL24" s="87"/>
+      <c r="BM24" s="87"/>
+      <c r="BN24" s="87"/>
+      <c r="BO24" s="87"/>
+      <c r="BP24" s="87"/>
+      <c r="BQ24" s="87"/>
+      <c r="BR24" s="87"/>
+      <c r="BS24" s="87"/>
+      <c r="BT24" s="87"/>
+      <c r="BU24" s="88"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="35"/>
+      <c r="BX24" s="35"/>
+      <c r="BY24" s="36"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="35"/>
+      <c r="CB24" s="36"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="35"/>
+      <c r="CE24" s="35"/>
+      <c r="CF24" s="36"/>
     </row>
     <row r="25" spans="1:84" ht="90" customHeight="1">
-      <c r="A25" s="102">
+      <c r="A25" s="45">
         <v>17</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="102" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="93" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="93" t="s">
+      <c r="Q25" s="85"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="95"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="104"/>
-      <c r="AK25" s="102" t="s">
+      <c r="U25" s="85"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="109" t="s">
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="110"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="109" t="s">
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="AT25" s="110"/>
-      <c r="AU25" s="110"/>
-      <c r="AV25" s="110"/>
-      <c r="AW25" s="110"/>
-      <c r="AX25" s="110"/>
-      <c r="AY25" s="110"/>
-      <c r="AZ25" s="110"/>
-      <c r="BA25" s="110"/>
-      <c r="BB25" s="110"/>
-      <c r="BC25" s="110"/>
-      <c r="BD25" s="110"/>
-      <c r="BE25" s="110"/>
-      <c r="BF25" s="111"/>
-      <c r="BG25" s="109" t="s">
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
+      <c r="AX25" s="87"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="87"/>
+      <c r="BA25" s="87"/>
+      <c r="BB25" s="87"/>
+      <c r="BC25" s="87"/>
+      <c r="BD25" s="87"/>
+      <c r="BE25" s="87"/>
+      <c r="BF25" s="88"/>
+      <c r="BG25" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH25" s="110"/>
-      <c r="BI25" s="110"/>
-      <c r="BJ25" s="110"/>
-      <c r="BK25" s="110"/>
-      <c r="BL25" s="110"/>
-      <c r="BM25" s="110"/>
-      <c r="BN25" s="110"/>
-      <c r="BO25" s="110"/>
-      <c r="BP25" s="110"/>
-      <c r="BQ25" s="110"/>
-      <c r="BR25" s="110"/>
-      <c r="BS25" s="110"/>
-      <c r="BT25" s="110"/>
-      <c r="BU25" s="111"/>
-      <c r="BV25" s="102"/>
-      <c r="BW25" s="103"/>
-      <c r="BX25" s="103"/>
-      <c r="BY25" s="104"/>
-      <c r="BZ25" s="102"/>
-      <c r="CA25" s="103"/>
-      <c r="CB25" s="104"/>
-      <c r="CC25" s="102"/>
-      <c r="CD25" s="103"/>
-      <c r="CE25" s="103"/>
-      <c r="CF25" s="104"/>
+      <c r="BH25" s="87"/>
+      <c r="BI25" s="87"/>
+      <c r="BJ25" s="87"/>
+      <c r="BK25" s="87"/>
+      <c r="BL25" s="87"/>
+      <c r="BM25" s="87"/>
+      <c r="BN25" s="87"/>
+      <c r="BO25" s="87"/>
+      <c r="BP25" s="87"/>
+      <c r="BQ25" s="87"/>
+      <c r="BR25" s="87"/>
+      <c r="BS25" s="87"/>
+      <c r="BT25" s="87"/>
+      <c r="BU25" s="88"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="35"/>
+      <c r="BX25" s="35"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="35"/>
+      <c r="CB25" s="36"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="35"/>
+      <c r="CE25" s="35"/>
+      <c r="CF25" s="36"/>
     </row>
     <row r="26" spans="1:84" ht="90" customHeight="1">
-      <c r="A26" s="102">
+      <c r="A26" s="45">
         <v>18</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="102" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="93" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="93" t="s">
+      <c r="Q26" s="85"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="95"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="93" t="s">
+      <c r="U26" s="85"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="104"/>
-      <c r="AK26" s="102" t="s">
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="104"/>
-      <c r="AN26" s="109" t="s">
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="109" t="s">
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="88"/>
+      <c r="AS26" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="110"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
-      <c r="AZ26" s="110"/>
-      <c r="BA26" s="110"/>
-      <c r="BB26" s="110"/>
-      <c r="BC26" s="110"/>
-      <c r="BD26" s="110"/>
-      <c r="BE26" s="110"/>
-      <c r="BF26" s="111"/>
-      <c r="BG26" s="109" t="s">
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
+      <c r="BE26" s="87"/>
+      <c r="BF26" s="88"/>
+      <c r="BG26" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="BH26" s="110"/>
-      <c r="BI26" s="110"/>
-      <c r="BJ26" s="110"/>
-      <c r="BK26" s="110"/>
-      <c r="BL26" s="110"/>
-      <c r="BM26" s="110"/>
-      <c r="BN26" s="110"/>
-      <c r="BO26" s="110"/>
-      <c r="BP26" s="110"/>
-      <c r="BQ26" s="110"/>
-      <c r="BR26" s="110"/>
-      <c r="BS26" s="110"/>
-      <c r="BT26" s="110"/>
-      <c r="BU26" s="111"/>
-      <c r="BV26" s="102"/>
-      <c r="BW26" s="103"/>
-      <c r="BX26" s="103"/>
-      <c r="BY26" s="104"/>
-      <c r="BZ26" s="102"/>
-      <c r="CA26" s="103"/>
-      <c r="CB26" s="104"/>
-      <c r="CC26" s="102"/>
-      <c r="CD26" s="103"/>
-      <c r="CE26" s="103"/>
-      <c r="CF26" s="104"/>
+      <c r="BH26" s="87"/>
+      <c r="BI26" s="87"/>
+      <c r="BJ26" s="87"/>
+      <c r="BK26" s="87"/>
+      <c r="BL26" s="87"/>
+      <c r="BM26" s="87"/>
+      <c r="BN26" s="87"/>
+      <c r="BO26" s="87"/>
+      <c r="BP26" s="87"/>
+      <c r="BQ26" s="87"/>
+      <c r="BR26" s="87"/>
+      <c r="BS26" s="87"/>
+      <c r="BT26" s="87"/>
+      <c r="BU26" s="88"/>
+      <c r="BV26" s="45"/>
+      <c r="BW26" s="35"/>
+      <c r="BX26" s="35"/>
+      <c r="BY26" s="36"/>
+      <c r="BZ26" s="45"/>
+      <c r="CA26" s="35"/>
+      <c r="CB26" s="36"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="35"/>
+      <c r="CE26" s="35"/>
+      <c r="CF26" s="36"/>
     </row>
     <row r="27" spans="1:84" ht="90" customHeight="1">
-      <c r="A27" s="102">
+      <c r="A27" s="45">
         <v>19</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="102" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="93" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="93" t="s">
+      <c r="Q27" s="85"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="95"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="93" t="s">
+      <c r="U27" s="85"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="102"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="102" t="s">
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="109" t="s">
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO27" s="110"/>
-      <c r="AP27" s="110"/>
-      <c r="AQ27" s="110"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="109" t="s">
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="AT27" s="110"/>
-      <c r="AU27" s="110"/>
-      <c r="AV27" s="110"/>
-      <c r="AW27" s="110"/>
-      <c r="AX27" s="110"/>
-      <c r="AY27" s="110"/>
-      <c r="AZ27" s="110"/>
-      <c r="BA27" s="110"/>
-      <c r="BB27" s="110"/>
-      <c r="BC27" s="110"/>
-      <c r="BD27" s="110"/>
-      <c r="BE27" s="110"/>
-      <c r="BF27" s="111"/>
-      <c r="BG27" s="109" t="s">
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="88"/>
+      <c r="BG27" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="BH27" s="110"/>
-      <c r="BI27" s="110"/>
-      <c r="BJ27" s="110"/>
-      <c r="BK27" s="110"/>
-      <c r="BL27" s="110"/>
-      <c r="BM27" s="110"/>
-      <c r="BN27" s="110"/>
-      <c r="BO27" s="110"/>
-      <c r="BP27" s="110"/>
-      <c r="BQ27" s="110"/>
-      <c r="BR27" s="110"/>
-      <c r="BS27" s="110"/>
-      <c r="BT27" s="110"/>
-      <c r="BU27" s="111"/>
-      <c r="BV27" s="102"/>
-      <c r="BW27" s="103"/>
-      <c r="BX27" s="103"/>
-      <c r="BY27" s="104"/>
-      <c r="BZ27" s="102"/>
-      <c r="CA27" s="103"/>
-      <c r="CB27" s="104"/>
-      <c r="CC27" s="102"/>
-      <c r="CD27" s="103"/>
-      <c r="CE27" s="103"/>
-      <c r="CF27" s="104"/>
+      <c r="BH27" s="87"/>
+      <c r="BI27" s="87"/>
+      <c r="BJ27" s="87"/>
+      <c r="BK27" s="87"/>
+      <c r="BL27" s="87"/>
+      <c r="BM27" s="87"/>
+      <c r="BN27" s="87"/>
+      <c r="BO27" s="87"/>
+      <c r="BP27" s="87"/>
+      <c r="BQ27" s="87"/>
+      <c r="BR27" s="87"/>
+      <c r="BS27" s="87"/>
+      <c r="BT27" s="87"/>
+      <c r="BU27" s="88"/>
+      <c r="BV27" s="45"/>
+      <c r="BW27" s="35"/>
+      <c r="BX27" s="35"/>
+      <c r="BY27" s="36"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="36"/>
     </row>
     <row r="28" spans="1:84" ht="90" customHeight="1">
-      <c r="A28" s="102">
+      <c r="A28" s="45">
         <v>20</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="93" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="93" t="s">
+      <c r="Q28" s="85"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="95"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="102"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="102" t="s">
+      <c r="U28" s="85"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL28" s="103"/>
-      <c r="AM28" s="104"/>
-      <c r="AN28" s="109" t="s">
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="AO28" s="110"/>
-      <c r="AP28" s="110"/>
-      <c r="AQ28" s="110"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="109" t="s">
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="88"/>
+      <c r="AS28" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="110"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="110"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="111"/>
-      <c r="BG28" s="109" t="s">
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="87"/>
+      <c r="BE28" s="87"/>
+      <c r="BF28" s="88"/>
+      <c r="BG28" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
-      <c r="BK28" s="110"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="110"/>
-      <c r="BP28" s="110"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="110"/>
-      <c r="BU28" s="111"/>
-      <c r="BV28" s="102"/>
-      <c r="BW28" s="103"/>
-      <c r="BX28" s="103"/>
-      <c r="BY28" s="104"/>
-      <c r="BZ28" s="102"/>
-      <c r="CA28" s="103"/>
-      <c r="CB28" s="104"/>
-      <c r="CC28" s="102"/>
-      <c r="CD28" s="103"/>
-      <c r="CE28" s="103"/>
-      <c r="CF28" s="104"/>
+      <c r="BH28" s="87"/>
+      <c r="BI28" s="87"/>
+      <c r="BJ28" s="87"/>
+      <c r="BK28" s="87"/>
+      <c r="BL28" s="87"/>
+      <c r="BM28" s="87"/>
+      <c r="BN28" s="87"/>
+      <c r="BO28" s="87"/>
+      <c r="BP28" s="87"/>
+      <c r="BQ28" s="87"/>
+      <c r="BR28" s="87"/>
+      <c r="BS28" s="87"/>
+      <c r="BT28" s="87"/>
+      <c r="BU28" s="88"/>
+      <c r="BV28" s="45"/>
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="36"/>
+      <c r="BZ28" s="45"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="36"/>
+      <c r="CC28" s="45"/>
+      <c r="CD28" s="35"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="36"/>
     </row>
     <row r="29" spans="1:84" ht="109.4" customHeight="1">
-      <c r="A29" s="102">
+      <c r="A29" s="45">
         <v>21</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="102" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="93" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="93" t="s">
+      <c r="Q29" s="85"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="U29" s="95"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="93" t="s">
+      <c r="U29" s="85"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="102"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="104"/>
-      <c r="AK29" s="102" t="s">
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="104"/>
-      <c r="AN29" s="109" t="s">
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="AO29" s="112"/>
-      <c r="AP29" s="112"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="109" t="s">
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="AT29" s="110"/>
-      <c r="AU29" s="110"/>
-      <c r="AV29" s="110"/>
-      <c r="AW29" s="110"/>
-      <c r="AX29" s="110"/>
-      <c r="AY29" s="110"/>
-      <c r="AZ29" s="110"/>
-      <c r="BA29" s="110"/>
-      <c r="BB29" s="110"/>
-      <c r="BC29" s="110"/>
-      <c r="BD29" s="110"/>
-      <c r="BE29" s="110"/>
-      <c r="BF29" s="111"/>
-      <c r="BG29" s="109" t="s">
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="87"/>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="87"/>
+      <c r="BD29" s="87"/>
+      <c r="BE29" s="87"/>
+      <c r="BF29" s="88"/>
+      <c r="BG29" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="BH29" s="112"/>
-      <c r="BI29" s="112"/>
-      <c r="BJ29" s="112"/>
-      <c r="BK29" s="112"/>
-      <c r="BL29" s="112"/>
-      <c r="BM29" s="112"/>
-      <c r="BN29" s="112"/>
-      <c r="BO29" s="112"/>
-      <c r="BP29" s="112"/>
-      <c r="BQ29" s="112"/>
-      <c r="BR29" s="112"/>
-      <c r="BS29" s="112"/>
-      <c r="BT29" s="112"/>
-      <c r="BU29" s="113"/>
-      <c r="BV29" s="102"/>
-      <c r="BW29" s="103"/>
-      <c r="BX29" s="103"/>
-      <c r="BY29" s="104"/>
-      <c r="BZ29" s="102"/>
-      <c r="CA29" s="103"/>
-      <c r="CB29" s="104"/>
-      <c r="CC29" s="102"/>
-      <c r="CD29" s="103"/>
-      <c r="CE29" s="103"/>
-      <c r="CF29" s="104"/>
+      <c r="BH29" s="102"/>
+      <c r="BI29" s="102"/>
+      <c r="BJ29" s="102"/>
+      <c r="BK29" s="102"/>
+      <c r="BL29" s="102"/>
+      <c r="BM29" s="102"/>
+      <c r="BN29" s="102"/>
+      <c r="BO29" s="102"/>
+      <c r="BP29" s="102"/>
+      <c r="BQ29" s="102"/>
+      <c r="BR29" s="102"/>
+      <c r="BS29" s="102"/>
+      <c r="BT29" s="102"/>
+      <c r="BU29" s="103"/>
+      <c r="BV29" s="45"/>
+      <c r="BW29" s="35"/>
+      <c r="BX29" s="35"/>
+      <c r="BY29" s="36"/>
+      <c r="BZ29" s="45"/>
+      <c r="CA29" s="35"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="45"/>
+      <c r="CD29" s="35"/>
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="36"/>
     </row>
     <row r="30" spans="1:84" ht="120.15" customHeight="1">
-      <c r="A30" s="102">
+      <c r="A30" s="45">
         <v>22</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="102" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="93" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="93" t="s">
+      <c r="Q30" s="85"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="95"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="93" t="s">
+      <c r="U30" s="85"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="102"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="102" t="s">
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL30" s="103"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="109" t="s">
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="AO30" s="112"/>
-      <c r="AP30" s="112"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="109" t="s">
+      <c r="AO30" s="102"/>
+      <c r="AP30" s="102"/>
+      <c r="AQ30" s="102"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="AT30" s="110"/>
-      <c r="AU30" s="110"/>
-      <c r="AV30" s="110"/>
-      <c r="AW30" s="110"/>
-      <c r="AX30" s="110"/>
-      <c r="AY30" s="110"/>
-      <c r="AZ30" s="110"/>
-      <c r="BA30" s="110"/>
-      <c r="BB30" s="110"/>
-      <c r="BC30" s="110"/>
-      <c r="BD30" s="110"/>
-      <c r="BE30" s="110"/>
-      <c r="BF30" s="111"/>
-      <c r="BG30" s="109" t="s">
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="87"/>
+      <c r="BA30" s="87"/>
+      <c r="BB30" s="87"/>
+      <c r="BC30" s="87"/>
+      <c r="BD30" s="87"/>
+      <c r="BE30" s="87"/>
+      <c r="BF30" s="88"/>
+      <c r="BG30" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="BH30" s="112"/>
-      <c r="BI30" s="112"/>
-      <c r="BJ30" s="112"/>
-      <c r="BK30" s="112"/>
-      <c r="BL30" s="112"/>
-      <c r="BM30" s="112"/>
-      <c r="BN30" s="112"/>
-      <c r="BO30" s="112"/>
-      <c r="BP30" s="112"/>
-      <c r="BQ30" s="112"/>
-      <c r="BR30" s="112"/>
-      <c r="BS30" s="112"/>
-      <c r="BT30" s="112"/>
-      <c r="BU30" s="113"/>
-      <c r="BV30" s="102"/>
-      <c r="BW30" s="103"/>
-      <c r="BX30" s="103"/>
-      <c r="BY30" s="104"/>
-      <c r="BZ30" s="102"/>
-      <c r="CA30" s="103"/>
-      <c r="CB30" s="104"/>
-      <c r="CC30" s="102"/>
-      <c r="CD30" s="103"/>
-      <c r="CE30" s="103"/>
-      <c r="CF30" s="104"/>
+      <c r="BH30" s="102"/>
+      <c r="BI30" s="102"/>
+      <c r="BJ30" s="102"/>
+      <c r="BK30" s="102"/>
+      <c r="BL30" s="102"/>
+      <c r="BM30" s="102"/>
+      <c r="BN30" s="102"/>
+      <c r="BO30" s="102"/>
+      <c r="BP30" s="102"/>
+      <c r="BQ30" s="102"/>
+      <c r="BR30" s="102"/>
+      <c r="BS30" s="102"/>
+      <c r="BT30" s="102"/>
+      <c r="BU30" s="103"/>
+      <c r="BV30" s="45"/>
+      <c r="BW30" s="35"/>
+      <c r="BX30" s="35"/>
+      <c r="BY30" s="36"/>
+      <c r="BZ30" s="45"/>
+      <c r="CA30" s="35"/>
+      <c r="CB30" s="36"/>
+      <c r="CC30" s="45"/>
+      <c r="CD30" s="35"/>
+      <c r="CE30" s="35"/>
+      <c r="CF30" s="36"/>
     </row>
     <row r="31" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A31" s="102">
+      <c r="A31" s="45">
         <v>23</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="102" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="93" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="93" t="s">
+      <c r="Q31" s="85"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="95"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="102"/>
-      <c r="AI31" s="103"/>
-      <c r="AJ31" s="104"/>
-      <c r="AK31" s="102" t="s">
+      <c r="U31" s="85"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="85"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL31" s="103"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="134" t="s">
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="71"/>
-      <c r="AQ31" s="71"/>
-      <c r="AR31" s="135"/>
-      <c r="AS31" s="109" t="s">
+      <c r="AO31" s="122"/>
+      <c r="AP31" s="122"/>
+      <c r="AQ31" s="122"/>
+      <c r="AR31" s="138"/>
+      <c r="AS31" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="AT31" s="110"/>
-      <c r="AU31" s="110"/>
-      <c r="AV31" s="110"/>
-      <c r="AW31" s="110"/>
-      <c r="AX31" s="110"/>
-      <c r="AY31" s="110"/>
-      <c r="AZ31" s="110"/>
-      <c r="BA31" s="110"/>
-      <c r="BB31" s="110"/>
-      <c r="BC31" s="110"/>
-      <c r="BD31" s="110"/>
-      <c r="BE31" s="110"/>
-      <c r="BF31" s="111"/>
-      <c r="BG31" s="109" t="s">
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AX31" s="87"/>
+      <c r="AY31" s="87"/>
+      <c r="AZ31" s="87"/>
+      <c r="BA31" s="87"/>
+      <c r="BB31" s="87"/>
+      <c r="BC31" s="87"/>
+      <c r="BD31" s="87"/>
+      <c r="BE31" s="87"/>
+      <c r="BF31" s="88"/>
+      <c r="BG31" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="BH31" s="112"/>
-      <c r="BI31" s="112"/>
-      <c r="BJ31" s="112"/>
-      <c r="BK31" s="112"/>
-      <c r="BL31" s="112"/>
-      <c r="BM31" s="112"/>
-      <c r="BN31" s="112"/>
-      <c r="BO31" s="112"/>
-      <c r="BP31" s="112"/>
-      <c r="BQ31" s="112"/>
-      <c r="BR31" s="112"/>
-      <c r="BS31" s="112"/>
-      <c r="BT31" s="112"/>
-      <c r="BU31" s="113"/>
-      <c r="BV31" s="102"/>
-      <c r="BW31" s="103"/>
-      <c r="BX31" s="103"/>
-      <c r="BY31" s="104"/>
-      <c r="BZ31" s="102"/>
-      <c r="CA31" s="103"/>
-      <c r="CB31" s="104"/>
-      <c r="CC31" s="102"/>
-      <c r="CD31" s="103"/>
-      <c r="CE31" s="103"/>
-      <c r="CF31" s="104"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="103"/>
+      <c r="BV31" s="45"/>
+      <c r="BW31" s="35"/>
+      <c r="BX31" s="35"/>
+      <c r="BY31" s="36"/>
+      <c r="BZ31" s="45"/>
+      <c r="CA31" s="35"/>
+      <c r="CB31" s="36"/>
+      <c r="CC31" s="45"/>
+      <c r="CD31" s="35"/>
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="36"/>
     </row>
     <row r="32" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A32" s="102">
+      <c r="A32" s="45">
         <v>24</v>
       </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="102" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="93" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="93" t="s">
+      <c r="Q32" s="85"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="95"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="102"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="104"/>
-      <c r="AK32" s="102" t="s">
+      <c r="U32" s="85"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="84"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="134" t="s">
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="71"/>
-      <c r="AQ32" s="71"/>
-      <c r="AR32" s="135"/>
-      <c r="AS32" s="109" t="s">
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
+      <c r="AQ32" s="122"/>
+      <c r="AR32" s="138"/>
+      <c r="AS32" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="AT32" s="110"/>
-      <c r="AU32" s="110"/>
-      <c r="AV32" s="110"/>
-      <c r="AW32" s="110"/>
-      <c r="AX32" s="110"/>
-      <c r="AY32" s="110"/>
-      <c r="AZ32" s="110"/>
-      <c r="BA32" s="110"/>
-      <c r="BB32" s="110"/>
-      <c r="BC32" s="110"/>
-      <c r="BD32" s="110"/>
-      <c r="BE32" s="110"/>
-      <c r="BF32" s="111"/>
-      <c r="BG32" s="109" t="s">
+      <c r="AT32" s="87"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="87"/>
+      <c r="AZ32" s="87"/>
+      <c r="BA32" s="87"/>
+      <c r="BB32" s="87"/>
+      <c r="BC32" s="87"/>
+      <c r="BD32" s="87"/>
+      <c r="BE32" s="87"/>
+      <c r="BF32" s="88"/>
+      <c r="BG32" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="BH32" s="112"/>
-      <c r="BI32" s="112"/>
-      <c r="BJ32" s="112"/>
-      <c r="BK32" s="112"/>
-      <c r="BL32" s="112"/>
-      <c r="BM32" s="112"/>
-      <c r="BN32" s="112"/>
-      <c r="BO32" s="112"/>
-      <c r="BP32" s="112"/>
-      <c r="BQ32" s="112"/>
-      <c r="BR32" s="112"/>
-      <c r="BS32" s="112"/>
-      <c r="BT32" s="112"/>
-      <c r="BU32" s="113"/>
-      <c r="BV32" s="102"/>
-      <c r="BW32" s="103"/>
-      <c r="BX32" s="103"/>
-      <c r="BY32" s="104"/>
-      <c r="BZ32" s="102"/>
-      <c r="CA32" s="103"/>
-      <c r="CB32" s="104"/>
-      <c r="CC32" s="102"/>
-      <c r="CD32" s="103"/>
-      <c r="CE32" s="103"/>
-      <c r="CF32" s="104"/>
+      <c r="BH32" s="102"/>
+      <c r="BI32" s="102"/>
+      <c r="BJ32" s="102"/>
+      <c r="BK32" s="102"/>
+      <c r="BL32" s="102"/>
+      <c r="BM32" s="102"/>
+      <c r="BN32" s="102"/>
+      <c r="BO32" s="102"/>
+      <c r="BP32" s="102"/>
+      <c r="BQ32" s="102"/>
+      <c r="BR32" s="102"/>
+      <c r="BS32" s="102"/>
+      <c r="BT32" s="102"/>
+      <c r="BU32" s="103"/>
+      <c r="BV32" s="45"/>
+      <c r="BW32" s="35"/>
+      <c r="BX32" s="35"/>
+      <c r="BY32" s="36"/>
+      <c r="BZ32" s="45"/>
+      <c r="CA32" s="35"/>
+      <c r="CB32" s="36"/>
+      <c r="CC32" s="45"/>
+      <c r="CD32" s="35"/>
+      <c r="CE32" s="35"/>
+      <c r="CF32" s="36"/>
     </row>
     <row r="33" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A33" s="102">
+      <c r="A33" s="45">
         <v>25</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="102" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="108"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="93" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="93" t="s">
+      <c r="Q33" s="85"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U33" s="95"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="102"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="102" t="s">
+      <c r="U33" s="85"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="85"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL33" s="103"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="134" t="s">
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="71"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="135"/>
-      <c r="AS33" s="109" t="s">
+      <c r="AO33" s="122"/>
+      <c r="AP33" s="122"/>
+      <c r="AQ33" s="122"/>
+      <c r="AR33" s="138"/>
+      <c r="AS33" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="AT33" s="110"/>
-      <c r="AU33" s="110"/>
-      <c r="AV33" s="110"/>
-      <c r="AW33" s="110"/>
-      <c r="AX33" s="110"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="110"/>
-      <c r="BB33" s="110"/>
-      <c r="BC33" s="110"/>
-      <c r="BD33" s="110"/>
-      <c r="BE33" s="110"/>
-      <c r="BF33" s="111"/>
-      <c r="BG33" s="109" t="s">
+      <c r="AT33" s="87"/>
+      <c r="AU33" s="87"/>
+      <c r="AV33" s="87"/>
+      <c r="AW33" s="87"/>
+      <c r="AX33" s="87"/>
+      <c r="AY33" s="87"/>
+      <c r="AZ33" s="87"/>
+      <c r="BA33" s="87"/>
+      <c r="BB33" s="87"/>
+      <c r="BC33" s="87"/>
+      <c r="BD33" s="87"/>
+      <c r="BE33" s="87"/>
+      <c r="BF33" s="88"/>
+      <c r="BG33" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="BH33" s="112"/>
-      <c r="BI33" s="112"/>
-      <c r="BJ33" s="112"/>
-      <c r="BK33" s="112"/>
-      <c r="BL33" s="112"/>
-      <c r="BM33" s="112"/>
-      <c r="BN33" s="112"/>
-      <c r="BO33" s="112"/>
-      <c r="BP33" s="112"/>
-      <c r="BQ33" s="112"/>
-      <c r="BR33" s="112"/>
-      <c r="BS33" s="112"/>
-      <c r="BT33" s="112"/>
-      <c r="BU33" s="113"/>
-      <c r="BV33" s="102"/>
-      <c r="BW33" s="103"/>
-      <c r="BX33" s="103"/>
-      <c r="BY33" s="104"/>
-      <c r="BZ33" s="102"/>
-      <c r="CA33" s="103"/>
-      <c r="CB33" s="104"/>
-      <c r="CC33" s="102"/>
-      <c r="CD33" s="103"/>
-      <c r="CE33" s="103"/>
-      <c r="CF33" s="104"/>
+      <c r="BH33" s="102"/>
+      <c r="BI33" s="102"/>
+      <c r="BJ33" s="102"/>
+      <c r="BK33" s="102"/>
+      <c r="BL33" s="102"/>
+      <c r="BM33" s="102"/>
+      <c r="BN33" s="102"/>
+      <c r="BO33" s="102"/>
+      <c r="BP33" s="102"/>
+      <c r="BQ33" s="102"/>
+      <c r="BR33" s="102"/>
+      <c r="BS33" s="102"/>
+      <c r="BT33" s="102"/>
+      <c r="BU33" s="103"/>
+      <c r="BV33" s="45"/>
+      <c r="BW33" s="35"/>
+      <c r="BX33" s="35"/>
+      <c r="BY33" s="36"/>
+      <c r="BZ33" s="45"/>
+      <c r="CA33" s="35"/>
+      <c r="CB33" s="36"/>
+      <c r="CC33" s="45"/>
+      <c r="CD33" s="35"/>
+      <c r="CE33" s="35"/>
+      <c r="CF33" s="36"/>
     </row>
     <row r="34" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A34" s="102">
+      <c r="A34" s="45">
         <v>26</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="102" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="93" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="93" t="s">
+      <c r="Q34" s="85"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="U34" s="95"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="102"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="104"/>
-      <c r="AK34" s="102" t="s">
+      <c r="U34" s="85"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="104"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="135"/>
-      <c r="AS34" s="109" t="s">
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="137"/>
+      <c r="AO34" s="122"/>
+      <c r="AP34" s="122"/>
+      <c r="AQ34" s="122"/>
+      <c r="AR34" s="138"/>
+      <c r="AS34" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="AT34" s="110"/>
-      <c r="AU34" s="110"/>
-      <c r="AV34" s="110"/>
-      <c r="AW34" s="110"/>
-      <c r="AX34" s="110"/>
-      <c r="AY34" s="110"/>
-      <c r="AZ34" s="110"/>
-      <c r="BA34" s="110"/>
-      <c r="BB34" s="110"/>
-      <c r="BC34" s="110"/>
-      <c r="BD34" s="110"/>
-      <c r="BE34" s="110"/>
-      <c r="BF34" s="111"/>
-      <c r="BG34" s="109" t="s">
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="87"/>
+      <c r="BA34" s="87"/>
+      <c r="BB34" s="87"/>
+      <c r="BC34" s="87"/>
+      <c r="BD34" s="87"/>
+      <c r="BE34" s="87"/>
+      <c r="BF34" s="88"/>
+      <c r="BG34" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="BH34" s="112"/>
-      <c r="BI34" s="112"/>
-      <c r="BJ34" s="112"/>
-      <c r="BK34" s="112"/>
-      <c r="BL34" s="112"/>
-      <c r="BM34" s="112"/>
-      <c r="BN34" s="112"/>
-      <c r="BO34" s="112"/>
-      <c r="BP34" s="112"/>
-      <c r="BQ34" s="112"/>
-      <c r="BR34" s="112"/>
-      <c r="BS34" s="112"/>
-      <c r="BT34" s="112"/>
-      <c r="BU34" s="113"/>
-      <c r="BV34" s="102"/>
-      <c r="BW34" s="103"/>
-      <c r="BX34" s="103"/>
-      <c r="BY34" s="104"/>
-      <c r="BZ34" s="102"/>
-      <c r="CA34" s="103"/>
-      <c r="CB34" s="104"/>
-      <c r="CC34" s="102"/>
-      <c r="CD34" s="103"/>
-      <c r="CE34" s="103"/>
-      <c r="CF34" s="104"/>
+      <c r="BH34" s="102"/>
+      <c r="BI34" s="102"/>
+      <c r="BJ34" s="102"/>
+      <c r="BK34" s="102"/>
+      <c r="BL34" s="102"/>
+      <c r="BM34" s="102"/>
+      <c r="BN34" s="102"/>
+      <c r="BO34" s="102"/>
+      <c r="BP34" s="102"/>
+      <c r="BQ34" s="102"/>
+      <c r="BR34" s="102"/>
+      <c r="BS34" s="102"/>
+      <c r="BT34" s="102"/>
+      <c r="BU34" s="103"/>
+      <c r="BV34" s="45"/>
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="36"/>
+      <c r="BZ34" s="45"/>
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="36"/>
+      <c r="CC34" s="45"/>
+      <c r="CD34" s="35"/>
+      <c r="CE34" s="35"/>
+      <c r="CF34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="320">
@@ -7810,6 +7837,7 @@
     <mergeCell ref="AN19:AR19"/>
     <mergeCell ref="AS19:BF19"/>
     <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="AN22:AR22"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="AD16:AG16"/>
@@ -7831,7 +7859,6 @@
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AN22:AR22"/>
     <mergeCell ref="BG30:BU30"/>
     <mergeCell ref="AS30:BF30"/>
     <mergeCell ref="AN30:AR30"/>
@@ -8064,238 +8091,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="119" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="119" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="119" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="119" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="119"/>
-    <col min="8" max="8" width="18.4140625" style="119" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="119"/>
-    <col min="10" max="10" width="10.58203125" style="119" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="119" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="119" customWidth="1"/>
-    <col min="13" max="13" width="15.58203125" style="119" customWidth="1"/>
-    <col min="14" max="14" width="15" style="119" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="119"/>
-    <col min="16" max="16" width="21.1640625" style="119" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="119" customWidth="1"/>
-    <col min="18" max="18" width="14" style="119" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="119" customWidth="1"/>
-    <col min="20" max="20" width="18.08203125" style="119" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="119"/>
+    <col min="1" max="1" width="15.58203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="55" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="55"/>
+    <col min="8" max="8" width="18.4140625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="55"/>
+    <col min="10" max="10" width="10.58203125" style="55" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="55" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" style="55" customWidth="1"/>
+    <col min="14" max="14" width="15" style="55" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="55"/>
+    <col min="16" max="16" width="21.1640625" style="55" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="14" style="55" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="55" customWidth="1"/>
+    <col min="20" max="20" width="18.08203125" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="119" customFormat="1">
-      <c r="B1" s="119" t="s">
+    <row r="1" spans="1:20" ht="28.55" customHeight="1">
+      <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="120" customFormat="1" ht="37.4">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:20" s="56" customFormat="1" ht="26.2">
+      <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="121" t="s">
+      <c r="N2" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="121" t="s">
+      <c r="O2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="121" t="s">
+      <c r="P2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="121" t="s">
+      <c r="Q2" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="121" t="s">
+      <c r="R2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="121" t="s">
+      <c r="S2" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="121" t="s">
+      <c r="T2" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="119" customFormat="1">
-      <c r="A3" s="119">
+    <row r="3" spans="1:20" ht="24.8" customHeight="1">
+      <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="62">
         <v>36136</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="122" t="s">
+      <c r="P3" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="122" t="s">
+      <c r="Q3" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="122" t="s">
+      <c r="R3" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="122" t="s">
+      <c r="T3" s="48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="119" customFormat="1">
-      <c r="B8" s="119" t="s">
+    <row r="8" spans="1:20" ht="23.85" customHeight="1">
+      <c r="B8" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="119" customFormat="1">
-      <c r="A9" s="120" t="s">
+    <row r="9" spans="1:20" ht="25.25" customHeight="1">
+      <c r="A9" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="119" customFormat="1">
-      <c r="A10" s="120">
-        <v>1</v>
-      </c>
-      <c r="B10" s="125" t="s">
+    <row r="10" spans="1:20" ht="18.7" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="119" customFormat="1">
-      <c r="B11" s="125" t="s">
+    <row r="11" spans="1:20" ht="18.7" customHeight="1">
+      <c r="B11" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="119" customFormat="1">
-      <c r="B12" s="125" t="s">
+    <row r="12" spans="1:20" ht="18.7" customHeight="1">
+      <c r="B12" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="119" customFormat="1">
-      <c r="B16" s="119" t="s">
+    <row r="16" spans="1:20" ht="27.6" customHeight="1">
+      <c r="B16" s="55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="119" customFormat="1">
-      <c r="A17" s="120" t="s">
+    <row r="17" spans="1:5" ht="33.700000000000003" customHeight="1">
+      <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="119" customFormat="1">
-      <c r="A18" s="120">
-        <v>1</v>
-      </c>
-      <c r="B18" s="125">
+    <row r="18" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.2" customHeight="1">
+      <c r="B19" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.2" customHeight="1">
+      <c r="B20" s="58">
         <v>3</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C20" s="64" t="s">
         <v>126</v>
-      </c>
-      <c r="E18" s="127" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8313,188 +8352,188 @@
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="119"/>
+    <col min="1" max="16384" width="8.6640625" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="1:2" ht="21.55">
+      <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="130"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="130"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="130"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="130"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="130"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="130"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="52" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="132"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="130"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="130"/>
+      <c r="B25" s="51"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="130"/>
+      <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="130"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="130"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="130"/>
+      <c r="B29" s="51"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23.4">
-      <c r="B44" s="133"/>
+    <row r="44" spans="1:2" ht="16.399999999999999">
+      <c r="B44" s="54"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="130"/>
+      <c r="B45" s="51"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="130"/>
+      <c r="B46" s="51"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="130"/>
+      <c r="B47" s="51"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="130"/>
+      <c r="B48" s="51"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="130"/>
+      <c r="B49" s="51"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="130"/>
+      <c r="B50" s="51"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="47" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="119" t="s">
+      <c r="B56" s="47" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="47" t="s">
         <v>61</v>
       </c>
     </row>

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11236A3-BF63-45B3-8A2B-28A1E67D7199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C926E0-DE7D-4C02-916E-D084DC86F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="3435" windowWidth="25305" windowHeight="14820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
   <si>
     <t>画面名</t>
   </si>
@@ -1339,14 +1339,6 @@
     <t>”郵便番号形式で入力してください。”エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に(-)無し、半角7桁
-数字で入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>更新＿ユーザ住所</t>
   </si>
   <si>
@@ -1379,16 +1371,6 @@
   </si>
   <si>
     <t>管理部</t>
-  </si>
-  <si>
-    <t>EmployeeEditService
-Implのpri
-vatemkEmployeeType</t>
-  </si>
-  <si>
-    <t>EmployeeEditService
-Implのpri
-vatemkDepartment</t>
   </si>
   <si>
     <t>社員情報更新</t>
@@ -1411,31 +1393,8 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>DB定義書を基準に準備</t>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
 ②ユーザ名に12文字まで入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に文字で入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
@@ -1517,48 +1476,12 @@
 </t>
   </si>
   <si>
-    <t>初期表示＿社員タイプ候補</t>
-  </si>
-  <si>
-    <t>初期表示＿所属部門候補</t>
-  </si>
-  <si>
-    <t>社員１</t>
-  </si>
-  <si>
     <t>e10adc3949ba59abbe56e057f20f883e</t>
   </si>
   <si>
-    <t>2310859</t>
-  </si>
-  <si>
     <t>e001@it-softtech.com</t>
   </si>
   <si>
-    <t>20230112</t>
-  </si>
-  <si>
-    <t>20230419</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20181209</t>
-  </si>
-  <si>
-    <t>横浜市中区</t>
-  </si>
-  <si>
-    <t>07089678653</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>０</t>
   </si>
   <si>
@@ -1587,25 +1510,6 @@
   </si>
   <si>
     <t>EmployeeEditBeanのupdateDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移。
-②「社員タイプ」項目のプルーダウンに社員タイプマスタと同じリストが表示される
-③テストデータの社員タイプ選択
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移。
-②「所属部門」項目のプルーダウンに部門マスタと同じリストが表示される
-③テストデータの所属部門選択
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-テストデータの社員タイプ候補が社員タイプマスタと同じ表示さる</t>
-  </si>
-  <si>
-    <t>テストデータの所属部門候補が部門マスタと同じ表示される</t>
   </si>
   <si>
     <t>生年月日に選択</t>
@@ -1645,6 +1549,128 @@
   </si>
   <si>
     <t>開発二部</t>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①社員情報変更画面へ遷移
+②郵便番号に</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>半角数字ではない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ﾊﾝｶｸ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ｽｳｼﾞ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①社員情報変更画面へ遷移
+②郵便番号に(-)無し、7桁の半角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Klee One SemiBold"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+を入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>ｽｳｼﾞ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ﾆｭｳﾘｮｸ</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No1からNo.24</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※DB定義上、必須カラムとpasswordのみ事前準備。他の項目は本機能で入れる</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ホンキノウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -1652,20 +1678,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1682,7 +1708,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1708,14 +1734,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1831,9 +1857,42 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2186,7 +2245,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2199,7 +2258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2430,172 +2489,184 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2630,23 +2701,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1152524</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>695324</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ECDB5B-69B3-4934-8640-DBD65EFF6AAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7479E6E2-25AE-D591-2D91-4548E1F0E863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,128 +2725,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12325349" y="5981699"/>
-          <a:ext cx="2886075" cy="714375"/>
+          <a:off x="12230100" y="9515475"/>
+          <a:ext cx="1647825" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -58870"/>
-            <a:gd name="adj2" fmla="val -4167"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字以内の言い方は、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字も含むなので、”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>文字</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>まで”に直してください。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>126752</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>519421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>98177</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1233796</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1EBC73-5EA5-39EF-6B43-29A00B1E31CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11850336" y="16023317"/>
-          <a:ext cx="2702750" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -58870"/>
-            <a:gd name="adj2" fmla="val -4167"/>
+            <a:gd name="adj1" fmla="val -67076"/>
+            <a:gd name="adj2" fmla="val 31352"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2802,7 +2758,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>郵便番号：他の文字、例日本語など入力された場合は？</a:t>
+            <a:t>個人番号、未入力の場合は？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2811,23 +2767,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>106878</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>501689</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>473529</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>238330</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36E0B18-99D7-347B-8996-BC2977253864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2DA58E-9B96-49FB-BF11-A0773713EA7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,13 +2791,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13347865" y="26620806"/>
-          <a:ext cx="2774703" cy="2652693"/>
+          <a:off x="12525375" y="21040725"/>
+          <a:ext cx="2152650" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -58870"/>
-            <a:gd name="adj2" fmla="val -4167"/>
+            <a:gd name="adj1" fmla="val -67076"/>
+            <a:gd name="adj2" fmla="val 31352"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2868,112 +2824,24 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>社員タイプリスト、所属部門選択リストは、初期表示とします。初期表示</a:t>
+            <a:t>住所：</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>_</a:t>
+            <a:t>200</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>社員タイプ候補、</a:t>
+            <a:t>文字、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>初期表示</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>200</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>_</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上文字をテストしないのはなぜ？</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>所属部門</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>候補</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>など。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>期待結果は、テストデータの社員タイプマスタと同じなど</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2981,23 +2849,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89512</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1127808</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>26796</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>218365</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE8FC04-6B60-C231-607F-E52152048EF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BA6824-2618-606B-0BC3-5D65E0F18D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,13 +2873,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11832020" y="31558328"/>
-          <a:ext cx="3054558" cy="4950092"/>
+          <a:off x="12268200" y="24288750"/>
+          <a:ext cx="2152650" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -58870"/>
-            <a:gd name="adj2" fmla="val -4167"/>
+            <a:gd name="adj1" fmla="val -67076"/>
+            <a:gd name="adj2" fmla="val 31352"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3038,128 +2906,156 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①電話番号、個人番号項目のテストケース追加</a:t>
+            <a:t>電話番号：</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁を超えた場合は？</a:t>
+          </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F97348C-7DDB-2D80-6D7F-43A38CF66993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="30565725"/>
+          <a:ext cx="2152650" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67076"/>
+            <a:gd name="adj2" fmla="val 31352"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>②画面全項目入力の組み合わせ：</a:t>
+            <a:t>更新：テストすべき内容は、画面入力したデータを</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に新規追加された事を確認する。</a:t>
+          </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9A1504-D26E-327E-D23F-E86DDAD794B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12163425" y="29117925"/>
+          <a:ext cx="2152650" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67076"/>
+            <a:gd name="adj2" fmla="val 31352"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　１）各項目最小値入力場合、</a:t>
+            <a:t>前回更新日は、テーブル項目ですので、初期表示に記載すべき。</a:t>
           </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　２）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>各項目</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>最大</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>値入力場合</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　３）１）、２）ではない場合</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>のテストケースの追加</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3169,117 +3065,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A4365E-9E7E-0945-2FB4-D4DF690562F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3562350" y="2314575"/>
-          <a:ext cx="314325" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3BD198-6E34-44E9-9C6B-F0827265D1BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3562350" y="2314575"/>
-          <a:ext cx="314325" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3832,7 +3617,7 @@
       <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
@@ -3915,7 +3700,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3933,7 +3718,7 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -3951,7 +3736,7 @@
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="22.95">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="30">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3971,7 +3756,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3989,7 +3774,7 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -4009,7 +3794,7 @@
       <c r="R18" s="68"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -4029,7 +3814,7 @@
       <c r="R19" s="71"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -4047,7 +3832,7 @@
       <c r="R20" s="74"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4065,7 +3850,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.5">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4085,7 +3870,7 @@
       <c r="R22" s="76"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -4105,7 +3890,7 @@
       <c r="R23" s="79"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -4123,7 +3908,7 @@
       <c r="R24" s="82"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -4141,7 +3926,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4324,7 +4109,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4338,13 +4123,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
@@ -4465,41 +4250,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF34"/>
+  <dimension ref="A1:CG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="BG34" sqref="BG34:BU34"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="40" customWidth="1"/>
-    <col min="2" max="3" width="2.08203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="2.08203125" style="41" customWidth="1"/>
-    <col min="5" max="10" width="2.08203125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="40" customWidth="1"/>
-    <col min="12" max="27" width="2.08203125" style="40" customWidth="1"/>
-    <col min="28" max="28" width="2.08203125" style="42" customWidth="1"/>
-    <col min="29" max="31" width="2.08203125" style="40" customWidth="1"/>
-    <col min="32" max="32" width="2.08203125" style="41" customWidth="1"/>
-    <col min="33" max="43" width="2.08203125" style="40" customWidth="1"/>
-    <col min="44" max="44" width="2.08203125" style="42" customWidth="1"/>
-    <col min="45" max="50" width="2.08203125" style="40" customWidth="1"/>
-    <col min="51" max="51" width="3.83203125" style="40" customWidth="1"/>
-    <col min="52" max="52" width="2.08203125" style="42" customWidth="1"/>
-    <col min="53" max="55" width="2.08203125" style="40" customWidth="1"/>
-    <col min="56" max="56" width="2.08203125" style="41" customWidth="1"/>
-    <col min="57" max="57" width="2.08203125" style="40" customWidth="1"/>
-    <col min="58" max="58" width="4.33203125" style="40" customWidth="1"/>
-    <col min="59" max="59" width="2.08203125" style="40" customWidth="1"/>
-    <col min="60" max="63" width="2.08203125" style="41" customWidth="1"/>
-    <col min="64" max="97" width="2.08203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="2.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="41" customWidth="1"/>
+    <col min="5" max="10" width="2.125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="40" customWidth="1"/>
+    <col min="12" max="27" width="2.125" style="40" customWidth="1"/>
+    <col min="28" max="28" width="2.125" style="42" customWidth="1"/>
+    <col min="29" max="31" width="2.125" style="40" customWidth="1"/>
+    <col min="32" max="32" width="2.125" style="41" customWidth="1"/>
+    <col min="33" max="43" width="2.125" style="40" customWidth="1"/>
+    <col min="44" max="44" width="2.125" style="42" customWidth="1"/>
+    <col min="45" max="50" width="2.125" style="40" customWidth="1"/>
+    <col min="51" max="51" width="3.875" style="40" customWidth="1"/>
+    <col min="52" max="52" width="2.125" style="42" customWidth="1"/>
+    <col min="53" max="55" width="2.125" style="40" customWidth="1"/>
+    <col min="56" max="56" width="2.125" style="41" customWidth="1"/>
+    <col min="57" max="57" width="2.125" style="40" customWidth="1"/>
+    <col min="58" max="58" width="4.375" style="40" customWidth="1"/>
+    <col min="59" max="59" width="2.125" style="40" customWidth="1"/>
+    <col min="60" max="63" width="2.125" style="41" customWidth="1"/>
+    <col min="64" max="97" width="2.125" style="40" customWidth="1"/>
     <col min="98" max="16384" width="8.25" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+    <row r="1" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4570,39 +4355,39 @@
       <c r="BP1" s="27"/>
       <c r="BQ1" s="29"/>
     </row>
-    <row r="2" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
       <c r="AU2" s="31"/>
       <c r="AV2" s="31"/>
       <c r="AW2" s="31"/>
@@ -4627,37 +4412,37 @@
       <c r="BP2" s="32"/>
       <c r="BQ2" s="29"/>
     </row>
-    <row r="3" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
+    <row r="3" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
       <c r="AU3" s="31"/>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
@@ -4682,408 +4467,408 @@
       <c r="BP3" s="31"/>
       <c r="BQ3" s="33"/>
     </row>
-    <row r="4" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A4" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="112" t="s">
+      <c r="K4" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="118" t="s">
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="120"/>
-      <c r="BD4" s="121">
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="100">
         <v>45034</v>
       </c>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="118" t="s">
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="120"/>
-      <c r="BM4" s="121" t="s">
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
       <c r="BQ4" s="37"/>
     </row>
-    <row r="5" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="123" t="s">
+    <row r="5" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="123" t="s">
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="130"/>
-      <c r="BA5" s="131" t="s">
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="132"/>
-      <c r="BC5" s="133"/>
-      <c r="BD5" s="132"/>
-      <c r="BE5" s="132"/>
-      <c r="BF5" s="132"/>
-      <c r="BG5" s="132"/>
-      <c r="BH5" s="132"/>
-      <c r="BI5" s="132"/>
-      <c r="BJ5" s="131" t="s">
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="110"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="132"/>
-      <c r="BL5" s="133"/>
-      <c r="BM5" s="132"/>
-      <c r="BN5" s="129"/>
-      <c r="BO5" s="129"/>
-      <c r="BP5" s="129"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="107"/>
+      <c r="BO5" s="107"/>
+      <c r="BP5" s="107"/>
       <c r="BQ5" s="39"/>
     </row>
-    <row r="6" spans="1:84" ht="13.6" thickTop="1">
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
+    <row r="6" spans="1:85" ht="18.75" thickTop="1">
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
       <c r="AF6" s="40"/>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
-      <c r="BQ6" s="95"/>
-    </row>
-    <row r="7" spans="1:84">
-      <c r="A7" s="89" t="s">
+      <c r="BL6" s="138"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="138"/>
+      <c r="BO6" s="138"/>
+      <c r="BP6" s="138"/>
+      <c r="BQ6" s="138"/>
+    </row>
+    <row r="7" spans="1:85">
+      <c r="A7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="89" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="83" t="s">
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="89" t="s">
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="96" t="s">
+      <c r="AL7" s="133"/>
+      <c r="AM7" s="134"/>
+      <c r="AN7" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="89" t="s">
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="128"/>
+      <c r="AS7" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="89" t="s">
+      <c r="AT7" s="133"/>
+      <c r="AU7" s="133"/>
+      <c r="AV7" s="133"/>
+      <c r="AW7" s="133"/>
+      <c r="AX7" s="133"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="133"/>
+      <c r="BA7" s="133"/>
+      <c r="BB7" s="133"/>
+      <c r="BC7" s="133"/>
+      <c r="BD7" s="133"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="93"/>
-      <c r="BM7" s="93"/>
-      <c r="BN7" s="93"/>
-      <c r="BO7" s="93"/>
-      <c r="BP7" s="93"/>
-      <c r="BQ7" s="93"/>
-      <c r="BR7" s="93"/>
-      <c r="BS7" s="93"/>
-      <c r="BT7" s="93"/>
-      <c r="BU7" s="90"/>
-      <c r="BV7" s="96" t="s">
+      <c r="BH7" s="133"/>
+      <c r="BI7" s="133"/>
+      <c r="BJ7" s="133"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="133"/>
+      <c r="BM7" s="133"/>
+      <c r="BN7" s="133"/>
+      <c r="BO7" s="133"/>
+      <c r="BP7" s="133"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="133"/>
+      <c r="BS7" s="133"/>
+      <c r="BT7" s="133"/>
+      <c r="BU7" s="134"/>
+      <c r="BV7" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="97"/>
-      <c r="BX7" s="97"/>
-      <c r="BY7" s="98"/>
-      <c r="BZ7" s="96" t="s">
+      <c r="BW7" s="127"/>
+      <c r="BX7" s="127"/>
+      <c r="BY7" s="128"/>
+      <c r="BZ7" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="97"/>
-      <c r="CB7" s="98"/>
-      <c r="CC7" s="96" t="s">
+      <c r="CA7" s="127"/>
+      <c r="CB7" s="128"/>
+      <c r="CC7" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="97"/>
-      <c r="CE7" s="97"/>
-      <c r="CF7" s="98"/>
-    </row>
-    <row r="8" spans="1:84" ht="15.9" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="83" t="s">
+      <c r="CD7" s="127"/>
+      <c r="CE7" s="127"/>
+      <c r="CF7" s="128"/>
+    </row>
+    <row r="8" spans="1:85" ht="15.95" customHeight="1">
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="83" t="s">
+      <c r="Q8" s="89"/>
+      <c r="R8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="85"/>
-      <c r="T8" s="83" t="s">
+      <c r="S8" s="89"/>
+      <c r="T8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="83" t="s">
+      <c r="U8" s="89"/>
+      <c r="V8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="85"/>
-      <c r="X8" s="83" t="s">
+      <c r="W8" s="89"/>
+      <c r="X8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="83" t="s">
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="83" t="s">
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="83" t="s">
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="85"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="89"/>
       <c r="AH8" s="45" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="91"/>
-      <c r="BH8" s="94"/>
-      <c r="BI8" s="94"/>
-      <c r="BJ8" s="94"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="94"/>
-      <c r="BM8" s="94"/>
-      <c r="BN8" s="94"/>
-      <c r="BO8" s="94"/>
-      <c r="BP8" s="94"/>
-      <c r="BQ8" s="94"/>
-      <c r="BR8" s="94"/>
-      <c r="BS8" s="94"/>
-      <c r="BT8" s="94"/>
-      <c r="BU8" s="92"/>
-      <c r="BV8" s="99"/>
-      <c r="BW8" s="100"/>
-      <c r="BX8" s="100"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="100"/>
-      <c r="CB8" s="101"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="100"/>
-      <c r="CE8" s="100"/>
-      <c r="CF8" s="101"/>
-    </row>
-    <row r="9" spans="1:84" ht="95.85" customHeight="1">
+      <c r="AK8" s="135"/>
+      <c r="AL8" s="136"/>
+      <c r="AM8" s="137"/>
+      <c r="AN8" s="129"/>
+      <c r="AO8" s="130"/>
+      <c r="AP8" s="130"/>
+      <c r="AQ8" s="130"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="135"/>
+      <c r="AT8" s="136"/>
+      <c r="AU8" s="136"/>
+      <c r="AV8" s="136"/>
+      <c r="AW8" s="136"/>
+      <c r="AX8" s="136"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="136"/>
+      <c r="BA8" s="136"/>
+      <c r="BB8" s="136"/>
+      <c r="BC8" s="136"/>
+      <c r="BD8" s="136"/>
+      <c r="BE8" s="136"/>
+      <c r="BF8" s="137"/>
+      <c r="BG8" s="135"/>
+      <c r="BH8" s="136"/>
+      <c r="BI8" s="136"/>
+      <c r="BJ8" s="136"/>
+      <c r="BK8" s="136"/>
+      <c r="BL8" s="136"/>
+      <c r="BM8" s="136"/>
+      <c r="BN8" s="136"/>
+      <c r="BO8" s="136"/>
+      <c r="BP8" s="136"/>
+      <c r="BQ8" s="136"/>
+      <c r="BR8" s="136"/>
+      <c r="BS8" s="136"/>
+      <c r="BT8" s="136"/>
+      <c r="BU8" s="137"/>
+      <c r="BV8" s="129"/>
+      <c r="BW8" s="130"/>
+      <c r="BX8" s="130"/>
+      <c r="BY8" s="131"/>
+      <c r="BZ8" s="129"/>
+      <c r="CA8" s="130"/>
+      <c r="CB8" s="131"/>
+      <c r="CC8" s="129"/>
+      <c r="CD8" s="130"/>
+      <c r="CE8" s="130"/>
+      <c r="CF8" s="131"/>
+    </row>
+    <row r="9" spans="1:85" ht="95.85" customHeight="1">
       <c r="A9" s="45">
         <v>1</v>
       </c>
@@ -5103,30 +4888,30 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="83" t="s">
+      <c r="Q9" s="89"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="85"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="83" t="s">
+      <c r="U9" s="89"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="85"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="89"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="36"/>
@@ -5135,46 +4920,46 @@
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="36"/>
-      <c r="AN9" s="86" t="s">
+      <c r="AN9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="86" t="s">
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="87"/>
-      <c r="BA9" s="87"/>
-      <c r="BB9" s="87"/>
-      <c r="BC9" s="87"/>
-      <c r="BD9" s="87"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="86" t="s">
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BD9" s="84"/>
+      <c r="BE9" s="84"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="102"/>
-      <c r="BM9" s="102"/>
-      <c r="BN9" s="102"/>
-      <c r="BO9" s="102"/>
-      <c r="BP9" s="102"/>
-      <c r="BQ9" s="102"/>
-      <c r="BR9" s="102"/>
-      <c r="BS9" s="102"/>
-      <c r="BT9" s="102"/>
-      <c r="BU9" s="103"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="86"/>
+      <c r="BM9" s="86"/>
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="86"/>
+      <c r="BT9" s="86"/>
+      <c r="BU9" s="87"/>
       <c r="BV9" s="45"/>
       <c r="BW9" s="35"/>
       <c r="BX9" s="35"/>
@@ -5187,7 +4972,7 @@
       <c r="CE9" s="35"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="77.3" customHeight="1">
+    <row r="10" spans="1:85" ht="77.25" customHeight="1">
       <c r="A10" s="45">
         <v>2</v>
       </c>
@@ -5207,72 +4992,72 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="83" t="s">
+      <c r="P10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="83" t="s">
+      <c r="Q10" s="89"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="85"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="85"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="89"/>
       <c r="AH10" s="45"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="83" t="s">
+      <c r="AK10" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="86" t="s">
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="86" t="s">
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
-      <c r="BF10" s="88"/>
-      <c r="BG10" s="86" t="s">
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="BH10" s="87"/>
-      <c r="BI10" s="87"/>
-      <c r="BJ10" s="87"/>
-      <c r="BK10" s="87"/>
-      <c r="BL10" s="87"/>
-      <c r="BM10" s="87"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
-      <c r="BQ10" s="87"/>
-      <c r="BR10" s="87"/>
-      <c r="BS10" s="87"/>
-      <c r="BT10" s="87"/>
-      <c r="BU10" s="88"/>
+      <c r="BH10" s="84"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="84"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="84"/>
+      <c r="BN10" s="84"/>
+      <c r="BO10" s="84"/>
+      <c r="BP10" s="84"/>
+      <c r="BQ10" s="84"/>
+      <c r="BR10" s="84"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="84"/>
+      <c r="BU10" s="85"/>
       <c r="BV10" s="45"/>
       <c r="BW10" s="35"/>
       <c r="BX10" s="35"/>
@@ -5285,7 +5070,7 @@
       <c r="CE10" s="35"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="86.3" customHeight="1">
+    <row r="11" spans="1:85" ht="86.25" customHeight="1">
       <c r="A11" s="45">
         <v>3</v>
       </c>
@@ -5305,78 +5090,78 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="83" t="s">
+      <c r="Q11" s="89"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="85"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="83" t="s">
+      <c r="U11" s="89"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="85"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="89"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="83" t="s">
+      <c r="AK11" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="86" t="s">
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="86" t="s">
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87"/>
-      <c r="AY11" s="87"/>
-      <c r="AZ11" s="87"/>
-      <c r="BA11" s="87"/>
-      <c r="BB11" s="87"/>
-      <c r="BC11" s="87"/>
-      <c r="BD11" s="87"/>
-      <c r="BE11" s="87"/>
-      <c r="BF11" s="88"/>
-      <c r="BG11" s="86" t="s">
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="BH11" s="87"/>
-      <c r="BI11" s="87"/>
-      <c r="BJ11" s="87"/>
-      <c r="BK11" s="87"/>
-      <c r="BL11" s="87"/>
-      <c r="BM11" s="87"/>
-      <c r="BN11" s="87"/>
-      <c r="BO11" s="87"/>
-      <c r="BP11" s="87"/>
-      <c r="BQ11" s="87"/>
-      <c r="BR11" s="87"/>
-      <c r="BS11" s="87"/>
-      <c r="BT11" s="87"/>
-      <c r="BU11" s="88"/>
+      <c r="BH11" s="84"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BM11" s="84"/>
+      <c r="BN11" s="84"/>
+      <c r="BO11" s="84"/>
+      <c r="BP11" s="84"/>
+      <c r="BQ11" s="84"/>
+      <c r="BR11" s="84"/>
+      <c r="BS11" s="84"/>
+      <c r="BT11" s="84"/>
+      <c r="BU11" s="85"/>
       <c r="BV11" s="45"/>
       <c r="BW11" s="35"/>
       <c r="BX11" s="35"/>
@@ -5389,7 +5174,7 @@
       <c r="CE11" s="35"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="92.25" customHeight="1">
+    <row r="12" spans="1:85" ht="92.25" customHeight="1">
       <c r="A12" s="45">
         <v>4</v>
       </c>
@@ -5409,80 +5194,80 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="36"/>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="83" t="s">
+      <c r="Q12" s="89"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="85"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="83" t="s">
+      <c r="U12" s="89"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="83" t="s">
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="83" t="s">
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="86" t="s">
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="86" t="s">
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="87"/>
-      <c r="AZ12" s="87"/>
-      <c r="BA12" s="87"/>
-      <c r="BB12" s="87"/>
-      <c r="BC12" s="87"/>
-      <c r="BD12" s="87"/>
-      <c r="BE12" s="87"/>
-      <c r="BF12" s="88"/>
-      <c r="BG12" s="86" t="s">
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="84"/>
+      <c r="BF12" s="85"/>
+      <c r="BG12" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="BH12" s="87"/>
-      <c r="BI12" s="87"/>
-      <c r="BJ12" s="87"/>
-      <c r="BK12" s="87"/>
-      <c r="BL12" s="87"/>
-      <c r="BM12" s="87"/>
-      <c r="BN12" s="87"/>
-      <c r="BO12" s="87"/>
-      <c r="BP12" s="87"/>
-      <c r="BQ12" s="87"/>
-      <c r="BR12" s="87"/>
-      <c r="BS12" s="87"/>
-      <c r="BT12" s="87"/>
-      <c r="BU12" s="88"/>
+      <c r="BH12" s="84"/>
+      <c r="BI12" s="84"/>
+      <c r="BJ12" s="84"/>
+      <c r="BK12" s="84"/>
+      <c r="BL12" s="84"/>
+      <c r="BM12" s="84"/>
+      <c r="BN12" s="84"/>
+      <c r="BO12" s="84"/>
+      <c r="BP12" s="84"/>
+      <c r="BQ12" s="84"/>
+      <c r="BR12" s="84"/>
+      <c r="BS12" s="84"/>
+      <c r="BT12" s="84"/>
+      <c r="BU12" s="85"/>
       <c r="BV12" s="45"/>
       <c r="BW12" s="35"/>
       <c r="BX12" s="35"/>
@@ -5494,8 +5279,11 @@
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
-    </row>
-    <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
+      <c r="CG12" s="139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85" ht="73.900000000000006" customHeight="1">
       <c r="A13" s="45">
         <v>5</v>
       </c>
@@ -5515,28 +5303,28 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
-      <c r="P13" s="83" t="s">
+      <c r="P13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="83" t="s">
+      <c r="Q13" s="89"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="85"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="85"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="89"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
@@ -5545,46 +5333,46 @@
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="36"/>
-      <c r="AN13" s="86" t="s">
+      <c r="AN13" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="87"/>
-      <c r="AZ13" s="87"/>
-      <c r="BA13" s="87"/>
-      <c r="BB13" s="87"/>
-      <c r="BC13" s="87"/>
-      <c r="BD13" s="87"/>
-      <c r="BE13" s="87"/>
-      <c r="BF13" s="88"/>
-      <c r="BG13" s="86" t="s">
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BA13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="84"/>
+      <c r="BD13" s="84"/>
+      <c r="BE13" s="84"/>
+      <c r="BF13" s="85"/>
+      <c r="BG13" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="BH13" s="87"/>
-      <c r="BI13" s="87"/>
-      <c r="BJ13" s="87"/>
-      <c r="BK13" s="87"/>
-      <c r="BL13" s="87"/>
-      <c r="BM13" s="87"/>
-      <c r="BN13" s="87"/>
-      <c r="BO13" s="87"/>
-      <c r="BP13" s="87"/>
-      <c r="BQ13" s="87"/>
-      <c r="BR13" s="87"/>
-      <c r="BS13" s="87"/>
-      <c r="BT13" s="87"/>
-      <c r="BU13" s="88"/>
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="84"/>
+      <c r="BJ13" s="84"/>
+      <c r="BK13" s="84"/>
+      <c r="BL13" s="84"/>
+      <c r="BM13" s="84"/>
+      <c r="BN13" s="84"/>
+      <c r="BO13" s="84"/>
+      <c r="BP13" s="84"/>
+      <c r="BQ13" s="84"/>
+      <c r="BR13" s="84"/>
+      <c r="BS13" s="84"/>
+      <c r="BT13" s="84"/>
+      <c r="BU13" s="85"/>
       <c r="BV13" s="45"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="35"/>
@@ -5597,7 +5385,7 @@
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="79.5" customHeight="1">
+    <row r="14" spans="1:85" ht="79.5" customHeight="1">
       <c r="A14" s="45">
         <v>6</v>
       </c>
@@ -5617,30 +5405,30 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="83" t="s">
+      <c r="P14" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="83" t="s">
+      <c r="Q14" s="89"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="85"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="83" t="s">
+      <c r="U14" s="89"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="85"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="89"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
@@ -5649,46 +5437,46 @@
       </c>
       <c r="AL14" s="35"/>
       <c r="AM14" s="36"/>
-      <c r="AN14" s="86" t="s">
+      <c r="AN14" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="86" t="s">
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="87"/>
-      <c r="BA14" s="87"/>
-      <c r="BB14" s="87"/>
-      <c r="BC14" s="87"/>
-      <c r="BD14" s="87"/>
-      <c r="BE14" s="87"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="86" t="s">
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="BH14" s="87"/>
-      <c r="BI14" s="87"/>
-      <c r="BJ14" s="87"/>
-      <c r="BK14" s="87"/>
-      <c r="BL14" s="87"/>
-      <c r="BM14" s="87"/>
-      <c r="BN14" s="87"/>
-      <c r="BO14" s="87"/>
-      <c r="BP14" s="87"/>
-      <c r="BQ14" s="87"/>
-      <c r="BR14" s="87"/>
-      <c r="BS14" s="87"/>
-      <c r="BT14" s="87"/>
-      <c r="BU14" s="88"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="84"/>
+      <c r="BJ14" s="84"/>
+      <c r="BK14" s="84"/>
+      <c r="BL14" s="84"/>
+      <c r="BM14" s="84"/>
+      <c r="BN14" s="84"/>
+      <c r="BO14" s="84"/>
+      <c r="BP14" s="84"/>
+      <c r="BQ14" s="84"/>
+      <c r="BR14" s="84"/>
+      <c r="BS14" s="84"/>
+      <c r="BT14" s="84"/>
+      <c r="BU14" s="85"/>
       <c r="BV14" s="45"/>
       <c r="BW14" s="35"/>
       <c r="BX14" s="35"/>
@@ -5701,7 +5489,7 @@
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="87" customHeight="1">
+    <row r="15" spans="1:85" ht="87" customHeight="1">
       <c r="A15" s="45">
         <v>7</v>
       </c>
@@ -5721,28 +5509,28 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="83" t="s">
+      <c r="P15" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="83" t="s">
+      <c r="Q15" s="89"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="85"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="85"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="89"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
@@ -5751,46 +5539,46 @@
       </c>
       <c r="AL15" s="35"/>
       <c r="AM15" s="36"/>
-      <c r="AN15" s="86" t="s">
+      <c r="AN15" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="86" t="s">
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="87"/>
-      <c r="BD15" s="87"/>
-      <c r="BE15" s="87"/>
-      <c r="BF15" s="88"/>
-      <c r="BG15" s="86" t="s">
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="84"/>
+      <c r="AZ15" s="84"/>
+      <c r="BA15" s="84"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BD15" s="84"/>
+      <c r="BE15" s="84"/>
+      <c r="BF15" s="85"/>
+      <c r="BG15" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH15" s="87"/>
-      <c r="BI15" s="87"/>
-      <c r="BJ15" s="87"/>
-      <c r="BK15" s="87"/>
-      <c r="BL15" s="87"/>
-      <c r="BM15" s="87"/>
-      <c r="BN15" s="87"/>
-      <c r="BO15" s="87"/>
-      <c r="BP15" s="87"/>
-      <c r="BQ15" s="87"/>
-      <c r="BR15" s="87"/>
-      <c r="BS15" s="87"/>
-      <c r="BT15" s="87"/>
-      <c r="BU15" s="88"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="84"/>
+      <c r="BJ15" s="84"/>
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="84"/>
+      <c r="BM15" s="84"/>
+      <c r="BN15" s="84"/>
+      <c r="BO15" s="84"/>
+      <c r="BP15" s="84"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="84"/>
+      <c r="BS15" s="84"/>
+      <c r="BT15" s="84"/>
+      <c r="BU15" s="85"/>
       <c r="BV15" s="45"/>
       <c r="BW15" s="35"/>
       <c r="BX15" s="35"/>
@@ -5803,13 +5591,13 @@
       <c r="CE15" s="35"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="87" customHeight="1">
+    <row r="16" spans="1:85" ht="87" customHeight="1">
       <c r="A16" s="45">
         <v>8</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="35"/>
@@ -5823,16 +5611,16 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="89"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="83" t="s">
+      <c r="T16" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U16" s="85"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
       <c r="X16" s="43"/>
@@ -5841,12 +5629,12 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="43"/>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="83" t="s">
+      <c r="AD16" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="85"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="89"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
@@ -5855,46 +5643,46 @@
       </c>
       <c r="AL16" s="35"/>
       <c r="AM16" s="36"/>
-      <c r="AN16" s="86" t="s">
+      <c r="AN16" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="87"/>
-      <c r="BA16" s="87"/>
-      <c r="BB16" s="87"/>
-      <c r="BC16" s="87"/>
-      <c r="BD16" s="87"/>
-      <c r="BE16" s="87"/>
-      <c r="BF16" s="88"/>
-      <c r="BG16" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH16" s="87"/>
-      <c r="BI16" s="87"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="87"/>
-      <c r="BL16" s="87"/>
-      <c r="BM16" s="87"/>
-      <c r="BN16" s="87"/>
-      <c r="BO16" s="87"/>
-      <c r="BP16" s="87"/>
-      <c r="BQ16" s="87"/>
-      <c r="BR16" s="87"/>
-      <c r="BS16" s="87"/>
-      <c r="BT16" s="87"/>
-      <c r="BU16" s="88"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="84"/>
+      <c r="BA16" s="84"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
+      <c r="BE16" s="84"/>
+      <c r="BF16" s="85"/>
+      <c r="BG16" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH16" s="84"/>
+      <c r="BI16" s="84"/>
+      <c r="BJ16" s="84"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="84"/>
+      <c r="BM16" s="84"/>
+      <c r="BN16" s="84"/>
+      <c r="BO16" s="84"/>
+      <c r="BP16" s="84"/>
+      <c r="BQ16" s="84"/>
+      <c r="BR16" s="84"/>
+      <c r="BS16" s="84"/>
+      <c r="BT16" s="84"/>
+      <c r="BU16" s="85"/>
       <c r="BV16" s="45"/>
       <c r="BW16" s="35"/>
       <c r="BX16" s="35"/>
@@ -5913,7 +5701,7 @@
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="35"/>
@@ -5927,16 +5715,16 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="89"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="83" t="s">
+      <c r="T17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="85"/>
+      <c r="U17" s="89"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
@@ -5945,10 +5733,10 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="85"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="89"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="35"/>
       <c r="AJ17" s="36"/>
@@ -5957,46 +5745,46 @@
       </c>
       <c r="AL17" s="35"/>
       <c r="AM17" s="36"/>
-      <c r="AN17" s="86" t="s">
+      <c r="AN17" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="87"/>
-      <c r="BA17" s="87"/>
-      <c r="BB17" s="87"/>
-      <c r="BC17" s="87"/>
-      <c r="BD17" s="87"/>
-      <c r="BE17" s="87"/>
-      <c r="BF17" s="88"/>
-      <c r="BG17" s="86" t="s">
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="84"/>
+      <c r="BA17" s="84"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="84"/>
+      <c r="BD17" s="84"/>
+      <c r="BE17" s="84"/>
+      <c r="BF17" s="85"/>
+      <c r="BG17" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="87"/>
-      <c r="BJ17" s="87"/>
-      <c r="BK17" s="87"/>
-      <c r="BL17" s="87"/>
-      <c r="BM17" s="87"/>
-      <c r="BN17" s="87"/>
-      <c r="BO17" s="87"/>
-      <c r="BP17" s="87"/>
-      <c r="BQ17" s="87"/>
-      <c r="BR17" s="87"/>
-      <c r="BS17" s="87"/>
-      <c r="BT17" s="87"/>
-      <c r="BU17" s="88"/>
+      <c r="BH17" s="84"/>
+      <c r="BI17" s="84"/>
+      <c r="BJ17" s="84"/>
+      <c r="BK17" s="84"/>
+      <c r="BL17" s="84"/>
+      <c r="BM17" s="84"/>
+      <c r="BN17" s="84"/>
+      <c r="BO17" s="84"/>
+      <c r="BP17" s="84"/>
+      <c r="BQ17" s="84"/>
+      <c r="BR17" s="84"/>
+      <c r="BS17" s="84"/>
+      <c r="BT17" s="84"/>
+      <c r="BU17" s="85"/>
       <c r="BV17" s="45"/>
       <c r="BW17" s="35"/>
       <c r="BX17" s="35"/>
@@ -6015,7 +5803,7 @@
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="35"/>
@@ -6029,30 +5817,30 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="83" t="s">
+      <c r="P18" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="83" t="s">
+      <c r="Q18" s="89"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="85"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="83" t="s">
+      <c r="U18" s="89"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="85"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="89"/>
       <c r="AH18" s="45"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="36"/>
@@ -6061,46 +5849,46 @@
       </c>
       <c r="AL18" s="35"/>
       <c r="AM18" s="36"/>
-      <c r="AN18" s="86" t="s">
+      <c r="AN18" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="87"/>
-      <c r="BD18" s="87"/>
-      <c r="BE18" s="87"/>
-      <c r="BF18" s="88"/>
-      <c r="BG18" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="87"/>
-      <c r="BK18" s="87"/>
-      <c r="BL18" s="87"/>
-      <c r="BM18" s="87"/>
-      <c r="BN18" s="87"/>
-      <c r="BO18" s="87"/>
-      <c r="BP18" s="87"/>
-      <c r="BQ18" s="87"/>
-      <c r="BR18" s="87"/>
-      <c r="BS18" s="87"/>
-      <c r="BT18" s="87"/>
-      <c r="BU18" s="88"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="84"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
+      <c r="BE18" s="84"/>
+      <c r="BF18" s="85"/>
+      <c r="BG18" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="84"/>
+      <c r="BJ18" s="84"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="84"/>
+      <c r="BN18" s="84"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="84"/>
+      <c r="BQ18" s="84"/>
+      <c r="BR18" s="84"/>
+      <c r="BS18" s="84"/>
+      <c r="BT18" s="84"/>
+      <c r="BU18" s="85"/>
       <c r="BV18" s="45"/>
       <c r="BW18" s="35"/>
       <c r="BX18" s="35"/>
@@ -6113,13 +5901,13 @@
       <c r="CE18" s="35"/>
       <c r="CF18" s="36"/>
     </row>
-    <row r="19" spans="1:84" ht="105.8" customHeight="1">
+    <row r="19" spans="1:84" ht="105.75" customHeight="1">
       <c r="A19" s="45">
         <v>11</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="35"/>
@@ -6133,28 +5921,28 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="83" t="s">
+      <c r="P19" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="83" t="s">
+      <c r="Q19" s="89"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="85"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="85"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="89"/>
       <c r="AH19" s="45"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="36"/>
@@ -6163,46 +5951,46 @@
       </c>
       <c r="AL19" s="35"/>
       <c r="AM19" s="36"/>
-      <c r="AN19" s="86" t="s">
+      <c r="AN19" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="87"/>
-      <c r="BA19" s="87"/>
-      <c r="BB19" s="87"/>
-      <c r="BC19" s="87"/>
-      <c r="BD19" s="87"/>
-      <c r="BE19" s="87"/>
-      <c r="BF19" s="88"/>
-      <c r="BG19" s="86" t="s">
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="84"/>
+      <c r="AZ19" s="84"/>
+      <c r="BA19" s="84"/>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="84"/>
+      <c r="BD19" s="84"/>
+      <c r="BE19" s="84"/>
+      <c r="BF19" s="85"/>
+      <c r="BG19" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH19" s="87"/>
-      <c r="BI19" s="87"/>
-      <c r="BJ19" s="87"/>
-      <c r="BK19" s="87"/>
-      <c r="BL19" s="87"/>
-      <c r="BM19" s="87"/>
-      <c r="BN19" s="87"/>
-      <c r="BO19" s="87"/>
-      <c r="BP19" s="87"/>
-      <c r="BQ19" s="87"/>
-      <c r="BR19" s="87"/>
-      <c r="BS19" s="87"/>
-      <c r="BT19" s="87"/>
-      <c r="BU19" s="88"/>
+      <c r="BH19" s="84"/>
+      <c r="BI19" s="84"/>
+      <c r="BJ19" s="84"/>
+      <c r="BK19" s="84"/>
+      <c r="BL19" s="84"/>
+      <c r="BM19" s="84"/>
+      <c r="BN19" s="84"/>
+      <c r="BO19" s="84"/>
+      <c r="BP19" s="84"/>
+      <c r="BQ19" s="84"/>
+      <c r="BR19" s="84"/>
+      <c r="BS19" s="84"/>
+      <c r="BT19" s="84"/>
+      <c r="BU19" s="85"/>
       <c r="BV19" s="45"/>
       <c r="BW19" s="35"/>
       <c r="BX19" s="35"/>
@@ -6215,7 +6003,7 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" spans="1:84" ht="105.8" customHeight="1">
+    <row r="20" spans="1:84" ht="105.75" customHeight="1">
       <c r="A20" s="45">
         <v>12</v>
       </c>
@@ -6235,30 +6023,30 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="83" t="s">
+      <c r="P20" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="83" t="s">
+      <c r="Q20" s="89"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="85"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="83" t="s">
+      <c r="U20" s="89"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="85"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="89"/>
       <c r="AH20" s="45"/>
       <c r="AI20" s="35"/>
       <c r="AJ20" s="36"/>
@@ -6267,46 +6055,46 @@
       </c>
       <c r="AL20" s="35"/>
       <c r="AM20" s="36"/>
-      <c r="AN20" s="86" t="s">
+      <c r="AN20" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="86" t="s">
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="87"/>
-      <c r="BA20" s="87"/>
-      <c r="BB20" s="87"/>
-      <c r="BC20" s="87"/>
-      <c r="BD20" s="87"/>
-      <c r="BE20" s="87"/>
-      <c r="BF20" s="88"/>
-      <c r="BG20" s="86" t="s">
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="84"/>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="84"/>
+      <c r="BD20" s="84"/>
+      <c r="BE20" s="84"/>
+      <c r="BF20" s="85"/>
+      <c r="BG20" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="BH20" s="87"/>
-      <c r="BI20" s="87"/>
-      <c r="BJ20" s="87"/>
-      <c r="BK20" s="87"/>
-      <c r="BL20" s="87"/>
-      <c r="BM20" s="87"/>
-      <c r="BN20" s="87"/>
-      <c r="BO20" s="87"/>
-      <c r="BP20" s="87"/>
-      <c r="BQ20" s="87"/>
-      <c r="BR20" s="87"/>
-      <c r="BS20" s="87"/>
-      <c r="BT20" s="87"/>
-      <c r="BU20" s="88"/>
+      <c r="BH20" s="84"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="84"/>
+      <c r="BK20" s="84"/>
+      <c r="BL20" s="84"/>
+      <c r="BM20" s="84"/>
+      <c r="BN20" s="84"/>
+      <c r="BO20" s="84"/>
+      <c r="BP20" s="84"/>
+      <c r="BQ20" s="84"/>
+      <c r="BR20" s="84"/>
+      <c r="BS20" s="84"/>
+      <c r="BT20" s="84"/>
+      <c r="BU20" s="85"/>
       <c r="BV20" s="45"/>
       <c r="BW20" s="35"/>
       <c r="BX20" s="35"/>
@@ -6339,30 +6127,30 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="83" t="s">
+      <c r="P21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="83" t="s">
+      <c r="Q21" s="89"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="85"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="83" t="s">
+      <c r="U21" s="89"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="85"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="89"/>
       <c r="AH21" s="45"/>
       <c r="AI21" s="35"/>
       <c r="AJ21" s="36"/>
@@ -6371,46 +6159,46 @@
       </c>
       <c r="AL21" s="35"/>
       <c r="AM21" s="36"/>
-      <c r="AN21" s="86" t="s">
+      <c r="AN21" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="134" t="s">
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="135"/>
-      <c r="AX21" s="135"/>
-      <c r="AY21" s="135"/>
-      <c r="AZ21" s="135"/>
-      <c r="BA21" s="135"/>
-      <c r="BB21" s="135"/>
-      <c r="BC21" s="135"/>
-      <c r="BD21" s="135"/>
-      <c r="BE21" s="135"/>
-      <c r="BF21" s="136"/>
-      <c r="BG21" s="86" t="s">
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="96"/>
+      <c r="BG21" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="87"/>
-      <c r="BK21" s="87"/>
-      <c r="BL21" s="87"/>
-      <c r="BM21" s="87"/>
-      <c r="BN21" s="87"/>
-      <c r="BO21" s="87"/>
-      <c r="BP21" s="87"/>
-      <c r="BQ21" s="87"/>
-      <c r="BR21" s="87"/>
-      <c r="BS21" s="87"/>
-      <c r="BT21" s="87"/>
-      <c r="BU21" s="88"/>
+      <c r="BH21" s="84"/>
+      <c r="BI21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BP21" s="84"/>
+      <c r="BQ21" s="84"/>
+      <c r="BR21" s="84"/>
+      <c r="BS21" s="84"/>
+      <c r="BT21" s="84"/>
+      <c r="BU21" s="85"/>
       <c r="BV21" s="45"/>
       <c r="BW21" s="35"/>
       <c r="BX21" s="35"/>
@@ -6443,30 +6231,30 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="83" t="s">
+      <c r="P22" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="83" t="s">
+      <c r="Q22" s="89"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="85"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="83" t="s">
+      <c r="U22" s="89"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="85"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="89"/>
       <c r="AH22" s="45"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="36"/>
@@ -6475,46 +6263,46 @@
       </c>
       <c r="AL22" s="35"/>
       <c r="AM22" s="36"/>
-      <c r="AN22" s="86" t="s">
+      <c r="AN22" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="87"/>
-      <c r="BA22" s="87"/>
-      <c r="BB22" s="87"/>
-      <c r="BC22" s="87"/>
-      <c r="BD22" s="87"/>
-      <c r="BE22" s="87"/>
-      <c r="BF22" s="88"/>
-      <c r="BG22" s="86" t="s">
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="85"/>
+      <c r="AS22" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="84"/>
+      <c r="AZ22" s="84"/>
+      <c r="BA22" s="84"/>
+      <c r="BB22" s="84"/>
+      <c r="BC22" s="84"/>
+      <c r="BD22" s="84"/>
+      <c r="BE22" s="84"/>
+      <c r="BF22" s="85"/>
+      <c r="BG22" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BH22" s="87"/>
-      <c r="BI22" s="87"/>
-      <c r="BJ22" s="87"/>
-      <c r="BK22" s="87"/>
-      <c r="BL22" s="87"/>
-      <c r="BM22" s="87"/>
-      <c r="BN22" s="87"/>
-      <c r="BO22" s="87"/>
-      <c r="BP22" s="87"/>
-      <c r="BQ22" s="87"/>
-      <c r="BR22" s="87"/>
-      <c r="BS22" s="87"/>
-      <c r="BT22" s="87"/>
-      <c r="BU22" s="88"/>
+      <c r="BH22" s="84"/>
+      <c r="BI22" s="84"/>
+      <c r="BJ22" s="84"/>
+      <c r="BK22" s="84"/>
+      <c r="BL22" s="84"/>
+      <c r="BM22" s="84"/>
+      <c r="BN22" s="84"/>
+      <c r="BO22" s="84"/>
+      <c r="BP22" s="84"/>
+      <c r="BQ22" s="84"/>
+      <c r="BR22" s="84"/>
+      <c r="BS22" s="84"/>
+      <c r="BT22" s="84"/>
+      <c r="BU22" s="85"/>
       <c r="BV22" s="45"/>
       <c r="BW22" s="35"/>
       <c r="BX22" s="35"/>
@@ -6547,28 +6335,28 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="83" t="s">
+      <c r="P23" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="83" t="s">
+      <c r="Q23" s="89"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="85"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="85"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="89"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="35"/>
       <c r="AJ23" s="36"/>
@@ -6577,46 +6365,46 @@
       </c>
       <c r="AL23" s="35"/>
       <c r="AM23" s="36"/>
-      <c r="AN23" s="86" t="s">
+      <c r="AN23" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="88"/>
-      <c r="AS23" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="87"/>
-      <c r="AZ23" s="87"/>
-      <c r="BA23" s="87"/>
-      <c r="BB23" s="87"/>
-      <c r="BC23" s="87"/>
-      <c r="BD23" s="87"/>
-      <c r="BE23" s="87"/>
-      <c r="BF23" s="88"/>
-      <c r="BG23" s="86" t="s">
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="84"/>
+      <c r="BD23" s="84"/>
+      <c r="BE23" s="84"/>
+      <c r="BF23" s="85"/>
+      <c r="BG23" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH23" s="87"/>
-      <c r="BI23" s="87"/>
-      <c r="BJ23" s="87"/>
-      <c r="BK23" s="87"/>
-      <c r="BL23" s="87"/>
-      <c r="BM23" s="87"/>
-      <c r="BN23" s="87"/>
-      <c r="BO23" s="87"/>
-      <c r="BP23" s="87"/>
-      <c r="BQ23" s="87"/>
-      <c r="BR23" s="87"/>
-      <c r="BS23" s="87"/>
-      <c r="BT23" s="87"/>
-      <c r="BU23" s="88"/>
+      <c r="BH23" s="84"/>
+      <c r="BI23" s="84"/>
+      <c r="BJ23" s="84"/>
+      <c r="BK23" s="84"/>
+      <c r="BL23" s="84"/>
+      <c r="BM23" s="84"/>
+      <c r="BN23" s="84"/>
+      <c r="BO23" s="84"/>
+      <c r="BP23" s="84"/>
+      <c r="BQ23" s="84"/>
+      <c r="BR23" s="84"/>
+      <c r="BS23" s="84"/>
+      <c r="BT23" s="84"/>
+      <c r="BU23" s="85"/>
       <c r="BV23" s="45"/>
       <c r="BW23" s="35"/>
       <c r="BX23" s="35"/>
@@ -6629,13 +6417,13 @@
       <c r="CE23" s="35"/>
       <c r="CF23" s="36"/>
     </row>
-    <row r="24" spans="1:84" ht="102.05" customHeight="1">
+    <row r="24" spans="1:84" ht="102" customHeight="1">
       <c r="A24" s="45">
         <v>16</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
@@ -6649,30 +6437,30 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
-      <c r="P24" s="83" t="s">
+      <c r="P24" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="83" t="s">
+      <c r="Q24" s="89"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="85"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="83" t="s">
+      <c r="U24" s="89"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="85"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="89"/>
       <c r="AH24" s="45"/>
       <c r="AI24" s="35"/>
       <c r="AJ24" s="36"/>
@@ -6681,46 +6469,46 @@
       </c>
       <c r="AL24" s="35"/>
       <c r="AM24" s="36"/>
-      <c r="AN24" s="86" t="s">
+      <c r="AN24" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="88"/>
-      <c r="AS24" s="86" t="s">
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="85"/>
+      <c r="AS24" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
+      <c r="BA24" s="84"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="84"/>
+      <c r="BE24" s="84"/>
+      <c r="BF24" s="85"/>
+      <c r="BG24" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="87"/>
-      <c r="BA24" s="87"/>
-      <c r="BB24" s="87"/>
-      <c r="BC24" s="87"/>
-      <c r="BD24" s="87"/>
-      <c r="BE24" s="87"/>
-      <c r="BF24" s="88"/>
-      <c r="BG24" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH24" s="87"/>
-      <c r="BI24" s="87"/>
-      <c r="BJ24" s="87"/>
-      <c r="BK24" s="87"/>
-      <c r="BL24" s="87"/>
-      <c r="BM24" s="87"/>
-      <c r="BN24" s="87"/>
-      <c r="BO24" s="87"/>
-      <c r="BP24" s="87"/>
-      <c r="BQ24" s="87"/>
-      <c r="BR24" s="87"/>
-      <c r="BS24" s="87"/>
-      <c r="BT24" s="87"/>
-      <c r="BU24" s="88"/>
+      <c r="BH24" s="84"/>
+      <c r="BI24" s="84"/>
+      <c r="BJ24" s="84"/>
+      <c r="BK24" s="84"/>
+      <c r="BL24" s="84"/>
+      <c r="BM24" s="84"/>
+      <c r="BN24" s="84"/>
+      <c r="BO24" s="84"/>
+      <c r="BP24" s="84"/>
+      <c r="BQ24" s="84"/>
+      <c r="BR24" s="84"/>
+      <c r="BS24" s="84"/>
+      <c r="BT24" s="84"/>
+      <c r="BU24" s="85"/>
       <c r="BV24" s="45"/>
       <c r="BW24" s="35"/>
       <c r="BX24" s="35"/>
@@ -6739,7 +6527,7 @@
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="35"/>
@@ -6753,28 +6541,28 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="83" t="s">
+      <c r="P25" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="83" t="s">
+      <c r="Q25" s="89"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="85"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="85"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="89"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="36"/>
@@ -6783,46 +6571,46 @@
       </c>
       <c r="AL25" s="35"/>
       <c r="AM25" s="36"/>
-      <c r="AN25" s="86" t="s">
+      <c r="AN25" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="87"/>
-      <c r="BA25" s="87"/>
-      <c r="BB25" s="87"/>
-      <c r="BC25" s="87"/>
-      <c r="BD25" s="87"/>
-      <c r="BE25" s="87"/>
-      <c r="BF25" s="88"/>
-      <c r="BG25" s="86" t="s">
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="84"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="84"/>
+      <c r="BD25" s="84"/>
+      <c r="BE25" s="84"/>
+      <c r="BF25" s="85"/>
+      <c r="BG25" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH25" s="87"/>
-      <c r="BI25" s="87"/>
-      <c r="BJ25" s="87"/>
-      <c r="BK25" s="87"/>
-      <c r="BL25" s="87"/>
-      <c r="BM25" s="87"/>
-      <c r="BN25" s="87"/>
-      <c r="BO25" s="87"/>
-      <c r="BP25" s="87"/>
-      <c r="BQ25" s="87"/>
-      <c r="BR25" s="87"/>
-      <c r="BS25" s="87"/>
-      <c r="BT25" s="87"/>
-      <c r="BU25" s="88"/>
+      <c r="BH25" s="84"/>
+      <c r="BI25" s="84"/>
+      <c r="BJ25" s="84"/>
+      <c r="BK25" s="84"/>
+      <c r="BL25" s="84"/>
+      <c r="BM25" s="84"/>
+      <c r="BN25" s="84"/>
+      <c r="BO25" s="84"/>
+      <c r="BP25" s="84"/>
+      <c r="BQ25" s="84"/>
+      <c r="BR25" s="84"/>
+      <c r="BS25" s="84"/>
+      <c r="BT25" s="84"/>
+      <c r="BU25" s="85"/>
       <c r="BV25" s="45"/>
       <c r="BW25" s="35"/>
       <c r="BX25" s="35"/>
@@ -6841,7 +6629,7 @@
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="35"/>
@@ -6855,30 +6643,30 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="83" t="s">
+      <c r="P26" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="83" t="s">
+      <c r="Q26" s="89"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="85"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="83" t="s">
+      <c r="U26" s="89"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="85"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="89"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="35"/>
       <c r="AJ26" s="36"/>
@@ -6887,46 +6675,46 @@
       </c>
       <c r="AL26" s="35"/>
       <c r="AM26" s="36"/>
-      <c r="AN26" s="86" t="s">
+      <c r="AN26" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="87"/>
-      <c r="BD26" s="87"/>
-      <c r="BE26" s="87"/>
-      <c r="BF26" s="88"/>
-      <c r="BG26" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH26" s="87"/>
-      <c r="BI26" s="87"/>
-      <c r="BJ26" s="87"/>
-      <c r="BK26" s="87"/>
-      <c r="BL26" s="87"/>
-      <c r="BM26" s="87"/>
-      <c r="BN26" s="87"/>
-      <c r="BO26" s="87"/>
-      <c r="BP26" s="87"/>
-      <c r="BQ26" s="87"/>
-      <c r="BR26" s="87"/>
-      <c r="BS26" s="87"/>
-      <c r="BT26" s="87"/>
-      <c r="BU26" s="88"/>
+      <c r="AO26" s="84"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="85"/>
+      <c r="AS26" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="84"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="84"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="85"/>
+      <c r="BG26" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
+      <c r="BK26" s="84"/>
+      <c r="BL26" s="84"/>
+      <c r="BM26" s="84"/>
+      <c r="BN26" s="84"/>
+      <c r="BO26" s="84"/>
+      <c r="BP26" s="84"/>
+      <c r="BQ26" s="84"/>
+      <c r="BR26" s="84"/>
+      <c r="BS26" s="84"/>
+      <c r="BT26" s="84"/>
+      <c r="BU26" s="85"/>
       <c r="BV26" s="45"/>
       <c r="BW26" s="35"/>
       <c r="BX26" s="35"/>
@@ -6945,7 +6733,7 @@
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="35"/>
@@ -6959,30 +6747,30 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
-      <c r="P27" s="83" t="s">
+      <c r="P27" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="83" t="s">
+      <c r="Q27" s="89"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="85"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="83" t="s">
+      <c r="U27" s="89"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="85"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="89"/>
       <c r="AH27" s="45"/>
       <c r="AI27" s="35"/>
       <c r="AJ27" s="36"/>
@@ -6991,46 +6779,46 @@
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="36"/>
-      <c r="AN27" s="86" t="s">
+      <c r="AN27" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
-      <c r="BD27" s="87"/>
-      <c r="BE27" s="87"/>
-      <c r="BF27" s="88"/>
-      <c r="BG27" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH27" s="87"/>
-      <c r="BI27" s="87"/>
-      <c r="BJ27" s="87"/>
-      <c r="BK27" s="87"/>
-      <c r="BL27" s="87"/>
-      <c r="BM27" s="87"/>
-      <c r="BN27" s="87"/>
-      <c r="BO27" s="87"/>
-      <c r="BP27" s="87"/>
-      <c r="BQ27" s="87"/>
-      <c r="BR27" s="87"/>
-      <c r="BS27" s="87"/>
-      <c r="BT27" s="87"/>
-      <c r="BU27" s="88"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT27" s="84"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="84"/>
+      <c r="BE27" s="84"/>
+      <c r="BF27" s="85"/>
+      <c r="BG27" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH27" s="84"/>
+      <c r="BI27" s="84"/>
+      <c r="BJ27" s="84"/>
+      <c r="BK27" s="84"/>
+      <c r="BL27" s="84"/>
+      <c r="BM27" s="84"/>
+      <c r="BN27" s="84"/>
+      <c r="BO27" s="84"/>
+      <c r="BP27" s="84"/>
+      <c r="BQ27" s="84"/>
+      <c r="BR27" s="84"/>
+      <c r="BS27" s="84"/>
+      <c r="BT27" s="84"/>
+      <c r="BU27" s="85"/>
       <c r="BV27" s="45"/>
       <c r="BW27" s="35"/>
       <c r="BX27" s="35"/>
@@ -7049,7 +6837,7 @@
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="35"/>
@@ -7063,28 +6851,28 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
-      <c r="P28" s="83" t="s">
+      <c r="P28" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="83" t="s">
+      <c r="Q28" s="89"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="85"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="85"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="89"/>
       <c r="AH28" s="45"/>
       <c r="AI28" s="35"/>
       <c r="AJ28" s="36"/>
@@ -7093,46 +6881,46 @@
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="36"/>
-      <c r="AN28" s="86" t="s">
+      <c r="AN28" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="88"/>
-      <c r="AS28" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="87"/>
-      <c r="BD28" s="87"/>
-      <c r="BE28" s="87"/>
-      <c r="BF28" s="88"/>
-      <c r="BG28" s="86" t="s">
+      <c r="AO28" s="84"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="85"/>
+      <c r="AS28" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT28" s="84"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="84"/>
+      <c r="AX28" s="84"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="84"/>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="84"/>
+      <c r="BD28" s="84"/>
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="85"/>
+      <c r="BG28" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="BH28" s="87"/>
-      <c r="BI28" s="87"/>
-      <c r="BJ28" s="87"/>
-      <c r="BK28" s="87"/>
-      <c r="BL28" s="87"/>
-      <c r="BM28" s="87"/>
-      <c r="BN28" s="87"/>
-      <c r="BO28" s="87"/>
-      <c r="BP28" s="87"/>
-      <c r="BQ28" s="87"/>
-      <c r="BR28" s="87"/>
-      <c r="BS28" s="87"/>
-      <c r="BT28" s="87"/>
-      <c r="BU28" s="88"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="84"/>
+      <c r="BK28" s="84"/>
+      <c r="BL28" s="84"/>
+      <c r="BM28" s="84"/>
+      <c r="BN28" s="84"/>
+      <c r="BO28" s="84"/>
+      <c r="BP28" s="84"/>
+      <c r="BQ28" s="84"/>
+      <c r="BR28" s="84"/>
+      <c r="BS28" s="84"/>
+      <c r="BT28" s="84"/>
+      <c r="BU28" s="85"/>
       <c r="BV28" s="45"/>
       <c r="BW28" s="35"/>
       <c r="BX28" s="35"/>
@@ -7145,7 +6933,7 @@
       <c r="CE28" s="35"/>
       <c r="CF28" s="36"/>
     </row>
-    <row r="29" spans="1:84" ht="109.4" customHeight="1">
+    <row r="29" spans="1:84" ht="110.85" customHeight="1">
       <c r="A29" s="45">
         <v>21</v>
       </c>
@@ -7165,30 +6953,28 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
-      <c r="P29" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="U29" s="85"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="85"/>
+      <c r="P29" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="89"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="89"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="36"/>
@@ -7197,46 +6983,46 @@
       </c>
       <c r="AL29" s="35"/>
       <c r="AM29" s="36"/>
-      <c r="AN29" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="87"/>
-      <c r="BD29" s="87"/>
-      <c r="BE29" s="87"/>
-      <c r="BF29" s="88"/>
-      <c r="BG29" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH29" s="102"/>
-      <c r="BI29" s="102"/>
-      <c r="BJ29" s="102"/>
-      <c r="BK29" s="102"/>
-      <c r="BL29" s="102"/>
-      <c r="BM29" s="102"/>
-      <c r="BN29" s="102"/>
-      <c r="BO29" s="102"/>
-      <c r="BP29" s="102"/>
-      <c r="BQ29" s="102"/>
-      <c r="BR29" s="102"/>
-      <c r="BS29" s="102"/>
-      <c r="BT29" s="102"/>
-      <c r="BU29" s="103"/>
+      <c r="AN29" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO29" s="92"/>
+      <c r="AP29" s="92"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="93"/>
+      <c r="AS29" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="85"/>
+      <c r="BG29" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH29" s="86"/>
+      <c r="BI29" s="86"/>
+      <c r="BJ29" s="86"/>
+      <c r="BK29" s="86"/>
+      <c r="BL29" s="86"/>
+      <c r="BM29" s="86"/>
+      <c r="BN29" s="86"/>
+      <c r="BO29" s="86"/>
+      <c r="BP29" s="86"/>
+      <c r="BQ29" s="86"/>
+      <c r="BR29" s="86"/>
+      <c r="BS29" s="86"/>
+      <c r="BT29" s="86"/>
+      <c r="BU29" s="87"/>
       <c r="BV29" s="45"/>
       <c r="BW29" s="35"/>
       <c r="BX29" s="35"/>
@@ -7249,13 +7035,13 @@
       <c r="CE29" s="35"/>
       <c r="CF29" s="36"/>
     </row>
-    <row r="30" spans="1:84" ht="120.15" customHeight="1">
+    <row r="30" spans="1:84" ht="110.85" customHeight="1">
       <c r="A30" s="45">
         <v>22</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="35"/>
@@ -7269,30 +7055,28 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
-      <c r="P30" s="83" t="s">
+      <c r="P30" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="83" t="s">
+      <c r="Q30" s="89"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="85"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="85"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="89"/>
       <c r="AH30" s="45"/>
       <c r="AI30" s="35"/>
       <c r="AJ30" s="36"/>
@@ -7301,46 +7085,46 @@
       </c>
       <c r="AL30" s="35"/>
       <c r="AM30" s="36"/>
-      <c r="AN30" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="102"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="87"/>
-      <c r="BA30" s="87"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="87"/>
-      <c r="BD30" s="87"/>
-      <c r="BE30" s="87"/>
-      <c r="BF30" s="88"/>
-      <c r="BG30" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="102"/>
-      <c r="BK30" s="102"/>
-      <c r="BL30" s="102"/>
-      <c r="BM30" s="102"/>
-      <c r="BN30" s="102"/>
-      <c r="BO30" s="102"/>
-      <c r="BP30" s="102"/>
-      <c r="BQ30" s="102"/>
-      <c r="BR30" s="102"/>
-      <c r="BS30" s="102"/>
-      <c r="BT30" s="102"/>
-      <c r="BU30" s="103"/>
+      <c r="AN30" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO30" s="92"/>
+      <c r="AP30" s="92"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="93"/>
+      <c r="AS30" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT30" s="84"/>
+      <c r="AU30" s="84"/>
+      <c r="AV30" s="84"/>
+      <c r="AW30" s="84"/>
+      <c r="AX30" s="84"/>
+      <c r="AY30" s="84"/>
+      <c r="AZ30" s="84"/>
+      <c r="BA30" s="84"/>
+      <c r="BB30" s="84"/>
+      <c r="BC30" s="84"/>
+      <c r="BD30" s="84"/>
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="85"/>
+      <c r="BG30" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH30" s="86"/>
+      <c r="BI30" s="86"/>
+      <c r="BJ30" s="86"/>
+      <c r="BK30" s="86"/>
+      <c r="BL30" s="86"/>
+      <c r="BM30" s="86"/>
+      <c r="BN30" s="86"/>
+      <c r="BO30" s="86"/>
+      <c r="BP30" s="86"/>
+      <c r="BQ30" s="86"/>
+      <c r="BR30" s="86"/>
+      <c r="BS30" s="86"/>
+      <c r="BT30" s="86"/>
+      <c r="BU30" s="87"/>
       <c r="BV30" s="45"/>
       <c r="BW30" s="35"/>
       <c r="BX30" s="35"/>
@@ -7353,13 +7137,13 @@
       <c r="CE30" s="35"/>
       <c r="CF30" s="36"/>
     </row>
-    <row r="31" spans="1:84" ht="110.8" customHeight="1">
+    <row r="31" spans="1:84" ht="110.85" customHeight="1">
       <c r="A31" s="45">
         <v>23</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="45" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="35"/>
@@ -7373,28 +7157,28 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="83" t="s">
+      <c r="P31" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="83" t="s">
+      <c r="Q31" s="89"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="85"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="85"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="89"/>
       <c r="AH31" s="45"/>
       <c r="AI31" s="35"/>
       <c r="AJ31" s="36"/>
@@ -7403,46 +7187,46 @@
       </c>
       <c r="AL31" s="35"/>
       <c r="AM31" s="36"/>
-      <c r="AN31" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="138"/>
-      <c r="AS31" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="87"/>
-      <c r="BA31" s="87"/>
-      <c r="BB31" s="87"/>
-      <c r="BC31" s="87"/>
-      <c r="BD31" s="87"/>
-      <c r="BE31" s="87"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH31" s="102"/>
-      <c r="BI31" s="102"/>
-      <c r="BJ31" s="102"/>
-      <c r="BK31" s="102"/>
-      <c r="BL31" s="102"/>
-      <c r="BM31" s="102"/>
-      <c r="BN31" s="102"/>
-      <c r="BO31" s="102"/>
-      <c r="BP31" s="102"/>
-      <c r="BQ31" s="102"/>
-      <c r="BR31" s="102"/>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="102"/>
-      <c r="BU31" s="103"/>
+      <c r="AN31" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="93"/>
+      <c r="AS31" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT31" s="84"/>
+      <c r="AU31" s="84"/>
+      <c r="AV31" s="84"/>
+      <c r="AW31" s="84"/>
+      <c r="AX31" s="84"/>
+      <c r="AY31" s="84"/>
+      <c r="AZ31" s="84"/>
+      <c r="BA31" s="84"/>
+      <c r="BB31" s="84"/>
+      <c r="BC31" s="84"/>
+      <c r="BD31" s="84"/>
+      <c r="BE31" s="84"/>
+      <c r="BF31" s="85"/>
+      <c r="BG31" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH31" s="86"/>
+      <c r="BI31" s="86"/>
+      <c r="BJ31" s="86"/>
+      <c r="BK31" s="86"/>
+      <c r="BL31" s="86"/>
+      <c r="BM31" s="86"/>
+      <c r="BN31" s="86"/>
+      <c r="BO31" s="86"/>
+      <c r="BP31" s="86"/>
+      <c r="BQ31" s="86"/>
+      <c r="BR31" s="86"/>
+      <c r="BS31" s="86"/>
+      <c r="BT31" s="86"/>
+      <c r="BU31" s="87"/>
       <c r="BV31" s="45"/>
       <c r="BW31" s="35"/>
       <c r="BX31" s="35"/>
@@ -7455,13 +7239,13 @@
       <c r="CE31" s="35"/>
       <c r="CF31" s="36"/>
     </row>
-    <row r="32" spans="1:84" ht="110.8" customHeight="1">
+    <row r="32" spans="1:84" ht="110.85" customHeight="1">
       <c r="A32" s="45">
         <v>24</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="35"/>
@@ -7475,28 +7259,28 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
-      <c r="P32" s="83" t="s">
+      <c r="P32" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="83" t="s">
+      <c r="Q32" s="89"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="85"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="85"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="89"/>
       <c r="AH32" s="45"/>
       <c r="AI32" s="35"/>
       <c r="AJ32" s="36"/>
@@ -7505,46 +7289,44 @@
       </c>
       <c r="AL32" s="35"/>
       <c r="AM32" s="36"/>
-      <c r="AN32" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO32" s="122"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="122"/>
-      <c r="AR32" s="138"/>
-      <c r="AS32" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="87"/>
-      <c r="BA32" s="87"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="87"/>
-      <c r="BD32" s="87"/>
-      <c r="BE32" s="87"/>
-      <c r="BF32" s="88"/>
-      <c r="BG32" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH32" s="102"/>
-      <c r="BI32" s="102"/>
-      <c r="BJ32" s="102"/>
-      <c r="BK32" s="102"/>
-      <c r="BL32" s="102"/>
-      <c r="BM32" s="102"/>
-      <c r="BN32" s="102"/>
-      <c r="BO32" s="102"/>
-      <c r="BP32" s="102"/>
-      <c r="BQ32" s="102"/>
-      <c r="BR32" s="102"/>
-      <c r="BS32" s="102"/>
-      <c r="BT32" s="102"/>
-      <c r="BU32" s="103"/>
+      <c r="AN32" s="91"/>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT32" s="84"/>
+      <c r="AU32" s="84"/>
+      <c r="AV32" s="84"/>
+      <c r="AW32" s="84"/>
+      <c r="AX32" s="84"/>
+      <c r="AY32" s="84"/>
+      <c r="AZ32" s="84"/>
+      <c r="BA32" s="84"/>
+      <c r="BB32" s="84"/>
+      <c r="BC32" s="84"/>
+      <c r="BD32" s="84"/>
+      <c r="BE32" s="84"/>
+      <c r="BF32" s="85"/>
+      <c r="BG32" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH32" s="86"/>
+      <c r="BI32" s="86"/>
+      <c r="BJ32" s="86"/>
+      <c r="BK32" s="86"/>
+      <c r="BL32" s="86"/>
+      <c r="BM32" s="86"/>
+      <c r="BN32" s="86"/>
+      <c r="BO32" s="86"/>
+      <c r="BP32" s="86"/>
+      <c r="BQ32" s="86"/>
+      <c r="BR32" s="86"/>
+      <c r="BS32" s="86"/>
+      <c r="BT32" s="86"/>
+      <c r="BU32" s="87"/>
       <c r="BV32" s="45"/>
       <c r="BW32" s="35"/>
       <c r="BX32" s="35"/>
@@ -7557,410 +7339,104 @@
       <c r="CE32" s="35"/>
       <c r="CF32" s="36"/>
     </row>
-    <row r="33" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A33" s="45">
-        <v>25</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="U33" s="85"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="83"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO33" s="122"/>
-      <c r="AP33" s="122"/>
-      <c r="AQ33" s="122"/>
-      <c r="AR33" s="138"/>
-      <c r="AS33" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="87"/>
-      <c r="AY33" s="87"/>
-      <c r="AZ33" s="87"/>
-      <c r="BA33" s="87"/>
-      <c r="BB33" s="87"/>
-      <c r="BC33" s="87"/>
-      <c r="BD33" s="87"/>
-      <c r="BE33" s="87"/>
-      <c r="BF33" s="88"/>
-      <c r="BG33" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH33" s="102"/>
-      <c r="BI33" s="102"/>
-      <c r="BJ33" s="102"/>
-      <c r="BK33" s="102"/>
-      <c r="BL33" s="102"/>
-      <c r="BM33" s="102"/>
-      <c r="BN33" s="102"/>
-      <c r="BO33" s="102"/>
-      <c r="BP33" s="102"/>
-      <c r="BQ33" s="102"/>
-      <c r="BR33" s="102"/>
-      <c r="BS33" s="102"/>
-      <c r="BT33" s="102"/>
-      <c r="BU33" s="103"/>
-      <c r="BV33" s="45"/>
-      <c r="BW33" s="35"/>
-      <c r="BX33" s="35"/>
-      <c r="BY33" s="36"/>
-      <c r="BZ33" s="45"/>
-      <c r="CA33" s="35"/>
-      <c r="CB33" s="36"/>
-      <c r="CC33" s="45"/>
-      <c r="CD33" s="35"/>
-      <c r="CE33" s="35"/>
-      <c r="CF33" s="36"/>
-    </row>
-    <row r="34" spans="1:84" ht="110.8" customHeight="1">
-      <c r="A34" s="45">
-        <v>26</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="U34" s="85"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="137"/>
-      <c r="AO34" s="122"/>
-      <c r="AP34" s="122"/>
-      <c r="AQ34" s="122"/>
-      <c r="AR34" s="138"/>
-      <c r="AS34" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
-      <c r="AW34" s="87"/>
-      <c r="AX34" s="87"/>
-      <c r="AY34" s="87"/>
-      <c r="AZ34" s="87"/>
-      <c r="BA34" s="87"/>
-      <c r="BB34" s="87"/>
-      <c r="BC34" s="87"/>
-      <c r="BD34" s="87"/>
-      <c r="BE34" s="87"/>
-      <c r="BF34" s="88"/>
-      <c r="BG34" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH34" s="102"/>
-      <c r="BI34" s="102"/>
-      <c r="BJ34" s="102"/>
-      <c r="BK34" s="102"/>
-      <c r="BL34" s="102"/>
-      <c r="BM34" s="102"/>
-      <c r="BN34" s="102"/>
-      <c r="BO34" s="102"/>
-      <c r="BP34" s="102"/>
-      <c r="BQ34" s="102"/>
-      <c r="BR34" s="102"/>
-      <c r="BS34" s="102"/>
-      <c r="BT34" s="102"/>
-      <c r="BU34" s="103"/>
-      <c r="BV34" s="45"/>
-      <c r="BW34" s="35"/>
-      <c r="BX34" s="35"/>
-      <c r="BY34" s="36"/>
-      <c r="BZ34" s="45"/>
-      <c r="CA34" s="35"/>
-      <c r="CB34" s="36"/>
-      <c r="CC34" s="45"/>
-      <c r="CD34" s="35"/>
-      <c r="CE34" s="35"/>
-      <c r="CF34" s="36"/>
-    </row>
   </sheetData>
-  <mergeCells count="320">
-    <mergeCell ref="AS33:BF33"/>
-    <mergeCell ref="BG33:BU33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:BF34"/>
-    <mergeCell ref="BG34:BU34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="AS31:BF31"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="BG31:BU31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:BF32"/>
-    <mergeCell ref="BG32:BU32"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="AS30:BF30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:BF29"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
+  <mergeCells count="298">
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:BF9"/>
+    <mergeCell ref="BG9:BU9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
@@ -7985,102 +7461,184 @@
     <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="AD19:AG19"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="P7:AJ7"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AN7:AR8"/>
-    <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:BF9"/>
-    <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="BG32:BU32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AN31:AR31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8094,42 +7652,42 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="55" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="55" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="55" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="55"/>
-    <col min="8" max="8" width="18.4140625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="55"/>
-    <col min="10" max="10" width="10.58203125" style="55" customWidth="1"/>
+    <col min="5" max="7" width="8.625" style="55"/>
+    <col min="8" max="8" width="18.375" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="55"/>
+    <col min="10" max="10" width="10.625" style="55" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="55" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.58203125" style="55" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="55" customWidth="1"/>
     <col min="14" max="14" width="15" style="55" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="55"/>
-    <col min="16" max="16" width="21.1640625" style="55" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="55" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="55"/>
+    <col min="16" max="16" width="21.125" style="55" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="55" customWidth="1"/>
     <col min="18" max="18" width="14" style="55" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="55" customWidth="1"/>
-    <col min="20" max="20" width="18.08203125" style="55" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="55"/>
+    <col min="19" max="19" width="13.125" style="55" customWidth="1"/>
+    <col min="20" max="20" width="18.125" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="8.625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.55" customHeight="1">
+    <row r="1" spans="1:20" ht="28.5" customHeight="1">
       <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="56" customFormat="1" ht="26.2">
+    <row r="2" spans="1:20" s="56" customFormat="1">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="140" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -8138,13 +7696,13 @@
       <c r="D2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="140" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="140" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="61" t="s">
@@ -8171,7 +7729,7 @@
       <c r="O2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="140" t="s">
         <v>79</v>
       </c>
       <c r="Q2" s="61" t="s">
@@ -8187,66 +7745,43 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="24.8" customHeight="1">
-      <c r="A3" s="55">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>151</v>
-      </c>
+    <row r="3" spans="1:20" ht="24.75" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="48"/>
       <c r="D3" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="62">
-        <v>36136</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="48" t="s">
-        <v>162</v>
+      <c r="H3" s="62"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="142" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="23.85" customHeight="1">
@@ -8254,43 +7789,49 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="25.25" customHeight="1">
+    <row r="9" spans="1:20" ht="25.35" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="57" t="s">
+    </row>
+    <row r="10" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="18.7" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="18.7" customHeight="1">
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A11" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="B11" s="59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="18.7" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1">
+      <c r="A12" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="B12" s="59" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="27.6" customHeight="1">
@@ -8298,49 +7839,54 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33.700000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="33.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.2" customHeight="1">
-      <c r="A18" s="56"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.149999999999999" customHeight="1">
+      <c r="A18" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="B18" s="59" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.2" customHeight="1">
+        <v>165</v>
+      </c>
+      <c r="E18" s="60"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.149999999999999" customHeight="1">
+      <c r="A19" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="B19" s="59" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.2" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.149999999999999" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="B20" s="58">
         <v>3</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8352,9 +7898,9 @@
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="47"/>
+    <col min="1" max="16384" width="8.625" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -8372,7 +7918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.55">
+    <row r="6" spans="1:2" ht="45">
       <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
@@ -8427,7 +7973,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="52" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8491,7 +8037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.399999999999999">
+    <row r="44" spans="1:2" ht="23.25">
       <c r="B44" s="54"/>
     </row>
     <row r="45" spans="1:2">

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C926E0-DE7D-4C02-916E-D084DC86F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5645DBB0-D74D-4A6A-8A2A-3625EE8D7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="3435" windowWidth="25305" windowHeight="14820" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-159" yWindow="19" windowWidth="18150" windowHeight="8369" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -737,7 +737,7 @@
     <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
     <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -745,12 +745,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
   <si>
     <t>画面名</t>
   </si>
@@ -1150,53 +1161,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ﾋｮｳｼﾞ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②ユーザ名に13文字を入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-    <rPh sb="1" eb="3">
-      <t>ｼｬｲﾝ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ｼﾞｮｳﾎｳ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ﾍﾝｺｳ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ｶﾞﾒﾝ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ｾﾝｲ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ﾒｲ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ﾓｼﾞ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ﾀ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ｺｳﾓｸ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ﾀﾀﾞ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ｺｳｼﾝ</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1233,45 +1197,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②ユーザ名に12文字を入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-    <rPh sb="1" eb="3">
-      <t>ｼｬｲﾝ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ｼﾞｮｳﾎｳ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ﾍﾝｺｳ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ｶﾞﾒﾝ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ｾﾝｲ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ﾒｲ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ﾓｼﾞ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>①「テストデータ」のNo.1でログイン
 ②社員情報変更画面へ遷移</t>
-  </si>
-  <si>
-    <t>①画面が正常に表示できる
-②画面社員タイプ候補リストはテストデータの社員タイプと同じ
-③画面部門の候補リストはテストデータの部門データと同じ</t>
   </si>
   <si>
     <t>期待結果</t>
@@ -1334,9 +1261,6 @@
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
-  </si>
-  <si>
-    <t>”郵便番号形式で入力してください。”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t>更新＿ユーザ住所</t>
@@ -1403,16 +1327,6 @@
     <t>更新＿ユーザ個人番号</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②個人番号に文字入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t>”個人番号を半角数字で入力してください。”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
     <t>更新＿ユーザ入社年月日</t>
   </si>
   <si>
@@ -1441,16 +1355,6 @@
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②個人番号に12数学まで入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t>”電話番号を半角数字で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
@@ -1506,9 +1410,6 @@
     <t>EmployeeEditBeanのjoinedTime</t>
   </si>
   <si>
-    <t>前回更新日</t>
-  </si>
-  <si>
     <t>EmployeeEditBeanのupdateDate</t>
   </si>
   <si>
@@ -1522,15 +1423,6 @@
   </si>
   <si>
     <t>テストデータの入社年月日に基づいて現在の社齢が自動で表示される</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①前回の更新日表示されてる
-②「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t>①前回の更新日が表示する
-②テストデータが更新された日に変わる</t>
   </si>
   <si>
     <t>更新</t>
@@ -1541,101 +1433,10 @@
 </t>
   </si>
   <si>
-    <t>①「検索」ボタンをクリックする後、社員情報更新画面表示する
-②テストデータの値がデータベースに保損する</t>
-  </si>
-  <si>
     <t>開発一部</t>
   </si>
   <si>
     <t>開発二部</t>
-  </si>
-  <si>
-    <t>？？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>①社員情報変更画面へ遷移
-②郵便番号に</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Klee One SemiBold"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="Klee One SemiBold"/>
-        <charset val="128"/>
-      </rPr>
-      <t>半角数字ではない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Klee One SemiBold"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">で入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ﾊﾝｶｸ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ｽｳｼﾞ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>①社員情報変更画面へ遷移
-②郵便番号に(-)無し、7桁の半角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="Klee One SemiBold"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Klee One SemiBold"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-を入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-    </r>
-    <rPh sb="30" eb="32">
-      <t>ｽｳｼﾞ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No1からNo.24</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No.1</t>
@@ -1672,26 +1473,159 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に未入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”個人番号を入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号入力は半角数字じゃ
+　ない場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に半角数字じゃない場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号は半角12桁
+　数字以上の場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に半角12桁
+　数字まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に半角７桁
+　数字以上の場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に(-)無し、7桁の半角数
+字を入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所は200文字以上の場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”住所は200文字以内で入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>"(-)無し、郵便番号形式で入力
+してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>”郵便番号は(-)無し、半角７桁数字以内で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>”電話番号を入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>”電話番号は(-)無し、半角数字で
+入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に半角数字15以上
+　入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”電話番号は半角15桁数字で
+入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>①「更新」ボタンをクリックする後、社員情報更新画面表示する
+②画面入力したデータをTableに新規追加する</t>
+  </si>
+  <si>
+    <t>”個人番号は半角数字で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>”個人番号は半角12桁数字以内で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①画面が正常に表示できる
+②画面社員タイプ候補リストはテストデータの社員タイプと同じ
+③画面部門の候補リストはテストデータの部門データと同じ
+</t>
+  </si>
+  <si>
+    <t>初期表示＿前回更新日</t>
+  </si>
+  <si>
+    <t>④前回の更新日表示</t>
+  </si>
+  <si>
+    <t>①前回の更新日表示
+④「更新」ボタン</t>
+  </si>
+  <si>
+    <t>No1からNo.29</t>
+  </si>
+  <si>
+    <t>①前回の更新日表示
+②更新する日付に変わる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②ユーザ名に1２文字以上入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1708,7 +1642,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1734,14 +1668,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1857,29 +1791,9 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Klee One SemiBold"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0066FF"/>
-      <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -2245,7 +2159,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2258,7 +2172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2434,6 +2348,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2497,6 +2432,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2504,15 +2448,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2656,16 +2591,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2701,238 +2636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1066800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7479E6E2-25AE-D591-2D91-4548E1F0E863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230100" y="9515475"/>
-          <a:ext cx="1647825" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67076"/>
-            <a:gd name="adj2" fmla="val 31352"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>個人番号、未入力の場合は？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2DA58E-9B96-49FB-BF11-A0773713EA7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12525375" y="21040725"/>
-          <a:ext cx="2152650" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67076"/>
-            <a:gd name="adj2" fmla="val 31352"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>住所：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以上文字をテストしないのはなぜ？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BA6824-2618-606B-0BC3-5D65E0F18D12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12268200" y="24288750"/>
-          <a:ext cx="2152650" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67076"/>
-            <a:gd name="adj2" fmla="val 31352"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>電話番号：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>桁を超えた場合は？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1171575</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1365661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2947,8 +2660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12344400" y="30565725"/>
-          <a:ext cx="2152650" cy="914400"/>
+          <a:off x="11553495" y="34352551"/>
+          <a:ext cx="2020248" cy="1108487"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2995,25 +2708,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237505</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3666</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D12085-C979-4EFE-78B0-6235BB470FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11841" t="43731" r="63713" b="39564"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3491344" y="2446317"/>
+          <a:ext cx="3970026" cy="1525977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231569</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>320632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481696</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F2E783-9799-3CA9-8384-36E7E4494361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12127" t="62898" r="62358" b="20080"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485408" y="5242954"/>
+          <a:ext cx="3842413" cy="1472542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1270660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2345377</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+        <xdr:cNvPr id="13" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9A1504-D26E-327E-D23F-E86DDAD794B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D59533-C115-43AD-97AA-27DA1B6B90AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,15 +2837,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12163425" y="29117925"/>
-          <a:ext cx="2152650" cy="914400"/>
+          <a:off x="4524499" y="2761012"/>
+          <a:ext cx="1074717" cy="997527"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67076"/>
-            <a:gd name="adj2" fmla="val 31352"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3052,10 +2871,81 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前回更新日は、テーブル項目ですので、初期表示に記載すべき。</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1140031</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>290943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2066306</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23574867-9E93-40B1-AB90-4BB04B58BE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4393870" y="5563587"/>
+          <a:ext cx="926275" cy="896589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3064,7 +2954,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3266,8 +3156,8 @@
       <sheetName val="CODE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -3321,10 +3211,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3617,7 +3507,7 @@
       <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="21" width="5.25" style="2"/>
     <col min="22" max="22" width="5.25" style="1"/>
@@ -3700,7 +3590,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3718,25 +3608,25 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="30">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="22.95">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3756,7 +3646,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3774,65 +3664,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3850,65 +3740,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.5">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="79"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.65">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3926,7 +3816,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4109,7 +3999,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4123,13 +4013,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
@@ -4250,41 +4140,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CG32"/>
+  <dimension ref="A1:CF37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AS11" sqref="AS11:BF11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="40" customWidth="1"/>
-    <col min="2" max="3" width="2.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="41" customWidth="1"/>
-    <col min="5" max="10" width="2.125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="40" customWidth="1"/>
-    <col min="12" max="27" width="2.125" style="40" customWidth="1"/>
-    <col min="28" max="28" width="2.125" style="42" customWidth="1"/>
-    <col min="29" max="31" width="2.125" style="40" customWidth="1"/>
-    <col min="32" max="32" width="2.125" style="41" customWidth="1"/>
-    <col min="33" max="43" width="2.125" style="40" customWidth="1"/>
-    <col min="44" max="44" width="2.125" style="42" customWidth="1"/>
-    <col min="45" max="50" width="2.125" style="40" customWidth="1"/>
-    <col min="51" max="51" width="3.875" style="40" customWidth="1"/>
-    <col min="52" max="52" width="2.125" style="42" customWidth="1"/>
-    <col min="53" max="55" width="2.125" style="40" customWidth="1"/>
-    <col min="56" max="56" width="2.125" style="41" customWidth="1"/>
-    <col min="57" max="57" width="2.125" style="40" customWidth="1"/>
-    <col min="58" max="58" width="4.375" style="40" customWidth="1"/>
-    <col min="59" max="59" width="2.125" style="40" customWidth="1"/>
-    <col min="60" max="63" width="2.125" style="41" customWidth="1"/>
-    <col min="64" max="97" width="2.125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="40" customWidth="1"/>
+    <col min="2" max="3" width="2.08203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="41" customWidth="1"/>
+    <col min="5" max="10" width="2.08203125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="40" customWidth="1"/>
+    <col min="12" max="27" width="2.08203125" style="40" customWidth="1"/>
+    <col min="28" max="28" width="2.08203125" style="42" customWidth="1"/>
+    <col min="29" max="31" width="2.08203125" style="40" customWidth="1"/>
+    <col min="32" max="32" width="2.08203125" style="41" customWidth="1"/>
+    <col min="33" max="43" width="2.08203125" style="40" customWidth="1"/>
+    <col min="44" max="44" width="2.08203125" style="42" customWidth="1"/>
+    <col min="45" max="50" width="2.08203125" style="40" customWidth="1"/>
+    <col min="51" max="51" width="3.83203125" style="40" customWidth="1"/>
+    <col min="52" max="52" width="2.08203125" style="42" customWidth="1"/>
+    <col min="53" max="55" width="2.08203125" style="40" customWidth="1"/>
+    <col min="56" max="56" width="2.08203125" style="41" customWidth="1"/>
+    <col min="57" max="57" width="2.08203125" style="40" customWidth="1"/>
+    <col min="58" max="58" width="4.33203125" style="40" customWidth="1"/>
+    <col min="59" max="59" width="2.08203125" style="40" customWidth="1"/>
+    <col min="60" max="63" width="2.08203125" style="41" customWidth="1"/>
+    <col min="64" max="97" width="2.08203125" style="40" customWidth="1"/>
     <col min="98" max="16384" width="8.25" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
+    <row r="1" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4355,39 +4245,39 @@
       <c r="BP1" s="27"/>
       <c r="BQ1" s="29"/>
     </row>
-    <row r="2" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
       <c r="AU2" s="31"/>
       <c r="AV2" s="31"/>
       <c r="AW2" s="31"/>
@@ -4412,37 +4302,37 @@
       <c r="BP2" s="32"/>
       <c r="BQ2" s="29"/>
     </row>
-    <row r="3" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
+    <row r="3" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
       <c r="AU3" s="31"/>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
@@ -4467,408 +4357,408 @@
       <c r="BP3" s="31"/>
       <c r="BQ3" s="33"/>
     </row>
-    <row r="4" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
+      <c r="A4" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120" t="s">
+      <c r="K4" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="97" t="s">
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="100">
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="107">
         <v>45034</v>
       </c>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="97" t="s">
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="100" t="s">
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="92"/>
-      <c r="BO4" s="92"/>
-      <c r="BP4" s="92"/>
+      <c r="BN4" s="99"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="99"/>
       <c r="BQ4" s="37"/>
     </row>
-    <row r="5" spans="1:85" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="101" t="s">
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="107"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="107"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="109" t="s">
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="114"/>
+      <c r="AJ5" s="114"/>
+      <c r="AK5" s="114"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="114"/>
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="114"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="115"/>
+      <c r="BA5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="110"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="110"/>
-      <c r="BH5" s="110"/>
-      <c r="BI5" s="110"/>
-      <c r="BJ5" s="109" t="s">
+      <c r="BB5" s="117"/>
+      <c r="BC5" s="118"/>
+      <c r="BD5" s="117"/>
+      <c r="BE5" s="117"/>
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="117"/>
+      <c r="BH5" s="117"/>
+      <c r="BI5" s="117"/>
+      <c r="BJ5" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="110"/>
-      <c r="BN5" s="107"/>
-      <c r="BO5" s="107"/>
-      <c r="BP5" s="107"/>
+      <c r="BK5" s="117"/>
+      <c r="BL5" s="118"/>
+      <c r="BM5" s="117"/>
+      <c r="BN5" s="114"/>
+      <c r="BO5" s="114"/>
+      <c r="BP5" s="114"/>
       <c r="BQ5" s="39"/>
     </row>
-    <row r="6" spans="1:85" ht="18.75" thickTop="1">
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
+    <row r="6" spans="1:84" ht="13.6" thickTop="1">
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
       <c r="AF6" s="40"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="138"/>
-      <c r="BO6" s="138"/>
-      <c r="BP6" s="138"/>
-      <c r="BQ6" s="138"/>
-    </row>
-    <row r="7" spans="1:85">
-      <c r="A7" s="132" t="s">
+      <c r="BL6" s="145"/>
+      <c r="BM6" s="145"/>
+      <c r="BN6" s="145"/>
+      <c r="BO6" s="145"/>
+      <c r="BP6" s="145"/>
+      <c r="BQ6" s="145"/>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="132" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="88" t="s">
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="132" t="s">
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="95"/>
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="134"/>
-      <c r="AN7" s="126" t="s">
+      <c r="AL7" s="140"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="128"/>
-      <c r="AS7" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="133"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="133"/>
-      <c r="AX7" s="133"/>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="133"/>
-      <c r="BA7" s="133"/>
-      <c r="BB7" s="133"/>
-      <c r="BC7" s="133"/>
-      <c r="BD7" s="133"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH7" s="133"/>
-      <c r="BI7" s="133"/>
-      <c r="BJ7" s="133"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="133"/>
-      <c r="BM7" s="133"/>
-      <c r="BN7" s="133"/>
-      <c r="BO7" s="133"/>
-      <c r="BP7" s="133"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="133"/>
-      <c r="BS7" s="133"/>
-      <c r="BT7" s="133"/>
-      <c r="BU7" s="134"/>
-      <c r="BV7" s="126" t="s">
+      <c r="AO7" s="134"/>
+      <c r="AP7" s="134"/>
+      <c r="AQ7" s="134"/>
+      <c r="AR7" s="135"/>
+      <c r="AS7" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="140"/>
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="140"/>
+      <c r="AX7" s="140"/>
+      <c r="AY7" s="140"/>
+      <c r="AZ7" s="140"/>
+      <c r="BA7" s="140"/>
+      <c r="BB7" s="140"/>
+      <c r="BC7" s="140"/>
+      <c r="BD7" s="140"/>
+      <c r="BE7" s="140"/>
+      <c r="BF7" s="141"/>
+      <c r="BG7" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH7" s="140"/>
+      <c r="BI7" s="140"/>
+      <c r="BJ7" s="140"/>
+      <c r="BK7" s="140"/>
+      <c r="BL7" s="140"/>
+      <c r="BM7" s="140"/>
+      <c r="BN7" s="140"/>
+      <c r="BO7" s="140"/>
+      <c r="BP7" s="140"/>
+      <c r="BQ7" s="140"/>
+      <c r="BR7" s="140"/>
+      <c r="BS7" s="140"/>
+      <c r="BT7" s="140"/>
+      <c r="BU7" s="141"/>
+      <c r="BV7" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="127"/>
-      <c r="BX7" s="127"/>
-      <c r="BY7" s="128"/>
-      <c r="BZ7" s="126" t="s">
+      <c r="BW7" s="134"/>
+      <c r="BX7" s="134"/>
+      <c r="BY7" s="135"/>
+      <c r="BZ7" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="127"/>
-      <c r="CB7" s="128"/>
-      <c r="CC7" s="126" t="s">
+      <c r="CA7" s="134"/>
+      <c r="CB7" s="135"/>
+      <c r="CC7" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="127"/>
-      <c r="CE7" s="127"/>
-      <c r="CF7" s="128"/>
-    </row>
-    <row r="8" spans="1:85" ht="15.95" customHeight="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="88" t="s">
+      <c r="CD7" s="134"/>
+      <c r="CE7" s="134"/>
+      <c r="CF7" s="135"/>
+    </row>
+    <row r="8" spans="1:84" ht="15.9" customHeight="1">
+      <c r="A8" s="142"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="88" t="s">
+      <c r="Q8" s="94"/>
+      <c r="R8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="89"/>
-      <c r="T8" s="88" t="s">
+      <c r="S8" s="94"/>
+      <c r="T8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="89"/>
-      <c r="V8" s="88" t="s">
+      <c r="U8" s="94"/>
+      <c r="V8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="89"/>
-      <c r="X8" s="88" t="s">
+      <c r="W8" s="94"/>
+      <c r="X8" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="88" t="s">
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="88" t="s">
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="88" t="s">
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="89"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="94"/>
       <c r="AH8" s="45" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="136"/>
-      <c r="AM8" s="137"/>
-      <c r="AN8" s="129"/>
-      <c r="AO8" s="130"/>
-      <c r="AP8" s="130"/>
-      <c r="AQ8" s="130"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="135"/>
-      <c r="AT8" s="136"/>
-      <c r="AU8" s="136"/>
-      <c r="AV8" s="136"/>
-      <c r="AW8" s="136"/>
-      <c r="AX8" s="136"/>
-      <c r="AY8" s="136"/>
-      <c r="AZ8" s="136"/>
-      <c r="BA8" s="136"/>
-      <c r="BB8" s="136"/>
-      <c r="BC8" s="136"/>
-      <c r="BD8" s="136"/>
-      <c r="BE8" s="136"/>
-      <c r="BF8" s="137"/>
-      <c r="BG8" s="135"/>
-      <c r="BH8" s="136"/>
-      <c r="BI8" s="136"/>
-      <c r="BJ8" s="136"/>
-      <c r="BK8" s="136"/>
-      <c r="BL8" s="136"/>
-      <c r="BM8" s="136"/>
-      <c r="BN8" s="136"/>
-      <c r="BO8" s="136"/>
-      <c r="BP8" s="136"/>
-      <c r="BQ8" s="136"/>
-      <c r="BR8" s="136"/>
-      <c r="BS8" s="136"/>
-      <c r="BT8" s="136"/>
-      <c r="BU8" s="137"/>
-      <c r="BV8" s="129"/>
-      <c r="BW8" s="130"/>
-      <c r="BX8" s="130"/>
-      <c r="BY8" s="131"/>
-      <c r="BZ8" s="129"/>
-      <c r="CA8" s="130"/>
-      <c r="CB8" s="131"/>
-      <c r="CC8" s="129"/>
-      <c r="CD8" s="130"/>
-      <c r="CE8" s="130"/>
-      <c r="CF8" s="131"/>
-    </row>
-    <row r="9" spans="1:85" ht="95.85" customHeight="1">
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="136"/>
+      <c r="AO8" s="137"/>
+      <c r="AP8" s="137"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="142"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
+      <c r="AY8" s="143"/>
+      <c r="AZ8" s="143"/>
+      <c r="BA8" s="143"/>
+      <c r="BB8" s="143"/>
+      <c r="BC8" s="143"/>
+      <c r="BD8" s="143"/>
+      <c r="BE8" s="143"/>
+      <c r="BF8" s="144"/>
+      <c r="BG8" s="142"/>
+      <c r="BH8" s="143"/>
+      <c r="BI8" s="143"/>
+      <c r="BJ8" s="143"/>
+      <c r="BK8" s="143"/>
+      <c r="BL8" s="143"/>
+      <c r="BM8" s="143"/>
+      <c r="BN8" s="143"/>
+      <c r="BO8" s="143"/>
+      <c r="BP8" s="143"/>
+      <c r="BQ8" s="143"/>
+      <c r="BR8" s="143"/>
+      <c r="BS8" s="143"/>
+      <c r="BT8" s="143"/>
+      <c r="BU8" s="144"/>
+      <c r="BV8" s="136"/>
+      <c r="BW8" s="137"/>
+      <c r="BX8" s="137"/>
+      <c r="BY8" s="138"/>
+      <c r="BZ8" s="136"/>
+      <c r="CA8" s="137"/>
+      <c r="CB8" s="138"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="137"/>
+      <c r="CE8" s="137"/>
+      <c r="CF8" s="138"/>
+    </row>
+    <row r="9" spans="1:84" ht="95.85" customHeight="1">
       <c r="A9" s="45">
         <v>1</v>
       </c>
@@ -4888,30 +4778,30 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="88" t="s">
+      <c r="P9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="88" t="s">
+      <c r="Q9" s="94"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="89"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="88" t="s">
+      <c r="U9" s="94"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="89"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="94"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="36"/>
@@ -4920,46 +4810,46 @@
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="36"/>
-      <c r="AN9" s="83" t="s">
+      <c r="AN9" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="85"/>
-      <c r="BG9" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="86"/>
-      <c r="BM9" s="86"/>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
-      <c r="BU9" s="87"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="96"/>
+      <c r="BJ9" s="96"/>
+      <c r="BK9" s="96"/>
+      <c r="BL9" s="96"/>
+      <c r="BM9" s="96"/>
+      <c r="BN9" s="96"/>
+      <c r="BO9" s="96"/>
+      <c r="BP9" s="96"/>
+      <c r="BQ9" s="96"/>
+      <c r="BR9" s="96"/>
+      <c r="BS9" s="96"/>
+      <c r="BT9" s="96"/>
+      <c r="BU9" s="97"/>
       <c r="BV9" s="45"/>
       <c r="BW9" s="35"/>
       <c r="BX9" s="35"/>
@@ -4972,13 +4862,13 @@
       <c r="CE9" s="35"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:85" ht="77.25" customHeight="1">
+    <row r="10" spans="1:84" ht="110.8" customHeight="1">
       <c r="A10" s="45">
         <v>2</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="45" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="35"/>
@@ -4992,72 +4882,76 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="88" t="s">
+      <c r="P10" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="88" t="s">
+      <c r="Q10" s="94"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="89"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="44"/>
       <c r="AH10" s="45"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="85"/>
-      <c r="BG10" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="85"/>
+      <c r="AK10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="91"/>
+      <c r="BT10" s="91"/>
+      <c r="BU10" s="92"/>
       <c r="BV10" s="45"/>
       <c r="BW10" s="35"/>
       <c r="BX10" s="35"/>
@@ -5070,7 +4964,7 @@
       <c r="CE10" s="35"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:85" ht="86.25" customHeight="1">
+    <row r="11" spans="1:84" ht="77.3" customHeight="1">
       <c r="A11" s="45">
         <v>3</v>
       </c>
@@ -5090,78 +4984,72 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
-      <c r="P11" s="88" t="s">
+      <c r="P11" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="88" t="s">
+      <c r="Q11" s="94"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="89"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="94"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="88" t="s">
+      <c r="AK11" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="83" t="s">
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="84"/>
-      <c r="BN11" s="84"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="84"/>
-      <c r="BQ11" s="84"/>
-      <c r="BR11" s="84"/>
-      <c r="BS11" s="84"/>
-      <c r="BT11" s="84"/>
-      <c r="BU11" s="85"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91"/>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="91"/>
+      <c r="BP11" s="91"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="91"/>
+      <c r="BS11" s="91"/>
+      <c r="BT11" s="91"/>
+      <c r="BU11" s="92"/>
       <c r="BV11" s="45"/>
       <c r="BW11" s="35"/>
       <c r="BX11" s="35"/>
@@ -5174,13 +5062,13 @@
       <c r="CE11" s="35"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:85" ht="92.25" customHeight="1">
+    <row r="12" spans="1:84" ht="86.3" customHeight="1">
       <c r="A12" s="45">
         <v>4</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="35"/>
@@ -5194,80 +5082,78 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="36"/>
-      <c r="P12" s="88" t="s">
+      <c r="P12" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="88" t="s">
+      <c r="Q12" s="94"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="89"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="88" t="s">
+      <c r="U12" s="94"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="88" t="s">
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="83" t="s">
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="83" t="s">
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="92"/>
+      <c r="BG12" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="84"/>
-      <c r="BN12" s="84"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="84"/>
-      <c r="BQ12" s="84"/>
-      <c r="BR12" s="84"/>
-      <c r="BS12" s="84"/>
-      <c r="BT12" s="84"/>
-      <c r="BU12" s="85"/>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="91"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="91"/>
+      <c r="BN12" s="91"/>
+      <c r="BO12" s="91"/>
+      <c r="BP12" s="91"/>
+      <c r="BQ12" s="91"/>
+      <c r="BR12" s="91"/>
+      <c r="BS12" s="91"/>
+      <c r="BT12" s="91"/>
+      <c r="BU12" s="92"/>
       <c r="BV12" s="45"/>
       <c r="BW12" s="35"/>
       <c r="BX12" s="35"/>
@@ -5279,17 +5165,14 @@
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
-      <c r="CG12" s="139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:85" ht="73.900000000000006" customHeight="1">
+    </row>
+    <row r="13" spans="1:84" ht="73.900000000000006" customHeight="1">
       <c r="A13" s="45">
         <v>5</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="35"/>
@@ -5303,28 +5186,28 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
-      <c r="P13" s="88" t="s">
+      <c r="P13" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="88" t="s">
+      <c r="Q13" s="94"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="89"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="89"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="94"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
@@ -5333,46 +5216,46 @@
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="36"/>
-      <c r="AN13" s="83" t="s">
+      <c r="AN13" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="85"/>
-      <c r="BG13" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="84"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="84"/>
-      <c r="BQ13" s="84"/>
-      <c r="BR13" s="84"/>
-      <c r="BS13" s="84"/>
-      <c r="BT13" s="84"/>
-      <c r="BU13" s="85"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="91"/>
+      <c r="BU13" s="92"/>
       <c r="BV13" s="45"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="35"/>
@@ -5385,13 +5268,13 @@
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:85" ht="79.5" customHeight="1">
+    <row r="14" spans="1:84" ht="79.5" customHeight="1">
       <c r="A14" s="45">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="35"/>
@@ -5405,78 +5288,78 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="88" t="s">
+      <c r="P14" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="88" t="s">
+      <c r="Q14" s="94"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="89"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="89"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="94"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL14" s="35"/>
       <c r="AM14" s="36"/>
-      <c r="AN14" s="83" t="s">
+      <c r="AN14" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="84"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="84"/>
-      <c r="BL14" s="84"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="84"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="84"/>
-      <c r="BS14" s="84"/>
-      <c r="BT14" s="84"/>
-      <c r="BU14" s="85"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="91"/>
+      <c r="BN14" s="91"/>
+      <c r="BO14" s="91"/>
+      <c r="BP14" s="91"/>
+      <c r="BQ14" s="91"/>
+      <c r="BR14" s="91"/>
+      <c r="BS14" s="91"/>
+      <c r="BT14" s="91"/>
+      <c r="BU14" s="92"/>
       <c r="BV14" s="45"/>
       <c r="BW14" s="35"/>
       <c r="BX14" s="35"/>
@@ -5489,13 +5372,13 @@
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:85" ht="87" customHeight="1">
+    <row r="15" spans="1:84" ht="87" customHeight="1">
       <c r="A15" s="45">
         <v>7</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="35"/>
@@ -5509,28 +5392,28 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="88" t="s">
+      <c r="P15" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="89"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="89"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="94"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
@@ -5539,46 +5422,46 @@
       </c>
       <c r="AL15" s="35"/>
       <c r="AM15" s="36"/>
-      <c r="AN15" s="83" t="s">
+      <c r="AN15" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="85"/>
-      <c r="BG15" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="84"/>
-      <c r="BK15" s="84"/>
-      <c r="BL15" s="84"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="84"/>
-      <c r="BQ15" s="84"/>
-      <c r="BR15" s="84"/>
-      <c r="BS15" s="84"/>
-      <c r="BT15" s="84"/>
-      <c r="BU15" s="85"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="91"/>
+      <c r="BP15" s="91"/>
+      <c r="BQ15" s="91"/>
+      <c r="BR15" s="91"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="91"/>
+      <c r="BU15" s="92"/>
       <c r="BV15" s="45"/>
       <c r="BW15" s="35"/>
       <c r="BX15" s="35"/>
@@ -5591,13 +5474,13 @@
       <c r="CE15" s="35"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:85" ht="87" customHeight="1">
+    <row r="16" spans="1:84" ht="87" customHeight="1">
       <c r="A16" s="45">
         <v>8</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="35"/>
@@ -5611,16 +5494,16 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="88" t="s">
+      <c r="P16" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="89"/>
+      <c r="Q16" s="94"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="88" t="s">
+      <c r="T16" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U16" s="89"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
       <c r="X16" s="43"/>
@@ -5629,60 +5512,60 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="43"/>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="89"/>
+      <c r="AD16" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="94"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL16" s="35"/>
       <c r="AM16" s="36"/>
-      <c r="AN16" s="83" t="s">
+      <c r="AN16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="85"/>
-      <c r="BG16" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH16" s="84"/>
-      <c r="BI16" s="84"/>
-      <c r="BJ16" s="84"/>
-      <c r="BK16" s="84"/>
-      <c r="BL16" s="84"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="84"/>
-      <c r="BQ16" s="84"/>
-      <c r="BR16" s="84"/>
-      <c r="BS16" s="84"/>
-      <c r="BT16" s="84"/>
-      <c r="BU16" s="85"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
+      <c r="BJ16" s="91"/>
+      <c r="BK16" s="91"/>
+      <c r="BL16" s="91"/>
+      <c r="BM16" s="91"/>
+      <c r="BN16" s="91"/>
+      <c r="BO16" s="91"/>
+      <c r="BP16" s="91"/>
+      <c r="BQ16" s="91"/>
+      <c r="BR16" s="91"/>
+      <c r="BS16" s="91"/>
+      <c r="BT16" s="91"/>
+      <c r="BU16" s="92"/>
       <c r="BV16" s="45"/>
       <c r="BW16" s="35"/>
       <c r="BX16" s="35"/>
@@ -5701,7 +5584,7 @@
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="35"/>
@@ -5715,16 +5598,16 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="88" t="s">
+      <c r="P17" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="89"/>
+      <c r="Q17" s="94"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="88" t="s">
+      <c r="T17" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="89"/>
+      <c r="U17" s="94"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
@@ -5733,58 +5616,60 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="89"/>
+      <c r="AD17" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="94"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="35"/>
       <c r="AJ17" s="36"/>
       <c r="AK17" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL17" s="35"/>
       <c r="AM17" s="36"/>
-      <c r="AN17" s="83" t="s">
+      <c r="AN17" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="84"/>
-      <c r="BB17" s="84"/>
-      <c r="BC17" s="84"/>
-      <c r="BD17" s="84"/>
-      <c r="BE17" s="84"/>
-      <c r="BF17" s="85"/>
-      <c r="BG17" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="84"/>
-      <c r="BJ17" s="84"/>
-      <c r="BK17" s="84"/>
-      <c r="BL17" s="84"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="84"/>
-      <c r="BQ17" s="84"/>
-      <c r="BR17" s="84"/>
-      <c r="BS17" s="84"/>
-      <c r="BT17" s="84"/>
-      <c r="BU17" s="85"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="91"/>
+      <c r="BN17" s="91"/>
+      <c r="BO17" s="91"/>
+      <c r="BP17" s="91"/>
+      <c r="BQ17" s="91"/>
+      <c r="BR17" s="91"/>
+      <c r="BS17" s="91"/>
+      <c r="BT17" s="91"/>
+      <c r="BU17" s="92"/>
       <c r="BV17" s="45"/>
       <c r="BW17" s="35"/>
       <c r="BX17" s="35"/>
@@ -5797,13 +5682,13 @@
       <c r="CE17" s="35"/>
       <c r="CF17" s="36"/>
     </row>
-    <row r="18" spans="1:84" ht="123" customHeight="1">
+    <row r="18" spans="1:84" ht="87" customHeight="1">
       <c r="A18" s="45">
         <v>10</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="45" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="35"/>
@@ -5817,78 +5702,78 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="88" t="s">
+      <c r="P18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="88" t="s">
+      <c r="Q18" s="94"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="89"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="94"/>
       <c r="AH18" s="45"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL18" s="35"/>
       <c r="AM18" s="36"/>
-      <c r="AN18" s="83" t="s">
+      <c r="AN18" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="84"/>
-      <c r="BE18" s="84"/>
-      <c r="BF18" s="85"/>
-      <c r="BG18" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="84"/>
-      <c r="BJ18" s="84"/>
-      <c r="BK18" s="84"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="84"/>
-      <c r="BQ18" s="84"/>
-      <c r="BR18" s="84"/>
-      <c r="BS18" s="84"/>
-      <c r="BT18" s="84"/>
-      <c r="BU18" s="85"/>
+      <c r="AO18" s="91"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
+      <c r="BN18" s="91"/>
+      <c r="BO18" s="91"/>
+      <c r="BP18" s="91"/>
+      <c r="BQ18" s="91"/>
+      <c r="BR18" s="91"/>
+      <c r="BS18" s="91"/>
+      <c r="BT18" s="91"/>
+      <c r="BU18" s="92"/>
       <c r="BV18" s="45"/>
       <c r="BW18" s="35"/>
       <c r="BX18" s="35"/>
@@ -5901,13 +5786,13 @@
       <c r="CE18" s="35"/>
       <c r="CF18" s="36"/>
     </row>
-    <row r="19" spans="1:84" ht="105.75" customHeight="1">
+    <row r="19" spans="1:84" ht="87" customHeight="1">
       <c r="A19" s="45">
         <v>11</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="45" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="35"/>
@@ -5921,28 +5806,28 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="88" t="s">
+      <c r="P19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="89"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="89"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="94"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="94"/>
       <c r="AH19" s="45"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="36"/>
@@ -5951,46 +5836,46 @@
       </c>
       <c r="AL19" s="35"/>
       <c r="AM19" s="36"/>
-      <c r="AN19" s="83" t="s">
+      <c r="AN19" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT19" s="84"/>
-      <c r="AU19" s="84"/>
-      <c r="AV19" s="84"/>
-      <c r="AW19" s="84"/>
-      <c r="AX19" s="84"/>
-      <c r="AY19" s="84"/>
-      <c r="AZ19" s="84"/>
-      <c r="BA19" s="84"/>
-      <c r="BB19" s="84"/>
-      <c r="BC19" s="84"/>
-      <c r="BD19" s="84"/>
-      <c r="BE19" s="84"/>
-      <c r="BF19" s="85"/>
-      <c r="BG19" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH19" s="84"/>
-      <c r="BI19" s="84"/>
-      <c r="BJ19" s="84"/>
-      <c r="BK19" s="84"/>
-      <c r="BL19" s="84"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="84"/>
-      <c r="BO19" s="84"/>
-      <c r="BP19" s="84"/>
-      <c r="BQ19" s="84"/>
-      <c r="BR19" s="84"/>
-      <c r="BS19" s="84"/>
-      <c r="BT19" s="84"/>
-      <c r="BU19" s="85"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="91"/>
+      <c r="BO19" s="91"/>
+      <c r="BP19" s="91"/>
+      <c r="BQ19" s="91"/>
+      <c r="BR19" s="91"/>
+      <c r="BS19" s="91"/>
+      <c r="BT19" s="91"/>
+      <c r="BU19" s="92"/>
       <c r="BV19" s="45"/>
       <c r="BW19" s="35"/>
       <c r="BX19" s="35"/>
@@ -6003,13 +5888,13 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" spans="1:84" ht="105.75" customHeight="1">
+    <row r="20" spans="1:84" ht="123" customHeight="1">
       <c r="A20" s="45">
         <v>12</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="45" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="35"/>
@@ -6023,78 +5908,78 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="88" t="s">
+      <c r="P20" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="88" t="s">
+      <c r="Q20" s="94"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="89"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="89"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="94"/>
       <c r="AH20" s="45"/>
       <c r="AI20" s="35"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL20" s="35"/>
       <c r="AM20" s="36"/>
-      <c r="AN20" s="83" t="s">
+      <c r="AN20" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT20" s="84"/>
-      <c r="AU20" s="84"/>
-      <c r="AV20" s="84"/>
-      <c r="AW20" s="84"/>
-      <c r="AX20" s="84"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="85"/>
-      <c r="BG20" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH20" s="84"/>
-      <c r="BI20" s="84"/>
-      <c r="BJ20" s="84"/>
-      <c r="BK20" s="84"/>
-      <c r="BL20" s="84"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="84"/>
-      <c r="BP20" s="84"/>
-      <c r="BQ20" s="84"/>
-      <c r="BR20" s="84"/>
-      <c r="BS20" s="84"/>
-      <c r="BT20" s="84"/>
-      <c r="BU20" s="85"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="92"/>
+      <c r="AS20" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="91"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH20" s="91"/>
+      <c r="BI20" s="91"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="91"/>
+      <c r="BL20" s="91"/>
+      <c r="BM20" s="91"/>
+      <c r="BN20" s="91"/>
+      <c r="BO20" s="91"/>
+      <c r="BP20" s="91"/>
+      <c r="BQ20" s="91"/>
+      <c r="BR20" s="91"/>
+      <c r="BS20" s="91"/>
+      <c r="BT20" s="91"/>
+      <c r="BU20" s="92"/>
       <c r="BV20" s="45"/>
       <c r="BW20" s="35"/>
       <c r="BX20" s="35"/>
@@ -6107,13 +5992,13 @@
       <c r="CE20" s="35"/>
       <c r="CF20" s="36"/>
     </row>
-    <row r="21" spans="1:84" ht="128.25" customHeight="1">
+    <row r="21" spans="1:84" ht="105.8" customHeight="1">
       <c r="A21" s="45">
         <v>13</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="45" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="35"/>
@@ -6127,78 +6012,76 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="88" t="s">
+      <c r="P21" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="U21" s="89"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="89"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="94"/>
       <c r="AH21" s="45"/>
       <c r="AI21" s="35"/>
       <c r="AJ21" s="36"/>
       <c r="AK21" s="45" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="AL21" s="35"/>
       <c r="AM21" s="36"/>
-      <c r="AN21" s="83" t="s">
+      <c r="AN21" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="96"/>
-      <c r="BG21" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH21" s="84"/>
-      <c r="BI21" s="84"/>
-      <c r="BJ21" s="84"/>
-      <c r="BK21" s="84"/>
-      <c r="BL21" s="84"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="84"/>
-      <c r="BO21" s="84"/>
-      <c r="BP21" s="84"/>
-      <c r="BQ21" s="84"/>
-      <c r="BR21" s="84"/>
-      <c r="BS21" s="84"/>
-      <c r="BT21" s="84"/>
-      <c r="BU21" s="85"/>
+      <c r="AO21" s="91"/>
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="92"/>
+      <c r="AS21" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="92"/>
+      <c r="BG21" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="91"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="91"/>
+      <c r="BN21" s="91"/>
+      <c r="BO21" s="91"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="91"/>
+      <c r="BR21" s="91"/>
+      <c r="BS21" s="91"/>
+      <c r="BT21" s="91"/>
+      <c r="BU21" s="92"/>
       <c r="BV21" s="45"/>
       <c r="BW21" s="35"/>
       <c r="BX21" s="35"/>
@@ -6211,13 +6094,13 @@
       <c r="CE21" s="35"/>
       <c r="CF21" s="36"/>
     </row>
-    <row r="22" spans="1:84" ht="123" customHeight="1">
+    <row r="22" spans="1:84" ht="105.8" customHeight="1">
       <c r="A22" s="45">
         <v>14</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="35"/>
@@ -6231,78 +6114,78 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="88" t="s">
+      <c r="P22" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="88" t="s">
+      <c r="Q22" s="94"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="89"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="88" t="s">
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="89"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="94"/>
       <c r="AH22" s="45"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL22" s="35"/>
       <c r="AM22" s="36"/>
-      <c r="AN22" s="83" t="s">
+      <c r="AN22" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
-      <c r="BL22" s="84"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="84"/>
-      <c r="BO22" s="84"/>
-      <c r="BP22" s="84"/>
-      <c r="BQ22" s="84"/>
-      <c r="BR22" s="84"/>
-      <c r="BS22" s="84"/>
-      <c r="BT22" s="84"/>
-      <c r="BU22" s="85"/>
+      <c r="AO22" s="91"/>
+      <c r="AP22" s="91"/>
+      <c r="AQ22" s="91"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="92"/>
+      <c r="BG22" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="91"/>
+      <c r="BJ22" s="91"/>
+      <c r="BK22" s="91"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="91"/>
+      <c r="BN22" s="91"/>
+      <c r="BO22" s="91"/>
+      <c r="BP22" s="91"/>
+      <c r="BQ22" s="91"/>
+      <c r="BR22" s="91"/>
+      <c r="BS22" s="91"/>
+      <c r="BT22" s="91"/>
+      <c r="BU22" s="92"/>
       <c r="BV22" s="45"/>
       <c r="BW22" s="35"/>
       <c r="BX22" s="35"/>
@@ -6315,13 +6198,13 @@
       <c r="CE22" s="35"/>
       <c r="CF22" s="36"/>
     </row>
-    <row r="23" spans="1:84" ht="123" customHeight="1">
+    <row r="23" spans="1:84" ht="128.25" customHeight="1">
       <c r="A23" s="45">
         <v>15</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="35"/>
@@ -6335,76 +6218,78 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="88" t="s">
+      <c r="P23" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="88" t="s">
+      <c r="Q23" s="94"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="89"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="89"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="94"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="35"/>
       <c r="AJ23" s="36"/>
       <c r="AK23" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL23" s="35"/>
       <c r="AM23" s="36"/>
-      <c r="AN23" s="83" t="s">
+      <c r="AN23" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="84"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT23" s="84"/>
-      <c r="AU23" s="84"/>
-      <c r="AV23" s="84"/>
-      <c r="AW23" s="84"/>
-      <c r="AX23" s="84"/>
-      <c r="AY23" s="84"/>
-      <c r="AZ23" s="84"/>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="84"/>
-      <c r="BC23" s="84"/>
-      <c r="BD23" s="84"/>
-      <c r="BE23" s="84"/>
-      <c r="BF23" s="85"/>
-      <c r="BG23" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH23" s="84"/>
-      <c r="BI23" s="84"/>
-      <c r="BJ23" s="84"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
-      <c r="BM23" s="84"/>
-      <c r="BN23" s="84"/>
-      <c r="BO23" s="84"/>
-      <c r="BP23" s="84"/>
-      <c r="BQ23" s="84"/>
-      <c r="BR23" s="84"/>
-      <c r="BS23" s="84"/>
-      <c r="BT23" s="84"/>
-      <c r="BU23" s="85"/>
+      <c r="AO23" s="91"/>
+      <c r="AP23" s="91"/>
+      <c r="AQ23" s="91"/>
+      <c r="AR23" s="92"/>
+      <c r="AS23" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT23" s="102"/>
+      <c r="AU23" s="102"/>
+      <c r="AV23" s="102"/>
+      <c r="AW23" s="102"/>
+      <c r="AX23" s="102"/>
+      <c r="AY23" s="102"/>
+      <c r="AZ23" s="102"/>
+      <c r="BA23" s="102"/>
+      <c r="BB23" s="102"/>
+      <c r="BC23" s="102"/>
+      <c r="BD23" s="102"/>
+      <c r="BE23" s="102"/>
+      <c r="BF23" s="103"/>
+      <c r="BG23" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH23" s="91"/>
+      <c r="BI23" s="91"/>
+      <c r="BJ23" s="91"/>
+      <c r="BK23" s="91"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="91"/>
+      <c r="BN23" s="91"/>
+      <c r="BO23" s="91"/>
+      <c r="BP23" s="91"/>
+      <c r="BQ23" s="91"/>
+      <c r="BR23" s="91"/>
+      <c r="BS23" s="91"/>
+      <c r="BT23" s="91"/>
+      <c r="BU23" s="92"/>
       <c r="BV23" s="45"/>
       <c r="BW23" s="35"/>
       <c r="BX23" s="35"/>
@@ -6417,13 +6302,13 @@
       <c r="CE23" s="35"/>
       <c r="CF23" s="36"/>
     </row>
-    <row r="24" spans="1:84" ht="102" customHeight="1">
+    <row r="24" spans="1:84" ht="123" customHeight="1">
       <c r="A24" s="45">
         <v>16</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
@@ -6437,78 +6322,78 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
-      <c r="P24" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="88" t="s">
+      <c r="P24" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="89"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="88" t="s">
+      <c r="Q24" s="94"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="89"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="94"/>
       <c r="AH24" s="45"/>
       <c r="AI24" s="35"/>
       <c r="AJ24" s="36"/>
       <c r="AK24" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL24" s="35"/>
       <c r="AM24" s="36"/>
-      <c r="AN24" s="83" t="s">
+      <c r="AN24" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="84"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="84"/>
-      <c r="BE24" s="84"/>
-      <c r="BF24" s="85"/>
-      <c r="BG24" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH24" s="84"/>
-      <c r="BI24" s="84"/>
-      <c r="BJ24" s="84"/>
-      <c r="BK24" s="84"/>
-      <c r="BL24" s="84"/>
-      <c r="BM24" s="84"/>
-      <c r="BN24" s="84"/>
-      <c r="BO24" s="84"/>
-      <c r="BP24" s="84"/>
-      <c r="BQ24" s="84"/>
-      <c r="BR24" s="84"/>
-      <c r="BS24" s="84"/>
-      <c r="BT24" s="84"/>
-      <c r="BU24" s="85"/>
+      <c r="AO24" s="91"/>
+      <c r="AP24" s="91"/>
+      <c r="AQ24" s="91"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="91"/>
+      <c r="BA24" s="91"/>
+      <c r="BB24" s="91"/>
+      <c r="BC24" s="91"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH24" s="91"/>
+      <c r="BI24" s="91"/>
+      <c r="BJ24" s="91"/>
+      <c r="BK24" s="91"/>
+      <c r="BL24" s="91"/>
+      <c r="BM24" s="91"/>
+      <c r="BN24" s="91"/>
+      <c r="BO24" s="91"/>
+      <c r="BP24" s="91"/>
+      <c r="BQ24" s="91"/>
+      <c r="BR24" s="91"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="91"/>
+      <c r="BU24" s="92"/>
       <c r="BV24" s="45"/>
       <c r="BW24" s="35"/>
       <c r="BX24" s="35"/>
@@ -6521,13 +6406,13 @@
       <c r="CE24" s="35"/>
       <c r="CF24" s="36"/>
     </row>
-    <row r="25" spans="1:84" ht="90" customHeight="1">
+    <row r="25" spans="1:84" ht="123" customHeight="1">
       <c r="A25" s="45">
         <v>17</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="35"/>
@@ -6541,76 +6426,78 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="U25" s="89"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="89"/>
+      <c r="P25" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="94"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="94"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="36"/>
       <c r="AK25" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL25" s="35"/>
       <c r="AM25" s="36"/>
-      <c r="AN25" s="83" t="s">
+      <c r="AN25" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="84"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="84"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="85"/>
-      <c r="BG25" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH25" s="84"/>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="84"/>
-      <c r="BO25" s="84"/>
-      <c r="BP25" s="84"/>
-      <c r="BQ25" s="84"/>
-      <c r="BR25" s="84"/>
-      <c r="BS25" s="84"/>
-      <c r="BT25" s="84"/>
-      <c r="BU25" s="85"/>
+      <c r="AO25" s="91"/>
+      <c r="AP25" s="91"/>
+      <c r="AQ25" s="91"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91"/>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="91"/>
+      <c r="BA25" s="91"/>
+      <c r="BB25" s="91"/>
+      <c r="BC25" s="91"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="91"/>
+      <c r="BF25" s="92"/>
+      <c r="BG25" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH25" s="91"/>
+      <c r="BI25" s="91"/>
+      <c r="BJ25" s="91"/>
+      <c r="BK25" s="91"/>
+      <c r="BL25" s="91"/>
+      <c r="BM25" s="91"/>
+      <c r="BN25" s="91"/>
+      <c r="BO25" s="91"/>
+      <c r="BP25" s="91"/>
+      <c r="BQ25" s="91"/>
+      <c r="BR25" s="91"/>
+      <c r="BS25" s="91"/>
+      <c r="BT25" s="91"/>
+      <c r="BU25" s="92"/>
       <c r="BV25" s="45"/>
       <c r="BW25" s="35"/>
       <c r="BX25" s="35"/>
@@ -6623,13 +6510,13 @@
       <c r="CE25" s="35"/>
       <c r="CF25" s="36"/>
     </row>
-    <row r="26" spans="1:84" ht="90" customHeight="1">
+    <row r="26" spans="1:84" ht="52.85" customHeight="1">
       <c r="A26" s="45">
         <v>18</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="45" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="35"/>
@@ -6643,78 +6530,76 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="88" t="s">
+      <c r="P26" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="89"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="88" t="s">
+      <c r="Q26" s="94"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="89"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="94"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="35"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="45" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="AL26" s="35"/>
       <c r="AM26" s="36"/>
-      <c r="AN26" s="83" t="s">
+      <c r="AN26" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO26" s="84"/>
-      <c r="AP26" s="84"/>
-      <c r="AQ26" s="84"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT26" s="84"/>
-      <c r="AU26" s="84"/>
-      <c r="AV26" s="84"/>
-      <c r="AW26" s="84"/>
-      <c r="AX26" s="84"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="84"/>
-      <c r="BA26" s="84"/>
-      <c r="BB26" s="84"/>
-      <c r="BC26" s="84"/>
-      <c r="BD26" s="84"/>
-      <c r="BE26" s="84"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH26" s="84"/>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="84"/>
-      <c r="BL26" s="84"/>
-      <c r="BM26" s="84"/>
-      <c r="BN26" s="84"/>
-      <c r="BO26" s="84"/>
-      <c r="BP26" s="84"/>
-      <c r="BQ26" s="84"/>
-      <c r="BR26" s="84"/>
-      <c r="BS26" s="84"/>
-      <c r="BT26" s="84"/>
-      <c r="BU26" s="85"/>
+      <c r="AO26" s="91"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="92"/>
+      <c r="AS26" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="91"/>
+      <c r="BA26" s="91"/>
+      <c r="BB26" s="91"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="91"/>
+      <c r="BE26" s="91"/>
+      <c r="BF26" s="92"/>
+      <c r="BG26" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH26" s="91"/>
+      <c r="BI26" s="91"/>
+      <c r="BJ26" s="91"/>
+      <c r="BK26" s="91"/>
+      <c r="BL26" s="91"/>
+      <c r="BM26" s="91"/>
+      <c r="BN26" s="91"/>
+      <c r="BO26" s="91"/>
+      <c r="BP26" s="91"/>
+      <c r="BQ26" s="91"/>
+      <c r="BR26" s="91"/>
+      <c r="BS26" s="91"/>
+      <c r="BT26" s="91"/>
+      <c r="BU26" s="92"/>
       <c r="BV26" s="45"/>
       <c r="BW26" s="35"/>
       <c r="BX26" s="35"/>
@@ -6727,13 +6612,13 @@
       <c r="CE26" s="35"/>
       <c r="CF26" s="36"/>
     </row>
-    <row r="27" spans="1:84" ht="90" customHeight="1">
+    <row r="27" spans="1:84" ht="102.05" customHeight="1">
       <c r="A27" s="45">
         <v>19</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="45" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="35"/>
@@ -6747,78 +6632,78 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
-      <c r="P27" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="88" t="s">
+      <c r="P27" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="89"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="88" t="s">
+      <c r="U27" s="94"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="89"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="94"/>
       <c r="AH27" s="45"/>
       <c r="AI27" s="35"/>
       <c r="AJ27" s="36"/>
       <c r="AK27" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="36"/>
-      <c r="AN27" s="83" t="s">
+      <c r="AN27" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO27" s="84"/>
-      <c r="AP27" s="84"/>
-      <c r="AQ27" s="84"/>
-      <c r="AR27" s="85"/>
-      <c r="AS27" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT27" s="84"/>
-      <c r="AU27" s="84"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
-      <c r="AZ27" s="84"/>
-      <c r="BA27" s="84"/>
-      <c r="BB27" s="84"/>
-      <c r="BC27" s="84"/>
-      <c r="BD27" s="84"/>
-      <c r="BE27" s="84"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH27" s="84"/>
-      <c r="BI27" s="84"/>
-      <c r="BJ27" s="84"/>
-      <c r="BK27" s="84"/>
-      <c r="BL27" s="84"/>
-      <c r="BM27" s="84"/>
-      <c r="BN27" s="84"/>
-      <c r="BO27" s="84"/>
-      <c r="BP27" s="84"/>
-      <c r="BQ27" s="84"/>
-      <c r="BR27" s="84"/>
-      <c r="BS27" s="84"/>
-      <c r="BT27" s="84"/>
-      <c r="BU27" s="85"/>
+      <c r="AO27" s="91"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="92"/>
+      <c r="AS27" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="92"/>
+      <c r="BG27" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="91"/>
+      <c r="BJ27" s="91"/>
+      <c r="BK27" s="91"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="91"/>
+      <c r="BN27" s="91"/>
+      <c r="BO27" s="91"/>
+      <c r="BP27" s="91"/>
+      <c r="BQ27" s="91"/>
+      <c r="BR27" s="91"/>
+      <c r="BS27" s="91"/>
+      <c r="BT27" s="91"/>
+      <c r="BU27" s="92"/>
       <c r="BV27" s="45"/>
       <c r="BW27" s="35"/>
       <c r="BX27" s="35"/>
@@ -6831,13 +6716,13 @@
       <c r="CE27" s="35"/>
       <c r="CF27" s="36"/>
     </row>
-    <row r="28" spans="1:84" ht="90" customHeight="1">
+    <row r="28" spans="1:84" ht="102.05" customHeight="1">
       <c r="A28" s="45">
         <v>20</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="45" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="35"/>
@@ -6851,76 +6736,78 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
-      <c r="P28" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="88" t="s">
+      <c r="P28" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="89"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="89"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="94"/>
       <c r="AH28" s="45"/>
       <c r="AI28" s="35"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="36"/>
-      <c r="AN28" s="83" t="s">
+      <c r="AN28" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AO28" s="84"/>
-      <c r="AP28" s="84"/>
-      <c r="AQ28" s="84"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT28" s="84"/>
-      <c r="AU28" s="84"/>
-      <c r="AV28" s="84"/>
-      <c r="AW28" s="84"/>
-      <c r="AX28" s="84"/>
-      <c r="AY28" s="84"/>
-      <c r="AZ28" s="84"/>
-      <c r="BA28" s="84"/>
-      <c r="BB28" s="84"/>
-      <c r="BC28" s="84"/>
-      <c r="BD28" s="84"/>
-      <c r="BE28" s="84"/>
-      <c r="BF28" s="85"/>
-      <c r="BG28" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH28" s="84"/>
-      <c r="BI28" s="84"/>
-      <c r="BJ28" s="84"/>
-      <c r="BK28" s="84"/>
-      <c r="BL28" s="84"/>
-      <c r="BM28" s="84"/>
-      <c r="BN28" s="84"/>
-      <c r="BO28" s="84"/>
-      <c r="BP28" s="84"/>
-      <c r="BQ28" s="84"/>
-      <c r="BR28" s="84"/>
-      <c r="BS28" s="84"/>
-      <c r="BT28" s="84"/>
-      <c r="BU28" s="85"/>
+      <c r="AO28" s="91"/>
+      <c r="AP28" s="91"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="91"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH28" s="91"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="91"/>
+      <c r="BN28" s="91"/>
+      <c r="BO28" s="91"/>
+      <c r="BP28" s="91"/>
+      <c r="BQ28" s="91"/>
+      <c r="BR28" s="91"/>
+      <c r="BS28" s="91"/>
+      <c r="BT28" s="91"/>
+      <c r="BU28" s="92"/>
       <c r="BV28" s="45"/>
       <c r="BW28" s="35"/>
       <c r="BX28" s="35"/>
@@ -6933,13 +6820,13 @@
       <c r="CE28" s="35"/>
       <c r="CF28" s="36"/>
     </row>
-    <row r="29" spans="1:84" ht="110.85" customHeight="1">
+    <row r="29" spans="1:84" ht="90" customHeight="1">
       <c r="A29" s="45">
         <v>21</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="45" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="35"/>
@@ -6953,28 +6840,28 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
-      <c r="P29" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="89"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="89"/>
+      <c r="P29" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="U29" s="94"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="94"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="36"/>
@@ -6983,46 +6870,46 @@
       </c>
       <c r="AL29" s="35"/>
       <c r="AM29" s="36"/>
-      <c r="AN29" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO29" s="92"/>
-      <c r="AP29" s="92"/>
-      <c r="AQ29" s="92"/>
-      <c r="AR29" s="93"/>
-      <c r="AS29" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT29" s="84"/>
-      <c r="AU29" s="84"/>
-      <c r="AV29" s="84"/>
-      <c r="AW29" s="84"/>
-      <c r="AX29" s="84"/>
-      <c r="AY29" s="84"/>
-      <c r="AZ29" s="84"/>
-      <c r="BA29" s="84"/>
-      <c r="BB29" s="84"/>
-      <c r="BC29" s="84"/>
-      <c r="BD29" s="84"/>
-      <c r="BE29" s="84"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="87"/>
+      <c r="AN29" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO29" s="91"/>
+      <c r="AP29" s="91"/>
+      <c r="AQ29" s="91"/>
+      <c r="AR29" s="92"/>
+      <c r="AS29" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="91"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="92"/>
+      <c r="BG29" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH29" s="91"/>
+      <c r="BI29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="91"/>
+      <c r="BN29" s="91"/>
+      <c r="BO29" s="91"/>
+      <c r="BP29" s="91"/>
+      <c r="BQ29" s="91"/>
+      <c r="BR29" s="91"/>
+      <c r="BS29" s="91"/>
+      <c r="BT29" s="91"/>
+      <c r="BU29" s="92"/>
       <c r="BV29" s="45"/>
       <c r="BW29" s="35"/>
       <c r="BX29" s="35"/>
@@ -7035,13 +6922,13 @@
       <c r="CE29" s="35"/>
       <c r="CF29" s="36"/>
     </row>
-    <row r="30" spans="1:84" ht="110.85" customHeight="1">
+    <row r="30" spans="1:84" ht="90" customHeight="1">
       <c r="A30" s="45">
         <v>22</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="45" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="35"/>
@@ -7055,76 +6942,78 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
-      <c r="P30" s="88" t="s">
+      <c r="P30" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="88" t="s">
+      <c r="U30" s="94"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="89"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="89"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="94"/>
       <c r="AH30" s="45"/>
       <c r="AI30" s="35"/>
       <c r="AJ30" s="36"/>
       <c r="AK30" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL30" s="35"/>
       <c r="AM30" s="36"/>
-      <c r="AN30" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO30" s="92"/>
-      <c r="AP30" s="92"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="93"/>
-      <c r="AS30" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT30" s="84"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="84"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="84"/>
-      <c r="BA30" s="84"/>
-      <c r="BB30" s="84"/>
-      <c r="BC30" s="84"/>
-      <c r="BD30" s="84"/>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="85"/>
-      <c r="BG30" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH30" s="86"/>
-      <c r="BI30" s="86"/>
-      <c r="BJ30" s="86"/>
-      <c r="BK30" s="86"/>
-      <c r="BL30" s="86"/>
-      <c r="BM30" s="86"/>
-      <c r="BN30" s="86"/>
-      <c r="BO30" s="86"/>
-      <c r="BP30" s="86"/>
-      <c r="BQ30" s="86"/>
-      <c r="BR30" s="86"/>
-      <c r="BS30" s="86"/>
-      <c r="BT30" s="86"/>
-      <c r="BU30" s="87"/>
+      <c r="AN30" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO30" s="91"/>
+      <c r="AP30" s="91"/>
+      <c r="AQ30" s="91"/>
+      <c r="AR30" s="92"/>
+      <c r="AS30" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="91"/>
+      <c r="BE30" s="91"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH30" s="91"/>
+      <c r="BI30" s="91"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="91"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="91"/>
+      <c r="BN30" s="91"/>
+      <c r="BO30" s="91"/>
+      <c r="BP30" s="91"/>
+      <c r="BQ30" s="91"/>
+      <c r="BR30" s="91"/>
+      <c r="BS30" s="91"/>
+      <c r="BT30" s="91"/>
+      <c r="BU30" s="92"/>
       <c r="BV30" s="45"/>
       <c r="BW30" s="35"/>
       <c r="BX30" s="35"/>
@@ -7137,13 +7026,13 @@
       <c r="CE30" s="35"/>
       <c r="CF30" s="36"/>
     </row>
-    <row r="31" spans="1:84" ht="110.85" customHeight="1">
+    <row r="31" spans="1:84" ht="90" customHeight="1">
       <c r="A31" s="45">
         <v>23</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="45" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="35"/>
@@ -7157,76 +7046,78 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="88" t="s">
+      <c r="P31" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="88" t="s">
+      <c r="U31" s="94"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="89"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="89"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="94"/>
       <c r="AH31" s="45"/>
       <c r="AI31" s="35"/>
       <c r="AJ31" s="36"/>
       <c r="AK31" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL31" s="35"/>
       <c r="AM31" s="36"/>
-      <c r="AN31" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO31" s="92"/>
-      <c r="AP31" s="92"/>
-      <c r="AQ31" s="92"/>
-      <c r="AR31" s="93"/>
-      <c r="AS31" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT31" s="84"/>
-      <c r="AU31" s="84"/>
-      <c r="AV31" s="84"/>
-      <c r="AW31" s="84"/>
-      <c r="AX31" s="84"/>
-      <c r="AY31" s="84"/>
-      <c r="AZ31" s="84"/>
-      <c r="BA31" s="84"/>
-      <c r="BB31" s="84"/>
-      <c r="BC31" s="84"/>
-      <c r="BD31" s="84"/>
-      <c r="BE31" s="84"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH31" s="86"/>
-      <c r="BI31" s="86"/>
-      <c r="BJ31" s="86"/>
-      <c r="BK31" s="86"/>
-      <c r="BL31" s="86"/>
-      <c r="BM31" s="86"/>
-      <c r="BN31" s="86"/>
-      <c r="BO31" s="86"/>
-      <c r="BP31" s="86"/>
-      <c r="BQ31" s="86"/>
-      <c r="BR31" s="86"/>
-      <c r="BS31" s="86"/>
-      <c r="BT31" s="86"/>
-      <c r="BU31" s="87"/>
+      <c r="AN31" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="91"/>
+      <c r="AQ31" s="91"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="91"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="92"/>
+      <c r="BG31" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="91"/>
+      <c r="BM31" s="91"/>
+      <c r="BN31" s="91"/>
+      <c r="BO31" s="91"/>
+      <c r="BP31" s="91"/>
+      <c r="BQ31" s="91"/>
+      <c r="BR31" s="91"/>
+      <c r="BS31" s="91"/>
+      <c r="BT31" s="91"/>
+      <c r="BU31" s="92"/>
       <c r="BV31" s="45"/>
       <c r="BW31" s="35"/>
       <c r="BX31" s="35"/>
@@ -7239,13 +7130,13 @@
       <c r="CE31" s="35"/>
       <c r="CF31" s="36"/>
     </row>
-    <row r="32" spans="1:84" ht="110.85" customHeight="1">
+    <row r="32" spans="1:84" ht="90" customHeight="1">
       <c r="A32" s="45">
         <v>24</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="45" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="35"/>
@@ -7259,74 +7150,78 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
-      <c r="P32" s="88" t="s">
+      <c r="P32" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="88" t="s">
+      <c r="U32" s="94"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="89"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="89"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="94"/>
       <c r="AH32" s="45"/>
       <c r="AI32" s="35"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL32" s="35"/>
       <c r="AM32" s="36"/>
-      <c r="AN32" s="91"/>
-      <c r="AO32" s="92"/>
-      <c r="AP32" s="92"/>
-      <c r="AQ32" s="92"/>
-      <c r="AR32" s="93"/>
-      <c r="AS32" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT32" s="84"/>
-      <c r="AU32" s="84"/>
-      <c r="AV32" s="84"/>
-      <c r="AW32" s="84"/>
-      <c r="AX32" s="84"/>
-      <c r="AY32" s="84"/>
-      <c r="AZ32" s="84"/>
-      <c r="BA32" s="84"/>
-      <c r="BB32" s="84"/>
-      <c r="BC32" s="84"/>
-      <c r="BD32" s="84"/>
-      <c r="BE32" s="84"/>
-      <c r="BF32" s="85"/>
-      <c r="BG32" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH32" s="86"/>
-      <c r="BI32" s="86"/>
-      <c r="BJ32" s="86"/>
-      <c r="BK32" s="86"/>
-      <c r="BL32" s="86"/>
-      <c r="BM32" s="86"/>
-      <c r="BN32" s="86"/>
-      <c r="BO32" s="86"/>
-      <c r="BP32" s="86"/>
-      <c r="BQ32" s="86"/>
-      <c r="BR32" s="86"/>
-      <c r="BS32" s="86"/>
-      <c r="BT32" s="86"/>
-      <c r="BU32" s="87"/>
+      <c r="AN32" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO32" s="91"/>
+      <c r="AP32" s="91"/>
+      <c r="AQ32" s="91"/>
+      <c r="AR32" s="92"/>
+      <c r="AS32" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="91"/>
+      <c r="BA32" s="91"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="91"/>
+      <c r="BF32" s="92"/>
+      <c r="BG32" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="91"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="91"/>
+      <c r="BM32" s="91"/>
+      <c r="BN32" s="91"/>
+      <c r="BO32" s="91"/>
+      <c r="BP32" s="91"/>
+      <c r="BQ32" s="91"/>
+      <c r="BR32" s="91"/>
+      <c r="BS32" s="91"/>
+      <c r="BT32" s="91"/>
+      <c r="BU32" s="92"/>
       <c r="BV32" s="45"/>
       <c r="BW32" s="35"/>
       <c r="BX32" s="35"/>
@@ -7339,15 +7234,523 @@
       <c r="CE32" s="35"/>
       <c r="CF32" s="36"/>
     </row>
+    <row r="33" spans="1:84" ht="90" customHeight="1">
+      <c r="A33" s="45">
+        <v>25</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="94"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO33" s="91"/>
+      <c r="AP33" s="91"/>
+      <c r="AQ33" s="91"/>
+      <c r="AR33" s="92"/>
+      <c r="AS33" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="91"/>
+      <c r="BA33" s="91"/>
+      <c r="BB33" s="91"/>
+      <c r="BC33" s="91"/>
+      <c r="BD33" s="91"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="92"/>
+      <c r="BG33" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH33" s="91"/>
+      <c r="BI33" s="91"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="91"/>
+      <c r="BM33" s="91"/>
+      <c r="BN33" s="91"/>
+      <c r="BO33" s="91"/>
+      <c r="BP33" s="91"/>
+      <c r="BQ33" s="91"/>
+      <c r="BR33" s="91"/>
+      <c r="BS33" s="91"/>
+      <c r="BT33" s="91"/>
+      <c r="BU33" s="92"/>
+      <c r="BV33" s="45"/>
+      <c r="BW33" s="35"/>
+      <c r="BX33" s="35"/>
+      <c r="BY33" s="36"/>
+      <c r="BZ33" s="45"/>
+      <c r="CA33" s="35"/>
+      <c r="CB33" s="36"/>
+      <c r="CC33" s="45"/>
+      <c r="CD33" s="35"/>
+      <c r="CE33" s="35"/>
+      <c r="CF33" s="36"/>
+    </row>
+    <row r="34" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A34" s="45">
+        <v>26</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="94"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="91"/>
+      <c r="BA34" s="91"/>
+      <c r="BB34" s="91"/>
+      <c r="BC34" s="91"/>
+      <c r="BD34" s="91"/>
+      <c r="BE34" s="91"/>
+      <c r="BF34" s="92"/>
+      <c r="BG34" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH34" s="96"/>
+      <c r="BI34" s="96"/>
+      <c r="BJ34" s="96"/>
+      <c r="BK34" s="96"/>
+      <c r="BL34" s="96"/>
+      <c r="BM34" s="96"/>
+      <c r="BN34" s="96"/>
+      <c r="BO34" s="96"/>
+      <c r="BP34" s="96"/>
+      <c r="BQ34" s="96"/>
+      <c r="BR34" s="96"/>
+      <c r="BS34" s="96"/>
+      <c r="BT34" s="96"/>
+      <c r="BU34" s="97"/>
+      <c r="BV34" s="45"/>
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="36"/>
+      <c r="BZ34" s="45"/>
+      <c r="CA34" s="35"/>
+      <c r="CB34" s="36"/>
+      <c r="CC34" s="45"/>
+      <c r="CD34" s="35"/>
+      <c r="CE34" s="35"/>
+      <c r="CF34" s="36"/>
+    </row>
+    <row r="35" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A35" s="45">
+        <v>27</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" s="94"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="91"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="91"/>
+      <c r="BA35" s="91"/>
+      <c r="BB35" s="91"/>
+      <c r="BC35" s="91"/>
+      <c r="BD35" s="91"/>
+      <c r="BE35" s="91"/>
+      <c r="BF35" s="92"/>
+      <c r="BG35" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH35" s="96"/>
+      <c r="BI35" s="96"/>
+      <c r="BJ35" s="96"/>
+      <c r="BK35" s="96"/>
+      <c r="BL35" s="96"/>
+      <c r="BM35" s="96"/>
+      <c r="BN35" s="96"/>
+      <c r="BO35" s="96"/>
+      <c r="BP35" s="96"/>
+      <c r="BQ35" s="96"/>
+      <c r="BR35" s="96"/>
+      <c r="BS35" s="96"/>
+      <c r="BT35" s="96"/>
+      <c r="BU35" s="97"/>
+      <c r="BV35" s="45"/>
+      <c r="BW35" s="35"/>
+      <c r="BX35" s="35"/>
+      <c r="BY35" s="36"/>
+      <c r="BZ35" s="45"/>
+      <c r="CA35" s="35"/>
+      <c r="CB35" s="36"/>
+      <c r="CC35" s="45"/>
+      <c r="CD35" s="35"/>
+      <c r="CE35" s="35"/>
+      <c r="CF35" s="36"/>
+    </row>
+    <row r="36" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A36" s="45">
+        <v>28</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="94"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="70"/>
+      <c r="AO36" s="69"/>
+      <c r="AP36" s="69"/>
+      <c r="AQ36" s="69"/>
+      <c r="AR36" s="71"/>
+      <c r="AS36" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="91"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="91"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="91"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="91"/>
+      <c r="BF36" s="92"/>
+      <c r="BG36" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH36" s="91"/>
+      <c r="BI36" s="91"/>
+      <c r="BJ36" s="91"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="91"/>
+      <c r="BM36" s="91"/>
+      <c r="BN36" s="91"/>
+      <c r="BO36" s="91"/>
+      <c r="BP36" s="91"/>
+      <c r="BQ36" s="91"/>
+      <c r="BR36" s="91"/>
+      <c r="BS36" s="91"/>
+      <c r="BT36" s="91"/>
+      <c r="BU36" s="92"/>
+      <c r="BV36" s="45"/>
+      <c r="BW36" s="35"/>
+      <c r="BX36" s="35"/>
+      <c r="BY36" s="36"/>
+      <c r="BZ36" s="45"/>
+      <c r="CA36" s="35"/>
+      <c r="CB36" s="36"/>
+      <c r="CC36" s="45"/>
+      <c r="CD36" s="35"/>
+      <c r="CE36" s="35"/>
+      <c r="CF36" s="36"/>
+    </row>
+    <row r="37" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A37" s="45">
+        <v>29</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="94"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="94"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="98"/>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="99"/>
+      <c r="AQ37" s="99"/>
+      <c r="AR37" s="100"/>
+      <c r="AS37" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT37" s="91"/>
+      <c r="AU37" s="91"/>
+      <c r="AV37" s="91"/>
+      <c r="AW37" s="91"/>
+      <c r="AX37" s="91"/>
+      <c r="AY37" s="91"/>
+      <c r="AZ37" s="91"/>
+      <c r="BA37" s="91"/>
+      <c r="BB37" s="91"/>
+      <c r="BC37" s="91"/>
+      <c r="BD37" s="91"/>
+      <c r="BE37" s="91"/>
+      <c r="BF37" s="92"/>
+      <c r="BG37" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH37" s="96"/>
+      <c r="BI37" s="96"/>
+      <c r="BJ37" s="96"/>
+      <c r="BK37" s="96"/>
+      <c r="BL37" s="96"/>
+      <c r="BM37" s="96"/>
+      <c r="BN37" s="96"/>
+      <c r="BO37" s="96"/>
+      <c r="BP37" s="96"/>
+      <c r="BQ37" s="96"/>
+      <c r="BR37" s="96"/>
+      <c r="BS37" s="96"/>
+      <c r="BT37" s="96"/>
+      <c r="BU37" s="97"/>
+      <c r="BV37" s="45"/>
+      <c r="BW37" s="35"/>
+      <c r="BX37" s="35"/>
+      <c r="BY37" s="36"/>
+      <c r="BZ37" s="45"/>
+      <c r="CA37" s="35"/>
+      <c r="CB37" s="36"/>
+      <c r="CC37" s="45"/>
+      <c r="CD37" s="35"/>
+      <c r="CE37" s="35"/>
+      <c r="CF37" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="298">
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AK10:AM10"/>
+  <mergeCells count="328">
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
     <mergeCell ref="AS10:BF10"/>
     <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AS11:BF11"/>
     <mergeCell ref="BG11:BU11"/>
     <mergeCell ref="AK12:AM12"/>
@@ -7389,25 +7792,22 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:U13"/>
@@ -7416,17 +7816,12 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
     <mergeCell ref="Z14:AA14"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AD14:AG14"/>
@@ -7437,14 +7832,6 @@
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
@@ -7452,47 +7839,51 @@
     <mergeCell ref="X21:Y21"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
     <mergeCell ref="Z29:AA29"/>
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="R25:S25"/>
     <mergeCell ref="BA4:BC4"/>
     <mergeCell ref="BD4:BI4"/>
     <mergeCell ref="BJ4:BL4"/>
@@ -7505,8 +7896,18 @@
     <mergeCell ref="BD5:BI5"/>
     <mergeCell ref="BJ5:BL5"/>
     <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="BG31:BU31"/>
     <mergeCell ref="BG13:BU13"/>
     <mergeCell ref="AN14:AR14"/>
     <mergeCell ref="AS14:BF14"/>
@@ -7514,111 +7915,140 @@
     <mergeCell ref="AN15:AR15"/>
     <mergeCell ref="AS15:BF15"/>
     <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AN22:AR22"/>
     <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="BG24:BU24"/>
     <mergeCell ref="AS22:BF22"/>
     <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="AD16:AG16"/>
     <mergeCell ref="AN16:AR16"/>
     <mergeCell ref="AS16:BF16"/>
     <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="AN17:AR17"/>
     <mergeCell ref="AS17:BF17"/>
     <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AN18:AR18"/>
     <mergeCell ref="AS18:BF18"/>
     <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="BG25:BU25"/>
     <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="AS29:BF29"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:BF30"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="AN25:AR25"/>
     <mergeCell ref="T28:U28"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AS31:BF31"/>
-    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS33:BF33"/>
+    <mergeCell ref="BG33:BU33"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="BG34:BU34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AS35:BF35"/>
+    <mergeCell ref="BG35:BU35"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AN37:AR37"/>
+    <mergeCell ref="AS37:BF37"/>
+    <mergeCell ref="BG37:BU37"/>
+    <mergeCell ref="BG36:BU36"/>
+    <mergeCell ref="AS36:BF36"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
@@ -7630,15 +8060,16 @@
     <mergeCell ref="AN32:AR32"/>
     <mergeCell ref="AS32:BF32"/>
     <mergeCell ref="BG32:BU32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="AS31:BF31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7649,45 +8080,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="55" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="55" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="55" customWidth="1"/>
-    <col min="5" max="7" width="8.625" style="55"/>
-    <col min="8" max="8" width="18.375" style="55" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="55"/>
-    <col min="10" max="10" width="10.625" style="55" customWidth="1"/>
+    <col min="5" max="7" width="8.58203125" style="55"/>
+    <col min="8" max="8" width="18.33203125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="55"/>
+    <col min="10" max="10" width="11.58203125" style="55" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="55" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" style="55" customWidth="1"/>
     <col min="14" max="14" width="15" style="55" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="55"/>
-    <col min="16" max="16" width="21.125" style="55" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="55" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="55" customWidth="1"/>
+    <col min="16" max="16" width="21.08203125" style="55" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="55" customWidth="1"/>
     <col min="18" max="18" width="14" style="55" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="18.125" style="55" customWidth="1"/>
-    <col min="21" max="16384" width="8.625" style="55"/>
+    <col min="19" max="19" width="13.08203125" style="55" customWidth="1"/>
+    <col min="20" max="20" width="18.08203125" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="8.58203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" customHeight="1">
+    <row r="1" spans="1:20" ht="28.55" customHeight="1">
       <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="56" customFormat="1">
+    <row r="2" spans="1:20" s="56" customFormat="1" ht="26.2">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="65" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -7696,13 +8127,13 @@
       <c r="D2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="65" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="61" t="s">
@@ -7729,7 +8160,7 @@
       <c r="O2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="140" t="s">
+      <c r="P2" s="65" t="s">
         <v>79</v>
       </c>
       <c r="Q2" s="61" t="s">
@@ -7745,22 +8176,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="24.75" customHeight="1">
+    <row r="3" spans="1:20" ht="24.8" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="141" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="66" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="48"/>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="66" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="62"/>
@@ -7771,122 +8202,127 @@
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
-      <c r="P3" s="141" t="s">
-        <v>145</v>
+      <c r="P3" s="66" t="s">
+        <v>137</v>
       </c>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" s="142" t="s">
-        <v>172</v>
-      </c>
-    </row>
+    <row r="4" spans="1:20" ht="27.6" customHeight="1">
+      <c r="B4" s="67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="31.35" customHeight="1"/>
     <row r="8" spans="1:20" ht="23.85" customHeight="1">
       <c r="B8" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="25.35" customHeight="1">
+    <row r="9" spans="1:20" ht="25.4" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.7" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.7" customHeight="1">
+      <c r="A11" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.7" customHeight="1">
+      <c r="A12" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" s="149"/>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" customHeight="1">
+      <c r="B22" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33.799999999999997" customHeight="1">
+      <c r="A23" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C23" s="63" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A10" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="59" t="s">
+    <row r="24" spans="1:7" ht="19.2" customHeight="1">
+      <c r="A24" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.2" customHeight="1">
+      <c r="A25" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.2" customHeight="1">
+      <c r="A26" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="58">
+        <v>3</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>121</v>
-      </c>
-      <c r="E10" s="60"/>
-    </row>
-    <row r="11" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A11" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A12" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="27.6" customHeight="1">
-      <c r="B16" s="55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="58">
-        <v>3</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7894,13 +8330,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="47"/>
+    <col min="1" max="16384" width="8.58203125" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -7918,7 +8354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" spans="1:2" ht="21.55">
       <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
@@ -7973,7 +8409,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8037,7 +8473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23.25">
+    <row r="44" spans="1:2" ht="16.399999999999999">
       <c r="B44" s="54"/>
     </row>
     <row r="45" spans="1:2">

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5645DBB0-D74D-4A6A-8A2A-3625EE8D7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876278A-BB1D-4360-9570-83DC1A624C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-159" yWindow="19" windowWidth="18150" windowHeight="8369" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="181">
   <si>
     <t>画面名</t>
   </si>
@@ -1541,18 +1541,7 @@
     <t>”住所は200文字以内で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t>"(-)無し、郵便番号形式で入力
-してください。”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
-    <t>”郵便番号は(-)無し、半角７桁数字以内で入力してください。”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
     <t>”電話番号を入力してください”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
-    <t>”電話番号は(-)無し、半角数字で
-入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
@@ -1563,10 +1552,6 @@
 </t>
   </si>
   <si>
-    <t>”電話番号は半角15桁数字で
-入力してください”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
     <t>①「更新」ボタンをクリックする後、社員情報更新画面表示する
 ②画面入力したデータをTableに新規追加する</t>
   </si>
@@ -1586,13 +1571,6 @@
     <t>初期表示＿前回更新日</t>
   </si>
   <si>
-    <t>④前回の更新日表示</t>
-  </si>
-  <si>
-    <t>①前回の更新日表示
-④「更新」ボタン</t>
-  </si>
-  <si>
     <t>No1からNo.29</t>
   </si>
   <si>
@@ -1604,6 +1582,25 @@
 ②ユーザ名に1２文字以上入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>"郵便番号は(-)無し、半角７桁
+数字以内で入力してください。”
+エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>”電話番号は(-)無し、半角15桁数
+字以内で入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t>①前回の更新日表示
+②「更新」ボタン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②各項目には、正しい入力。
+③「更新」ボタン
 </t>
   </si>
 </sst>
@@ -2172,7 +2169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2599,9 +2596,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3590,7 +3584,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3626,7 +3620,7 @@
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="22.95">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.45">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3646,7 +3640,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3664,7 +3658,7 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -3684,7 +3678,7 @@
       <c r="R18" s="75"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -3704,7 +3698,7 @@
       <c r="R19" s="78"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -3722,7 +3716,7 @@
       <c r="R20" s="81"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3740,7 +3734,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="14.5">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.7">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -3760,7 +3754,7 @@
       <c r="R22" s="83"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -3780,7 +3774,7 @@
       <c r="R23" s="86"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -3798,7 +3792,7 @@
       <c r="R24" s="89"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="12.65">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="15.9">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3999,7 +3993,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4023,7 +4017,7 @@
     <col min="6" max="16384" width="8.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="18.7">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>15</v>
@@ -4031,7 +4025,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="18.7">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="18.7">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="18.7">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4142,13 +4136,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AS11" sqref="AS11:BF11"/>
+      <selection pane="bottomLeft" activeCell="AS36" sqref="AS36:BF36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.7"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="40" customWidth="1"/>
     <col min="2" max="3" width="2.08203125" style="40" customWidth="1"/>
@@ -4523,7 +4517,7 @@
       <c r="BP5" s="114"/>
       <c r="BQ5" s="39"/>
     </row>
-    <row r="6" spans="1:84" ht="13.6" thickTop="1">
+    <row r="6" spans="1:84" ht="19.2" thickTop="1">
       <c r="E6" s="145"/>
       <c r="F6" s="145"/>
       <c r="G6" s="145"/>
@@ -4834,7 +4828,7 @@
       <c r="BE9" s="91"/>
       <c r="BF9" s="92"/>
       <c r="BG9" s="90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="BH9" s="96"/>
       <c r="BI9" s="96"/>
@@ -4868,7 +4862,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="35"/>
@@ -4936,7 +4930,7 @@
       <c r="BE10" s="91"/>
       <c r="BF10" s="92"/>
       <c r="BG10" s="90" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="BH10" s="91"/>
       <c r="BI10" s="91"/>
@@ -5018,7 +5012,7 @@
       <c r="AQ11" s="91"/>
       <c r="AR11" s="92"/>
       <c r="AS11" s="90" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AT11" s="91"/>
       <c r="AU11" s="91"/>
@@ -5654,7 +5648,7 @@
       <c r="BE17" s="91"/>
       <c r="BF17" s="92"/>
       <c r="BG17" s="90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="BH17" s="91"/>
       <c r="BI17" s="91"/>
@@ -5758,7 +5752,7 @@
       <c r="BE18" s="91"/>
       <c r="BF18" s="92"/>
       <c r="BG18" s="90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BH18" s="91"/>
       <c r="BI18" s="91"/>
@@ -6274,7 +6268,7 @@
       <c r="BE23" s="102"/>
       <c r="BF23" s="103"/>
       <c r="BG23" s="90" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BH23" s="91"/>
       <c r="BI23" s="91"/>
@@ -6378,7 +6372,7 @@
       <c r="BE24" s="91"/>
       <c r="BF24" s="92"/>
       <c r="BG24" s="90" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BH24" s="91"/>
       <c r="BI24" s="91"/>
@@ -6482,7 +6476,7 @@
       <c r="BE25" s="91"/>
       <c r="BF25" s="92"/>
       <c r="BG25" s="90" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="BH25" s="91"/>
       <c r="BI25" s="91"/>
@@ -6998,7 +6992,7 @@
       <c r="BE30" s="91"/>
       <c r="BF30" s="92"/>
       <c r="BG30" s="90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BH30" s="91"/>
       <c r="BI30" s="91"/>
@@ -7102,7 +7096,7 @@
       <c r="BE31" s="91"/>
       <c r="BF31" s="92"/>
       <c r="BG31" s="90" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="BH31" s="91"/>
       <c r="BI31" s="91"/>
@@ -7190,7 +7184,7 @@
       <c r="AQ32" s="91"/>
       <c r="AR32" s="92"/>
       <c r="AS32" s="90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT32" s="91"/>
       <c r="AU32" s="91"/>
@@ -7206,7 +7200,7 @@
       <c r="BE32" s="91"/>
       <c r="BF32" s="92"/>
       <c r="BG32" s="90" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="BH32" s="91"/>
       <c r="BI32" s="91"/>
@@ -7546,7 +7540,7 @@
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="35"/>
@@ -7596,7 +7590,7 @@
       <c r="AQ36" s="69"/>
       <c r="AR36" s="71"/>
       <c r="AS36" s="90" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AT36" s="91"/>
       <c r="AU36" s="91"/>
@@ -7612,7 +7606,7 @@
       <c r="BE36" s="91"/>
       <c r="BF36" s="92"/>
       <c r="BG36" s="90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BH36" s="91"/>
       <c r="BI36" s="91"/>
@@ -7712,7 +7706,7 @@
       <c r="BE37" s="91"/>
       <c r="BF37" s="92"/>
       <c r="BG37" s="90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="BH37" s="96"/>
       <c r="BI37" s="96"/>
@@ -7757,6 +7751,15 @@
     <mergeCell ref="AN12:AR12"/>
     <mergeCell ref="AS12:BF12"/>
     <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:O8"/>
     <mergeCell ref="P8:Q8"/>
@@ -7792,15 +7795,7 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="AD12:AG12"/>
     <mergeCell ref="P11:Q11"/>
@@ -7816,31 +7811,16 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
     <mergeCell ref="AD23:AG23"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="R20:S20"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
@@ -7883,7 +7863,7 @@
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="BA4:BC4"/>
     <mergeCell ref="BD4:BI4"/>
     <mergeCell ref="BJ4:BL4"/>
@@ -7896,7 +7876,17 @@
     <mergeCell ref="BD5:BI5"/>
     <mergeCell ref="BJ5:BL5"/>
     <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
@@ -7907,7 +7897,20 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:U23"/>
-    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="BG13:BU13"/>
     <mergeCell ref="AN14:AR14"/>
     <mergeCell ref="AS14:BF14"/>
@@ -7931,9 +7934,7 @@
     <mergeCell ref="BG23:BU23"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="AN16:AR16"/>
     <mergeCell ref="AS16:BF16"/>
     <mergeCell ref="BG16:BU16"/>
@@ -7955,11 +7956,7 @@
     <mergeCell ref="AN18:AR18"/>
     <mergeCell ref="AS18:BF18"/>
     <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="AD16:AG16"/>
     <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AG27"/>
@@ -7969,9 +7966,6 @@
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AS24:BF24"/>
     <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
     <mergeCell ref="Z25:AA25"/>
     <mergeCell ref="AB25:AC25"/>
     <mergeCell ref="AD25:AG25"/>
@@ -8034,21 +8028,6 @@
     <mergeCell ref="AD24:AG24"/>
     <mergeCell ref="AN24:AR24"/>
     <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T32:U32"/>
@@ -8059,6 +8038,22 @@
     <mergeCell ref="AD32:AG32"/>
     <mergeCell ref="AN32:AR32"/>
     <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="AS31:BF31"/>
     <mergeCell ref="BG32:BU32"/>
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="X30:Y30"/>
@@ -8068,8 +8063,7 @@
     <mergeCell ref="AN30:AR30"/>
     <mergeCell ref="AS30:BF30"/>
     <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="BG31:BU31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8086,7 +8080,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18.7"/>
   <cols>
     <col min="1" max="1" width="15.58203125" style="55" customWidth="1"/>
     <col min="2" max="2" width="13.58203125" style="55" customWidth="1"/>
@@ -8114,7 +8108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="56" customFormat="1" ht="26.2">
+    <row r="2" spans="1:20" s="56" customFormat="1">
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
@@ -8234,7 +8228,7 @@
     </row>
     <row r="10" spans="1:20" ht="18.7" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>138</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="11" spans="1:20" ht="18.7" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>139</v>
@@ -8257,7 +8251,7 @@
     </row>
     <row r="12" spans="1:20" ht="18.7" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>140</v>
@@ -8266,15 +8260,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="149"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" customHeight="1">
+    <row r="22" spans="1:5" ht="27.6" customHeight="1">
       <c r="B22" s="55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33.799999999999997" customHeight="1">
+    <row r="23" spans="1:5" ht="33.799999999999997" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>87</v>
       </c>
@@ -8285,9 +8276,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.2" customHeight="1">
+    <row r="24" spans="1:5" ht="19.2" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>139</v>
@@ -8297,9 +8288,9 @@
       </c>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="1:7" ht="19.2" customHeight="1">
+    <row r="25" spans="1:5" ht="19.2" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>140</v>
@@ -8308,9 +8299,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.2" customHeight="1">
+    <row r="26" spans="1:5" ht="19.2" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B26" s="58">
         <v>3</v>
@@ -8334,7 +8325,7 @@
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18.7"/>
   <cols>
     <col min="1" max="16384" width="8.58203125" style="47"/>
   </cols>
@@ -8354,7 +8345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.55">
+    <row r="6" spans="1:2" ht="43.5">
       <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
@@ -8473,7 +8464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.399999999999999">
+    <row r="44" spans="1:2" ht="23.4">
       <c r="B44" s="54"/>
     </row>
     <row r="45" spans="1:2">

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876278A-BB1D-4360-9570-83DC1A624C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A6754-E190-4023-B348-0AD2A8B1A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="186">
   <si>
     <t>画面名</t>
   </si>
@@ -1255,14 +1255,6 @@
     <t>”郵便番号を入力してください。”エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に　(-)入り、半角７桁
-　数字に入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>更新＿ユーザ住所</t>
   </si>
   <si>
@@ -1352,22 +1344,6 @@
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
 ②電話番号に未入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②電話番号に(-)入り半角数字で
-　入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②電話番号に(-)無し半角数字(15)
-　まで入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
@@ -1500,14 +1476,6 @@
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②個人番号は半角12桁
-　数字以上の場合
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
 ②個人番号に半角12桁
 　数字まで入力
 ③他の項目には、正しい入力。
@@ -1515,41 +1483,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に半角７桁
-　数字以上の場合
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に(-)無し、7桁の半角数
-字を入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②住所は200文字以上の場合
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>”住所は200文字以内で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t>”電話番号を入力してください”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②電話番号に半角数字15以上
-　入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
   </si>
   <si>
     <t>①「更新」ボタンをクリックする後、社員情報更新画面表示する
@@ -1571,36 +1508,123 @@
     <t>初期表示＿前回更新日</t>
   </si>
   <si>
-    <t>No1からNo.29</t>
-  </si>
-  <si>
     <t>①前回の更新日表示
 ②更新する日付に変わる</t>
   </si>
   <si>
+    <t>①前回の更新日表示
+②「更新」ボタン</t>
+  </si>
+  <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②ユーザ名に1２文字以上入力
+②各項目には、正しい入力。
+③「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②ユーザ名に12文字で入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
   </si>
   <si>
-    <t>"郵便番号は(-)無し、半角７桁
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に半角12桁
+　数字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②ユーザ名に1２文字より多き入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号は半角12桁
+　数字より多きの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>"郵便番号は半角７桁
 数字以内で入力してください。”
 エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t>”電話番号は(-)無し、半角15桁数
+    <t>"郵便番号は半角７桁数字で入力してください。”
+エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に半角7桁数字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所は200文字より多きの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所に200文字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”電話番号は半角15桁数
 字以内で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
-    <t>①前回の更新日表示
-②「更新」ボタン</t>
-  </si>
-  <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②各項目には、正しい入力。
-③「更新」ボタン
+②電話番号に半角１５桁数字で入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に半角１５桁数字まで入力
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に半角数字じゃない場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>No1からNo.32</t>
+  </si>
+  <si>
+    <t>”電話番号は　半角数
+字で入力してください”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に　半角７桁数字より多きの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に半角１５桁数字より多きの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
 </t>
   </si>
 </sst>
@@ -2421,6 +2445,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2430,172 +2460,166 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2632,13 +2656,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>257174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1365661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4134,12 +4158,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF37"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AS36" sqref="AS36:BF36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="15" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG34" sqref="BG34:BU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.7"/>
@@ -4240,38 +4263,38 @@
       <c r="BQ1" s="29"/>
     </row>
     <row r="2" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
       <c r="AU2" s="31"/>
       <c r="AV2" s="31"/>
       <c r="AW2" s="31"/>
@@ -4297,36 +4320,36 @@
       <c r="BQ2" s="29"/>
     </row>
     <row r="3" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
       <c r="AU3" s="31"/>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
@@ -4352,405 +4375,405 @@
       <c r="BQ3" s="33"/>
     </row>
     <row r="4" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="127" t="s">
+      <c r="K4" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="104" t="s">
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="126"/>
+      <c r="AU4" s="126"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="126"/>
+      <c r="AX4" s="126"/>
+      <c r="AY4" s="126"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="107">
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="131">
         <v>45034</v>
       </c>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="104" t="s">
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107" t="s">
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="130"/>
+      <c r="BM4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="99"/>
-      <c r="BO4" s="99"/>
-      <c r="BP4" s="99"/>
+      <c r="BN4" s="132"/>
+      <c r="BO4" s="132"/>
+      <c r="BP4" s="132"/>
       <c r="BQ4" s="37"/>
     </row>
     <row r="5" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="108" t="s">
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114"/>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="114"/>
-      <c r="AL5" s="114"/>
-      <c r="AM5" s="114"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-      <c r="AX5" s="114"/>
-      <c r="AY5" s="114"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="116" t="s">
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="140"/>
+      <c r="BA5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="117"/>
-      <c r="BC5" s="118"/>
-      <c r="BD5" s="117"/>
-      <c r="BE5" s="117"/>
-      <c r="BF5" s="117"/>
-      <c r="BG5" s="117"/>
-      <c r="BH5" s="117"/>
-      <c r="BI5" s="117"/>
-      <c r="BJ5" s="116" t="s">
+      <c r="BB5" s="142"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="142"/>
+      <c r="BE5" s="142"/>
+      <c r="BF5" s="142"/>
+      <c r="BG5" s="142"/>
+      <c r="BH5" s="142"/>
+      <c r="BI5" s="142"/>
+      <c r="BJ5" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="117"/>
-      <c r="BL5" s="118"/>
-      <c r="BM5" s="117"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114"/>
-      <c r="BP5" s="114"/>
+      <c r="BK5" s="142"/>
+      <c r="BL5" s="143"/>
+      <c r="BM5" s="142"/>
+      <c r="BN5" s="139"/>
+      <c r="BO5" s="139"/>
+      <c r="BP5" s="139"/>
       <c r="BQ5" s="39"/>
     </row>
     <row r="6" spans="1:84" ht="19.2" thickTop="1">
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
       <c r="AF6" s="40"/>
-      <c r="BL6" s="145"/>
-      <c r="BM6" s="145"/>
-      <c r="BN6" s="145"/>
-      <c r="BO6" s="145"/>
-      <c r="BP6" s="145"/>
-      <c r="BQ6" s="145"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="139" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="93" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="139" t="s">
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="133" t="s">
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="134"/>
-      <c r="AP7" s="134"/>
-      <c r="AQ7" s="134"/>
-      <c r="AR7" s="135"/>
-      <c r="AS7" s="139" t="s">
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="AT7" s="140"/>
-      <c r="AU7" s="140"/>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
-      <c r="AY7" s="140"/>
-      <c r="AZ7" s="140"/>
-      <c r="BA7" s="140"/>
-      <c r="BB7" s="140"/>
-      <c r="BC7" s="140"/>
-      <c r="BD7" s="140"/>
-      <c r="BE7" s="140"/>
-      <c r="BF7" s="141"/>
-      <c r="BG7" s="139" t="s">
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="103"/>
+      <c r="BE7" s="103"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="BH7" s="140"/>
-      <c r="BI7" s="140"/>
-      <c r="BJ7" s="140"/>
-      <c r="BK7" s="140"/>
-      <c r="BL7" s="140"/>
-      <c r="BM7" s="140"/>
-      <c r="BN7" s="140"/>
-      <c r="BO7" s="140"/>
-      <c r="BP7" s="140"/>
-      <c r="BQ7" s="140"/>
-      <c r="BR7" s="140"/>
-      <c r="BS7" s="140"/>
-      <c r="BT7" s="140"/>
-      <c r="BU7" s="141"/>
-      <c r="BV7" s="133" t="s">
+      <c r="BH7" s="103"/>
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="103"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="103"/>
+      <c r="BM7" s="103"/>
+      <c r="BN7" s="103"/>
+      <c r="BO7" s="103"/>
+      <c r="BP7" s="103"/>
+      <c r="BQ7" s="103"/>
+      <c r="BR7" s="103"/>
+      <c r="BS7" s="103"/>
+      <c r="BT7" s="103"/>
+      <c r="BU7" s="100"/>
+      <c r="BV7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="134"/>
-      <c r="BX7" s="134"/>
-      <c r="BY7" s="135"/>
-      <c r="BZ7" s="133" t="s">
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="108"/>
+      <c r="BZ7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="134"/>
-      <c r="CB7" s="135"/>
-      <c r="CC7" s="133" t="s">
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
+      <c r="CC7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="134"/>
-      <c r="CE7" s="134"/>
-      <c r="CF7" s="135"/>
+      <c r="CD7" s="107"/>
+      <c r="CE7" s="107"/>
+      <c r="CF7" s="108"/>
     </row>
     <row r="8" spans="1:84" ht="15.9" customHeight="1">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="93" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="93" t="s">
+      <c r="Q8" s="91"/>
+      <c r="R8" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="94"/>
-      <c r="T8" s="93" t="s">
+      <c r="S8" s="91"/>
+      <c r="T8" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="94"/>
-      <c r="V8" s="93" t="s">
+      <c r="U8" s="91"/>
+      <c r="V8" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="94"/>
-      <c r="X8" s="93" t="s">
+      <c r="W8" s="91"/>
+      <c r="X8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="93" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="93" t="s">
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="93" t="s">
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="94"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="91"/>
       <c r="AH8" s="45" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="144"/>
-      <c r="AN8" s="136"/>
-      <c r="AO8" s="137"/>
-      <c r="AP8" s="137"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="138"/>
-      <c r="AS8" s="142"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
-      <c r="AX8" s="143"/>
-      <c r="AY8" s="143"/>
-      <c r="AZ8" s="143"/>
-      <c r="BA8" s="143"/>
-      <c r="BB8" s="143"/>
-      <c r="BC8" s="143"/>
-      <c r="BD8" s="143"/>
-      <c r="BE8" s="143"/>
-      <c r="BF8" s="144"/>
-      <c r="BG8" s="142"/>
-      <c r="BH8" s="143"/>
-      <c r="BI8" s="143"/>
-      <c r="BJ8" s="143"/>
-      <c r="BK8" s="143"/>
-      <c r="BL8" s="143"/>
-      <c r="BM8" s="143"/>
-      <c r="BN8" s="143"/>
-      <c r="BO8" s="143"/>
-      <c r="BP8" s="143"/>
-      <c r="BQ8" s="143"/>
-      <c r="BR8" s="143"/>
-      <c r="BS8" s="143"/>
-      <c r="BT8" s="143"/>
-      <c r="BU8" s="144"/>
-      <c r="BV8" s="136"/>
-      <c r="BW8" s="137"/>
-      <c r="BX8" s="137"/>
-      <c r="BY8" s="138"/>
-      <c r="BZ8" s="136"/>
-      <c r="CA8" s="137"/>
-      <c r="CB8" s="138"/>
-      <c r="CC8" s="136"/>
-      <c r="CD8" s="137"/>
-      <c r="CE8" s="137"/>
-      <c r="CF8" s="138"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="109"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="102"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="104"/>
+      <c r="BQ8" s="104"/>
+      <c r="BR8" s="104"/>
+      <c r="BS8" s="104"/>
+      <c r="BT8" s="104"/>
+      <c r="BU8" s="102"/>
+      <c r="BV8" s="109"/>
+      <c r="BW8" s="110"/>
+      <c r="BX8" s="110"/>
+      <c r="BY8" s="111"/>
+      <c r="BZ8" s="109"/>
+      <c r="CA8" s="110"/>
+      <c r="CB8" s="111"/>
+      <c r="CC8" s="109"/>
+      <c r="CD8" s="110"/>
+      <c r="CE8" s="110"/>
+      <c r="CF8" s="111"/>
     </row>
     <row r="9" spans="1:84" ht="95.85" customHeight="1">
       <c r="A9" s="45">
@@ -4772,30 +4795,30 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="93" t="s">
+      <c r="Q9" s="91"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="93" t="s">
+      <c r="U9" s="91"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="94"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="91"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="36"/>
@@ -4804,46 +4827,46 @@
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="36"/>
-      <c r="AN9" s="90" t="s">
+      <c r="AN9" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="90" t="s">
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH9" s="96"/>
-      <c r="BI9" s="96"/>
-      <c r="BJ9" s="96"/>
-      <c r="BK9" s="96"/>
-      <c r="BL9" s="96"/>
-      <c r="BM9" s="96"/>
-      <c r="BN9" s="96"/>
-      <c r="BO9" s="96"/>
-      <c r="BP9" s="96"/>
-      <c r="BQ9" s="96"/>
-      <c r="BR9" s="96"/>
-      <c r="BS9" s="96"/>
-      <c r="BT9" s="96"/>
-      <c r="BU9" s="97"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH9" s="112"/>
+      <c r="BI9" s="112"/>
+      <c r="BJ9" s="112"/>
+      <c r="BK9" s="112"/>
+      <c r="BL9" s="112"/>
+      <c r="BM9" s="112"/>
+      <c r="BN9" s="112"/>
+      <c r="BO9" s="112"/>
+      <c r="BP9" s="112"/>
+      <c r="BQ9" s="112"/>
+      <c r="BR9" s="112"/>
+      <c r="BS9" s="112"/>
+      <c r="BT9" s="112"/>
+      <c r="BU9" s="113"/>
       <c r="BV9" s="45"/>
       <c r="BW9" s="35"/>
       <c r="BX9" s="35"/>
@@ -4862,7 +4885,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="45" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="35"/>
@@ -4876,16 +4899,16 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="93" t="s">
+      <c r="P10" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="94"/>
+      <c r="Q10" s="91"/>
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="93" t="s">
+      <c r="T10" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="94"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="43"/>
       <c r="W10" s="44"/>
       <c r="X10" s="43"/>
@@ -4906,46 +4929,46 @@
       </c>
       <c r="AL10" s="35"/>
       <c r="AM10" s="36"/>
-      <c r="AN10" s="146" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="91"/>
-      <c r="BT10" s="91"/>
-      <c r="BU10" s="92"/>
+      <c r="AN10" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="93"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="93"/>
+      <c r="BN10" s="93"/>
+      <c r="BO10" s="93"/>
+      <c r="BP10" s="93"/>
+      <c r="BQ10" s="93"/>
+      <c r="BR10" s="93"/>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="93"/>
+      <c r="BU10" s="94"/>
       <c r="BV10" s="45"/>
       <c r="BW10" s="35"/>
       <c r="BX10" s="35"/>
@@ -4978,72 +5001,72 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
-      <c r="P11" s="93" t="s">
+      <c r="P11" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="93" t="s">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="94"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="91"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="93" t="s">
+      <c r="AK11" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="90" t="s">
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="90" t="s">
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="93"/>
+      <c r="AW11" s="93"/>
+      <c r="AX11" s="93"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="93"/>
+      <c r="BA11" s="93"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="93"/>
+      <c r="BE11" s="93"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="91"/>
-      <c r="BK11" s="91"/>
-      <c r="BL11" s="91"/>
-      <c r="BM11" s="91"/>
-      <c r="BN11" s="91"/>
-      <c r="BO11" s="91"/>
-      <c r="BP11" s="91"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="91"/>
-      <c r="BS11" s="91"/>
-      <c r="BT11" s="91"/>
-      <c r="BU11" s="92"/>
+      <c r="BH11" s="93"/>
+      <c r="BI11" s="93"/>
+      <c r="BJ11" s="93"/>
+      <c r="BK11" s="93"/>
+      <c r="BL11" s="93"/>
+      <c r="BM11" s="93"/>
+      <c r="BN11" s="93"/>
+      <c r="BO11" s="93"/>
+      <c r="BP11" s="93"/>
+      <c r="BQ11" s="93"/>
+      <c r="BR11" s="93"/>
+      <c r="BS11" s="93"/>
+      <c r="BT11" s="93"/>
+      <c r="BU11" s="94"/>
       <c r="BV11" s="45"/>
       <c r="BW11" s="35"/>
       <c r="BX11" s="35"/>
@@ -5076,78 +5099,78 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="36"/>
-      <c r="P12" s="93" t="s">
+      <c r="P12" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="93" t="s">
+      <c r="Q12" s="91"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="93" t="s">
+      <c r="U12" s="91"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="94"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="91"/>
       <c r="AH12" s="45"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="36"/>
-      <c r="AK12" s="93" t="s">
+      <c r="AK12" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="90" t="s">
+      <c r="AL12" s="98"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO12" s="91"/>
-      <c r="AP12" s="91"/>
-      <c r="AQ12" s="91"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="90" t="s">
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="91"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="91"/>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="92"/>
-      <c r="BG12" s="90" t="s">
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="BH12" s="91"/>
-      <c r="BI12" s="91"/>
-      <c r="BJ12" s="91"/>
-      <c r="BK12" s="91"/>
-      <c r="BL12" s="91"/>
-      <c r="BM12" s="91"/>
-      <c r="BN12" s="91"/>
-      <c r="BO12" s="91"/>
-      <c r="BP12" s="91"/>
-      <c r="BQ12" s="91"/>
-      <c r="BR12" s="91"/>
-      <c r="BS12" s="91"/>
-      <c r="BT12" s="91"/>
-      <c r="BU12" s="92"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="93"/>
+      <c r="BL12" s="93"/>
+      <c r="BM12" s="93"/>
+      <c r="BN12" s="93"/>
+      <c r="BO12" s="93"/>
+      <c r="BP12" s="93"/>
+      <c r="BQ12" s="93"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="93"/>
+      <c r="BU12" s="94"/>
       <c r="BV12" s="45"/>
       <c r="BW12" s="35"/>
       <c r="BX12" s="35"/>
@@ -5180,76 +5203,78 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
-      <c r="P13" s="93" t="s">
+      <c r="P13" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="93" t="s">
+      <c r="Q13" s="91"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="36"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="91"/>
       <c r="AK13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="36"/>
-      <c r="AN13" s="90" t="s">
+      <c r="AN13" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="90" t="s">
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="93"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="91"/>
-      <c r="BL13" s="91"/>
-      <c r="BM13" s="91"/>
-      <c r="BN13" s="91"/>
-      <c r="BO13" s="91"/>
-      <c r="BP13" s="91"/>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="91"/>
-      <c r="BS13" s="91"/>
-      <c r="BT13" s="91"/>
-      <c r="BU13" s="92"/>
+      <c r="BH13" s="93"/>
+      <c r="BI13" s="93"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="93"/>
+      <c r="BL13" s="93"/>
+      <c r="BM13" s="93"/>
+      <c r="BN13" s="93"/>
+      <c r="BO13" s="93"/>
+      <c r="BP13" s="93"/>
+      <c r="BQ13" s="93"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="93"/>
+      <c r="BU13" s="94"/>
       <c r="BV13" s="45"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="35"/>
@@ -5262,13 +5287,13 @@
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="79.5" customHeight="1">
+    <row r="14" spans="1:84" ht="73.900000000000006" customHeight="1">
       <c r="A14" s="45">
         <v>6</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="35"/>
@@ -5282,78 +5307,76 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="93" t="s">
+      <c r="P14" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="93" t="s">
+      <c r="Q14" s="91"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="94"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="94"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="91"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL14" s="35"/>
       <c r="AM14" s="36"/>
-      <c r="AN14" s="90" t="s">
+      <c r="AN14" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO14" s="91"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="91"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="92"/>
-      <c r="BG14" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="91"/>
-      <c r="BL14" s="91"/>
-      <c r="BM14" s="91"/>
-      <c r="BN14" s="91"/>
-      <c r="BO14" s="91"/>
-      <c r="BP14" s="91"/>
-      <c r="BQ14" s="91"/>
-      <c r="BR14" s="91"/>
-      <c r="BS14" s="91"/>
-      <c r="BT14" s="91"/>
-      <c r="BU14" s="92"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="93"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH14" s="93"/>
+      <c r="BI14" s="93"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="93"/>
+      <c r="BL14" s="93"/>
+      <c r="BM14" s="93"/>
+      <c r="BN14" s="93"/>
+      <c r="BO14" s="93"/>
+      <c r="BP14" s="93"/>
+      <c r="BQ14" s="93"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="93"/>
+      <c r="BU14" s="94"/>
       <c r="BV14" s="45"/>
       <c r="BW14" s="35"/>
       <c r="BX14" s="35"/>
@@ -5366,7 +5389,7 @@
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="87" customHeight="1">
+    <row r="15" spans="1:84" ht="79.5" customHeight="1">
       <c r="A15" s="45">
         <v>7</v>
       </c>
@@ -5386,76 +5409,78 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="93" t="s">
+      <c r="P15" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="91"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U15" s="94"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="94"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="91"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
       <c r="AK15" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL15" s="35"/>
       <c r="AM15" s="36"/>
-      <c r="AN15" s="90" t="s">
+      <c r="AN15" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="92"/>
-      <c r="BG15" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="91"/>
-      <c r="BQ15" s="91"/>
-      <c r="BR15" s="91"/>
-      <c r="BS15" s="91"/>
-      <c r="BT15" s="91"/>
-      <c r="BU15" s="92"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="93"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="93"/>
+      <c r="BE15" s="93"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH15" s="93"/>
+      <c r="BI15" s="93"/>
+      <c r="BJ15" s="93"/>
+      <c r="BK15" s="93"/>
+      <c r="BL15" s="93"/>
+      <c r="BM15" s="93"/>
+      <c r="BN15" s="93"/>
+      <c r="BO15" s="93"/>
+      <c r="BP15" s="93"/>
+      <c r="BQ15" s="93"/>
+      <c r="BR15" s="93"/>
+      <c r="BS15" s="93"/>
+      <c r="BT15" s="93"/>
+      <c r="BU15" s="94"/>
       <c r="BV15" s="45"/>
       <c r="BW15" s="35"/>
       <c r="BX15" s="35"/>
@@ -5474,7 +5499,7 @@
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="45" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="35"/>
@@ -5488,78 +5513,76 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="93" t="s">
+      <c r="P16" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U16" s="94"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="94"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="91"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL16" s="35"/>
       <c r="AM16" s="36"/>
-      <c r="AN16" s="90" t="s">
+      <c r="AN16" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="92"/>
-      <c r="BG16" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH16" s="91"/>
-      <c r="BI16" s="91"/>
-      <c r="BJ16" s="91"/>
-      <c r="BK16" s="91"/>
-      <c r="BL16" s="91"/>
-      <c r="BM16" s="91"/>
-      <c r="BN16" s="91"/>
-      <c r="BO16" s="91"/>
-      <c r="BP16" s="91"/>
-      <c r="BQ16" s="91"/>
-      <c r="BR16" s="91"/>
-      <c r="BS16" s="91"/>
-      <c r="BT16" s="91"/>
-      <c r="BU16" s="92"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="93"/>
+      <c r="BQ16" s="93"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="93"/>
+      <c r="BU16" s="94"/>
       <c r="BV16" s="45"/>
       <c r="BW16" s="35"/>
       <c r="BX16" s="35"/>
@@ -5578,7 +5601,7 @@
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="35"/>
@@ -5592,16 +5615,16 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="93" t="s">
+      <c r="P17" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="94"/>
+      <c r="Q17" s="91"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="93" t="s">
+      <c r="T17" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="94"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
@@ -5610,12 +5633,12 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="93" t="s">
+      <c r="AD17" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="94"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="91"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="35"/>
       <c r="AJ17" s="36"/>
@@ -5624,46 +5647,46 @@
       </c>
       <c r="AL17" s="35"/>
       <c r="AM17" s="36"/>
-      <c r="AN17" s="90" t="s">
+      <c r="AN17" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="92"/>
-      <c r="BG17" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="91"/>
-      <c r="BJ17" s="91"/>
-      <c r="BK17" s="91"/>
-      <c r="BL17" s="91"/>
-      <c r="BM17" s="91"/>
-      <c r="BN17" s="91"/>
-      <c r="BO17" s="91"/>
-      <c r="BP17" s="91"/>
-      <c r="BQ17" s="91"/>
-      <c r="BR17" s="91"/>
-      <c r="BS17" s="91"/>
-      <c r="BT17" s="91"/>
-      <c r="BU17" s="92"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="93"/>
+      <c r="BQ17" s="93"/>
+      <c r="BR17" s="93"/>
+      <c r="BS17" s="93"/>
+      <c r="BT17" s="93"/>
+      <c r="BU17" s="94"/>
       <c r="BV17" s="45"/>
       <c r="BW17" s="35"/>
       <c r="BX17" s="35"/>
@@ -5682,7 +5705,7 @@
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="35"/>
@@ -5696,16 +5719,16 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="93" t="s">
+      <c r="P18" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="94"/>
+      <c r="Q18" s="91"/>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="93" t="s">
+      <c r="T18" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="94"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
       <c r="X18" s="43"/>
@@ -5714,12 +5737,12 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="93" t="s">
+      <c r="AD18" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="94"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="91"/>
       <c r="AH18" s="45"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="36"/>
@@ -5728,46 +5751,46 @@
       </c>
       <c r="AL18" s="35"/>
       <c r="AM18" s="36"/>
-      <c r="AN18" s="90" t="s">
+      <c r="AN18" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO18" s="91"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
-      <c r="BJ18" s="91"/>
-      <c r="BK18" s="91"/>
-      <c r="BL18" s="91"/>
-      <c r="BM18" s="91"/>
-      <c r="BN18" s="91"/>
-      <c r="BO18" s="91"/>
-      <c r="BP18" s="91"/>
-      <c r="BQ18" s="91"/>
-      <c r="BR18" s="91"/>
-      <c r="BS18" s="91"/>
-      <c r="BT18" s="91"/>
-      <c r="BU18" s="92"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="93"/>
+      <c r="BQ18" s="93"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="93"/>
+      <c r="BU18" s="94"/>
       <c r="BV18" s="45"/>
       <c r="BW18" s="35"/>
       <c r="BX18" s="35"/>
@@ -5786,7 +5809,7 @@
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="35"/>
@@ -5800,16 +5823,16 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="93" t="s">
+      <c r="P19" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="94"/>
+      <c r="Q19" s="91"/>
       <c r="R19" s="43"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="93" t="s">
+      <c r="T19" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="94"/>
+      <c r="U19" s="91"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
       <c r="X19" s="43"/>
@@ -5818,58 +5841,60 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="43"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="94"/>
+      <c r="AD19" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="91"/>
       <c r="AH19" s="45"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="36"/>
       <c r="AK19" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL19" s="35"/>
       <c r="AM19" s="36"/>
-      <c r="AN19" s="90" t="s">
+      <c r="AN19" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="92"/>
-      <c r="BG19" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
-      <c r="BJ19" s="91"/>
-      <c r="BK19" s="91"/>
-      <c r="BL19" s="91"/>
-      <c r="BM19" s="91"/>
-      <c r="BN19" s="91"/>
-      <c r="BO19" s="91"/>
-      <c r="BP19" s="91"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="91"/>
-      <c r="BS19" s="91"/>
-      <c r="BT19" s="91"/>
-      <c r="BU19" s="92"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="93"/>
+      <c r="BQ19" s="93"/>
+      <c r="BR19" s="93"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="94"/>
       <c r="BV19" s="45"/>
       <c r="BW19" s="35"/>
       <c r="BX19" s="35"/>
@@ -5882,13 +5907,13 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" spans="1:84" ht="123" customHeight="1">
+    <row r="20" spans="1:84" ht="87" customHeight="1">
       <c r="A20" s="45">
         <v>12</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="35"/>
@@ -5902,78 +5927,78 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="93" t="s">
+      <c r="P20" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="93" t="s">
+      <c r="Q20" s="91"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="94"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="36"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="91"/>
       <c r="AK20" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL20" s="35"/>
       <c r="AM20" s="36"/>
-      <c r="AN20" s="90" t="s">
+      <c r="AN20" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO20" s="91"/>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="91"/>
-      <c r="BC20" s="91"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="91"/>
-      <c r="BF20" s="92"/>
-      <c r="BG20" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH20" s="91"/>
-      <c r="BI20" s="91"/>
-      <c r="BJ20" s="91"/>
-      <c r="BK20" s="91"/>
-      <c r="BL20" s="91"/>
-      <c r="BM20" s="91"/>
-      <c r="BN20" s="91"/>
-      <c r="BO20" s="91"/>
-      <c r="BP20" s="91"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="91"/>
-      <c r="BS20" s="91"/>
-      <c r="BT20" s="91"/>
-      <c r="BU20" s="92"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="93"/>
+      <c r="BE20" s="93"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="93"/>
+      <c r="BK20" s="93"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="93"/>
+      <c r="BN20" s="93"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="93"/>
+      <c r="BQ20" s="93"/>
+      <c r="BR20" s="93"/>
+      <c r="BS20" s="93"/>
+      <c r="BT20" s="93"/>
+      <c r="BU20" s="94"/>
       <c r="BV20" s="45"/>
       <c r="BW20" s="35"/>
       <c r="BX20" s="35"/>
@@ -5986,13 +6011,13 @@
       <c r="CE20" s="35"/>
       <c r="CF20" s="36"/>
     </row>
-    <row r="21" spans="1:84" ht="105.8" customHeight="1">
+    <row r="21" spans="1:84" ht="87" customHeight="1">
       <c r="A21" s="45">
         <v>13</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="35"/>
@@ -6006,28 +6031,28 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="93" t="s">
+      <c r="P21" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="94"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="94"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="91"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="91"/>
       <c r="AH21" s="45"/>
       <c r="AI21" s="35"/>
       <c r="AJ21" s="36"/>
@@ -6036,46 +6061,46 @@
       </c>
       <c r="AL21" s="35"/>
       <c r="AM21" s="36"/>
-      <c r="AN21" s="90" t="s">
+      <c r="AN21" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO21" s="91"/>
-      <c r="AP21" s="91"/>
-      <c r="AQ21" s="91"/>
-      <c r="AR21" s="92"/>
-      <c r="AS21" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="91"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="91"/>
-      <c r="BF21" s="92"/>
-      <c r="BG21" s="90" t="s">
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="93"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="93"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="93"/>
+      <c r="AY21" s="93"/>
+      <c r="AZ21" s="93"/>
+      <c r="BA21" s="93"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="93"/>
+      <c r="BE21" s="93"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="BH21" s="91"/>
-      <c r="BI21" s="91"/>
-      <c r="BJ21" s="91"/>
-      <c r="BK21" s="91"/>
-      <c r="BL21" s="91"/>
-      <c r="BM21" s="91"/>
-      <c r="BN21" s="91"/>
-      <c r="BO21" s="91"/>
-      <c r="BP21" s="91"/>
-      <c r="BQ21" s="91"/>
-      <c r="BR21" s="91"/>
-      <c r="BS21" s="91"/>
-      <c r="BT21" s="91"/>
-      <c r="BU21" s="92"/>
+      <c r="BH21" s="93"/>
+      <c r="BI21" s="93"/>
+      <c r="BJ21" s="93"/>
+      <c r="BK21" s="93"/>
+      <c r="BL21" s="93"/>
+      <c r="BM21" s="93"/>
+      <c r="BN21" s="93"/>
+      <c r="BO21" s="93"/>
+      <c r="BP21" s="93"/>
+      <c r="BQ21" s="93"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="94"/>
       <c r="BV21" s="45"/>
       <c r="BW21" s="35"/>
       <c r="BX21" s="35"/>
@@ -6088,13 +6113,13 @@
       <c r="CE21" s="35"/>
       <c r="CF21" s="36"/>
     </row>
-    <row r="22" spans="1:84" ht="105.8" customHeight="1">
+    <row r="22" spans="1:84" ht="123" customHeight="1">
       <c r="A22" s="45">
         <v>14</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="45" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="35"/>
@@ -6108,30 +6133,30 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="93" t="s">
+      <c r="P22" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="93" t="s">
+      <c r="Q22" s="91"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="94"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="94"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="91"/>
       <c r="AH22" s="45"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="36"/>
@@ -6140,46 +6165,46 @@
       </c>
       <c r="AL22" s="35"/>
       <c r="AM22" s="36"/>
-      <c r="AN22" s="90" t="s">
+      <c r="AN22" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="92"/>
-      <c r="AS22" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="91"/>
-      <c r="BC22" s="91"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="91"/>
-      <c r="BF22" s="92"/>
-      <c r="BG22" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH22" s="91"/>
-      <c r="BI22" s="91"/>
-      <c r="BJ22" s="91"/>
-      <c r="BK22" s="91"/>
-      <c r="BL22" s="91"/>
-      <c r="BM22" s="91"/>
-      <c r="BN22" s="91"/>
-      <c r="BO22" s="91"/>
-      <c r="BP22" s="91"/>
-      <c r="BQ22" s="91"/>
-      <c r="BR22" s="91"/>
-      <c r="BS22" s="91"/>
-      <c r="BT22" s="91"/>
-      <c r="BU22" s="92"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
+      <c r="AW22" s="93"/>
+      <c r="AX22" s="93"/>
+      <c r="AY22" s="93"/>
+      <c r="AZ22" s="93"/>
+      <c r="BA22" s="93"/>
+      <c r="BB22" s="93"/>
+      <c r="BC22" s="93"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="93"/>
+      <c r="BF22" s="94"/>
+      <c r="BG22" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH22" s="93"/>
+      <c r="BI22" s="93"/>
+      <c r="BJ22" s="93"/>
+      <c r="BK22" s="93"/>
+      <c r="BL22" s="93"/>
+      <c r="BM22" s="93"/>
+      <c r="BN22" s="93"/>
+      <c r="BO22" s="93"/>
+      <c r="BP22" s="93"/>
+      <c r="BQ22" s="93"/>
+      <c r="BR22" s="93"/>
+      <c r="BS22" s="93"/>
+      <c r="BT22" s="93"/>
+      <c r="BU22" s="94"/>
       <c r="BV22" s="45"/>
       <c r="BW22" s="35"/>
       <c r="BX22" s="35"/>
@@ -6192,13 +6217,13 @@
       <c r="CE22" s="35"/>
       <c r="CF22" s="36"/>
     </row>
-    <row r="23" spans="1:84" ht="128.25" customHeight="1">
+    <row r="23" spans="1:84" ht="105.8" customHeight="1">
       <c r="A23" s="45">
         <v>15</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="45" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="35"/>
@@ -6212,78 +6237,76 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="93" t="s">
+      <c r="P23" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U23" s="94"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="94"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="91"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="35"/>
       <c r="AJ23" s="36"/>
       <c r="AK23" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL23" s="35"/>
       <c r="AM23" s="36"/>
-      <c r="AN23" s="90" t="s">
+      <c r="AN23" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT23" s="102"/>
-      <c r="AU23" s="102"/>
-      <c r="AV23" s="102"/>
-      <c r="AW23" s="102"/>
-      <c r="AX23" s="102"/>
-      <c r="AY23" s="102"/>
-      <c r="AZ23" s="102"/>
-      <c r="BA23" s="102"/>
-      <c r="BB23" s="102"/>
-      <c r="BC23" s="102"/>
-      <c r="BD23" s="102"/>
-      <c r="BE23" s="102"/>
-      <c r="BF23" s="103"/>
-      <c r="BG23" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH23" s="91"/>
-      <c r="BI23" s="91"/>
-      <c r="BJ23" s="91"/>
-      <c r="BK23" s="91"/>
-      <c r="BL23" s="91"/>
-      <c r="BM23" s="91"/>
-      <c r="BN23" s="91"/>
-      <c r="BO23" s="91"/>
-      <c r="BP23" s="91"/>
-      <c r="BQ23" s="91"/>
-      <c r="BR23" s="91"/>
-      <c r="BS23" s="91"/>
-      <c r="BT23" s="91"/>
-      <c r="BU23" s="92"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="93"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="93"/>
+      <c r="BA23" s="93"/>
+      <c r="BB23" s="93"/>
+      <c r="BC23" s="93"/>
+      <c r="BD23" s="93"/>
+      <c r="BE23" s="93"/>
+      <c r="BF23" s="94"/>
+      <c r="BG23" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH23" s="93"/>
+      <c r="BI23" s="93"/>
+      <c r="BJ23" s="93"/>
+      <c r="BK23" s="93"/>
+      <c r="BL23" s="93"/>
+      <c r="BM23" s="93"/>
+      <c r="BN23" s="93"/>
+      <c r="BO23" s="93"/>
+      <c r="BP23" s="93"/>
+      <c r="BQ23" s="93"/>
+      <c r="BR23" s="93"/>
+      <c r="BS23" s="93"/>
+      <c r="BT23" s="93"/>
+      <c r="BU23" s="94"/>
       <c r="BV23" s="45"/>
       <c r="BW23" s="35"/>
       <c r="BX23" s="35"/>
@@ -6296,7 +6319,7 @@
       <c r="CE23" s="35"/>
       <c r="CF23" s="36"/>
     </row>
-    <row r="24" spans="1:84" ht="123" customHeight="1">
+    <row r="24" spans="1:84" ht="105.8" customHeight="1">
       <c r="A24" s="45">
         <v>16</v>
       </c>
@@ -6316,30 +6339,30 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
-      <c r="P24" s="93" t="s">
+      <c r="P24" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="93" t="s">
+      <c r="Q24" s="91"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="94"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="93" t="s">
+      <c r="U24" s="91"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="94"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="91"/>
       <c r="AH24" s="45"/>
       <c r="AI24" s="35"/>
       <c r="AJ24" s="36"/>
@@ -6348,46 +6371,46 @@
       </c>
       <c r="AL24" s="35"/>
       <c r="AM24" s="36"/>
-      <c r="AN24" s="90" t="s">
+      <c r="AN24" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO24" s="91"/>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91"/>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="91"/>
-      <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
-      <c r="BD24" s="91"/>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="92"/>
-      <c r="BG24" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH24" s="91"/>
-      <c r="BI24" s="91"/>
-      <c r="BJ24" s="91"/>
-      <c r="BK24" s="91"/>
-      <c r="BL24" s="91"/>
-      <c r="BM24" s="91"/>
-      <c r="BN24" s="91"/>
-      <c r="BO24" s="91"/>
-      <c r="BP24" s="91"/>
-      <c r="BQ24" s="91"/>
-      <c r="BR24" s="91"/>
-      <c r="BS24" s="91"/>
-      <c r="BT24" s="91"/>
-      <c r="BU24" s="92"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="93"/>
+      <c r="BA24" s="93"/>
+      <c r="BB24" s="93"/>
+      <c r="BC24" s="93"/>
+      <c r="BD24" s="93"/>
+      <c r="BE24" s="93"/>
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH24" s="93"/>
+      <c r="BI24" s="93"/>
+      <c r="BJ24" s="93"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="93"/>
+      <c r="BM24" s="93"/>
+      <c r="BN24" s="93"/>
+      <c r="BO24" s="93"/>
+      <c r="BP24" s="93"/>
+      <c r="BQ24" s="93"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="94"/>
       <c r="BV24" s="45"/>
       <c r="BW24" s="35"/>
       <c r="BX24" s="35"/>
@@ -6400,7 +6423,7 @@
       <c r="CE24" s="35"/>
       <c r="CF24" s="36"/>
     </row>
-    <row r="25" spans="1:84" ht="123" customHeight="1">
+    <row r="25" spans="1:84" ht="128.25" customHeight="1">
       <c r="A25" s="45">
         <v>17</v>
       </c>
@@ -6420,30 +6443,30 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="93" t="s">
+      <c r="P25" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="93" t="s">
+      <c r="Q25" s="91"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U25" s="94"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="93" t="s">
+      <c r="U25" s="91"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="94"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="91"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="36"/>
@@ -6452,46 +6475,46 @@
       </c>
       <c r="AL25" s="35"/>
       <c r="AM25" s="36"/>
-      <c r="AN25" s="90" t="s">
+      <c r="AN25" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO25" s="91"/>
-      <c r="AP25" s="91"/>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="91"/>
-      <c r="BC25" s="91"/>
-      <c r="BD25" s="91"/>
-      <c r="BE25" s="91"/>
-      <c r="BF25" s="92"/>
-      <c r="BG25" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH25" s="91"/>
-      <c r="BI25" s="91"/>
-      <c r="BJ25" s="91"/>
-      <c r="BK25" s="91"/>
-      <c r="BL25" s="91"/>
-      <c r="BM25" s="91"/>
-      <c r="BN25" s="91"/>
-      <c r="BO25" s="91"/>
-      <c r="BP25" s="91"/>
-      <c r="BQ25" s="91"/>
-      <c r="BR25" s="91"/>
-      <c r="BS25" s="91"/>
-      <c r="BT25" s="91"/>
-      <c r="BU25" s="92"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT25" s="145"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="145"/>
+      <c r="AW25" s="145"/>
+      <c r="AX25" s="145"/>
+      <c r="AY25" s="145"/>
+      <c r="AZ25" s="145"/>
+      <c r="BA25" s="145"/>
+      <c r="BB25" s="145"/>
+      <c r="BC25" s="145"/>
+      <c r="BD25" s="145"/>
+      <c r="BE25" s="145"/>
+      <c r="BF25" s="146"/>
+      <c r="BG25" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH25" s="93"/>
+      <c r="BI25" s="93"/>
+      <c r="BJ25" s="93"/>
+      <c r="BK25" s="93"/>
+      <c r="BL25" s="93"/>
+      <c r="BM25" s="93"/>
+      <c r="BN25" s="93"/>
+      <c r="BO25" s="93"/>
+      <c r="BP25" s="93"/>
+      <c r="BQ25" s="93"/>
+      <c r="BR25" s="93"/>
+      <c r="BS25" s="93"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="94"/>
       <c r="BV25" s="45"/>
       <c r="BW25" s="35"/>
       <c r="BX25" s="35"/>
@@ -6504,7 +6527,7 @@
       <c r="CE25" s="35"/>
       <c r="CF25" s="36"/>
     </row>
-    <row r="26" spans="1:84" ht="52.85" customHeight="1">
+    <row r="26" spans="1:84" ht="123" customHeight="1">
       <c r="A26" s="45">
         <v>18</v>
       </c>
@@ -6524,76 +6547,78 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="93" t="s">
+      <c r="P26" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="93" t="s">
+      <c r="Q26" s="91"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="94"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="94"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="91"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="35"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL26" s="35"/>
       <c r="AM26" s="36"/>
-      <c r="AN26" s="90" t="s">
+      <c r="AN26" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO26" s="91"/>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="92"/>
-      <c r="AS26" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="91"/>
-      <c r="BA26" s="91"/>
-      <c r="BB26" s="91"/>
-      <c r="BC26" s="91"/>
-      <c r="BD26" s="91"/>
-      <c r="BE26" s="91"/>
-      <c r="BF26" s="92"/>
-      <c r="BG26" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH26" s="91"/>
-      <c r="BI26" s="91"/>
-      <c r="BJ26" s="91"/>
-      <c r="BK26" s="91"/>
-      <c r="BL26" s="91"/>
-      <c r="BM26" s="91"/>
-      <c r="BN26" s="91"/>
-      <c r="BO26" s="91"/>
-      <c r="BP26" s="91"/>
-      <c r="BQ26" s="91"/>
-      <c r="BR26" s="91"/>
-      <c r="BS26" s="91"/>
-      <c r="BT26" s="91"/>
-      <c r="BU26" s="92"/>
+      <c r="AO26" s="93"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="93"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT26" s="93"/>
+      <c r="AU26" s="93"/>
+      <c r="AV26" s="93"/>
+      <c r="AW26" s="93"/>
+      <c r="AX26" s="93"/>
+      <c r="AY26" s="93"/>
+      <c r="AZ26" s="93"/>
+      <c r="BA26" s="93"/>
+      <c r="BB26" s="93"/>
+      <c r="BC26" s="93"/>
+      <c r="BD26" s="93"/>
+      <c r="BE26" s="93"/>
+      <c r="BF26" s="94"/>
+      <c r="BG26" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH26" s="93"/>
+      <c r="BI26" s="93"/>
+      <c r="BJ26" s="93"/>
+      <c r="BK26" s="93"/>
+      <c r="BL26" s="93"/>
+      <c r="BM26" s="93"/>
+      <c r="BN26" s="93"/>
+      <c r="BO26" s="93"/>
+      <c r="BP26" s="93"/>
+      <c r="BQ26" s="93"/>
+      <c r="BR26" s="93"/>
+      <c r="BS26" s="93"/>
+      <c r="BT26" s="93"/>
+      <c r="BU26" s="94"/>
       <c r="BV26" s="45"/>
       <c r="BW26" s="35"/>
       <c r="BX26" s="35"/>
@@ -6606,13 +6631,13 @@
       <c r="CE26" s="35"/>
       <c r="CF26" s="36"/>
     </row>
-    <row r="27" spans="1:84" ht="102.05" customHeight="1">
+    <row r="27" spans="1:84" ht="107.1" customHeight="1">
       <c r="A27" s="45">
         <v>19</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="35"/>
@@ -6626,78 +6651,78 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
-      <c r="P27" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="93" t="s">
+      <c r="P27" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="93" t="s">
+      <c r="Q27" s="91"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="36"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="91"/>
       <c r="AK27" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="36"/>
-      <c r="AN27" s="90" t="s">
+      <c r="AN27" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO27" s="91"/>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="92"/>
-      <c r="AS27" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="91"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="91"/>
-      <c r="BE27" s="91"/>
-      <c r="BF27" s="92"/>
-      <c r="BG27" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH27" s="91"/>
-      <c r="BI27" s="91"/>
-      <c r="BJ27" s="91"/>
-      <c r="BK27" s="91"/>
-      <c r="BL27" s="91"/>
-      <c r="BM27" s="91"/>
-      <c r="BN27" s="91"/>
-      <c r="BO27" s="91"/>
-      <c r="BP27" s="91"/>
-      <c r="BQ27" s="91"/>
-      <c r="BR27" s="91"/>
-      <c r="BS27" s="91"/>
-      <c r="BT27" s="91"/>
-      <c r="BU27" s="92"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="93"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT27" s="93"/>
+      <c r="AU27" s="93"/>
+      <c r="AV27" s="93"/>
+      <c r="AW27" s="93"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="93"/>
+      <c r="AZ27" s="93"/>
+      <c r="BA27" s="93"/>
+      <c r="BB27" s="93"/>
+      <c r="BC27" s="93"/>
+      <c r="BD27" s="93"/>
+      <c r="BE27" s="93"/>
+      <c r="BF27" s="94"/>
+      <c r="BG27" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH27" s="93"/>
+      <c r="BI27" s="93"/>
+      <c r="BJ27" s="93"/>
+      <c r="BK27" s="93"/>
+      <c r="BL27" s="93"/>
+      <c r="BM27" s="93"/>
+      <c r="BN27" s="93"/>
+      <c r="BO27" s="93"/>
+      <c r="BP27" s="93"/>
+      <c r="BQ27" s="93"/>
+      <c r="BR27" s="93"/>
+      <c r="BS27" s="93"/>
+      <c r="BT27" s="93"/>
+      <c r="BU27" s="94"/>
       <c r="BV27" s="45"/>
       <c r="BW27" s="35"/>
       <c r="BX27" s="35"/>
@@ -6716,7 +6741,7 @@
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="35"/>
@@ -6730,30 +6755,30 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
-      <c r="P28" s="93" t="s">
+      <c r="P28" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="93" t="s">
+      <c r="Q28" s="91"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="94"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="93" t="s">
+      <c r="U28" s="91"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="94"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="91"/>
       <c r="AH28" s="45"/>
       <c r="AI28" s="35"/>
       <c r="AJ28" s="36"/>
@@ -6762,46 +6787,46 @@
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="36"/>
-      <c r="AN28" s="90" t="s">
+      <c r="AN28" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO28" s="91"/>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="91"/>
-      <c r="BA28" s="91"/>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="91"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH28" s="91"/>
-      <c r="BI28" s="91"/>
-      <c r="BJ28" s="91"/>
-      <c r="BK28" s="91"/>
-      <c r="BL28" s="91"/>
-      <c r="BM28" s="91"/>
-      <c r="BN28" s="91"/>
-      <c r="BO28" s="91"/>
-      <c r="BP28" s="91"/>
-      <c r="BQ28" s="91"/>
-      <c r="BR28" s="91"/>
-      <c r="BS28" s="91"/>
-      <c r="BT28" s="91"/>
-      <c r="BU28" s="92"/>
+      <c r="AO28" s="93"/>
+      <c r="AP28" s="93"/>
+      <c r="AQ28" s="93"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="93"/>
+      <c r="AV28" s="93"/>
+      <c r="AW28" s="93"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="93"/>
+      <c r="BA28" s="93"/>
+      <c r="BB28" s="93"/>
+      <c r="BC28" s="93"/>
+      <c r="BD28" s="93"/>
+      <c r="BE28" s="93"/>
+      <c r="BF28" s="94"/>
+      <c r="BG28" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH28" s="93"/>
+      <c r="BI28" s="93"/>
+      <c r="BJ28" s="93"/>
+      <c r="BK28" s="93"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="94"/>
       <c r="BV28" s="45"/>
       <c r="BW28" s="35"/>
       <c r="BX28" s="35"/>
@@ -6814,13 +6839,13 @@
       <c r="CE28" s="35"/>
       <c r="CF28" s="36"/>
     </row>
-    <row r="29" spans="1:84" ht="90" customHeight="1">
+    <row r="29" spans="1:84" ht="102.05" customHeight="1">
       <c r="A29" s="45">
         <v>21</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="35"/>
@@ -6834,76 +6859,78 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
-      <c r="P29" s="93" t="s">
+      <c r="P29" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="U29" s="94"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="94"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="91"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="91"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL29" s="35"/>
       <c r="AM29" s="36"/>
-      <c r="AN29" s="90" t="s">
+      <c r="AN29" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO29" s="91"/>
-      <c r="AP29" s="91"/>
-      <c r="AQ29" s="91"/>
-      <c r="AR29" s="92"/>
-      <c r="AS29" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="91"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="92"/>
-      <c r="BG29" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH29" s="91"/>
-      <c r="BI29" s="91"/>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="91"/>
-      <c r="BL29" s="91"/>
-      <c r="BM29" s="91"/>
-      <c r="BN29" s="91"/>
-      <c r="BO29" s="91"/>
-      <c r="BP29" s="91"/>
-      <c r="BQ29" s="91"/>
-      <c r="BR29" s="91"/>
-      <c r="BS29" s="91"/>
-      <c r="BT29" s="91"/>
-      <c r="BU29" s="92"/>
+      <c r="AO29" s="93"/>
+      <c r="AP29" s="93"/>
+      <c r="AQ29" s="93"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT29" s="93"/>
+      <c r="AU29" s="93"/>
+      <c r="AV29" s="93"/>
+      <c r="AW29" s="93"/>
+      <c r="AX29" s="93"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="93"/>
+      <c r="BA29" s="93"/>
+      <c r="BB29" s="93"/>
+      <c r="BC29" s="93"/>
+      <c r="BD29" s="93"/>
+      <c r="BE29" s="93"/>
+      <c r="BF29" s="94"/>
+      <c r="BG29" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH29" s="93"/>
+      <c r="BI29" s="93"/>
+      <c r="BJ29" s="93"/>
+      <c r="BK29" s="93"/>
+      <c r="BL29" s="93"/>
+      <c r="BM29" s="93"/>
+      <c r="BN29" s="93"/>
+      <c r="BO29" s="93"/>
+      <c r="BP29" s="93"/>
+      <c r="BQ29" s="93"/>
+      <c r="BR29" s="93"/>
+      <c r="BS29" s="93"/>
+      <c r="BT29" s="93"/>
+      <c r="BU29" s="94"/>
       <c r="BV29" s="45"/>
       <c r="BW29" s="35"/>
       <c r="BX29" s="35"/>
@@ -6922,7 +6949,7 @@
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="45" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="35"/>
@@ -6936,78 +6963,78 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
-      <c r="P30" s="93" t="s">
+      <c r="P30" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="93" t="s">
+      <c r="Q30" s="91"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" s="91"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="94"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="36"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="91"/>
       <c r="AK30" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL30" s="35"/>
       <c r="AM30" s="36"/>
-      <c r="AN30" s="90" t="s">
+      <c r="AN30" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO30" s="91"/>
-      <c r="AP30" s="91"/>
-      <c r="AQ30" s="91"/>
-      <c r="AR30" s="92"/>
-      <c r="AS30" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT30" s="91"/>
-      <c r="AU30" s="91"/>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="91"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="91"/>
-      <c r="BA30" s="91"/>
-      <c r="BB30" s="91"/>
-      <c r="BC30" s="91"/>
-      <c r="BD30" s="91"/>
-      <c r="BE30" s="91"/>
-      <c r="BF30" s="92"/>
-      <c r="BG30" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH30" s="91"/>
-      <c r="BI30" s="91"/>
-      <c r="BJ30" s="91"/>
-      <c r="BK30" s="91"/>
-      <c r="BL30" s="91"/>
-      <c r="BM30" s="91"/>
-      <c r="BN30" s="91"/>
-      <c r="BO30" s="91"/>
-      <c r="BP30" s="91"/>
-      <c r="BQ30" s="91"/>
-      <c r="BR30" s="91"/>
-      <c r="BS30" s="91"/>
-      <c r="BT30" s="91"/>
-      <c r="BU30" s="92"/>
+      <c r="AO30" s="93"/>
+      <c r="AP30" s="93"/>
+      <c r="AQ30" s="93"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="93"/>
+      <c r="AV30" s="93"/>
+      <c r="AW30" s="93"/>
+      <c r="AX30" s="93"/>
+      <c r="AY30" s="93"/>
+      <c r="AZ30" s="93"/>
+      <c r="BA30" s="93"/>
+      <c r="BB30" s="93"/>
+      <c r="BC30" s="93"/>
+      <c r="BD30" s="93"/>
+      <c r="BE30" s="93"/>
+      <c r="BF30" s="94"/>
+      <c r="BG30" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH30" s="93"/>
+      <c r="BI30" s="93"/>
+      <c r="BJ30" s="93"/>
+      <c r="BK30" s="93"/>
+      <c r="BL30" s="93"/>
+      <c r="BM30" s="93"/>
+      <c r="BN30" s="93"/>
+      <c r="BO30" s="93"/>
+      <c r="BP30" s="93"/>
+      <c r="BQ30" s="93"/>
+      <c r="BR30" s="93"/>
+      <c r="BS30" s="93"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="94"/>
       <c r="BV30" s="45"/>
       <c r="BW30" s="35"/>
       <c r="BX30" s="35"/>
@@ -7026,7 +7053,7 @@
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="45" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="35"/>
@@ -7040,78 +7067,76 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="93" t="s">
+      <c r="P31" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="94"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="94"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="91"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="91"/>
       <c r="AH31" s="45"/>
       <c r="AI31" s="35"/>
       <c r="AJ31" s="36"/>
       <c r="AK31" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL31" s="35"/>
       <c r="AM31" s="36"/>
-      <c r="AN31" s="90" t="s">
+      <c r="AN31" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO31" s="91"/>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="91"/>
-      <c r="AR31" s="92"/>
-      <c r="AS31" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="91"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="91"/>
-      <c r="BA31" s="91"/>
-      <c r="BB31" s="91"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="91"/>
-      <c r="BE31" s="91"/>
-      <c r="BF31" s="92"/>
-      <c r="BG31" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH31" s="91"/>
-      <c r="BI31" s="91"/>
-      <c r="BJ31" s="91"/>
-      <c r="BK31" s="91"/>
-      <c r="BL31" s="91"/>
-      <c r="BM31" s="91"/>
-      <c r="BN31" s="91"/>
-      <c r="BO31" s="91"/>
-      <c r="BP31" s="91"/>
-      <c r="BQ31" s="91"/>
-      <c r="BR31" s="91"/>
-      <c r="BS31" s="91"/>
-      <c r="BT31" s="91"/>
-      <c r="BU31" s="92"/>
+      <c r="AO31" s="93"/>
+      <c r="AP31" s="93"/>
+      <c r="AQ31" s="93"/>
+      <c r="AR31" s="94"/>
+      <c r="AS31" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT31" s="93"/>
+      <c r="AU31" s="93"/>
+      <c r="AV31" s="93"/>
+      <c r="AW31" s="93"/>
+      <c r="AX31" s="93"/>
+      <c r="AY31" s="93"/>
+      <c r="AZ31" s="93"/>
+      <c r="BA31" s="93"/>
+      <c r="BB31" s="93"/>
+      <c r="BC31" s="93"/>
+      <c r="BD31" s="93"/>
+      <c r="BE31" s="93"/>
+      <c r="BF31" s="94"/>
+      <c r="BG31" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH31" s="93"/>
+      <c r="BI31" s="93"/>
+      <c r="BJ31" s="93"/>
+      <c r="BK31" s="93"/>
+      <c r="BL31" s="93"/>
+      <c r="BM31" s="93"/>
+      <c r="BN31" s="93"/>
+      <c r="BO31" s="93"/>
+      <c r="BP31" s="93"/>
+      <c r="BQ31" s="93"/>
+      <c r="BR31" s="93"/>
+      <c r="BS31" s="93"/>
+      <c r="BT31" s="93"/>
+      <c r="BU31" s="94"/>
       <c r="BV31" s="45"/>
       <c r="BW31" s="35"/>
       <c r="BX31" s="35"/>
@@ -7130,7 +7155,7 @@
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="35"/>
@@ -7144,30 +7169,30 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
-      <c r="P32" s="93" t="s">
+      <c r="P32" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="93" t="s">
+      <c r="Q32" s="91"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="94"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="93" t="s">
+      <c r="U32" s="91"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="94"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="91"/>
       <c r="AH32" s="45"/>
       <c r="AI32" s="35"/>
       <c r="AJ32" s="36"/>
@@ -7176,46 +7201,46 @@
       </c>
       <c r="AL32" s="35"/>
       <c r="AM32" s="36"/>
-      <c r="AN32" s="90" t="s">
+      <c r="AN32" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO32" s="91"/>
-      <c r="AP32" s="91"/>
-      <c r="AQ32" s="91"/>
-      <c r="AR32" s="92"/>
-      <c r="AS32" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="91"/>
-      <c r="AX32" s="91"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="91"/>
-      <c r="BA32" s="91"/>
-      <c r="BB32" s="91"/>
-      <c r="BC32" s="91"/>
-      <c r="BD32" s="91"/>
-      <c r="BE32" s="91"/>
-      <c r="BF32" s="92"/>
-      <c r="BG32" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH32" s="91"/>
-      <c r="BI32" s="91"/>
-      <c r="BJ32" s="91"/>
-      <c r="BK32" s="91"/>
-      <c r="BL32" s="91"/>
-      <c r="BM32" s="91"/>
-      <c r="BN32" s="91"/>
-      <c r="BO32" s="91"/>
-      <c r="BP32" s="91"/>
-      <c r="BQ32" s="91"/>
-      <c r="BR32" s="91"/>
-      <c r="BS32" s="91"/>
-      <c r="BT32" s="91"/>
-      <c r="BU32" s="92"/>
+      <c r="AO32" s="93"/>
+      <c r="AP32" s="93"/>
+      <c r="AQ32" s="93"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="93"/>
+      <c r="AV32" s="93"/>
+      <c r="AW32" s="93"/>
+      <c r="AX32" s="93"/>
+      <c r="AY32" s="93"/>
+      <c r="AZ32" s="93"/>
+      <c r="BA32" s="93"/>
+      <c r="BB32" s="93"/>
+      <c r="BC32" s="93"/>
+      <c r="BD32" s="93"/>
+      <c r="BE32" s="93"/>
+      <c r="BF32" s="94"/>
+      <c r="BG32" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH32" s="93"/>
+      <c r="BI32" s="93"/>
+      <c r="BJ32" s="93"/>
+      <c r="BK32" s="93"/>
+      <c r="BL32" s="93"/>
+      <c r="BM32" s="93"/>
+      <c r="BN32" s="93"/>
+      <c r="BO32" s="93"/>
+      <c r="BP32" s="93"/>
+      <c r="BQ32" s="93"/>
+      <c r="BR32" s="93"/>
+      <c r="BS32" s="93"/>
+      <c r="BT32" s="93"/>
+      <c r="BU32" s="94"/>
       <c r="BV32" s="45"/>
       <c r="BW32" s="35"/>
       <c r="BX32" s="35"/>
@@ -7234,7 +7259,7 @@
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="35"/>
@@ -7248,76 +7273,78 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
-      <c r="P33" s="93" t="s">
+      <c r="P33" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="93" t="s">
+      <c r="Q33" s="91"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U33" s="94"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="94"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="91"/>
       <c r="AH33" s="45"/>
       <c r="AI33" s="35"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL33" s="35"/>
       <c r="AM33" s="36"/>
-      <c r="AN33" s="90" t="s">
+      <c r="AN33" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="AO33" s="91"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="91"/>
-      <c r="AR33" s="92"/>
-      <c r="AS33" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="91"/>
-      <c r="BA33" s="91"/>
-      <c r="BB33" s="91"/>
-      <c r="BC33" s="91"/>
-      <c r="BD33" s="91"/>
-      <c r="BE33" s="91"/>
-      <c r="BF33" s="92"/>
-      <c r="BG33" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH33" s="91"/>
-      <c r="BI33" s="91"/>
-      <c r="BJ33" s="91"/>
-      <c r="BK33" s="91"/>
-      <c r="BL33" s="91"/>
-      <c r="BM33" s="91"/>
-      <c r="BN33" s="91"/>
-      <c r="BO33" s="91"/>
-      <c r="BP33" s="91"/>
-      <c r="BQ33" s="91"/>
-      <c r="BR33" s="91"/>
-      <c r="BS33" s="91"/>
-      <c r="BT33" s="91"/>
-      <c r="BU33" s="92"/>
+      <c r="AO33" s="93"/>
+      <c r="AP33" s="93"/>
+      <c r="AQ33" s="93"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT33" s="93"/>
+      <c r="AU33" s="93"/>
+      <c r="AV33" s="93"/>
+      <c r="AW33" s="93"/>
+      <c r="AX33" s="93"/>
+      <c r="AY33" s="93"/>
+      <c r="AZ33" s="93"/>
+      <c r="BA33" s="93"/>
+      <c r="BB33" s="93"/>
+      <c r="BC33" s="93"/>
+      <c r="BD33" s="93"/>
+      <c r="BE33" s="93"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH33" s="93"/>
+      <c r="BI33" s="93"/>
+      <c r="BJ33" s="93"/>
+      <c r="BK33" s="93"/>
+      <c r="BL33" s="93"/>
+      <c r="BM33" s="93"/>
+      <c r="BN33" s="93"/>
+      <c r="BO33" s="93"/>
+      <c r="BP33" s="93"/>
+      <c r="BQ33" s="93"/>
+      <c r="BR33" s="93"/>
+      <c r="BS33" s="93"/>
+      <c r="BT33" s="93"/>
+      <c r="BU33" s="94"/>
       <c r="BV33" s="45"/>
       <c r="BW33" s="35"/>
       <c r="BX33" s="35"/>
@@ -7330,13 +7357,13 @@
       <c r="CE33" s="35"/>
       <c r="CF33" s="36"/>
     </row>
-    <row r="34" spans="1:84" ht="110.8" customHeight="1">
+    <row r="34" spans="1:84" ht="90" customHeight="1">
       <c r="A34" s="45">
         <v>26</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="45" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="35"/>
@@ -7350,76 +7377,78 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="93" t="s">
+      <c r="P34" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="93" t="s">
+      <c r="U34" s="91"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U34" s="94"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="94"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="91"/>
       <c r="AH34" s="45"/>
       <c r="AI34" s="35"/>
       <c r="AJ34" s="36"/>
       <c r="AK34" s="45" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AL34" s="35"/>
       <c r="AM34" s="36"/>
-      <c r="AN34" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="99"/>
-      <c r="AQ34" s="99"/>
-      <c r="AR34" s="100"/>
-      <c r="AS34" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
-      <c r="AW34" s="91"/>
-      <c r="AX34" s="91"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="91"/>
-      <c r="BA34" s="91"/>
-      <c r="BB34" s="91"/>
-      <c r="BC34" s="91"/>
-      <c r="BD34" s="91"/>
-      <c r="BE34" s="91"/>
-      <c r="BF34" s="92"/>
-      <c r="BG34" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH34" s="96"/>
-      <c r="BI34" s="96"/>
-      <c r="BJ34" s="96"/>
-      <c r="BK34" s="96"/>
-      <c r="BL34" s="96"/>
-      <c r="BM34" s="96"/>
-      <c r="BN34" s="96"/>
-      <c r="BO34" s="96"/>
-      <c r="BP34" s="96"/>
-      <c r="BQ34" s="96"/>
-      <c r="BR34" s="96"/>
-      <c r="BS34" s="96"/>
-      <c r="BT34" s="96"/>
-      <c r="BU34" s="97"/>
+      <c r="AN34" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO34" s="93"/>
+      <c r="AP34" s="93"/>
+      <c r="AQ34" s="93"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT34" s="93"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93"/>
+      <c r="AW34" s="93"/>
+      <c r="AX34" s="93"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="93"/>
+      <c r="BA34" s="93"/>
+      <c r="BB34" s="93"/>
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="93"/>
+      <c r="BE34" s="93"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH34" s="93"/>
+      <c r="BI34" s="93"/>
+      <c r="BJ34" s="93"/>
+      <c r="BK34" s="93"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="93"/>
+      <c r="BO34" s="93"/>
+      <c r="BP34" s="93"/>
+      <c r="BQ34" s="93"/>
+      <c r="BR34" s="93"/>
+      <c r="BS34" s="93"/>
+      <c r="BT34" s="93"/>
+      <c r="BU34" s="94"/>
       <c r="BV34" s="45"/>
       <c r="BW34" s="35"/>
       <c r="BX34" s="35"/>
@@ -7432,13 +7461,13 @@
       <c r="CE34" s="35"/>
       <c r="CF34" s="36"/>
     </row>
-    <row r="35" spans="1:84" ht="110.8" customHeight="1">
+    <row r="35" spans="1:84" ht="90" customHeight="1">
       <c r="A35" s="45">
         <v>27</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="45" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="35"/>
@@ -7452,76 +7481,78 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="93" t="s">
+      <c r="P35" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="93" t="s">
+      <c r="U35" s="91"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U35" s="94"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="94"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="36"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="91"/>
       <c r="AK35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL35" s="35"/>
       <c r="AM35" s="36"/>
-      <c r="AN35" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="99"/>
-      <c r="AR35" s="100"/>
-      <c r="AS35" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT35" s="91"/>
-      <c r="AU35" s="91"/>
-      <c r="AV35" s="91"/>
-      <c r="AW35" s="91"/>
-      <c r="AX35" s="91"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="91"/>
-      <c r="BA35" s="91"/>
-      <c r="BB35" s="91"/>
-      <c r="BC35" s="91"/>
-      <c r="BD35" s="91"/>
-      <c r="BE35" s="91"/>
-      <c r="BF35" s="92"/>
-      <c r="BG35" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH35" s="96"/>
-      <c r="BI35" s="96"/>
-      <c r="BJ35" s="96"/>
-      <c r="BK35" s="96"/>
-      <c r="BL35" s="96"/>
-      <c r="BM35" s="96"/>
-      <c r="BN35" s="96"/>
-      <c r="BO35" s="96"/>
-      <c r="BP35" s="96"/>
-      <c r="BQ35" s="96"/>
-      <c r="BR35" s="96"/>
-      <c r="BS35" s="96"/>
-      <c r="BT35" s="96"/>
-      <c r="BU35" s="97"/>
+      <c r="AN35" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="94"/>
+      <c r="BG35" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="93"/>
+      <c r="BP35" s="93"/>
+      <c r="BQ35" s="93"/>
+      <c r="BR35" s="93"/>
+      <c r="BS35" s="93"/>
+      <c r="BT35" s="93"/>
+      <c r="BU35" s="94"/>
       <c r="BV35" s="45"/>
       <c r="BW35" s="35"/>
       <c r="BX35" s="35"/>
@@ -7534,13 +7565,13 @@
       <c r="CE35" s="35"/>
       <c r="CF35" s="36"/>
     </row>
-    <row r="36" spans="1:84" ht="110.8" customHeight="1">
+    <row r="36" spans="1:84" ht="90" customHeight="1">
       <c r="A36" s="45">
         <v>28</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="45" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="35"/>
@@ -7554,28 +7585,28 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="93" t="s">
+      <c r="P36" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U36" s="94"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="44"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="91"/>
       <c r="AH36" s="45"/>
       <c r="AI36" s="35"/>
       <c r="AJ36" s="36"/>
@@ -7584,44 +7615,46 @@
       </c>
       <c r="AL36" s="35"/>
       <c r="AM36" s="36"/>
-      <c r="AN36" s="70"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="90" t="s">
+      <c r="AN36" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="93"/>
+      <c r="AQ36" s="93"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="AT36" s="91"/>
-      <c r="AU36" s="91"/>
-      <c r="AV36" s="91"/>
-      <c r="AW36" s="91"/>
-      <c r="AX36" s="91"/>
-      <c r="AY36" s="91"/>
-      <c r="AZ36" s="91"/>
-      <c r="BA36" s="91"/>
-      <c r="BB36" s="91"/>
-      <c r="BC36" s="91"/>
-      <c r="BD36" s="91"/>
-      <c r="BE36" s="91"/>
-      <c r="BF36" s="92"/>
-      <c r="BG36" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH36" s="91"/>
-      <c r="BI36" s="91"/>
-      <c r="BJ36" s="91"/>
-      <c r="BK36" s="91"/>
-      <c r="BL36" s="91"/>
-      <c r="BM36" s="91"/>
-      <c r="BN36" s="91"/>
-      <c r="BO36" s="91"/>
-      <c r="BP36" s="91"/>
-      <c r="BQ36" s="91"/>
-      <c r="BR36" s="91"/>
-      <c r="BS36" s="91"/>
-      <c r="BT36" s="91"/>
-      <c r="BU36" s="92"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="93"/>
+      <c r="AV36" s="93"/>
+      <c r="AW36" s="93"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="93"/>
+      <c r="BA36" s="93"/>
+      <c r="BB36" s="93"/>
+      <c r="BC36" s="93"/>
+      <c r="BD36" s="93"/>
+      <c r="BE36" s="93"/>
+      <c r="BF36" s="94"/>
+      <c r="BG36" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH36" s="93"/>
+      <c r="BI36" s="93"/>
+      <c r="BJ36" s="93"/>
+      <c r="BK36" s="93"/>
+      <c r="BL36" s="93"/>
+      <c r="BM36" s="93"/>
+      <c r="BN36" s="93"/>
+      <c r="BO36" s="93"/>
+      <c r="BP36" s="93"/>
+      <c r="BQ36" s="93"/>
+      <c r="BR36" s="93"/>
+      <c r="BS36" s="93"/>
+      <c r="BT36" s="93"/>
+      <c r="BU36" s="94"/>
       <c r="BV36" s="45"/>
       <c r="BW36" s="35"/>
       <c r="BX36" s="35"/>
@@ -7640,7 +7673,7 @@
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="45" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="35"/>
@@ -7654,28 +7687,28 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="93" t="s">
+      <c r="P37" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="93" t="s">
+      <c r="Q37" s="91"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="94"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="93"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="94"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="98"/>
+      <c r="AF37" s="98"/>
+      <c r="AG37" s="91"/>
       <c r="AH37" s="45"/>
       <c r="AI37" s="35"/>
       <c r="AJ37" s="36"/>
@@ -7684,44 +7717,46 @@
       </c>
       <c r="AL37" s="35"/>
       <c r="AM37" s="36"/>
-      <c r="AN37" s="98"/>
-      <c r="AO37" s="99"/>
-      <c r="AP37" s="99"/>
-      <c r="AQ37" s="99"/>
-      <c r="AR37" s="100"/>
-      <c r="AS37" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT37" s="91"/>
-      <c r="AU37" s="91"/>
-      <c r="AV37" s="91"/>
-      <c r="AW37" s="91"/>
-      <c r="AX37" s="91"/>
-      <c r="AY37" s="91"/>
-      <c r="AZ37" s="91"/>
-      <c r="BA37" s="91"/>
-      <c r="BB37" s="91"/>
-      <c r="BC37" s="91"/>
-      <c r="BD37" s="91"/>
-      <c r="BE37" s="91"/>
-      <c r="BF37" s="92"/>
-      <c r="BG37" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH37" s="96"/>
-      <c r="BI37" s="96"/>
-      <c r="BJ37" s="96"/>
-      <c r="BK37" s="96"/>
-      <c r="BL37" s="96"/>
-      <c r="BM37" s="96"/>
-      <c r="BN37" s="96"/>
-      <c r="BO37" s="96"/>
-      <c r="BP37" s="96"/>
-      <c r="BQ37" s="96"/>
-      <c r="BR37" s="96"/>
-      <c r="BS37" s="96"/>
-      <c r="BT37" s="96"/>
-      <c r="BU37" s="97"/>
+      <c r="AN37" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="132"/>
+      <c r="AQ37" s="132"/>
+      <c r="AR37" s="148"/>
+      <c r="AS37" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT37" s="93"/>
+      <c r="AU37" s="93"/>
+      <c r="AV37" s="93"/>
+      <c r="AW37" s="93"/>
+      <c r="AX37" s="93"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BA37" s="93"/>
+      <c r="BB37" s="93"/>
+      <c r="BC37" s="93"/>
+      <c r="BD37" s="93"/>
+      <c r="BE37" s="93"/>
+      <c r="BF37" s="94"/>
+      <c r="BG37" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH37" s="112"/>
+      <c r="BI37" s="112"/>
+      <c r="BJ37" s="112"/>
+      <c r="BK37" s="112"/>
+      <c r="BL37" s="112"/>
+      <c r="BM37" s="112"/>
+      <c r="BN37" s="112"/>
+      <c r="BO37" s="112"/>
+      <c r="BP37" s="112"/>
+      <c r="BQ37" s="112"/>
+      <c r="BR37" s="112"/>
+      <c r="BS37" s="112"/>
+      <c r="BT37" s="112"/>
+      <c r="BU37" s="113"/>
       <c r="BV37" s="45"/>
       <c r="BW37" s="35"/>
       <c r="BX37" s="35"/>
@@ -7734,43 +7769,612 @@
       <c r="CE37" s="35"/>
       <c r="CF37" s="36"/>
     </row>
+    <row r="38" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A38" s="45">
+        <v>30</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="91"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="91"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="91"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="91"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="132"/>
+      <c r="AQ38" s="132"/>
+      <c r="AR38" s="148"/>
+      <c r="AS38" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT38" s="93"/>
+      <c r="AU38" s="93"/>
+      <c r="AV38" s="93"/>
+      <c r="AW38" s="93"/>
+      <c r="AX38" s="93"/>
+      <c r="AY38" s="93"/>
+      <c r="AZ38" s="93"/>
+      <c r="BA38" s="93"/>
+      <c r="BB38" s="93"/>
+      <c r="BC38" s="93"/>
+      <c r="BD38" s="93"/>
+      <c r="BE38" s="93"/>
+      <c r="BF38" s="94"/>
+      <c r="BG38" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH38" s="112"/>
+      <c r="BI38" s="112"/>
+      <c r="BJ38" s="112"/>
+      <c r="BK38" s="112"/>
+      <c r="BL38" s="112"/>
+      <c r="BM38" s="112"/>
+      <c r="BN38" s="112"/>
+      <c r="BO38" s="112"/>
+      <c r="BP38" s="112"/>
+      <c r="BQ38" s="112"/>
+      <c r="BR38" s="112"/>
+      <c r="BS38" s="112"/>
+      <c r="BT38" s="112"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="45"/>
+      <c r="BW38" s="35"/>
+      <c r="BX38" s="35"/>
+      <c r="BY38" s="36"/>
+      <c r="BZ38" s="45"/>
+      <c r="CA38" s="35"/>
+      <c r="CB38" s="36"/>
+      <c r="CC38" s="45"/>
+      <c r="CD38" s="35"/>
+      <c r="CE38" s="35"/>
+      <c r="CF38" s="36"/>
+    </row>
+    <row r="39" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A39" s="45">
+        <v>31</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="91"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="70"/>
+      <c r="AO39" s="69"/>
+      <c r="AP39" s="69"/>
+      <c r="AQ39" s="69"/>
+      <c r="AR39" s="71"/>
+      <c r="AS39" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT39" s="93"/>
+      <c r="AU39" s="93"/>
+      <c r="AV39" s="93"/>
+      <c r="AW39" s="93"/>
+      <c r="AX39" s="93"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="93"/>
+      <c r="BD39" s="93"/>
+      <c r="BE39" s="93"/>
+      <c r="BF39" s="94"/>
+      <c r="BG39" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH39" s="93"/>
+      <c r="BI39" s="93"/>
+      <c r="BJ39" s="93"/>
+      <c r="BK39" s="93"/>
+      <c r="BL39" s="93"/>
+      <c r="BM39" s="93"/>
+      <c r="BN39" s="93"/>
+      <c r="BO39" s="93"/>
+      <c r="BP39" s="93"/>
+      <c r="BQ39" s="93"/>
+      <c r="BR39" s="93"/>
+      <c r="BS39" s="93"/>
+      <c r="BT39" s="93"/>
+      <c r="BU39" s="94"/>
+      <c r="BV39" s="45"/>
+      <c r="BW39" s="35"/>
+      <c r="BX39" s="35"/>
+      <c r="BY39" s="36"/>
+      <c r="BZ39" s="45"/>
+      <c r="CA39" s="35"/>
+      <c r="CB39" s="36"/>
+      <c r="CC39" s="45"/>
+      <c r="CD39" s="35"/>
+      <c r="CE39" s="35"/>
+      <c r="CF39" s="36"/>
+    </row>
+    <row r="40" spans="1:84" ht="110.8" customHeight="1">
+      <c r="A40" s="45">
+        <v>32</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="91"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="147"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="132"/>
+      <c r="AQ40" s="132"/>
+      <c r="AR40" s="148"/>
+      <c r="AS40" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT40" s="93"/>
+      <c r="AU40" s="93"/>
+      <c r="AV40" s="93"/>
+      <c r="AW40" s="93"/>
+      <c r="AX40" s="93"/>
+      <c r="AY40" s="93"/>
+      <c r="AZ40" s="93"/>
+      <c r="BA40" s="93"/>
+      <c r="BB40" s="93"/>
+      <c r="BC40" s="93"/>
+      <c r="BD40" s="93"/>
+      <c r="BE40" s="93"/>
+      <c r="BF40" s="94"/>
+      <c r="BG40" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH40" s="112"/>
+      <c r="BI40" s="112"/>
+      <c r="BJ40" s="112"/>
+      <c r="BK40" s="112"/>
+      <c r="BL40" s="112"/>
+      <c r="BM40" s="112"/>
+      <c r="BN40" s="112"/>
+      <c r="BO40" s="112"/>
+      <c r="BP40" s="112"/>
+      <c r="BQ40" s="112"/>
+      <c r="BR40" s="112"/>
+      <c r="BS40" s="112"/>
+      <c r="BT40" s="112"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="45"/>
+      <c r="BW40" s="35"/>
+      <c r="BX40" s="35"/>
+      <c r="BY40" s="36"/>
+      <c r="BZ40" s="45"/>
+      <c r="CA40" s="35"/>
+      <c r="CB40" s="36"/>
+      <c r="CC40" s="45"/>
+      <c r="CD40" s="35"/>
+      <c r="CE40" s="35"/>
+      <c r="CF40" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="328">
+  <mergeCells count="361">
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AS35:BF35"/>
+    <mergeCell ref="BG35:BU35"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="AS33:BF33"/>
+    <mergeCell ref="BG34:BU34"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="BG32:BU32"/>
+    <mergeCell ref="BG33:BU33"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="AS40:BF40"/>
+    <mergeCell ref="BG40:BU40"/>
+    <mergeCell ref="BG39:BU39"/>
+    <mergeCell ref="AS39:BF39"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AG40"/>
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="BG36:BU36"/>
+    <mergeCell ref="AS37:BF37"/>
+    <mergeCell ref="AN37:AR37"/>
+    <mergeCell ref="BG37:BU37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="AN38:AR38"/>
+    <mergeCell ref="AS38:BF38"/>
+    <mergeCell ref="BG38:BU38"/>
     <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:U36"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS36:BF36"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
     <mergeCell ref="BV7:BY8"/>
     <mergeCell ref="BZ7:CB8"/>
     <mergeCell ref="CC7:CF8"/>
@@ -7795,275 +8399,41 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:BF29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS33:BF33"/>
-    <mergeCell ref="BG33:BU33"/>
-    <mergeCell ref="AS34:BF34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="BG34:BU34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AN35:AR35"/>
-    <mergeCell ref="AS35:BF35"/>
-    <mergeCell ref="BG35:BU35"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="AN37:AR37"/>
-    <mergeCell ref="AS37:BF37"/>
-    <mergeCell ref="BG37:BU37"/>
-    <mergeCell ref="BG36:BU36"/>
-    <mergeCell ref="AS36:BF36"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:BF32"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="AS31:BF31"/>
-    <mergeCell ref="BG32:BU32"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:BF30"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8076,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18.7"/>
@@ -8172,14 +8542,14 @@
     </row>
     <row r="3" spans="1:20" ht="24.8" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>84</v>
@@ -8197,7 +8567,7 @@
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
       <c r="P3" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
@@ -8206,7 +8576,7 @@
     </row>
     <row r="4" spans="1:20" ht="27.6" customHeight="1">
       <c r="B4" s="67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="31.35" customHeight="1"/>
@@ -8220,44 +8590,44 @@
         <v>87</v>
       </c>
       <c r="B9" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>115</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.7" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:20" ht="18.7" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.7" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.6" customHeight="1">
@@ -8270,44 +8640,44 @@
         <v>87</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>119</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.2" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" ht="19.2" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.2" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B26" s="58">
         <v>3</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8770,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMS_単体テスト仕様書_社員情報更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A6754-E190-4023-B348-0AD2A8B1A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D227A0D-F57F-4473-936B-D0E990BE2AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18159" windowHeight="9585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="187">
   <si>
     <t>画面名</t>
   </si>
@@ -1104,26 +1104,6 @@
   </si>
   <si>
     <t>テストケースNo</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>社員タイプマスタテーブル：m_eptypeのテストデートをここに準備する</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>部門マスタテーブル：m_departmentのテストデートをここに準備する</t>
-    <rPh sb="0" eb="2">
-      <t>ブモン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジュンビ</t>
-    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -1277,9 +1257,6 @@
     <t>契約社員</t>
   </si>
   <si>
-    <t>E001</t>
-  </si>
-  <si>
     <t>departmentID</t>
   </si>
   <si>
@@ -1475,14 +1452,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②個人番号に半角12桁
-　数字まで入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>”住所は200文字以内で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
@@ -1494,9 +1463,6 @@
   </si>
   <si>
     <t>”個人番号は半角数字で入力してください。”エラーメッセージが画面に表示される</t>
-  </si>
-  <si>
-    <t>”個人番号は半角12桁数字以内で入力してください。”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t xml:space="preserve">①画面が正常に表示できる
@@ -1537,21 +1503,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②ユーザ名に1２文字より多き入力
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
-②個人番号は半角12桁
-　数字より多きの場合
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
     <t>"郵便番号は半角７桁
 数字以内で入力してください。”
 エラーメッセージが画面に表示される</t>
@@ -1569,13 +1520,6 @@
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②住所は200文字より多きの場合
-③他の項目には、正しい入力。
-④「更新」ボタン
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">①社員情報変更画面へ遷移
 ②住所に200文字で入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
@@ -1607,25 +1551,74 @@
 </t>
   </si>
   <si>
-    <t>No1からNo.32</t>
-  </si>
-  <si>
     <t>”電話番号は　半角数
 字で入力してください”エラーメッセージが画面に表示される</t>
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②郵便番号に　半角７桁数字より多きの場合
+②ユーザ名に1２文字より大きい入力
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
   </si>
   <si>
     <t xml:space="preserve">①社員情報変更画面へ遷移
-②電話番号に半角１５桁数字より多きの場合
+②個人番号は半角12桁
+　数字より大きいの場合
 ③他の項目には、正しい入力。
 ④「更新」ボタン
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に　半角７桁数字より大きいの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②住所は200文字より大きいの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②電話番号に半角１５桁数字より大きいの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②個人番号に半角12桁
+　数字より短いの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>”個人番号は半角12桁数字で入力してください。”エラーメッセージが画面に表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員情報変更画面へ遷移
+②郵便番号に　半角７桁数字より短いの場合
+③他の項目には、正しい入力。
+④「更新」ボタン
+</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>社員タイプマスタテーブル</t>
+  </si>
+  <si>
+    <t>部門マスタテーブル</t>
+  </si>
+  <si>
+    <t>No1からNo.33</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,14 +1800,6 @@
       <color rgb="FF343434"/>
       <name val="Klee One SemiBold"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2193,7 +2178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2364,18 +2349,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,6 +2426,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,6 +2441,156 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2468,158 +2600,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2651,328 +2633,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>257174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1365661</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F97348C-7DDB-2D80-6D7F-43A38CF66993}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11553495" y="34352551"/>
-          <a:ext cx="2020248" cy="1108487"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67076"/>
-            <a:gd name="adj2" fmla="val 31352"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>更新：テストすべき内容は、画面入力したデータを</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Table</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に新規追加された事を確認する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>237505</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3666</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D12085-C979-4EFE-78B0-6235BB470FAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="11841" t="43731" r="63713" b="39564"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3491344" y="2446317"/>
-          <a:ext cx="3970026" cy="1525977"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>231569</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>320632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481696</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>118753</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F2E783-9799-3CA9-8384-36E7E4494361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12127" t="62898" r="62358" b="20080"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3485408" y="5242954"/>
-          <a:ext cx="3842413" cy="1472542"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1270660</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2345377</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166253</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D59533-C115-43AD-97AA-27DA1B6B90AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524499" y="2761012"/>
-          <a:ext cx="1074717" cy="997527"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1140031</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>290943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2066306</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23574867-9E93-40B1-AB90-4BB04B58BE4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4393870" y="5563587"/>
-          <a:ext cx="926275" cy="896589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3525,12 +3185,12 @@
       <selection activeCell="G19" sqref="G19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="2"/>
-    <col min="22" max="22" width="5.25" style="1"/>
-    <col min="23" max="23" width="5.25" style="2"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
+    <col min="1" max="21" width="5.19921875" style="2"/>
+    <col min="22" max="22" width="5.19921875" style="1"/>
+    <col min="23" max="23" width="5.19921875" style="2"/>
+    <col min="24" max="16384" width="5.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1">
@@ -3608,7 +3268,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3626,25 +3286,25 @@
       <c r="R14" s="21"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.05" customHeight="1">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="21.1" customHeight="1">
       <c r="A15" s="8"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.45">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.55">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -3664,7 +3324,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3682,65 +3342,65 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="75"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3758,65 +3418,65 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18.7">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="17.75">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="81"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="87"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="15.9">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.7">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3834,7 +3494,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.1">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="12.9">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4017,7 +3677,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4031,17 +3691,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="14"/>
+    <col min="3" max="3" width="58.59765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.19921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.7">
+    <row r="2" spans="2:5" ht="17.75">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>15</v>
@@ -4049,7 +3709,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5" ht="18.7">
+    <row r="3" spans="2:5" ht="17.75">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -4063,7 +3723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.7">
+    <row r="4" spans="2:5" ht="17.75">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4077,7 +3737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.7">
+    <row r="5" spans="2:5" ht="17.75">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -4158,37 +3818,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CF40"/>
+  <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="15" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG34" sqref="BG34:BU34"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CI41" sqref="CI41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="17.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="40" customWidth="1"/>
-    <col min="2" max="3" width="2.08203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="2.08203125" style="41" customWidth="1"/>
-    <col min="5" max="10" width="2.08203125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="40" customWidth="1"/>
-    <col min="12" max="27" width="2.08203125" style="40" customWidth="1"/>
-    <col min="28" max="28" width="2.08203125" style="42" customWidth="1"/>
-    <col min="29" max="31" width="2.08203125" style="40" customWidth="1"/>
-    <col min="32" max="32" width="2.08203125" style="41" customWidth="1"/>
-    <col min="33" max="43" width="2.08203125" style="40" customWidth="1"/>
-    <col min="44" max="44" width="2.08203125" style="42" customWidth="1"/>
-    <col min="45" max="50" width="2.08203125" style="40" customWidth="1"/>
-    <col min="51" max="51" width="3.83203125" style="40" customWidth="1"/>
-    <col min="52" max="52" width="2.08203125" style="42" customWidth="1"/>
-    <col min="53" max="55" width="2.08203125" style="40" customWidth="1"/>
-    <col min="56" max="56" width="2.08203125" style="41" customWidth="1"/>
-    <col min="57" max="57" width="2.08203125" style="40" customWidth="1"/>
-    <col min="58" max="58" width="4.33203125" style="40" customWidth="1"/>
-    <col min="59" max="59" width="2.08203125" style="40" customWidth="1"/>
-    <col min="60" max="63" width="2.08203125" style="41" customWidth="1"/>
-    <col min="64" max="97" width="2.08203125" style="40" customWidth="1"/>
-    <col min="98" max="16384" width="8.25" style="40"/>
+    <col min="1" max="1" width="3.796875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="2.09765625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" style="41" customWidth="1"/>
+    <col min="5" max="10" width="2.09765625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="2.59765625" style="40" customWidth="1"/>
+    <col min="12" max="27" width="2.09765625" style="40" customWidth="1"/>
+    <col min="28" max="28" width="2.09765625" style="42" customWidth="1"/>
+    <col min="29" max="31" width="2.09765625" style="40" customWidth="1"/>
+    <col min="32" max="32" width="2.09765625" style="41" customWidth="1"/>
+    <col min="33" max="43" width="2.09765625" style="40" customWidth="1"/>
+    <col min="44" max="44" width="2.09765625" style="42" customWidth="1"/>
+    <col min="45" max="50" width="2.09765625" style="40" customWidth="1"/>
+    <col min="51" max="51" width="3.796875" style="40" customWidth="1"/>
+    <col min="52" max="52" width="2.09765625" style="42" customWidth="1"/>
+    <col min="53" max="55" width="2.09765625" style="40" customWidth="1"/>
+    <col min="56" max="56" width="2.09765625" style="41" customWidth="1"/>
+    <col min="57" max="57" width="2.09765625" style="40" customWidth="1"/>
+    <col min="58" max="58" width="4.296875" style="40" customWidth="1"/>
+    <col min="59" max="59" width="2.09765625" style="40" customWidth="1"/>
+    <col min="60" max="63" width="2.09765625" style="41" customWidth="1"/>
+    <col min="64" max="97" width="2.09765625" style="40" customWidth="1"/>
+    <col min="98" max="16384" width="8.19921875" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
@@ -4263,38 +3923,38 @@
       <c r="BQ1" s="29"/>
     </row>
     <row r="2" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
       <c r="AU2" s="31"/>
       <c r="AV2" s="31"/>
       <c r="AW2" s="31"/>
@@ -4320,36 +3980,36 @@
       <c r="BQ2" s="29"/>
     </row>
     <row r="3" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
       <c r="AU3" s="31"/>
       <c r="AV3" s="31"/>
       <c r="AW3" s="31"/>
@@ -4375,407 +4035,407 @@
       <c r="BQ3" s="33"/>
     </row>
     <row r="4" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122" t="s">
+      <c r="K4" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="128" t="s">
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="131">
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="105">
         <v>45034</v>
       </c>
-      <c r="BE4" s="132"/>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="132"/>
-      <c r="BI4" s="132"/>
-      <c r="BJ4" s="128" t="s">
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="131" t="s">
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="132"/>
-      <c r="BO4" s="132"/>
-      <c r="BP4" s="132"/>
+      <c r="BN4" s="97"/>
+      <c r="BO4" s="97"/>
+      <c r="BP4" s="97"/>
       <c r="BQ4" s="37"/>
     </row>
     <row r="5" spans="1:84" s="30" customFormat="1" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="133" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="139"/>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="139"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="141" t="s">
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="142"/>
-      <c r="BC5" s="143"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="141" t="s">
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
+      <c r="BH5" s="115"/>
+      <c r="BI5" s="115"/>
+      <c r="BJ5" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="143"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="139"/>
-      <c r="BO5" s="139"/>
-      <c r="BP5" s="139"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="116"/>
+      <c r="BM5" s="115"/>
+      <c r="BN5" s="112"/>
+      <c r="BO5" s="112"/>
+      <c r="BP5" s="112"/>
       <c r="BQ5" s="39"/>
     </row>
-    <row r="6" spans="1:84" ht="19.2" thickTop="1">
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
+    <row r="6" spans="1:84" ht="18.3" thickTop="1">
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
       <c r="AF6" s="40"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
+      <c r="BL6" s="143"/>
+      <c r="BM6" s="143"/>
+      <c r="BN6" s="143"/>
+      <c r="BO6" s="143"/>
+      <c r="BP6" s="143"/>
+      <c r="BQ6" s="143"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="90" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="99" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="106" t="s">
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="139"/>
+      <c r="AN7" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="108"/>
-      <c r="AS7" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="103"/>
-      <c r="BA7" s="103"/>
-      <c r="BB7" s="103"/>
-      <c r="BC7" s="103"/>
-      <c r="BD7" s="103"/>
-      <c r="BE7" s="103"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH7" s="103"/>
-      <c r="BI7" s="103"/>
-      <c r="BJ7" s="103"/>
-      <c r="BK7" s="103"/>
-      <c r="BL7" s="103"/>
-      <c r="BM7" s="103"/>
-      <c r="BN7" s="103"/>
-      <c r="BO7" s="103"/>
-      <c r="BP7" s="103"/>
-      <c r="BQ7" s="103"/>
-      <c r="BR7" s="103"/>
-      <c r="BS7" s="103"/>
-      <c r="BT7" s="103"/>
-      <c r="BU7" s="100"/>
-      <c r="BV7" s="106" t="s">
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="133"/>
+      <c r="AS7" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="139"/>
+      <c r="BG7" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH7" s="138"/>
+      <c r="BI7" s="138"/>
+      <c r="BJ7" s="138"/>
+      <c r="BK7" s="138"/>
+      <c r="BL7" s="138"/>
+      <c r="BM7" s="138"/>
+      <c r="BN7" s="138"/>
+      <c r="BO7" s="138"/>
+      <c r="BP7" s="138"/>
+      <c r="BQ7" s="138"/>
+      <c r="BR7" s="138"/>
+      <c r="BS7" s="138"/>
+      <c r="BT7" s="138"/>
+      <c r="BU7" s="139"/>
+      <c r="BV7" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="108"/>
-      <c r="BZ7" s="106" t="s">
+      <c r="BW7" s="132"/>
+      <c r="BX7" s="132"/>
+      <c r="BY7" s="133"/>
+      <c r="BZ7" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="108"/>
-      <c r="CC7" s="106" t="s">
+      <c r="CA7" s="132"/>
+      <c r="CB7" s="133"/>
+      <c r="CC7" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="CD7" s="107"/>
-      <c r="CE7" s="107"/>
-      <c r="CF7" s="108"/>
-    </row>
-    <row r="8" spans="1:84" ht="15.9" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="90" t="s">
+      <c r="CD7" s="132"/>
+      <c r="CE7" s="132"/>
+      <c r="CF7" s="133"/>
+    </row>
+    <row r="8" spans="1:84" ht="15.85" customHeight="1">
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="90" t="s">
+      <c r="Q8" s="90"/>
+      <c r="R8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="91"/>
-      <c r="T8" s="90" t="s">
+      <c r="S8" s="90"/>
+      <c r="T8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="91"/>
-      <c r="V8" s="90" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="91"/>
-      <c r="X8" s="90" t="s">
+      <c r="W8" s="90"/>
+      <c r="X8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="90" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="90" t="s">
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="90" t="s">
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="91"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="90"/>
       <c r="AH8" s="45" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="35"/>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="104"/>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="104"/>
-      <c r="BI8" s="104"/>
-      <c r="BJ8" s="104"/>
-      <c r="BK8" s="104"/>
-      <c r="BL8" s="104"/>
-      <c r="BM8" s="104"/>
-      <c r="BN8" s="104"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="104"/>
-      <c r="BQ8" s="104"/>
-      <c r="BR8" s="104"/>
-      <c r="BS8" s="104"/>
-      <c r="BT8" s="104"/>
-      <c r="BU8" s="102"/>
-      <c r="BV8" s="109"/>
-      <c r="BW8" s="110"/>
-      <c r="BX8" s="110"/>
-      <c r="BY8" s="111"/>
-      <c r="BZ8" s="109"/>
-      <c r="CA8" s="110"/>
-      <c r="CB8" s="111"/>
-      <c r="CC8" s="109"/>
-      <c r="CD8" s="110"/>
-      <c r="CE8" s="110"/>
-      <c r="CF8" s="111"/>
-    </row>
-    <row r="9" spans="1:84" ht="95.85" customHeight="1">
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="134"/>
+      <c r="AO8" s="135"/>
+      <c r="AP8" s="135"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="136"/>
+      <c r="AS8" s="140"/>
+      <c r="AT8" s="141"/>
+      <c r="AU8" s="141"/>
+      <c r="AV8" s="141"/>
+      <c r="AW8" s="141"/>
+      <c r="AX8" s="141"/>
+      <c r="AY8" s="141"/>
+      <c r="AZ8" s="141"/>
+      <c r="BA8" s="141"/>
+      <c r="BB8" s="141"/>
+      <c r="BC8" s="141"/>
+      <c r="BD8" s="141"/>
+      <c r="BE8" s="141"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="140"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="141"/>
+      <c r="BJ8" s="141"/>
+      <c r="BK8" s="141"/>
+      <c r="BL8" s="141"/>
+      <c r="BM8" s="141"/>
+      <c r="BN8" s="141"/>
+      <c r="BO8" s="141"/>
+      <c r="BP8" s="141"/>
+      <c r="BQ8" s="141"/>
+      <c r="BR8" s="141"/>
+      <c r="BS8" s="141"/>
+      <c r="BT8" s="141"/>
+      <c r="BU8" s="142"/>
+      <c r="BV8" s="134"/>
+      <c r="BW8" s="135"/>
+      <c r="BX8" s="135"/>
+      <c r="BY8" s="136"/>
+      <c r="BZ8" s="134"/>
+      <c r="CA8" s="135"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="134"/>
+      <c r="CD8" s="135"/>
+      <c r="CE8" s="135"/>
+      <c r="CF8" s="136"/>
+    </row>
+    <row r="9" spans="1:84" ht="95.95" customHeight="1">
       <c r="A9" s="45">
         <v>1</v>
       </c>
@@ -4795,30 +4455,30 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="90" t="s">
+      <c r="Q9" s="90"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="91"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="90" t="s">
+      <c r="U9" s="90"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="91"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="90"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="36"/>
@@ -4827,46 +4487,46 @@
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="36"/>
-      <c r="AN9" s="92" t="s">
+      <c r="AN9" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="94"/>
-      <c r="BG9" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
-      <c r="BL9" s="112"/>
-      <c r="BM9" s="112"/>
-      <c r="BN9" s="112"/>
-      <c r="BO9" s="112"/>
-      <c r="BP9" s="112"/>
-      <c r="BQ9" s="112"/>
-      <c r="BR9" s="112"/>
-      <c r="BS9" s="112"/>
-      <c r="BT9" s="112"/>
-      <c r="BU9" s="113"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="94"/>
+      <c r="BR9" s="94"/>
+      <c r="BS9" s="94"/>
+      <c r="BT9" s="94"/>
+      <c r="BU9" s="95"/>
       <c r="BV9" s="45"/>
       <c r="BW9" s="35"/>
       <c r="BX9" s="35"/>
@@ -4879,13 +4539,13 @@
       <c r="CE9" s="35"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="110.8" customHeight="1">
+    <row r="10" spans="1:84" ht="110.85" customHeight="1">
       <c r="A10" s="45">
         <v>2</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="35"/>
@@ -4899,16 +4559,16 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="90" t="s">
+      <c r="P10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="91"/>
+      <c r="Q10" s="90"/>
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="90" t="s">
+      <c r="T10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="91"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="43"/>
       <c r="W10" s="44"/>
       <c r="X10" s="43"/>
@@ -4918,8 +4578,8 @@
       <c r="AB10" s="43"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="43"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
       <c r="AG10" s="44"/>
       <c r="AH10" s="45"/>
       <c r="AI10" s="35"/>
@@ -4929,46 +4589,46 @@
       </c>
       <c r="AL10" s="35"/>
       <c r="AM10" s="36"/>
-      <c r="AN10" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="93"/>
-      <c r="BF10" s="94"/>
-      <c r="BG10" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="93"/>
-      <c r="BL10" s="93"/>
-      <c r="BM10" s="93"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="93"/>
-      <c r="BR10" s="93"/>
-      <c r="BS10" s="93"/>
-      <c r="BT10" s="93"/>
-      <c r="BU10" s="94"/>
+      <c r="AN10" s="144" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="146"/>
+      <c r="AS10" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
+      <c r="BJ10" s="92"/>
+      <c r="BK10" s="92"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="92"/>
+      <c r="BN10" s="92"/>
+      <c r="BO10" s="92"/>
+      <c r="BP10" s="92"/>
+      <c r="BQ10" s="92"/>
+      <c r="BR10" s="92"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="92"/>
+      <c r="BU10" s="93"/>
       <c r="BV10" s="45"/>
       <c r="BW10" s="35"/>
       <c r="BX10" s="35"/>
@@ -4981,13 +4641,13 @@
       <c r="CE10" s="35"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="77.3" customHeight="1">
+    <row r="11" spans="1:84" ht="77.25" customHeight="1">
       <c r="A11" s="45">
         <v>3</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="35"/>
@@ -5001,72 +4661,72 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
-      <c r="P11" s="90" t="s">
+      <c r="P11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="90" t="s">
+      <c r="Q11" s="90"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="91"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="91"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="90"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="92" t="s">
+      <c r="AK11" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="93"/>
+      <c r="BG11" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="94"/>
-      <c r="BG11" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="93"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="94"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="93"/>
       <c r="BV11" s="45"/>
       <c r="BW11" s="35"/>
       <c r="BX11" s="35"/>
@@ -5079,13 +4739,13 @@
       <c r="CE11" s="35"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="86.3" customHeight="1">
+    <row r="12" spans="1:84" ht="86.25" customHeight="1">
       <c r="A12" s="45">
         <v>4</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="35"/>
@@ -5099,78 +4759,78 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="36"/>
-      <c r="P12" s="90" t="s">
+      <c r="P12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="90" t="s">
+      <c r="Q12" s="90"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U12" s="91"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="91"/>
-      <c r="AD12" s="90" t="s">
+      <c r="U12" s="90"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="91"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90"/>
       <c r="AH12" s="45"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="36"/>
-      <c r="AK12" s="90" t="s">
+      <c r="AK12" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="92"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="92"/>
+      <c r="BE12" s="92"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="91"/>
-      <c r="AN12" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="93"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="94"/>
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="92"/>
+      <c r="BJ12" s="92"/>
+      <c r="BK12" s="92"/>
+      <c r="BL12" s="92"/>
+      <c r="BM12" s="92"/>
+      <c r="BN12" s="92"/>
+      <c r="BO12" s="92"/>
+      <c r="BP12" s="92"/>
+      <c r="BQ12" s="92"/>
+      <c r="BR12" s="92"/>
+      <c r="BS12" s="92"/>
+      <c r="BT12" s="92"/>
+      <c r="BU12" s="93"/>
       <c r="BV12" s="45"/>
       <c r="BW12" s="35"/>
       <c r="BX12" s="35"/>
@@ -5189,7 +4849,7 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="35"/>
@@ -5203,78 +4863,78 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="36"/>
-      <c r="P13" s="90" t="s">
+      <c r="P13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="90" t="s">
+      <c r="Q13" s="90"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="91"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="90" t="s">
+      <c r="U13" s="90"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="91"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="90"/>
       <c r="AK13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="36"/>
-      <c r="AN13" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="94"/>
-      <c r="BG13" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH13" s="93"/>
-      <c r="BI13" s="93"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="93"/>
-      <c r="BP13" s="93"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="94"/>
+      <c r="AN13" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="93"/>
+      <c r="BG13" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="92"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="93"/>
       <c r="BV13" s="45"/>
       <c r="BW13" s="35"/>
       <c r="BX13" s="35"/>
@@ -5293,7 +4953,7 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="35"/>
@@ -5307,28 +4967,28 @@
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="36"/>
-      <c r="P14" s="90" t="s">
+      <c r="P14" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="90" t="s">
+      <c r="Q14" s="90"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="91"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="91"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
@@ -5337,46 +4997,46 @@
       </c>
       <c r="AL14" s="35"/>
       <c r="AM14" s="36"/>
-      <c r="AN14" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="93"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH14" s="93"/>
-      <c r="BI14" s="93"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="93"/>
-      <c r="BL14" s="93"/>
-      <c r="BM14" s="93"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="93"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="93"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="94"/>
+      <c r="AN14" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="92"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="92"/>
+      <c r="BE14" s="92"/>
+      <c r="BF14" s="93"/>
+      <c r="BG14" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH14" s="92"/>
+      <c r="BI14" s="92"/>
+      <c r="BJ14" s="92"/>
+      <c r="BK14" s="92"/>
+      <c r="BL14" s="92"/>
+      <c r="BM14" s="92"/>
+      <c r="BN14" s="92"/>
+      <c r="BO14" s="92"/>
+      <c r="BP14" s="92"/>
+      <c r="BQ14" s="92"/>
+      <c r="BR14" s="92"/>
+      <c r="BS14" s="92"/>
+      <c r="BT14" s="92"/>
+      <c r="BU14" s="93"/>
       <c r="BV14" s="45"/>
       <c r="BW14" s="35"/>
       <c r="BX14" s="35"/>
@@ -5389,13 +5049,13 @@
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="79.5" customHeight="1">
+    <row r="15" spans="1:84" ht="79.55" customHeight="1">
       <c r="A15" s="45">
         <v>7</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="35"/>
@@ -5409,78 +5069,78 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="90" t="s">
+      <c r="P15" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="90" t="s">
+      <c r="Q15" s="90"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="91"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="91"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
       <c r="AK15" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL15" s="35"/>
       <c r="AM15" s="36"/>
-      <c r="AN15" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="94"/>
-      <c r="AS15" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="93"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="93"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="94"/>
-      <c r="BG15" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH15" s="93"/>
-      <c r="BI15" s="93"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="93"/>
-      <c r="BL15" s="93"/>
-      <c r="BM15" s="93"/>
-      <c r="BN15" s="93"/>
-      <c r="BO15" s="93"/>
-      <c r="BP15" s="93"/>
-      <c r="BQ15" s="93"/>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="93"/>
-      <c r="BT15" s="93"/>
-      <c r="BU15" s="94"/>
+      <c r="AN15" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="92"/>
+      <c r="AQ15" s="92"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="92"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="93"/>
+      <c r="BG15" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH15" s="92"/>
+      <c r="BI15" s="92"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="92"/>
+      <c r="BL15" s="92"/>
+      <c r="BM15" s="92"/>
+      <c r="BN15" s="92"/>
+      <c r="BO15" s="92"/>
+      <c r="BP15" s="92"/>
+      <c r="BQ15" s="92"/>
+      <c r="BR15" s="92"/>
+      <c r="BS15" s="92"/>
+      <c r="BT15" s="92"/>
+      <c r="BU15" s="93"/>
       <c r="BV15" s="45"/>
       <c r="BW15" s="35"/>
       <c r="BX15" s="35"/>
@@ -5493,13 +5153,13 @@
       <c r="CE15" s="35"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="87" customHeight="1">
+    <row r="16" spans="1:84" ht="87.05" customHeight="1">
       <c r="A16" s="45">
         <v>8</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="35"/>
@@ -5513,28 +5173,28 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
-      <c r="P16" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="90" t="s">
+      <c r="P16" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U16" s="91"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="91"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
@@ -5543,46 +5203,46 @@
       </c>
       <c r="AL16" s="35"/>
       <c r="AM16" s="36"/>
-      <c r="AN16" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="93"/>
-      <c r="BL16" s="93"/>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="93"/>
-      <c r="BO16" s="93"/>
-      <c r="BP16" s="93"/>
-      <c r="BQ16" s="93"/>
-      <c r="BR16" s="93"/>
-      <c r="BS16" s="93"/>
-      <c r="BT16" s="93"/>
-      <c r="BU16" s="94"/>
+      <c r="AN16" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="92"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="92"/>
+      <c r="BM16" s="92"/>
+      <c r="BN16" s="92"/>
+      <c r="BO16" s="92"/>
+      <c r="BP16" s="92"/>
+      <c r="BQ16" s="92"/>
+      <c r="BR16" s="92"/>
+      <c r="BS16" s="92"/>
+      <c r="BT16" s="92"/>
+      <c r="BU16" s="93"/>
       <c r="BV16" s="45"/>
       <c r="BW16" s="35"/>
       <c r="BX16" s="35"/>
@@ -5595,13 +5255,13 @@
       <c r="CE16" s="35"/>
       <c r="CF16" s="36"/>
     </row>
-    <row r="17" spans="1:84" ht="87" customHeight="1">
+    <row r="17" spans="1:84" ht="87.05" customHeight="1">
       <c r="A17" s="45">
         <v>9</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="35"/>
@@ -5615,16 +5275,16 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="36"/>
-      <c r="P17" s="90" t="s">
+      <c r="P17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="91"/>
+      <c r="Q17" s="90"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="90" t="s">
+      <c r="T17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="91"/>
+      <c r="U17" s="90"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
@@ -5633,60 +5293,60 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="91"/>
+      <c r="AD17" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="90"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="35"/>
       <c r="AJ17" s="36"/>
       <c r="AK17" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL17" s="35"/>
       <c r="AM17" s="36"/>
-      <c r="AN17" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
-      <c r="AQ17" s="93"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="93"/>
-      <c r="BF17" s="94"/>
-      <c r="BG17" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="93"/>
-      <c r="BN17" s="93"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="93"/>
-      <c r="BQ17" s="93"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="93"/>
-      <c r="BU17" s="94"/>
+      <c r="AN17" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="92"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="92"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="92"/>
+      <c r="BJ17" s="92"/>
+      <c r="BK17" s="92"/>
+      <c r="BL17" s="92"/>
+      <c r="BM17" s="92"/>
+      <c r="BN17" s="92"/>
+      <c r="BO17" s="92"/>
+      <c r="BP17" s="92"/>
+      <c r="BQ17" s="92"/>
+      <c r="BR17" s="92"/>
+      <c r="BS17" s="92"/>
+      <c r="BT17" s="92"/>
+      <c r="BU17" s="93"/>
       <c r="BV17" s="45"/>
       <c r="BW17" s="35"/>
       <c r="BX17" s="35"/>
@@ -5699,13 +5359,13 @@
       <c r="CE17" s="35"/>
       <c r="CF17" s="36"/>
     </row>
-    <row r="18" spans="1:84" ht="87" customHeight="1">
+    <row r="18" spans="1:84" ht="87.05" customHeight="1">
       <c r="A18" s="45">
         <v>10</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="35"/>
@@ -5719,16 +5379,16 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36"/>
-      <c r="P18" s="90" t="s">
+      <c r="P18" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="91"/>
+      <c r="Q18" s="90"/>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="90" t="s">
+      <c r="T18" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="91"/>
+      <c r="U18" s="90"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
       <c r="X18" s="43"/>
@@ -5737,60 +5397,60 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="91"/>
+      <c r="AD18" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
       <c r="AH18" s="45"/>
       <c r="AI18" s="35"/>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL18" s="35"/>
       <c r="AM18" s="36"/>
-      <c r="AN18" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="93"/>
-      <c r="BA18" s="93"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="93"/>
-      <c r="BF18" s="94"/>
-      <c r="BG18" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="93"/>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="93"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="93"/>
-      <c r="BQ18" s="93"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="93"/>
-      <c r="BU18" s="94"/>
+      <c r="AN18" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="92"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="92"/>
+      <c r="BK18" s="92"/>
+      <c r="BL18" s="92"/>
+      <c r="BM18" s="92"/>
+      <c r="BN18" s="92"/>
+      <c r="BO18" s="92"/>
+      <c r="BP18" s="92"/>
+      <c r="BQ18" s="92"/>
+      <c r="BR18" s="92"/>
+      <c r="BS18" s="92"/>
+      <c r="BT18" s="92"/>
+      <c r="BU18" s="93"/>
       <c r="BV18" s="45"/>
       <c r="BW18" s="35"/>
       <c r="BX18" s="35"/>
@@ -5803,13 +5463,13 @@
       <c r="CE18" s="35"/>
       <c r="CF18" s="36"/>
     </row>
-    <row r="19" spans="1:84" ht="87" customHeight="1">
+    <row r="19" spans="1:84" ht="87.05" customHeight="1">
       <c r="A19" s="45">
         <v>11</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="35"/>
@@ -5823,16 +5483,16 @@
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="90" t="s">
+      <c r="P19" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="91"/>
+      <c r="Q19" s="90"/>
       <c r="R19" s="43"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="90" t="s">
+      <c r="T19" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="91"/>
+      <c r="U19" s="90"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
       <c r="X19" s="43"/>
@@ -5841,60 +5501,60 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="43"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="91"/>
+      <c r="AD19" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="90"/>
       <c r="AH19" s="45"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="36"/>
       <c r="AK19" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL19" s="35"/>
       <c r="AM19" s="36"/>
-      <c r="AN19" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="93"/>
-      <c r="BA19" s="93"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="93"/>
-      <c r="BF19" s="94"/>
-      <c r="BG19" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH19" s="93"/>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="93"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="93"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="93"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="93"/>
-      <c r="BU19" s="94"/>
+      <c r="AN19" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="92"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH19" s="92"/>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="92"/>
+      <c r="BK19" s="92"/>
+      <c r="BL19" s="92"/>
+      <c r="BM19" s="92"/>
+      <c r="BN19" s="92"/>
+      <c r="BO19" s="92"/>
+      <c r="BP19" s="92"/>
+      <c r="BQ19" s="92"/>
+      <c r="BR19" s="92"/>
+      <c r="BS19" s="92"/>
+      <c r="BT19" s="92"/>
+      <c r="BU19" s="93"/>
       <c r="BV19" s="45"/>
       <c r="BW19" s="35"/>
       <c r="BX19" s="35"/>
@@ -5907,13 +5567,13 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" spans="1:84" ht="87" customHeight="1">
+    <row r="20" spans="1:84" ht="87.05" customHeight="1">
       <c r="A20" s="45">
         <v>12</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="35"/>
@@ -5927,16 +5587,16 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="90" t="s">
+      <c r="P20" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="91"/>
+      <c r="Q20" s="90"/>
       <c r="R20" s="43"/>
       <c r="S20" s="44"/>
-      <c r="T20" s="90" t="s">
+      <c r="T20" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="91"/>
+      <c r="U20" s="90"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
       <c r="X20" s="43"/>
@@ -5945,60 +5605,60 @@
       <c r="AA20" s="44"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="44"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="91"/>
+      <c r="AD20" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="90"/>
       <c r="AK20" s="45" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="AL20" s="35"/>
       <c r="AM20" s="36"/>
-      <c r="AN20" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="94"/>
+      <c r="AN20" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO20" s="92"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
+      <c r="BP20" s="92"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="92"/>
+      <c r="BS20" s="92"/>
+      <c r="BT20" s="92"/>
+      <c r="BU20" s="93"/>
       <c r="BV20" s="45"/>
       <c r="BW20" s="35"/>
       <c r="BX20" s="35"/>
@@ -6011,13 +5671,13 @@
       <c r="CE20" s="35"/>
       <c r="CF20" s="36"/>
     </row>
-    <row r="21" spans="1:84" ht="87" customHeight="1">
+    <row r="21" spans="1:84" ht="87.05" customHeight="1">
       <c r="A21" s="45">
         <v>13</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="35"/>
@@ -6031,16 +5691,16 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="90" t="s">
+      <c r="P21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="91"/>
+      <c r="Q21" s="90"/>
       <c r="R21" s="43"/>
       <c r="S21" s="44"/>
-      <c r="T21" s="90" t="s">
+      <c r="T21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="91"/>
+      <c r="U21" s="90"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
       <c r="X21" s="43"/>
@@ -6049,58 +5709,60 @@
       <c r="AA21" s="44"/>
       <c r="AB21" s="43"/>
       <c r="AC21" s="44"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="36"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI21" s="89"/>
+      <c r="AJ21" s="90"/>
       <c r="AK21" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL21" s="35"/>
       <c r="AM21" s="36"/>
-      <c r="AN21" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="93"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93"/>
-      <c r="AV21" s="93"/>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="93"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="93"/>
-      <c r="BA21" s="93"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="93"/>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH21" s="93"/>
-      <c r="BI21" s="93"/>
-      <c r="BJ21" s="93"/>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="93"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="94"/>
+      <c r="AN21" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO21" s="92"/>
+      <c r="AP21" s="92"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT21" s="92"/>
+      <c r="AU21" s="92"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="92"/>
+      <c r="AX21" s="92"/>
+      <c r="AY21" s="92"/>
+      <c r="AZ21" s="92"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="92"/>
+      <c r="BD21" s="92"/>
+      <c r="BE21" s="92"/>
+      <c r="BF21" s="93"/>
+      <c r="BG21" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH21" s="92"/>
+      <c r="BI21" s="92"/>
+      <c r="BJ21" s="92"/>
+      <c r="BK21" s="92"/>
+      <c r="BL21" s="92"/>
+      <c r="BM21" s="92"/>
+      <c r="BN21" s="92"/>
+      <c r="BO21" s="92"/>
+      <c r="BP21" s="92"/>
+      <c r="BQ21" s="92"/>
+      <c r="BR21" s="92"/>
+      <c r="BS21" s="92"/>
+      <c r="BT21" s="92"/>
+      <c r="BU21" s="93"/>
       <c r="BV21" s="45"/>
       <c r="BW21" s="35"/>
       <c r="BX21" s="35"/>
@@ -6113,13 +5775,13 @@
       <c r="CE21" s="35"/>
       <c r="CF21" s="36"/>
     </row>
-    <row r="22" spans="1:84" ht="123" customHeight="1">
+    <row r="22" spans="1:84" ht="123.05" customHeight="1">
       <c r="A22" s="45">
         <v>14</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="35"/>
@@ -6133,78 +5795,78 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="90" t="s">
+      <c r="P22" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="90" t="s">
+      <c r="Q22" s="90"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="91"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="91"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="90"/>
       <c r="AH22" s="45"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL22" s="35"/>
       <c r="AM22" s="36"/>
-      <c r="AN22" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="93"/>
-      <c r="AV22" s="93"/>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="93"/>
-      <c r="AY22" s="93"/>
-      <c r="AZ22" s="93"/>
-      <c r="BA22" s="93"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="93"/>
-      <c r="BF22" s="94"/>
-      <c r="BG22" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH22" s="93"/>
-      <c r="BI22" s="93"/>
-      <c r="BJ22" s="93"/>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="93"/>
-      <c r="BM22" s="93"/>
-      <c r="BN22" s="93"/>
-      <c r="BO22" s="93"/>
-      <c r="BP22" s="93"/>
-      <c r="BQ22" s="93"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="93"/>
-      <c r="BU22" s="94"/>
+      <c r="AN22" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO22" s="92"/>
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="92"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="92"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="93"/>
+      <c r="BG22" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH22" s="92"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="92"/>
+      <c r="BK22" s="92"/>
+      <c r="BL22" s="92"/>
+      <c r="BM22" s="92"/>
+      <c r="BN22" s="92"/>
+      <c r="BO22" s="92"/>
+      <c r="BP22" s="92"/>
+      <c r="BQ22" s="92"/>
+      <c r="BR22" s="92"/>
+      <c r="BS22" s="92"/>
+      <c r="BT22" s="92"/>
+      <c r="BU22" s="93"/>
       <c r="BV22" s="45"/>
       <c r="BW22" s="35"/>
       <c r="BX22" s="35"/>
@@ -6217,13 +5879,13 @@
       <c r="CE22" s="35"/>
       <c r="CF22" s="36"/>
     </row>
-    <row r="23" spans="1:84" ht="105.8" customHeight="1">
+    <row r="23" spans="1:84" ht="105.85" customHeight="1">
       <c r="A23" s="45">
         <v>15</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="35"/>
@@ -6237,28 +5899,28 @@
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="90" t="s">
+      <c r="P23" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="91"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="91"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="90"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="35"/>
       <c r="AJ23" s="36"/>
@@ -6267,46 +5929,46 @@
       </c>
       <c r="AL23" s="35"/>
       <c r="AM23" s="36"/>
-      <c r="AN23" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="94"/>
-      <c r="AS23" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="93"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="93"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="93"/>
-      <c r="BE23" s="93"/>
-      <c r="BF23" s="94"/>
-      <c r="BG23" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH23" s="93"/>
-      <c r="BI23" s="93"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="93"/>
-      <c r="BQ23" s="93"/>
-      <c r="BR23" s="93"/>
-      <c r="BS23" s="93"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="94"/>
+      <c r="AN23" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO23" s="92"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT23" s="92"/>
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="92"/>
+      <c r="AW23" s="92"/>
+      <c r="AX23" s="92"/>
+      <c r="AY23" s="92"/>
+      <c r="AZ23" s="92"/>
+      <c r="BA23" s="92"/>
+      <c r="BB23" s="92"/>
+      <c r="BC23" s="92"/>
+      <c r="BD23" s="92"/>
+      <c r="BE23" s="92"/>
+      <c r="BF23" s="93"/>
+      <c r="BG23" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH23" s="92"/>
+      <c r="BI23" s="92"/>
+      <c r="BJ23" s="92"/>
+      <c r="BK23" s="92"/>
+      <c r="BL23" s="92"/>
+      <c r="BM23" s="92"/>
+      <c r="BN23" s="92"/>
+      <c r="BO23" s="92"/>
+      <c r="BP23" s="92"/>
+      <c r="BQ23" s="92"/>
+      <c r="BR23" s="92"/>
+      <c r="BS23" s="92"/>
+      <c r="BT23" s="92"/>
+      <c r="BU23" s="93"/>
       <c r="BV23" s="45"/>
       <c r="BW23" s="35"/>
       <c r="BX23" s="35"/>
@@ -6319,13 +5981,13 @@
       <c r="CE23" s="35"/>
       <c r="CF23" s="36"/>
     </row>
-    <row r="24" spans="1:84" ht="105.8" customHeight="1">
+    <row r="24" spans="1:84" ht="105.85" customHeight="1">
       <c r="A24" s="45">
         <v>16</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="35"/>
@@ -6339,78 +6001,78 @@
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="36"/>
-      <c r="P24" s="90" t="s">
+      <c r="P24" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="90" t="s">
+      <c r="Q24" s="90"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="91"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="91"/>
-      <c r="AD24" s="90" t="s">
+      <c r="U24" s="90"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="91"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="90"/>
       <c r="AH24" s="45"/>
       <c r="AI24" s="35"/>
       <c r="AJ24" s="36"/>
       <c r="AK24" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL24" s="35"/>
       <c r="AM24" s="36"/>
-      <c r="AN24" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
-      <c r="AQ24" s="93"/>
-      <c r="AR24" s="94"/>
-      <c r="AS24" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="93"/>
-      <c r="BE24" s="93"/>
-      <c r="BF24" s="94"/>
-      <c r="BG24" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH24" s="93"/>
-      <c r="BI24" s="93"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-      <c r="BM24" s="93"/>
-      <c r="BN24" s="93"/>
-      <c r="BO24" s="93"/>
-      <c r="BP24" s="93"/>
-      <c r="BQ24" s="93"/>
-      <c r="BR24" s="93"/>
-      <c r="BS24" s="93"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="94"/>
+      <c r="AN24" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="93"/>
+      <c r="AS24" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="93"/>
+      <c r="BG24" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="92"/>
+      <c r="BM24" s="92"/>
+      <c r="BN24" s="92"/>
+      <c r="BO24" s="92"/>
+      <c r="BP24" s="92"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="92"/>
+      <c r="BS24" s="92"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="93"/>
       <c r="BV24" s="45"/>
       <c r="BW24" s="35"/>
       <c r="BX24" s="35"/>
@@ -6423,13 +6085,13 @@
       <c r="CE24" s="35"/>
       <c r="CF24" s="36"/>
     </row>
-    <row r="25" spans="1:84" ht="128.25" customHeight="1">
+    <row r="25" spans="1:84" ht="128.30000000000001" customHeight="1">
       <c r="A25" s="45">
         <v>17</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="35"/>
@@ -6443,78 +6105,78 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="90" t="s">
+      <c r="P25" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="90" t="s">
+      <c r="Q25" s="90"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U25" s="91"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="91"/>
-      <c r="AD25" s="90" t="s">
+      <c r="U25" s="90"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="91"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="90"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="36"/>
       <c r="AK25" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL25" s="35"/>
       <c r="AM25" s="36"/>
-      <c r="AN25" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="144" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT25" s="145"/>
-      <c r="AU25" s="145"/>
-      <c r="AV25" s="145"/>
-      <c r="AW25" s="145"/>
-      <c r="AX25" s="145"/>
-      <c r="AY25" s="145"/>
-      <c r="AZ25" s="145"/>
-      <c r="BA25" s="145"/>
-      <c r="BB25" s="145"/>
-      <c r="BC25" s="145"/>
-      <c r="BD25" s="145"/>
-      <c r="BE25" s="145"/>
-      <c r="BF25" s="146"/>
-      <c r="BG25" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
-      <c r="BM25" s="93"/>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="93"/>
-      <c r="BQ25" s="93"/>
-      <c r="BR25" s="93"/>
-      <c r="BS25" s="93"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="94"/>
+      <c r="AN25" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO25" s="92"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="100"/>
+      <c r="AV25" s="100"/>
+      <c r="AW25" s="100"/>
+      <c r="AX25" s="100"/>
+      <c r="AY25" s="100"/>
+      <c r="AZ25" s="100"/>
+      <c r="BA25" s="100"/>
+      <c r="BB25" s="100"/>
+      <c r="BC25" s="100"/>
+      <c r="BD25" s="100"/>
+      <c r="BE25" s="100"/>
+      <c r="BF25" s="101"/>
+      <c r="BG25" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH25" s="92"/>
+      <c r="BI25" s="92"/>
+      <c r="BJ25" s="92"/>
+      <c r="BK25" s="92"/>
+      <c r="BL25" s="92"/>
+      <c r="BM25" s="92"/>
+      <c r="BN25" s="92"/>
+      <c r="BO25" s="92"/>
+      <c r="BP25" s="92"/>
+      <c r="BQ25" s="92"/>
+      <c r="BR25" s="92"/>
+      <c r="BS25" s="92"/>
+      <c r="BT25" s="92"/>
+      <c r="BU25" s="93"/>
       <c r="BV25" s="45"/>
       <c r="BW25" s="35"/>
       <c r="BX25" s="35"/>
@@ -6527,13 +6189,13 @@
       <c r="CE25" s="35"/>
       <c r="CF25" s="36"/>
     </row>
-    <row r="26" spans="1:84" ht="123" customHeight="1">
+    <row r="26" spans="1:84" ht="123.05" customHeight="1">
       <c r="A26" s="45">
         <v>18</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="35"/>
@@ -6547,78 +6209,78 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="90" t="s">
+      <c r="P26" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="90" t="s">
+      <c r="Q26" s="90"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="91"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="90" t="s">
+      <c r="U26" s="90"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="91"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="90"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="35"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL26" s="35"/>
       <c r="AM26" s="36"/>
-      <c r="AN26" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO26" s="93"/>
-      <c r="AP26" s="93"/>
-      <c r="AQ26" s="93"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="93"/>
-      <c r="AV26" s="93"/>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="93"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="93"/>
-      <c r="BA26" s="93"/>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="93"/>
-      <c r="BD26" s="93"/>
-      <c r="BE26" s="93"/>
-      <c r="BF26" s="94"/>
-      <c r="BG26" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH26" s="93"/>
-      <c r="BI26" s="93"/>
-      <c r="BJ26" s="93"/>
-      <c r="BK26" s="93"/>
-      <c r="BL26" s="93"/>
-      <c r="BM26" s="93"/>
-      <c r="BN26" s="93"/>
-      <c r="BO26" s="93"/>
-      <c r="BP26" s="93"/>
-      <c r="BQ26" s="93"/>
-      <c r="BR26" s="93"/>
-      <c r="BS26" s="93"/>
-      <c r="BT26" s="93"/>
-      <c r="BU26" s="94"/>
+      <c r="AN26" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO26" s="92"/>
+      <c r="AP26" s="92"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="100"/>
+      <c r="AV26" s="100"/>
+      <c r="AW26" s="100"/>
+      <c r="AX26" s="100"/>
+      <c r="AY26" s="100"/>
+      <c r="AZ26" s="100"/>
+      <c r="BA26" s="100"/>
+      <c r="BB26" s="100"/>
+      <c r="BC26" s="100"/>
+      <c r="BD26" s="100"/>
+      <c r="BE26" s="100"/>
+      <c r="BF26" s="101"/>
+      <c r="BG26" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH26" s="92"/>
+      <c r="BI26" s="92"/>
+      <c r="BJ26" s="92"/>
+      <c r="BK26" s="92"/>
+      <c r="BL26" s="92"/>
+      <c r="BM26" s="92"/>
+      <c r="BN26" s="92"/>
+      <c r="BO26" s="92"/>
+      <c r="BP26" s="92"/>
+      <c r="BQ26" s="92"/>
+      <c r="BR26" s="92"/>
+      <c r="BS26" s="92"/>
+      <c r="BT26" s="92"/>
+      <c r="BU26" s="93"/>
       <c r="BV26" s="45"/>
       <c r="BW26" s="35"/>
       <c r="BX26" s="35"/>
@@ -6631,13 +6293,13 @@
       <c r="CE26" s="35"/>
       <c r="CF26" s="36"/>
     </row>
-    <row r="27" spans="1:84" ht="107.1" customHeight="1">
+    <row r="27" spans="1:84" ht="123.05" customHeight="1">
       <c r="A27" s="45">
         <v>19</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="35"/>
@@ -6651,78 +6313,78 @@
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="36"/>
-      <c r="P27" s="90" t="s">
+      <c r="P27" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="90" t="s">
+      <c r="Q27" s="90"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="91"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="90" t="s">
+      <c r="U27" s="90"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="91"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="36"/>
       <c r="AK27" s="45" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="36"/>
-      <c r="AN27" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="93"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT27" s="93"/>
-      <c r="AU27" s="93"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="93"/>
-      <c r="AX27" s="93"/>
-      <c r="AY27" s="93"/>
-      <c r="AZ27" s="93"/>
-      <c r="BA27" s="93"/>
-      <c r="BB27" s="93"/>
-      <c r="BC27" s="93"/>
-      <c r="BD27" s="93"/>
-      <c r="BE27" s="93"/>
-      <c r="BF27" s="94"/>
-      <c r="BG27" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH27" s="93"/>
-      <c r="BI27" s="93"/>
-      <c r="BJ27" s="93"/>
-      <c r="BK27" s="93"/>
-      <c r="BL27" s="93"/>
-      <c r="BM27" s="93"/>
-      <c r="BN27" s="93"/>
-      <c r="BO27" s="93"/>
-      <c r="BP27" s="93"/>
-      <c r="BQ27" s="93"/>
-      <c r="BR27" s="93"/>
-      <c r="BS27" s="93"/>
-      <c r="BT27" s="93"/>
-      <c r="BU27" s="94"/>
+      <c r="AN27" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO27" s="92"/>
+      <c r="AP27" s="92"/>
+      <c r="AQ27" s="92"/>
+      <c r="AR27" s="93"/>
+      <c r="AS27" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT27" s="92"/>
+      <c r="AU27" s="92"/>
+      <c r="AV27" s="92"/>
+      <c r="AW27" s="92"/>
+      <c r="AX27" s="92"/>
+      <c r="AY27" s="92"/>
+      <c r="AZ27" s="92"/>
+      <c r="BA27" s="92"/>
+      <c r="BB27" s="92"/>
+      <c r="BC27" s="92"/>
+      <c r="BD27" s="92"/>
+      <c r="BE27" s="92"/>
+      <c r="BF27" s="93"/>
+      <c r="BG27" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH27" s="92"/>
+      <c r="BI27" s="92"/>
+      <c r="BJ27" s="92"/>
+      <c r="BK27" s="92"/>
+      <c r="BL27" s="92"/>
+      <c r="BM27" s="92"/>
+      <c r="BN27" s="92"/>
+      <c r="BO27" s="92"/>
+      <c r="BP27" s="92"/>
+      <c r="BQ27" s="92"/>
+      <c r="BR27" s="92"/>
+      <c r="BS27" s="92"/>
+      <c r="BT27" s="92"/>
+      <c r="BU27" s="93"/>
       <c r="BV27" s="45"/>
       <c r="BW27" s="35"/>
       <c r="BX27" s="35"/>
@@ -6735,13 +6397,13 @@
       <c r="CE27" s="35"/>
       <c r="CF27" s="36"/>
     </row>
-    <row r="28" spans="1:84" ht="102.05" customHeight="1">
+    <row r="28" spans="1:84" ht="107.1" customHeight="1">
       <c r="A28" s="45">
         <v>20</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="35"/>
@@ -6755,78 +6417,78 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
-      <c r="P28" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="90" t="s">
+      <c r="P28" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="91"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="90" t="s">
+      <c r="Q28" s="90"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="36"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="89"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI28" s="89"/>
+      <c r="AJ28" s="90"/>
       <c r="AK28" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="36"/>
-      <c r="AN28" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO28" s="93"/>
-      <c r="AP28" s="93"/>
-      <c r="AQ28" s="93"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="93"/>
-      <c r="AV28" s="93"/>
-      <c r="AW28" s="93"/>
-      <c r="AX28" s="93"/>
-      <c r="AY28" s="93"/>
-      <c r="AZ28" s="93"/>
-      <c r="BA28" s="93"/>
-      <c r="BB28" s="93"/>
-      <c r="BC28" s="93"/>
-      <c r="BD28" s="93"/>
-      <c r="BE28" s="93"/>
-      <c r="BF28" s="94"/>
-      <c r="BG28" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH28" s="93"/>
-      <c r="BI28" s="93"/>
-      <c r="BJ28" s="93"/>
-      <c r="BK28" s="93"/>
-      <c r="BL28" s="93"/>
-      <c r="BM28" s="93"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="94"/>
+      <c r="AN28" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO28" s="92"/>
+      <c r="AP28" s="92"/>
+      <c r="AQ28" s="92"/>
+      <c r="AR28" s="93"/>
+      <c r="AS28" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="93"/>
+      <c r="BG28" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="92"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="93"/>
       <c r="BV28" s="45"/>
       <c r="BW28" s="35"/>
       <c r="BX28" s="35"/>
@@ -6839,13 +6501,13 @@
       <c r="CE28" s="35"/>
       <c r="CF28" s="36"/>
     </row>
-    <row r="29" spans="1:84" ht="102.05" customHeight="1">
+    <row r="29" spans="1:84" ht="102.1" customHeight="1">
       <c r="A29" s="45">
         <v>21</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="35"/>
@@ -6859,78 +6521,78 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="36"/>
-      <c r="P29" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="90" t="s">
+      <c r="P29" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U29" s="91"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="90" t="s">
+      <c r="U29" s="90"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="91"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="90"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL29" s="35"/>
       <c r="AM29" s="36"/>
-      <c r="AN29" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO29" s="93"/>
-      <c r="AP29" s="93"/>
-      <c r="AQ29" s="93"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="93"/>
-      <c r="AV29" s="93"/>
-      <c r="AW29" s="93"/>
-      <c r="AX29" s="93"/>
-      <c r="AY29" s="93"/>
-      <c r="AZ29" s="93"/>
-      <c r="BA29" s="93"/>
-      <c r="BB29" s="93"/>
-      <c r="BC29" s="93"/>
-      <c r="BD29" s="93"/>
-      <c r="BE29" s="93"/>
-      <c r="BF29" s="94"/>
-      <c r="BG29" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH29" s="93"/>
-      <c r="BI29" s="93"/>
-      <c r="BJ29" s="93"/>
-      <c r="BK29" s="93"/>
-      <c r="BL29" s="93"/>
-      <c r="BM29" s="93"/>
-      <c r="BN29" s="93"/>
-      <c r="BO29" s="93"/>
-      <c r="BP29" s="93"/>
-      <c r="BQ29" s="93"/>
-      <c r="BR29" s="93"/>
-      <c r="BS29" s="93"/>
-      <c r="BT29" s="93"/>
-      <c r="BU29" s="94"/>
+      <c r="AN29" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO29" s="92"/>
+      <c r="AP29" s="92"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="93"/>
+      <c r="AS29" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT29" s="92"/>
+      <c r="AU29" s="92"/>
+      <c r="AV29" s="92"/>
+      <c r="AW29" s="92"/>
+      <c r="AX29" s="92"/>
+      <c r="AY29" s="92"/>
+      <c r="AZ29" s="92"/>
+      <c r="BA29" s="92"/>
+      <c r="BB29" s="92"/>
+      <c r="BC29" s="92"/>
+      <c r="BD29" s="92"/>
+      <c r="BE29" s="92"/>
+      <c r="BF29" s="93"/>
+      <c r="BG29" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH29" s="92"/>
+      <c r="BI29" s="92"/>
+      <c r="BJ29" s="92"/>
+      <c r="BK29" s="92"/>
+      <c r="BL29" s="92"/>
+      <c r="BM29" s="92"/>
+      <c r="BN29" s="92"/>
+      <c r="BO29" s="92"/>
+      <c r="BP29" s="92"/>
+      <c r="BQ29" s="92"/>
+      <c r="BR29" s="92"/>
+      <c r="BS29" s="92"/>
+      <c r="BT29" s="92"/>
+      <c r="BU29" s="93"/>
       <c r="BV29" s="45"/>
       <c r="BW29" s="35"/>
       <c r="BX29" s="35"/>
@@ -6943,13 +6605,13 @@
       <c r="CE29" s="35"/>
       <c r="CF29" s="36"/>
     </row>
-    <row r="30" spans="1:84" ht="90" customHeight="1">
+    <row r="30" spans="1:84" ht="102.1" customHeight="1">
       <c r="A30" s="45">
         <v>22</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="35"/>
@@ -6963,78 +6625,78 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="36"/>
-      <c r="P30" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="U30" s="91"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="90" t="s">
+      <c r="P30" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="91"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="36"/>
       <c r="AK30" s="45" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="AL30" s="35"/>
       <c r="AM30" s="36"/>
-      <c r="AN30" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="93"/>
-      <c r="AQ30" s="93"/>
-      <c r="AR30" s="94"/>
-      <c r="AS30" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="93"/>
-      <c r="AV30" s="93"/>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="93"/>
-      <c r="AY30" s="93"/>
-      <c r="AZ30" s="93"/>
-      <c r="BA30" s="93"/>
-      <c r="BB30" s="93"/>
-      <c r="BC30" s="93"/>
-      <c r="BD30" s="93"/>
-      <c r="BE30" s="93"/>
-      <c r="BF30" s="94"/>
-      <c r="BG30" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH30" s="93"/>
-      <c r="BI30" s="93"/>
-      <c r="BJ30" s="93"/>
-      <c r="BK30" s="93"/>
-      <c r="BL30" s="93"/>
-      <c r="BM30" s="93"/>
-      <c r="BN30" s="93"/>
-      <c r="BO30" s="93"/>
-      <c r="BP30" s="93"/>
-      <c r="BQ30" s="93"/>
-      <c r="BR30" s="93"/>
-      <c r="BS30" s="93"/>
-      <c r="BT30" s="93"/>
-      <c r="BU30" s="94"/>
+      <c r="AN30" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO30" s="92"/>
+      <c r="AP30" s="92"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="93"/>
+      <c r="AS30" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="92"/>
+      <c r="AV30" s="92"/>
+      <c r="AW30" s="92"/>
+      <c r="AX30" s="92"/>
+      <c r="AY30" s="92"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
+      <c r="BC30" s="92"/>
+      <c r="BD30" s="92"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="93"/>
+      <c r="BG30" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH30" s="92"/>
+      <c r="BI30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="92"/>
+      <c r="BL30" s="92"/>
+      <c r="BM30" s="92"/>
+      <c r="BN30" s="92"/>
+      <c r="BO30" s="92"/>
+      <c r="BP30" s="92"/>
+      <c r="BQ30" s="92"/>
+      <c r="BR30" s="92"/>
+      <c r="BS30" s="92"/>
+      <c r="BT30" s="92"/>
+      <c r="BU30" s="93"/>
       <c r="BV30" s="45"/>
       <c r="BW30" s="35"/>
       <c r="BX30" s="35"/>
@@ -7053,7 +6715,7 @@
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="35"/>
@@ -7067,76 +6729,78 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="U31" s="91"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="36"/>
+      <c r="P31" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="U31" s="90"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="90"/>
       <c r="AK31" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL31" s="35"/>
       <c r="AM31" s="36"/>
-      <c r="AN31" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO31" s="93"/>
-      <c r="AP31" s="93"/>
-      <c r="AQ31" s="93"/>
-      <c r="AR31" s="94"/>
-      <c r="AS31" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT31" s="93"/>
-      <c r="AU31" s="93"/>
-      <c r="AV31" s="93"/>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="93"/>
-      <c r="AY31" s="93"/>
-      <c r="AZ31" s="93"/>
-      <c r="BA31" s="93"/>
-      <c r="BB31" s="93"/>
-      <c r="BC31" s="93"/>
-      <c r="BD31" s="93"/>
-      <c r="BE31" s="93"/>
-      <c r="BF31" s="94"/>
-      <c r="BG31" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH31" s="93"/>
-      <c r="BI31" s="93"/>
-      <c r="BJ31" s="93"/>
-      <c r="BK31" s="93"/>
-      <c r="BL31" s="93"/>
-      <c r="BM31" s="93"/>
-      <c r="BN31" s="93"/>
-      <c r="BO31" s="93"/>
-      <c r="BP31" s="93"/>
-      <c r="BQ31" s="93"/>
-      <c r="BR31" s="93"/>
-      <c r="BS31" s="93"/>
-      <c r="BT31" s="93"/>
-      <c r="BU31" s="94"/>
+      <c r="AN31" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="93"/>
+      <c r="AS31" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="92"/>
+      <c r="BB31" s="92"/>
+      <c r="BC31" s="92"/>
+      <c r="BD31" s="92"/>
+      <c r="BE31" s="92"/>
+      <c r="BF31" s="93"/>
+      <c r="BG31" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH31" s="92"/>
+      <c r="BI31" s="92"/>
+      <c r="BJ31" s="92"/>
+      <c r="BK31" s="92"/>
+      <c r="BL31" s="92"/>
+      <c r="BM31" s="92"/>
+      <c r="BN31" s="92"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BR31" s="92"/>
+      <c r="BS31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="93"/>
       <c r="BV31" s="45"/>
       <c r="BW31" s="35"/>
       <c r="BX31" s="35"/>
@@ -7155,7 +6819,7 @@
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="35"/>
@@ -7169,78 +6833,76 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="36"/>
-      <c r="P32" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="U32" s="91"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="91"/>
-      <c r="AD32" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="91"/>
+      <c r="P32" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="U32" s="90"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="90"/>
       <c r="AH32" s="45"/>
       <c r="AI32" s="35"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="45" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AL32" s="35"/>
       <c r="AM32" s="36"/>
-      <c r="AN32" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO32" s="93"/>
-      <c r="AP32" s="93"/>
-      <c r="AQ32" s="93"/>
-      <c r="AR32" s="94"/>
-      <c r="AS32" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT32" s="93"/>
-      <c r="AU32" s="93"/>
-      <c r="AV32" s="93"/>
-      <c r="AW32" s="93"/>
-      <c r="AX32" s="93"/>
-      <c r="AY32" s="93"/>
-      <c r="AZ32" s="93"/>
-      <c r="BA32" s="93"/>
-      <c r="BB32" s="93"/>
-      <c r="BC32" s="93"/>
-      <c r="BD32" s="93"/>
-      <c r="BE32" s="93"/>
-      <c r="BF32" s="94"/>
-      <c r="BG32" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH32" s="93"/>
-      <c r="BI32" s="93"/>
-      <c r="BJ32" s="93"/>
-      <c r="BK32" s="93"/>
-      <c r="BL32" s="93"/>
-      <c r="BM32" s="93"/>
-      <c r="BN32" s="93"/>
-      <c r="BO32" s="93"/>
-      <c r="BP32" s="93"/>
-      <c r="BQ32" s="93"/>
-      <c r="BR32" s="93"/>
-      <c r="BS32" s="93"/>
-      <c r="BT32" s="93"/>
-      <c r="BU32" s="94"/>
+      <c r="AN32" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="92"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="92"/>
+      <c r="AX32" s="92"/>
+      <c r="AY32" s="92"/>
+      <c r="AZ32" s="92"/>
+      <c r="BA32" s="92"/>
+      <c r="BB32" s="92"/>
+      <c r="BC32" s="92"/>
+      <c r="BD32" s="92"/>
+      <c r="BE32" s="92"/>
+      <c r="BF32" s="93"/>
+      <c r="BG32" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH32" s="92"/>
+      <c r="BI32" s="92"/>
+      <c r="BJ32" s="92"/>
+      <c r="BK32" s="92"/>
+      <c r="BL32" s="92"/>
+      <c r="BM32" s="92"/>
+      <c r="BN32" s="92"/>
+      <c r="BO32" s="92"/>
+      <c r="BP32" s="92"/>
+      <c r="BQ32" s="92"/>
+      <c r="BR32" s="92"/>
+      <c r="BS32" s="92"/>
+      <c r="BT32" s="92"/>
+      <c r="BU32" s="93"/>
       <c r="BV32" s="45"/>
       <c r="BW32" s="35"/>
       <c r="BX32" s="35"/>
@@ -7259,7 +6921,7 @@
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="35"/>
@@ -7273,78 +6935,78 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="36"/>
-      <c r="P33" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="90" t="s">
+      <c r="P33" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U33" s="91"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="90" t="s">
+      <c r="U33" s="90"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="91"/>
+      <c r="AE33" s="89"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="90"/>
       <c r="AH33" s="45"/>
       <c r="AI33" s="35"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL33" s="35"/>
       <c r="AM33" s="36"/>
-      <c r="AN33" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="93"/>
-      <c r="AQ33" s="93"/>
-      <c r="AR33" s="94"/>
-      <c r="AS33" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="93"/>
-      <c r="AV33" s="93"/>
-      <c r="AW33" s="93"/>
-      <c r="AX33" s="93"/>
-      <c r="AY33" s="93"/>
-      <c r="AZ33" s="93"/>
-      <c r="BA33" s="93"/>
-      <c r="BB33" s="93"/>
-      <c r="BC33" s="93"/>
-      <c r="BD33" s="93"/>
-      <c r="BE33" s="93"/>
-      <c r="BF33" s="94"/>
-      <c r="BG33" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH33" s="93"/>
-      <c r="BI33" s="93"/>
-      <c r="BJ33" s="93"/>
-      <c r="BK33" s="93"/>
-      <c r="BL33" s="93"/>
-      <c r="BM33" s="93"/>
-      <c r="BN33" s="93"/>
-      <c r="BO33" s="93"/>
-      <c r="BP33" s="93"/>
-      <c r="BQ33" s="93"/>
-      <c r="BR33" s="93"/>
-      <c r="BS33" s="93"/>
-      <c r="BT33" s="93"/>
-      <c r="BU33" s="94"/>
+      <c r="AN33" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO33" s="92"/>
+      <c r="AP33" s="92"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="93"/>
+      <c r="AS33" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="92"/>
+      <c r="AV33" s="92"/>
+      <c r="AW33" s="92"/>
+      <c r="AX33" s="92"/>
+      <c r="AY33" s="92"/>
+      <c r="AZ33" s="92"/>
+      <c r="BA33" s="92"/>
+      <c r="BB33" s="92"/>
+      <c r="BC33" s="92"/>
+      <c r="BD33" s="92"/>
+      <c r="BE33" s="92"/>
+      <c r="BF33" s="93"/>
+      <c r="BG33" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH33" s="92"/>
+      <c r="BI33" s="92"/>
+      <c r="BJ33" s="92"/>
+      <c r="BK33" s="92"/>
+      <c r="BL33" s="92"/>
+      <c r="BM33" s="92"/>
+      <c r="BN33" s="92"/>
+      <c r="BO33" s="92"/>
+      <c r="BP33" s="92"/>
+      <c r="BQ33" s="92"/>
+      <c r="BR33" s="92"/>
+      <c r="BS33" s="92"/>
+      <c r="BT33" s="92"/>
+      <c r="BU33" s="93"/>
       <c r="BV33" s="45"/>
       <c r="BW33" s="35"/>
       <c r="BX33" s="35"/>
@@ -7363,7 +7025,7 @@
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="35"/>
@@ -7377,78 +7039,78 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="90" t="s">
+      <c r="P34" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U34" s="91"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="90" t="s">
+      <c r="U34" s="90"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="91"/>
+      <c r="AE34" s="89"/>
+      <c r="AF34" s="89"/>
+      <c r="AG34" s="90"/>
       <c r="AH34" s="45"/>
       <c r="AI34" s="35"/>
       <c r="AJ34" s="36"/>
       <c r="AK34" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL34" s="35"/>
       <c r="AM34" s="36"/>
-      <c r="AN34" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
-      <c r="AQ34" s="93"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT34" s="93"/>
-      <c r="AU34" s="93"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="93"/>
-      <c r="AX34" s="93"/>
-      <c r="AY34" s="93"/>
-      <c r="AZ34" s="93"/>
-      <c r="BA34" s="93"/>
-      <c r="BB34" s="93"/>
-      <c r="BC34" s="93"/>
-      <c r="BD34" s="93"/>
-      <c r="BE34" s="93"/>
-      <c r="BF34" s="94"/>
-      <c r="BG34" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH34" s="93"/>
-      <c r="BI34" s="93"/>
-      <c r="BJ34" s="93"/>
-      <c r="BK34" s="93"/>
-      <c r="BL34" s="93"/>
-      <c r="BM34" s="93"/>
-      <c r="BN34" s="93"/>
-      <c r="BO34" s="93"/>
-      <c r="BP34" s="93"/>
-      <c r="BQ34" s="93"/>
-      <c r="BR34" s="93"/>
-      <c r="BS34" s="93"/>
-      <c r="BT34" s="93"/>
-      <c r="BU34" s="94"/>
+      <c r="AN34" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO34" s="92"/>
+      <c r="AP34" s="92"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="93"/>
+      <c r="AS34" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT34" s="92"/>
+      <c r="AU34" s="92"/>
+      <c r="AV34" s="92"/>
+      <c r="AW34" s="92"/>
+      <c r="AX34" s="92"/>
+      <c r="AY34" s="92"/>
+      <c r="AZ34" s="92"/>
+      <c r="BA34" s="92"/>
+      <c r="BB34" s="92"/>
+      <c r="BC34" s="92"/>
+      <c r="BD34" s="92"/>
+      <c r="BE34" s="92"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH34" s="92"/>
+      <c r="BI34" s="92"/>
+      <c r="BJ34" s="92"/>
+      <c r="BK34" s="92"/>
+      <c r="BL34" s="92"/>
+      <c r="BM34" s="92"/>
+      <c r="BN34" s="92"/>
+      <c r="BO34" s="92"/>
+      <c r="BP34" s="92"/>
+      <c r="BQ34" s="92"/>
+      <c r="BR34" s="92"/>
+      <c r="BS34" s="92"/>
+      <c r="BT34" s="92"/>
+      <c r="BU34" s="93"/>
       <c r="BV34" s="45"/>
       <c r="BW34" s="35"/>
       <c r="BX34" s="35"/>
@@ -7467,7 +7129,7 @@
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="35"/>
@@ -7481,78 +7143,78 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="90" t="s">
+      <c r="P35" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U35" s="91"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="91"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="90" t="s">
+      <c r="U35" s="90"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="91"/>
+      <c r="AE35" s="89"/>
+      <c r="AF35" s="89"/>
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="36"/>
       <c r="AK35" s="45" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="AL35" s="35"/>
       <c r="AM35" s="36"/>
-      <c r="AN35" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO35" s="93"/>
-      <c r="AP35" s="93"/>
-      <c r="AQ35" s="93"/>
-      <c r="AR35" s="94"/>
-      <c r="AS35" s="92" t="s">
+      <c r="AN35" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO35" s="92"/>
+      <c r="AP35" s="92"/>
+      <c r="AQ35" s="92"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="AT35" s="93"/>
-      <c r="AU35" s="93"/>
-      <c r="AV35" s="93"/>
-      <c r="AW35" s="93"/>
-      <c r="AX35" s="93"/>
-      <c r="AY35" s="93"/>
-      <c r="AZ35" s="93"/>
-      <c r="BA35" s="93"/>
-      <c r="BB35" s="93"/>
-      <c r="BC35" s="93"/>
-      <c r="BD35" s="93"/>
-      <c r="BE35" s="93"/>
-      <c r="BF35" s="94"/>
-      <c r="BG35" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH35" s="93"/>
-      <c r="BI35" s="93"/>
-      <c r="BJ35" s="93"/>
-      <c r="BK35" s="93"/>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="93"/>
-      <c r="BO35" s="93"/>
-      <c r="BP35" s="93"/>
-      <c r="BQ35" s="93"/>
-      <c r="BR35" s="93"/>
-      <c r="BS35" s="93"/>
-      <c r="BT35" s="93"/>
-      <c r="BU35" s="94"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="92"/>
+      <c r="AV35" s="92"/>
+      <c r="AW35" s="92"/>
+      <c r="AX35" s="92"/>
+      <c r="AY35" s="92"/>
+      <c r="AZ35" s="92"/>
+      <c r="BA35" s="92"/>
+      <c r="BB35" s="92"/>
+      <c r="BC35" s="92"/>
+      <c r="BD35" s="92"/>
+      <c r="BE35" s="92"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH35" s="92"/>
+      <c r="BI35" s="92"/>
+      <c r="BJ35" s="92"/>
+      <c r="BK35" s="92"/>
+      <c r="BL35" s="92"/>
+      <c r="BM35" s="92"/>
+      <c r="BN35" s="92"/>
+      <c r="BO35" s="92"/>
+      <c r="BP35" s="92"/>
+      <c r="BQ35" s="92"/>
+      <c r="BR35" s="92"/>
+      <c r="BS35" s="92"/>
+      <c r="BT35" s="92"/>
+      <c r="BU35" s="93"/>
       <c r="BV35" s="45"/>
       <c r="BW35" s="35"/>
       <c r="BX35" s="35"/>
@@ -7571,7 +7233,7 @@
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="35"/>
@@ -7585,76 +7247,78 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="90" t="s">
+      <c r="P36" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U36" s="91"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="91"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="98"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="91"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="36"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="88"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="88"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="88"/>
+      <c r="AE36" s="89"/>
+      <c r="AF36" s="89"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI36" s="89"/>
+      <c r="AJ36" s="90"/>
       <c r="AK36" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AL36" s="35"/>
       <c r="AM36" s="36"/>
-      <c r="AN36" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO36" s="93"/>
-      <c r="AP36" s="93"/>
-      <c r="AQ36" s="93"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT36" s="93"/>
-      <c r="AU36" s="93"/>
-      <c r="AV36" s="93"/>
-      <c r="AW36" s="93"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="93"/>
-      <c r="AZ36" s="93"/>
-      <c r="BA36" s="93"/>
-      <c r="BB36" s="93"/>
-      <c r="BC36" s="93"/>
-      <c r="BD36" s="93"/>
-      <c r="BE36" s="93"/>
-      <c r="BF36" s="94"/>
-      <c r="BG36" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH36" s="93"/>
-      <c r="BI36" s="93"/>
-      <c r="BJ36" s="93"/>
-      <c r="BK36" s="93"/>
-      <c r="BL36" s="93"/>
-      <c r="BM36" s="93"/>
-      <c r="BN36" s="93"/>
-      <c r="BO36" s="93"/>
-      <c r="BP36" s="93"/>
-      <c r="BQ36" s="93"/>
-      <c r="BR36" s="93"/>
-      <c r="BS36" s="93"/>
-      <c r="BT36" s="93"/>
-      <c r="BU36" s="94"/>
+      <c r="AN36" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO36" s="92"/>
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
+      <c r="AW36" s="92"/>
+      <c r="AX36" s="92"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="92"/>
+      <c r="BA36" s="92"/>
+      <c r="BB36" s="92"/>
+      <c r="BC36" s="92"/>
+      <c r="BD36" s="92"/>
+      <c r="BE36" s="92"/>
+      <c r="BF36" s="93"/>
+      <c r="BG36" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH36" s="92"/>
+      <c r="BI36" s="92"/>
+      <c r="BJ36" s="92"/>
+      <c r="BK36" s="92"/>
+      <c r="BL36" s="92"/>
+      <c r="BM36" s="92"/>
+      <c r="BN36" s="92"/>
+      <c r="BO36" s="92"/>
+      <c r="BP36" s="92"/>
+      <c r="BQ36" s="92"/>
+      <c r="BR36" s="92"/>
+      <c r="BS36" s="92"/>
+      <c r="BT36" s="92"/>
+      <c r="BU36" s="93"/>
       <c r="BV36" s="45"/>
       <c r="BW36" s="35"/>
       <c r="BX36" s="35"/>
@@ -7667,13 +7331,13 @@
       <c r="CE36" s="35"/>
       <c r="CF36" s="36"/>
     </row>
-    <row r="37" spans="1:84" ht="110.8" customHeight="1">
+    <row r="37" spans="1:84" ht="90" customHeight="1">
       <c r="A37" s="45">
         <v>29</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="45" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="35"/>
@@ -7687,28 +7351,28 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="90" t="s">
+      <c r="P37" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="U37" s="91"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="91"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="98"/>
-      <c r="AF37" s="98"/>
-      <c r="AG37" s="91"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="89"/>
+      <c r="AF37" s="89"/>
+      <c r="AG37" s="90"/>
       <c r="AH37" s="45"/>
       <c r="AI37" s="35"/>
       <c r="AJ37" s="36"/>
@@ -7717,46 +7381,46 @@
       </c>
       <c r="AL37" s="35"/>
       <c r="AM37" s="36"/>
-      <c r="AN37" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO37" s="132"/>
-      <c r="AP37" s="132"/>
-      <c r="AQ37" s="132"/>
-      <c r="AR37" s="148"/>
-      <c r="AS37" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT37" s="93"/>
-      <c r="AU37" s="93"/>
-      <c r="AV37" s="93"/>
-      <c r="AW37" s="93"/>
-      <c r="AX37" s="93"/>
-      <c r="AY37" s="93"/>
-      <c r="AZ37" s="93"/>
-      <c r="BA37" s="93"/>
-      <c r="BB37" s="93"/>
-      <c r="BC37" s="93"/>
-      <c r="BD37" s="93"/>
-      <c r="BE37" s="93"/>
-      <c r="BF37" s="94"/>
-      <c r="BG37" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH37" s="112"/>
-      <c r="BI37" s="112"/>
-      <c r="BJ37" s="112"/>
-      <c r="BK37" s="112"/>
-      <c r="BL37" s="112"/>
-      <c r="BM37" s="112"/>
-      <c r="BN37" s="112"/>
-      <c r="BO37" s="112"/>
-      <c r="BP37" s="112"/>
-      <c r="BQ37" s="112"/>
-      <c r="BR37" s="112"/>
-      <c r="BS37" s="112"/>
-      <c r="BT37" s="112"/>
-      <c r="BU37" s="113"/>
+      <c r="AN37" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO37" s="92"/>
+      <c r="AP37" s="92"/>
+      <c r="AQ37" s="92"/>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT37" s="92"/>
+      <c r="AU37" s="92"/>
+      <c r="AV37" s="92"/>
+      <c r="AW37" s="92"/>
+      <c r="AX37" s="92"/>
+      <c r="AY37" s="92"/>
+      <c r="AZ37" s="92"/>
+      <c r="BA37" s="92"/>
+      <c r="BB37" s="92"/>
+      <c r="BC37" s="92"/>
+      <c r="BD37" s="92"/>
+      <c r="BE37" s="92"/>
+      <c r="BF37" s="93"/>
+      <c r="BG37" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH37" s="92"/>
+      <c r="BI37" s="92"/>
+      <c r="BJ37" s="92"/>
+      <c r="BK37" s="92"/>
+      <c r="BL37" s="92"/>
+      <c r="BM37" s="92"/>
+      <c r="BN37" s="92"/>
+      <c r="BO37" s="92"/>
+      <c r="BP37" s="92"/>
+      <c r="BQ37" s="92"/>
+      <c r="BR37" s="92"/>
+      <c r="BS37" s="92"/>
+      <c r="BT37" s="92"/>
+      <c r="BU37" s="93"/>
       <c r="BV37" s="45"/>
       <c r="BW37" s="35"/>
       <c r="BX37" s="35"/>
@@ -7769,13 +7433,13 @@
       <c r="CE37" s="35"/>
       <c r="CF37" s="36"/>
     </row>
-    <row r="38" spans="1:84" ht="110.8" customHeight="1">
+    <row r="38" spans="1:84" ht="110.85" customHeight="1">
       <c r="A38" s="45">
         <v>30</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="35"/>
@@ -7789,28 +7453,28 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="90" t="s">
+      <c r="P38" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="90" t="s">
+      <c r="Q38" s="90"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U38" s="91"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="91"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="91"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="89"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="90"/>
       <c r="AH38" s="45"/>
       <c r="AI38" s="35"/>
       <c r="AJ38" s="36"/>
@@ -7819,46 +7483,46 @@
       </c>
       <c r="AL38" s="35"/>
       <c r="AM38" s="36"/>
-      <c r="AN38" s="147" t="s">
+      <c r="AN38" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO38" s="97"/>
+      <c r="AP38" s="97"/>
+      <c r="AQ38" s="97"/>
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT38" s="92"/>
+      <c r="AU38" s="92"/>
+      <c r="AV38" s="92"/>
+      <c r="AW38" s="92"/>
+      <c r="AX38" s="92"/>
+      <c r="AY38" s="92"/>
+      <c r="AZ38" s="92"/>
+      <c r="BA38" s="92"/>
+      <c r="BB38" s="92"/>
+      <c r="BC38" s="92"/>
+      <c r="BD38" s="92"/>
+      <c r="BE38" s="92"/>
+      <c r="BF38" s="93"/>
+      <c r="BG38" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="AO38" s="132"/>
-      <c r="AP38" s="132"/>
-      <c r="AQ38" s="132"/>
-      <c r="AR38" s="148"/>
-      <c r="AS38" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT38" s="93"/>
-      <c r="AU38" s="93"/>
-      <c r="AV38" s="93"/>
-      <c r="AW38" s="93"/>
-      <c r="AX38" s="93"/>
-      <c r="AY38" s="93"/>
-      <c r="AZ38" s="93"/>
-      <c r="BA38" s="93"/>
-      <c r="BB38" s="93"/>
-      <c r="BC38" s="93"/>
-      <c r="BD38" s="93"/>
-      <c r="BE38" s="93"/>
-      <c r="BF38" s="94"/>
-      <c r="BG38" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH38" s="112"/>
-      <c r="BI38" s="112"/>
-      <c r="BJ38" s="112"/>
-      <c r="BK38" s="112"/>
-      <c r="BL38" s="112"/>
-      <c r="BM38" s="112"/>
-      <c r="BN38" s="112"/>
-      <c r="BO38" s="112"/>
-      <c r="BP38" s="112"/>
-      <c r="BQ38" s="112"/>
-      <c r="BR38" s="112"/>
-      <c r="BS38" s="112"/>
-      <c r="BT38" s="112"/>
-      <c r="BU38" s="113"/>
+      <c r="BH38" s="94"/>
+      <c r="BI38" s="94"/>
+      <c r="BJ38" s="94"/>
+      <c r="BK38" s="94"/>
+      <c r="BL38" s="94"/>
+      <c r="BM38" s="94"/>
+      <c r="BN38" s="94"/>
+      <c r="BO38" s="94"/>
+      <c r="BP38" s="94"/>
+      <c r="BQ38" s="94"/>
+      <c r="BR38" s="94"/>
+      <c r="BS38" s="94"/>
+      <c r="BT38" s="94"/>
+      <c r="BU38" s="95"/>
       <c r="BV38" s="45"/>
       <c r="BW38" s="35"/>
       <c r="BX38" s="35"/>
@@ -7871,13 +7535,13 @@
       <c r="CE38" s="35"/>
       <c r="CF38" s="36"/>
     </row>
-    <row r="39" spans="1:84" ht="110.8" customHeight="1">
+    <row r="39" spans="1:84" ht="110.85" customHeight="1">
       <c r="A39" s="45">
         <v>31</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="45" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D39" s="46"/>
       <c r="E39" s="35"/>
@@ -7891,28 +7555,28 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="90" t="s">
+      <c r="P39" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="90" t="s">
+      <c r="Q39" s="90"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U39" s="91"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="44"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="89"/>
+      <c r="AF39" s="89"/>
+      <c r="AG39" s="90"/>
       <c r="AH39" s="45"/>
       <c r="AI39" s="35"/>
       <c r="AJ39" s="36"/>
@@ -7921,44 +7585,46 @@
       </c>
       <c r="AL39" s="35"/>
       <c r="AM39" s="36"/>
-      <c r="AN39" s="70"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="69"/>
-      <c r="AQ39" s="69"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT39" s="93"/>
-      <c r="AU39" s="93"/>
-      <c r="AV39" s="93"/>
-      <c r="AW39" s="93"/>
-      <c r="AX39" s="93"/>
-      <c r="AY39" s="93"/>
-      <c r="AZ39" s="93"/>
-      <c r="BA39" s="93"/>
-      <c r="BB39" s="93"/>
-      <c r="BC39" s="93"/>
-      <c r="BD39" s="93"/>
-      <c r="BE39" s="93"/>
-      <c r="BF39" s="94"/>
-      <c r="BG39" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH39" s="93"/>
-      <c r="BI39" s="93"/>
-      <c r="BJ39" s="93"/>
-      <c r="BK39" s="93"/>
-      <c r="BL39" s="93"/>
-      <c r="BM39" s="93"/>
-      <c r="BN39" s="93"/>
-      <c r="BO39" s="93"/>
-      <c r="BP39" s="93"/>
-      <c r="BQ39" s="93"/>
-      <c r="BR39" s="93"/>
-      <c r="BS39" s="93"/>
-      <c r="BT39" s="93"/>
-      <c r="BU39" s="94"/>
+      <c r="AN39" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO39" s="97"/>
+      <c r="AP39" s="97"/>
+      <c r="AQ39" s="97"/>
+      <c r="AR39" s="98"/>
+      <c r="AS39" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT39" s="92"/>
+      <c r="AU39" s="92"/>
+      <c r="AV39" s="92"/>
+      <c r="AW39" s="92"/>
+      <c r="AX39" s="92"/>
+      <c r="AY39" s="92"/>
+      <c r="AZ39" s="92"/>
+      <c r="BA39" s="92"/>
+      <c r="BB39" s="92"/>
+      <c r="BC39" s="92"/>
+      <c r="BD39" s="92"/>
+      <c r="BE39" s="92"/>
+      <c r="BF39" s="93"/>
+      <c r="BG39" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH39" s="94"/>
+      <c r="BI39" s="94"/>
+      <c r="BJ39" s="94"/>
+      <c r="BK39" s="94"/>
+      <c r="BL39" s="94"/>
+      <c r="BM39" s="94"/>
+      <c r="BN39" s="94"/>
+      <c r="BO39" s="94"/>
+      <c r="BP39" s="94"/>
+      <c r="BQ39" s="94"/>
+      <c r="BR39" s="94"/>
+      <c r="BS39" s="94"/>
+      <c r="BT39" s="94"/>
+      <c r="BU39" s="95"/>
       <c r="BV39" s="45"/>
       <c r="BW39" s="35"/>
       <c r="BX39" s="35"/>
@@ -7971,13 +7637,13 @@
       <c r="CE39" s="35"/>
       <c r="CF39" s="36"/>
     </row>
-    <row r="40" spans="1:84" ht="110.8" customHeight="1">
+    <row r="40" spans="1:84" ht="110.85" customHeight="1">
       <c r="A40" s="45">
         <v>32</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="45" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D40" s="46"/>
       <c r="E40" s="35"/>
@@ -7991,28 +7657,28 @@
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="90" t="s">
+      <c r="P40" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="90" t="s">
+      <c r="Q40" s="90"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="U40" s="91"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="91"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="98"/>
-      <c r="AF40" s="98"/>
-      <c r="AG40" s="91"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="44"/>
       <c r="AH40" s="45"/>
       <c r="AI40" s="35"/>
       <c r="AJ40" s="36"/>
@@ -8021,44 +7687,44 @@
       </c>
       <c r="AL40" s="35"/>
       <c r="AM40" s="36"/>
-      <c r="AN40" s="147"/>
-      <c r="AO40" s="132"/>
-      <c r="AP40" s="132"/>
-      <c r="AQ40" s="132"/>
-      <c r="AR40" s="148"/>
-      <c r="AS40" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT40" s="93"/>
-      <c r="AU40" s="93"/>
-      <c r="AV40" s="93"/>
-      <c r="AW40" s="93"/>
-      <c r="AX40" s="93"/>
-      <c r="AY40" s="93"/>
-      <c r="AZ40" s="93"/>
-      <c r="BA40" s="93"/>
-      <c r="BB40" s="93"/>
-      <c r="BC40" s="93"/>
-      <c r="BD40" s="93"/>
-      <c r="BE40" s="93"/>
-      <c r="BF40" s="94"/>
-      <c r="BG40" s="92" t="s">
+      <c r="AN40" s="68"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="92"/>
+      <c r="AV40" s="92"/>
+      <c r="AW40" s="92"/>
+      <c r="AX40" s="92"/>
+      <c r="AY40" s="92"/>
+      <c r="AZ40" s="92"/>
+      <c r="BA40" s="92"/>
+      <c r="BB40" s="92"/>
+      <c r="BC40" s="92"/>
+      <c r="BD40" s="92"/>
+      <c r="BE40" s="92"/>
+      <c r="BF40" s="93"/>
+      <c r="BG40" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="BH40" s="112"/>
-      <c r="BI40" s="112"/>
-      <c r="BJ40" s="112"/>
-      <c r="BK40" s="112"/>
-      <c r="BL40" s="112"/>
-      <c r="BM40" s="112"/>
-      <c r="BN40" s="112"/>
-      <c r="BO40" s="112"/>
-      <c r="BP40" s="112"/>
-      <c r="BQ40" s="112"/>
-      <c r="BR40" s="112"/>
-      <c r="BS40" s="112"/>
-      <c r="BT40" s="112"/>
-      <c r="BU40" s="113"/>
+      <c r="BH40" s="92"/>
+      <c r="BI40" s="92"/>
+      <c r="BJ40" s="92"/>
+      <c r="BK40" s="92"/>
+      <c r="BL40" s="92"/>
+      <c r="BM40" s="92"/>
+      <c r="BN40" s="92"/>
+      <c r="BO40" s="92"/>
+      <c r="BP40" s="92"/>
+      <c r="BQ40" s="92"/>
+      <c r="BR40" s="92"/>
+      <c r="BS40" s="92"/>
+      <c r="BT40" s="92"/>
+      <c r="BU40" s="93"/>
       <c r="BV40" s="45"/>
       <c r="BW40" s="35"/>
       <c r="BX40" s="35"/>
@@ -8071,72 +7737,109 @@
       <c r="CE40" s="35"/>
       <c r="CF40" s="36"/>
     </row>
+    <row r="41" spans="1:84" ht="110.85" customHeight="1">
+      <c r="A41" s="45">
+        <v>33</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="U41" s="90"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="89"/>
+      <c r="AF41" s="89"/>
+      <c r="AG41" s="90"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="96"/>
+      <c r="AO41" s="97"/>
+      <c r="AP41" s="97"/>
+      <c r="AQ41" s="97"/>
+      <c r="AR41" s="98"/>
+      <c r="AS41" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="92"/>
+      <c r="AV41" s="92"/>
+      <c r="AW41" s="92"/>
+      <c r="AX41" s="92"/>
+      <c r="AY41" s="92"/>
+      <c r="AZ41" s="92"/>
+      <c r="BA41" s="92"/>
+      <c r="BB41" s="92"/>
+      <c r="BC41" s="92"/>
+      <c r="BD41" s="92"/>
+      <c r="BE41" s="92"/>
+      <c r="BF41" s="93"/>
+      <c r="BG41" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH41" s="94"/>
+      <c r="BI41" s="94"/>
+      <c r="BJ41" s="94"/>
+      <c r="BK41" s="94"/>
+      <c r="BL41" s="94"/>
+      <c r="BM41" s="94"/>
+      <c r="BN41" s="94"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="94"/>
+      <c r="BQ41" s="94"/>
+      <c r="BR41" s="94"/>
+      <c r="BS41" s="94"/>
+      <c r="BT41" s="94"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="45"/>
+      <c r="BW41" s="35"/>
+      <c r="BX41" s="35"/>
+      <c r="BY41" s="36"/>
+      <c r="BZ41" s="45"/>
+      <c r="CA41" s="35"/>
+      <c r="CB41" s="36"/>
+      <c r="CC41" s="45"/>
+      <c r="CD41" s="35"/>
+      <c r="CE41" s="35"/>
+      <c r="CF41" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="361">
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:BF30"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AN35:AR35"/>
-    <mergeCell ref="AS35:BF35"/>
-    <mergeCell ref="BG35:BU35"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BG13:BU13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:BF20"/>
-    <mergeCell ref="BG20:BU20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="BG31:BU31"/>
-    <mergeCell ref="AS33:BF33"/>
-    <mergeCell ref="BG34:BU34"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AG32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:BF32"/>
-    <mergeCell ref="BG32:BU32"/>
-    <mergeCell ref="BG33:BU33"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:BF29"/>
-    <mergeCell ref="BG29:BU29"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="AS40:BF40"/>
-    <mergeCell ref="BG40:BU40"/>
-    <mergeCell ref="BG39:BU39"/>
-    <mergeCell ref="AS39:BF39"/>
+  <mergeCells count="373">
+    <mergeCell ref="BG26:BU26"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
@@ -8146,237 +7849,41 @@
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="AD26:AG26"/>
     <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:BF34"/>
     <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
     <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AG40"/>
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="BG36:BU36"/>
-    <mergeCell ref="AS37:BF37"/>
-    <mergeCell ref="AN37:AR37"/>
-    <mergeCell ref="BG37:BU37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AN38:AR38"/>
-    <mergeCell ref="AS38:BF38"/>
-    <mergeCell ref="BG38:BU38"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="AN36:AR36"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS36:BF36"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:BF17"/>
-    <mergeCell ref="BG17:BU17"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:BF21"/>
-    <mergeCell ref="BG21:BU21"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:BF18"/>
-    <mergeCell ref="BG18:BU18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:BF19"/>
-    <mergeCell ref="BG19:BU19"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="BG14:BU14"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:BF15"/>
-    <mergeCell ref="BG15:BU15"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:BF16"/>
-    <mergeCell ref="BG16:BU16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="A2:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="Y4:AZ4"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:BF31"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="AS10:BF10"/>
+    <mergeCell ref="BG10:BU10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AS11:BF11"/>
+    <mergeCell ref="BG11:BU11"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:BF12"/>
+    <mergeCell ref="BG12:BU12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
     <mergeCell ref="CC7:CF8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
@@ -8399,81 +7906,351 @@
     <mergeCell ref="AN9:AR9"/>
     <mergeCell ref="AS9:BF9"/>
     <mergeCell ref="BG9:BU9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A2:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:BF14"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:BF32"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:BF16"/>
+    <mergeCell ref="BG16:BU16"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="BG21:BU21"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:BF18"/>
+    <mergeCell ref="BG18:BU18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:BF19"/>
+    <mergeCell ref="BG19:BU19"/>
+    <mergeCell ref="AS37:BF37"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:BF17"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:BF21"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="BG37:BU37"/>
+    <mergeCell ref="AS38:BF38"/>
+    <mergeCell ref="AN38:AR38"/>
+    <mergeCell ref="BG38:BU38"/>
     <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
     <mergeCell ref="T39:U39"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="AS10:BF10"/>
-    <mergeCell ref="BG10:BU10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AS11:BF11"/>
-    <mergeCell ref="BG11:BU11"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:BF12"/>
-    <mergeCell ref="BG12:BU12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="AN39:AR39"/>
+    <mergeCell ref="AS39:BF39"/>
+    <mergeCell ref="BG39:BU39"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="AN37:AR37"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD41:AG41"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:BF41"/>
+    <mergeCell ref="BG41:BU41"/>
+    <mergeCell ref="BG40:BU40"/>
+    <mergeCell ref="AS40:BF40"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AS35:BF35"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:BF33"/>
+    <mergeCell ref="BG33:BU33"/>
+    <mergeCell ref="BG34:BU34"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:BF30"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="AS13:BF13"/>
+    <mergeCell ref="BG13:BU13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:BF20"/>
+    <mergeCell ref="BG20:BU20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="BG17:BU17"/>
+    <mergeCell ref="BG14:BU14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:BF15"/>
+    <mergeCell ref="BG15:BU15"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:BF31"/>
+    <mergeCell ref="BG31:BU31"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AN36:AR36"/>
+    <mergeCell ref="AS36:BF36"/>
+    <mergeCell ref="BG36:BU36"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="BG32:BU32"/>
+    <mergeCell ref="AS34:BF34"/>
+    <mergeCell ref="BG35:BU35"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="55" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="55" customWidth="1"/>
-    <col min="5" max="7" width="8.58203125" style="55"/>
-    <col min="8" max="8" width="18.33203125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="55"/>
-    <col min="10" max="10" width="11.58203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" style="55" customWidth="1"/>
+    <col min="5" max="7" width="8.59765625" style="55"/>
+    <col min="8" max="8" width="18.296875" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" style="55"/>
+    <col min="10" max="10" width="11.59765625" style="55" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="55" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.58203125" style="55" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="55" customWidth="1"/>
     <col min="14" max="14" width="15" style="55" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="55" customWidth="1"/>
-    <col min="16" max="16" width="21.08203125" style="55" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="55" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" style="55" customWidth="1"/>
+    <col min="16" max="16" width="21.09765625" style="55" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" style="55" customWidth="1"/>
     <col min="18" max="18" width="14" style="55" customWidth="1"/>
-    <col min="19" max="19" width="13.08203125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="18.08203125" style="55" customWidth="1"/>
-    <col min="21" max="16384" width="8.58203125" style="55"/>
+    <col min="19" max="19" width="13.09765625" style="55" customWidth="1"/>
+    <col min="20" max="20" width="18.09765625" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="8.59765625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.55" customHeight="1">
+    <row r="1" spans="1:20" ht="28.65" customHeight="1">
       <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
@@ -8482,7 +8259,7 @@
       <c r="A2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -8491,13 +8268,13 @@
       <c r="D2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="63" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="63" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="61" t="s">
@@ -8524,7 +8301,7 @@
       <c r="O2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="63" t="s">
         <v>79</v>
       </c>
       <c r="Q2" s="61" t="s">
@@ -8540,22 +8317,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="24.8" customHeight="1">
+    <row r="3" spans="1:20" ht="24.85" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>117</v>
+        <v>149</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>183</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="48"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="64" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="62"/>
@@ -8566,23 +8343,23 @@
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
-      <c r="P3" s="66" t="s">
-        <v>134</v>
+      <c r="P3" s="64" t="s">
+        <v>131</v>
       </c>
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
     </row>
-    <row r="4" spans="1:20" ht="27.6" customHeight="1">
-      <c r="B4" s="67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="31.35" customHeight="1"/>
-    <row r="8" spans="1:20" ht="23.85" customHeight="1">
+    <row r="4" spans="1:20" ht="27.55" customHeight="1">
+      <c r="B4" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="31.3" customHeight="1"/>
+    <row r="8" spans="1:20" ht="23.95" customHeight="1">
       <c r="B8" s="55" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="25.4" customHeight="1">
@@ -8590,100 +8367,100 @@
         <v>87</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.7" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:20" ht="18.7" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.7" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27.6" customHeight="1">
-      <c r="B22" s="55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33.799999999999997" customHeight="1">
-      <c r="A23" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.55" customHeight="1">
+      <c r="B18" s="55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33.85" customHeight="1">
+      <c r="A19" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.2" customHeight="1">
-      <c r="A24" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.2" customHeight="1">
-      <c r="A25" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.2" customHeight="1">
-      <c r="A26" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="58">
+      <c r="B19" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.25" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.25" customHeight="1">
+      <c r="A21" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.25" customHeight="1">
+      <c r="A22" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>120</v>
+      <c r="C22" s="48" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8691,13 +8468,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18.7"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75"/>
   <cols>
-    <col min="1" max="16384" width="8.58203125" style="47"/>
+    <col min="1" max="16384" width="8.59765625" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -8715,7 +8492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5">
+    <row r="6" spans="1:2" ht="46.75">
       <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
@@ -8770,7 +8547,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8834,7 +8611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23.4">
+    <row r="44" spans="1:2" ht="22.6">
       <c r="B44" s="54"/>
     </row>
     <row r="45" spans="1:2">
